--- a/meta/api/BlancoApiSample.xlsx
+++ b/meta/api/BlancoApiSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorTs/meta/api/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED93A97-0D1E-BE42-88DD-1D2E791E8376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12526D5F-5A6F-D44A-9B75-CC9A7A64B979}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="460" windowWidth="21420" windowHeight="17820" tabRatio="860" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12360" yWindow="1380" windowWidth="21420" windowHeight="17820" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="225">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -2256,6 +2256,68 @@
   </si>
   <si>
     <t>nullable</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リクエストヘッダ情報実装クラス(Kt)</t>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ジョウホウ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">ジッソウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レスポンスヘッダ情報実装クラス(Kt)</t>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ジョウホウ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">ジッソウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※ CommonRequest#info の実装クラスを指定します。infoフィールドが存在しない場合は無視されます。</t>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">ジッソウクラス </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">ソンザイ </t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t xml:space="preserve">バアイハ </t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t xml:space="preserve">ムシサレマス。 </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※ CommonResponse#info の実装クラスを指定します。infoフィールドが存在しない場合は無視されます。</t>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">ジッソウクラス </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">ソンザイ </t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t xml:space="preserve">バアイハ </t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t xml:space="preserve">ムシサレマス。 </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>blanco.restgenerator.valueobject.BusinessApiRequestHeader</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3135,7 +3197,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3384,94 +3446,10 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3483,6 +3461,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3493,6 +3474,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3513,10 +3500,91 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3535,6 +3603,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3544,19 +3618,10 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4103,10 +4168,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O66"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -4129,7 +4194,7 @@
     <col min="16" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19">
+    <row r="1" spans="1:8" ht="19">
       <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
@@ -4138,294 +4203,288 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="136" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="174" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="136"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
       <c r="F5" s="55"/>
       <c r="G5" s="55"/>
       <c r="H5" s="96"/>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="190" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="191"/>
-      <c r="C6" s="192"/>
-      <c r="D6" s="134" t="s">
+      <c r="B6" s="172"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="178" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="134"/>
+      <c r="E6" s="178"/>
       <c r="F6" s="55"/>
       <c r="G6" s="55"/>
       <c r="H6" s="96"/>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="136" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="174" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="134" t="s">
+      <c r="B7" s="174"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="178" t="s">
         <v>175</v>
       </c>
-      <c r="E7" s="134"/>
+      <c r="E7" s="178"/>
       <c r="F7" s="55"/>
       <c r="G7" s="55"/>
       <c r="H7" s="96"/>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="136" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="134" t="s">
+      <c r="B8" s="174"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="178" t="s">
         <v>165</v>
       </c>
-      <c r="E8" s="134"/>
+      <c r="E8" s="178"/>
       <c r="F8" s="96"/>
       <c r="G8" s="96"/>
       <c r="H8" s="96"/>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="136" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="136"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="134" t="s">
+      <c r="B9" s="174"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="178" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="134"/>
+      <c r="E9" s="178"/>
       <c r="F9" s="96"/>
       <c r="G9" s="96"/>
       <c r="H9" s="96"/>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="136" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="136"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
+      <c r="B10" s="174"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="178"/>
       <c r="F10" s="96"/>
       <c r="G10" s="96"/>
       <c r="H10" s="96"/>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="136" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="174" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="136"/>
-      <c r="C11" s="136"/>
-      <c r="D11" s="134" t="s">
+      <c r="B11" s="174"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="178" t="s">
         <v>167</v>
       </c>
-      <c r="E11" s="134"/>
+      <c r="E11" s="178"/>
       <c r="F11" s="96"/>
       <c r="G11" s="96"/>
       <c r="H11" s="96"/>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="144" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="139" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="144"/>
-      <c r="C12" s="144"/>
-      <c r="D12" s="135" t="s">
+      <c r="B12" s="139"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="179" t="s">
         <v>197</v>
       </c>
-      <c r="E12" s="135"/>
+      <c r="E12" s="179"/>
       <c r="F12" s="96" t="s">
         <v>198</v>
       </c>
       <c r="G12" s="54"/>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="144" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="139" t="s">
         <v>199</v>
       </c>
-      <c r="B13" s="144"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="135" t="s">
+      <c r="B13" s="139"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="179" t="s">
         <v>200</v>
       </c>
-      <c r="E13" s="135"/>
+      <c r="E13" s="179"/>
       <c r="F13" s="54"/>
       <c r="G13" s="54"/>
       <c r="H13" s="96"/>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="141" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" s="139" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="139"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="193" t="s">
+        <v>224</v>
+      </c>
+      <c r="E14" s="179"/>
+      <c r="F14" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="139" t="s">
+        <v>221</v>
+      </c>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="193"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="175" t="s">
         <v>143</v>
       </c>
-      <c r="B14" s="142"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="115"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="167" t="s">
+      <c r="B16" s="176"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="115"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="140" t="s">
         <v>201</v>
       </c>
-      <c r="B15" s="168"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="101" t="s">
+      <c r="B17" s="141"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E17" t="s">
         <v>202</v>
       </c>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="138" t="s">
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="168" t="s">
         <v>210</v>
       </c>
-      <c r="B17" s="139"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="140"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="102" t="s">
+      <c r="B19" s="169"/>
+      <c r="C19" s="169"/>
+      <c r="D19" s="169"/>
+      <c r="E19" s="169"/>
+      <c r="F19" s="169"/>
+      <c r="G19" s="170"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="102" t="s">
         <v>203</v>
       </c>
-      <c r="B18" s="111"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="106"/>
-      <c r="L18" s="106"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="99" t="s">
+      <c r="B20" s="111"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="106"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="114"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="107"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="99" t="s">
+      <c r="B21" s="114"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="107"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="99" t="s">
         <v>204</v>
       </c>
-      <c r="B20" s="114"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="110"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="137" t="s">
+      <c r="B22" s="114"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="110"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="167" t="s">
         <v>211</v>
       </c>
-      <c r="B22" s="137"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="137"/>
-      <c r="G22" s="137"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="116" t="s">
+      <c r="B24" s="167"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="171" t="s">
+      <c r="B25" s="146" t="s">
         <v>205</v>
       </c>
-      <c r="C23" s="172"/>
-      <c r="D23" s="172"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="172"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="106"/>
-      <c r="N23" s="112"/>
-      <c r="O23" s="112"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="117"/>
-      <c r="B24" s="155"/>
-      <c r="C24" s="155"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="155"/>
-      <c r="G24" s="155"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="113"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="118"/>
-      <c r="B25" s="157"/>
-      <c r="C25" s="157"/>
-      <c r="D25" s="157"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="113"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="106"/>
+      <c r="N25" s="112"/>
+      <c r="O25" s="112"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="119"/>
-      <c r="B26" s="159"/>
-      <c r="C26" s="159"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
+      <c r="A26" s="117"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
       <c r="H26" s="113"/>
       <c r="I26" s="113"/>
       <c r="J26" s="113"/>
@@ -4435,83 +4494,83 @@
       <c r="O26"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="C27"/>
+      <c r="A27" s="118"/>
+      <c r="B27" s="155"/>
+      <c r="C27" s="155"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="113"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="174" t="s">
+      <c r="A28" s="119"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="113"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="149" t="s">
         <v>212</v>
       </c>
-      <c r="B28" s="175"/>
-      <c r="C28" s="175"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="176"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="116" t="s">
+      <c r="B30" s="150"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="151"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="151" t="s">
+      <c r="B31" s="160" t="s">
         <v>206</v>
       </c>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="106"/>
-      <c r="N29" s="112"/>
-      <c r="O29" s="112"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="117">
+      <c r="C31" s="160"/>
+      <c r="D31" s="160"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="106"/>
+      <c r="J31" s="106"/>
+      <c r="K31" s="106"/>
+      <c r="L31" s="106"/>
+      <c r="N31" s="112"/>
+      <c r="O31" s="112"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="117">
         <v>1</v>
       </c>
-      <c r="B30" s="152" t="s">
+      <c r="B32" s="161" t="s">
         <v>207</v>
       </c>
-      <c r="C30" s="152"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="152"/>
-      <c r="G30" s="152"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="113"/>
-      <c r="J30" s="113"/>
-      <c r="K30" s="113"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="118"/>
-      <c r="B31" s="153"/>
-      <c r="C31" s="153"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="153"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="153"/>
-      <c r="H31" s="113"/>
-      <c r="I31" s="113"/>
-      <c r="J31" s="113"/>
-      <c r="K31" s="113"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="119"/>
-      <c r="B32" s="154"/>
-      <c r="C32" s="154"/>
-      <c r="D32" s="154"/>
-      <c r="E32" s="154"/>
-      <c r="F32" s="154"/>
-      <c r="G32" s="154"/>
+      <c r="C32" s="161"/>
+      <c r="D32" s="161"/>
+      <c r="E32" s="161"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="161"/>
       <c r="H32" s="113"/>
       <c r="I32" s="113"/>
       <c r="J32" s="113"/>
@@ -4521,91 +4580,91 @@
       <c r="O32"/>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
+      <c r="A33" s="118"/>
+      <c r="B33" s="162"/>
+      <c r="C33" s="162"/>
+      <c r="D33" s="162"/>
+      <c r="E33" s="162"/>
+      <c r="F33" s="162"/>
+      <c r="G33" s="162"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="113"/>
       <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="174" t="s">
+      <c r="A34" s="119"/>
+      <c r="B34" s="163"/>
+      <c r="C34" s="163"/>
+      <c r="D34" s="163"/>
+      <c r="E34" s="163"/>
+      <c r="F34" s="163"/>
+      <c r="G34" s="163"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="113"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="149" t="s">
         <v>213</v>
       </c>
-      <c r="B34" s="175"/>
-      <c r="C34" s="175"/>
-      <c r="D34" s="175"/>
-      <c r="E34" s="175"/>
-      <c r="F34" s="175"/>
-      <c r="G34" s="176"/>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="116" t="s">
+      <c r="B36" s="150"/>
+      <c r="C36" s="150"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="151"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="151" t="s">
+      <c r="B37" s="160" t="s">
         <v>208</v>
       </c>
-      <c r="C35" s="151"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
-      <c r="K35" s="106"/>
-      <c r="L35" s="106"/>
-      <c r="N35" s="112"/>
-      <c r="O35" s="112"/>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="117"/>
-      <c r="B36" s="155"/>
-      <c r="C36" s="155"/>
-      <c r="D36" s="155"/>
-      <c r="E36" s="155"/>
-      <c r="F36" s="155"/>
-      <c r="G36" s="156"/>
-      <c r="H36" s="113"/>
-      <c r="I36" s="113"/>
-      <c r="J36" s="113"/>
-      <c r="K36" s="113"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="118"/>
-      <c r="B37" s="157"/>
-      <c r="C37" s="157"/>
-      <c r="D37" s="157"/>
-      <c r="E37" s="157"/>
-      <c r="F37" s="157"/>
-      <c r="G37" s="158"/>
-      <c r="H37" s="113"/>
-      <c r="I37" s="113"/>
-      <c r="J37" s="113"/>
-      <c r="K37" s="113"/>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37"/>
+      <c r="C37" s="160"/>
+      <c r="D37" s="160"/>
+      <c r="E37" s="160"/>
+      <c r="F37" s="160"/>
+      <c r="G37" s="160"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="106"/>
+      <c r="K37" s="106"/>
+      <c r="L37" s="106"/>
+      <c r="N37" s="112"/>
+      <c r="O37" s="112"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="119"/>
-      <c r="B38" s="159"/>
-      <c r="C38" s="159"/>
-      <c r="D38" s="159"/>
-      <c r="E38" s="159"/>
-      <c r="F38" s="159"/>
-      <c r="G38" s="160"/>
+      <c r="A38" s="117"/>
+      <c r="B38" s="154"/>
+      <c r="C38" s="154"/>
+      <c r="D38" s="154"/>
+      <c r="E38" s="154"/>
+      <c r="F38" s="154"/>
+      <c r="G38" s="164"/>
       <c r="H38" s="113"/>
       <c r="I38" s="113"/>
       <c r="J38" s="113"/>
@@ -4615,337 +4674,373 @@
       <c r="O38"/>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
+      <c r="A39" s="118"/>
+      <c r="B39" s="155"/>
+      <c r="C39" s="155"/>
+      <c r="D39" s="155"/>
+      <c r="E39" s="155"/>
+      <c r="F39" s="155"/>
+      <c r="G39" s="165"/>
+      <c r="H39" s="113"/>
+      <c r="I39" s="113"/>
+      <c r="J39" s="113"/>
+      <c r="K39" s="113"/>
       <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="119"/>
+      <c r="B40" s="156"/>
+      <c r="C40" s="156"/>
+      <c r="D40" s="156"/>
+      <c r="E40" s="156"/>
+      <c r="F40" s="156"/>
+      <c r="G40" s="166"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="113"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="164" t="s">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="170"/>
-      <c r="C41" s="164" t="s">
+      <c r="B43" s="143"/>
+      <c r="C43" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="165"/>
-      <c r="E41" s="166"/>
-      <c r="F41" s="29" t="s">
+      <c r="D43" s="137"/>
+      <c r="E43" s="138"/>
+      <c r="F43" s="29" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="161"/>
-      <c r="B42" s="163"/>
-      <c r="C42" s="161"/>
-      <c r="D42" s="162"/>
-      <c r="E42" s="163"/>
-      <c r="F42" s="49"/>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="145"/>
-      <c r="B43" s="147"/>
-      <c r="C43" s="145"/>
-      <c r="D43" s="146"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="49"/>
-    </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="145"/>
-      <c r="B44" s="147"/>
-      <c r="C44" s="145"/>
-      <c r="D44" s="146"/>
-      <c r="E44" s="147"/>
+      <c r="A44" s="144"/>
+      <c r="B44" s="145"/>
+      <c r="C44" s="144"/>
+      <c r="D44" s="157"/>
+      <c r="E44" s="145"/>
       <c r="F44" s="49"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="145"/>
-      <c r="B45" s="147"/>
-      <c r="C45" s="145"/>
-      <c r="D45" s="146"/>
-      <c r="E45" s="147"/>
+      <c r="A45" s="134"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="158"/>
+      <c r="E45" s="135"/>
       <c r="F45" s="49"/>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="145"/>
-      <c r="B46" s="147"/>
-      <c r="C46" s="145"/>
-      <c r="D46" s="146"/>
-      <c r="E46" s="147"/>
+      <c r="A46" s="134"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="134"/>
+      <c r="D46" s="158"/>
+      <c r="E46" s="135"/>
       <c r="F46" s="49"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="145"/>
-      <c r="B47" s="147"/>
-      <c r="C47" s="145"/>
-      <c r="D47" s="146"/>
-      <c r="E47" s="147"/>
+      <c r="A47" s="134"/>
+      <c r="B47" s="135"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="158"/>
+      <c r="E47" s="135"/>
       <c r="F47" s="49"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="145"/>
-      <c r="B48" s="147"/>
-      <c r="C48" s="145"/>
-      <c r="D48" s="146"/>
-      <c r="E48" s="147"/>
+      <c r="A48" s="134"/>
+      <c r="B48" s="135"/>
+      <c r="C48" s="134"/>
+      <c r="D48" s="158"/>
+      <c r="E48" s="135"/>
       <c r="F48" s="49"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="145"/>
-      <c r="B49" s="147"/>
-      <c r="C49" s="145"/>
-      <c r="D49" s="146"/>
-      <c r="E49" s="147"/>
+      <c r="A49" s="134"/>
+      <c r="B49" s="135"/>
+      <c r="C49" s="134"/>
+      <c r="D49" s="158"/>
+      <c r="E49" s="135"/>
       <c r="F49" s="49"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="145"/>
-      <c r="B50" s="147"/>
-      <c r="C50" s="145"/>
-      <c r="D50" s="146"/>
-      <c r="E50" s="147"/>
+      <c r="A50" s="134"/>
+      <c r="B50" s="135"/>
+      <c r="C50" s="134"/>
+      <c r="D50" s="158"/>
+      <c r="E50" s="135"/>
       <c r="F50" s="49"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="145"/>
-      <c r="B51" s="147"/>
-      <c r="C51" s="145"/>
-      <c r="D51" s="146"/>
-      <c r="E51" s="147"/>
+      <c r="A51" s="134"/>
+      <c r="B51" s="135"/>
+      <c r="C51" s="134"/>
+      <c r="D51" s="158"/>
+      <c r="E51" s="135"/>
       <c r="F51" s="49"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="145"/>
-      <c r="B52" s="147"/>
-      <c r="C52" s="145"/>
-      <c r="D52" s="146"/>
-      <c r="E52" s="147"/>
+      <c r="A52" s="134"/>
+      <c r="B52" s="135"/>
+      <c r="C52" s="134"/>
+      <c r="D52" s="158"/>
+      <c r="E52" s="135"/>
       <c r="F52" s="49"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="145"/>
-      <c r="B53" s="147"/>
-      <c r="C53" s="145"/>
-      <c r="D53" s="146"/>
-      <c r="E53" s="147"/>
+      <c r="A53" s="134"/>
+      <c r="B53" s="135"/>
+      <c r="C53" s="134"/>
+      <c r="D53" s="158"/>
+      <c r="E53" s="135"/>
       <c r="F53" s="49"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="145"/>
-      <c r="B54" s="147"/>
-      <c r="C54" s="145"/>
-      <c r="D54" s="146"/>
-      <c r="E54" s="147"/>
+      <c r="A54" s="134"/>
+      <c r="B54" s="135"/>
+      <c r="C54" s="134"/>
+      <c r="D54" s="158"/>
+      <c r="E54" s="135"/>
       <c r="F54" s="49"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="145"/>
-      <c r="B55" s="147"/>
-      <c r="C55" s="145"/>
-      <c r="D55" s="146"/>
-      <c r="E55" s="147"/>
+      <c r="A55" s="134"/>
+      <c r="B55" s="135"/>
+      <c r="C55" s="134"/>
+      <c r="D55" s="158"/>
+      <c r="E55" s="135"/>
       <c r="F55" s="49"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="145"/>
-      <c r="B56" s="147"/>
-      <c r="C56" s="145"/>
-      <c r="D56" s="146"/>
-      <c r="E56" s="147"/>
+      <c r="A56" s="134"/>
+      <c r="B56" s="135"/>
+      <c r="C56" s="134"/>
+      <c r="D56" s="158"/>
+      <c r="E56" s="135"/>
       <c r="F56" s="49"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="145"/>
-      <c r="B57" s="147"/>
-      <c r="C57" s="145"/>
-      <c r="D57" s="146"/>
-      <c r="E57" s="147"/>
+      <c r="A57" s="134"/>
+      <c r="B57" s="135"/>
+      <c r="C57" s="134"/>
+      <c r="D57" s="158"/>
+      <c r="E57" s="135"/>
       <c r="F57" s="49"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="145"/>
-      <c r="B58" s="147"/>
-      <c r="C58" s="145"/>
-      <c r="D58" s="146"/>
-      <c r="E58" s="147"/>
+      <c r="A58" s="134"/>
+      <c r="B58" s="135"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="158"/>
+      <c r="E58" s="135"/>
       <c r="F58" s="49"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="145"/>
-      <c r="B59" s="147"/>
-      <c r="C59" s="145"/>
-      <c r="D59" s="146"/>
-      <c r="E59" s="147"/>
+      <c r="A59" s="134"/>
+      <c r="B59" s="135"/>
+      <c r="C59" s="134"/>
+      <c r="D59" s="158"/>
+      <c r="E59" s="135"/>
       <c r="F59" s="49"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="145"/>
-      <c r="B60" s="147"/>
-      <c r="C60" s="145"/>
-      <c r="D60" s="146"/>
-      <c r="E60" s="147"/>
+      <c r="A60" s="134"/>
+      <c r="B60" s="135"/>
+      <c r="C60" s="134"/>
+      <c r="D60" s="158"/>
+      <c r="E60" s="135"/>
       <c r="F60" s="49"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="145"/>
-      <c r="B61" s="147"/>
-      <c r="C61" s="145"/>
-      <c r="D61" s="146"/>
-      <c r="E61" s="147"/>
+      <c r="A61" s="134"/>
+      <c r="B61" s="135"/>
+      <c r="C61" s="134"/>
+      <c r="D61" s="158"/>
+      <c r="E61" s="135"/>
       <c r="F61" s="49"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="145"/>
-      <c r="B62" s="147"/>
-      <c r="C62" s="145"/>
-      <c r="D62" s="146"/>
-      <c r="E62" s="147"/>
+      <c r="A62" s="134"/>
+      <c r="B62" s="135"/>
+      <c r="C62" s="134"/>
+      <c r="D62" s="158"/>
+      <c r="E62" s="135"/>
       <c r="F62" s="49"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="145"/>
-      <c r="B63" s="147"/>
-      <c r="C63" s="145"/>
-      <c r="D63" s="146"/>
-      <c r="E63" s="147"/>
+      <c r="A63" s="134"/>
+      <c r="B63" s="135"/>
+      <c r="C63" s="134"/>
+      <c r="D63" s="158"/>
+      <c r="E63" s="135"/>
       <c r="F63" s="49"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="145"/>
-      <c r="B64" s="147"/>
-      <c r="C64" s="145"/>
-      <c r="D64" s="146"/>
-      <c r="E64" s="147"/>
+      <c r="A64" s="134"/>
+      <c r="B64" s="135"/>
+      <c r="C64" s="134"/>
+      <c r="D64" s="158"/>
+      <c r="E64" s="135"/>
       <c r="F64" s="49"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="145"/>
-      <c r="B65" s="147"/>
-      <c r="C65" s="145"/>
-      <c r="D65" s="146"/>
-      <c r="E65" s="147"/>
+      <c r="A65" s="134"/>
+      <c r="B65" s="135"/>
+      <c r="C65" s="134"/>
+      <c r="D65" s="158"/>
+      <c r="E65" s="135"/>
       <c r="F65" s="49"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="148"/>
-      <c r="B66" s="150"/>
-      <c r="C66" s="148"/>
-      <c r="D66" s="149"/>
-      <c r="E66" s="150"/>
-      <c r="F66" s="50"/>
+      <c r="A66" s="134"/>
+      <c r="B66" s="135"/>
+      <c r="C66" s="134"/>
+      <c r="D66" s="158"/>
+      <c r="E66" s="135"/>
+      <c r="F66" s="49"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="134"/>
+      <c r="B67" s="135"/>
+      <c r="C67" s="134"/>
+      <c r="D67" s="158"/>
+      <c r="E67" s="135"/>
+      <c r="F67" s="49"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="152"/>
+      <c r="B68" s="153"/>
+      <c r="C68" s="152"/>
+      <c r="D68" s="159"/>
+      <c r="E68" s="153"/>
+      <c r="F68" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="A12:C12"/>
+  <mergeCells count="91">
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A13:C13"/>
     <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
     <mergeCell ref="A65:B65"/>
     <mergeCell ref="A66:B66"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
     <mergeCell ref="B26:G26"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C45:E45"/>
     <mergeCell ref="C46:E46"/>
     <mergeCell ref="C47:E47"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="C49:E49"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15" xr:uid="{AA005DBF-E840-AD43-AC91-CD6CE016CB50}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17" xr:uid="{AA005DBF-E840-AD43-AC91-CD6CE016CB50}">
       <formula1>isImport</formula1>
     </dataValidation>
   </dataValidations>
@@ -4961,7 +5056,7 @@
           <x14:formula1>
             <xm:f>config!$B$5:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D14</xm:sqref>
+          <xm:sqref>D16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5626,10 +5721,10 @@
         <v>196</v>
       </c>
       <c r="B15" s="123"/>
-      <c r="C15" s="135" t="s">
+      <c r="C15" s="179" t="s">
         <v>197</v>
       </c>
-      <c r="D15" s="135"/>
+      <c r="D15" s="179"/>
       <c r="E15" s="96" t="s">
         <v>198</v>
       </c>
@@ -5640,10 +5735,10 @@
         <v>199</v>
       </c>
       <c r="B16" s="123"/>
-      <c r="C16" s="135" t="s">
+      <c r="C16" s="179" t="s">
         <v>200</v>
       </c>
-      <c r="D16" s="135"/>
+      <c r="D16" s="179"/>
       <c r="E16" s="55"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -5675,28 +5770,28 @@
       <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="137" t="s">
+      <c r="A19" s="167" t="s">
         <v>214</v>
       </c>
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
+      <c r="B19" s="167"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="167"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="171" t="s">
+      <c r="B20" s="146" t="s">
         <v>205</v>
       </c>
-      <c r="C20" s="172"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="173"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="148"/>
       <c r="H20" s="106"/>
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
@@ -5708,12 +5803,12 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="117"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="155"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
       <c r="H21" s="113"/>
       <c r="I21" s="113"/>
       <c r="J21" s="113"/>
@@ -5725,12 +5820,12 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="118"/>
-      <c r="B22" s="157"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
       <c r="J22" s="113"/>
@@ -5742,12 +5837,12 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="119"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
       <c r="J23" s="113"/>
@@ -5761,28 +5856,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="174" t="s">
+      <c r="A25" s="149" t="s">
         <v>215</v>
       </c>
-      <c r="B25" s="175"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="176"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="151"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="151" t="s">
+      <c r="B26" s="160" t="s">
         <v>206</v>
       </c>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
+      <c r="C26" s="160"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
       <c r="H26" s="106"/>
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
@@ -5796,14 +5891,14 @@
       <c r="A27" s="117">
         <v>1</v>
       </c>
-      <c r="B27" s="152" t="s">
+      <c r="B27" s="161" t="s">
         <v>207</v>
       </c>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="152"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
@@ -5815,12 +5910,12 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="118"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -5832,12 +5927,12 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="119"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="163"/>
+      <c r="G29" s="163"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
       <c r="J29" s="113"/>
@@ -5864,28 +5959,28 @@
       <c r="N30"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="174" t="s">
+      <c r="A31" s="149" t="s">
         <v>216</v>
       </c>
-      <c r="B31" s="175"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="175"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="176"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="151"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="151" t="s">
+      <c r="B32" s="160" t="s">
         <v>208</v>
       </c>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
+      <c r="C32" s="160"/>
+      <c r="D32" s="160"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="160"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
@@ -5897,12 +5992,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="117"/>
-      <c r="B33" s="155"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="156"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="164"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -5914,12 +6009,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="118"/>
-      <c r="B34" s="157"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="158"/>
+      <c r="B34" s="155"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="155"/>
+      <c r="F34" s="155"/>
+      <c r="G34" s="165"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -5931,12 +6026,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="119"/>
-      <c r="B35" s="159"/>
-      <c r="C35" s="159"/>
-      <c r="D35" s="159"/>
-      <c r="E35" s="159"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="160"/>
+      <c r="B35" s="156"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="166"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -5990,58 +6085,58 @@
       <c r="T38" s="39"/>
     </row>
     <row r="39" spans="1:20">
-      <c r="A39" s="177" t="s">
+      <c r="A39" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="177" t="s">
+      <c r="B39" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="180" t="s">
+      <c r="C39" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="177" t="s">
+      <c r="D39" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="183" t="s">
+      <c r="E39" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="183" t="s">
+      <c r="F39" s="185" t="s">
         <v>199</v>
       </c>
-      <c r="G39" s="177" t="s">
+      <c r="G39" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="177" t="s">
+      <c r="H39" s="180" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="177" t="s">
+      <c r="I39" s="180" t="s">
         <v>218</v>
       </c>
-      <c r="J39" s="181" t="s">
+      <c r="J39" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="182"/>
-      <c r="L39" s="181" t="s">
+      <c r="K39" s="184"/>
+      <c r="L39" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="182"/>
+      <c r="M39" s="184"/>
       <c r="N39" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="O39" s="177" t="s">
+      <c r="O39" s="180" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="179"/>
-      <c r="B40" s="179"/>
-      <c r="C40" s="179"/>
-      <c r="D40" s="179"/>
-      <c r="E40" s="184"/>
-      <c r="F40" s="184"/>
-      <c r="G40" s="179"/>
-      <c r="H40" s="179"/>
-      <c r="I40" s="178"/>
+      <c r="A40" s="181"/>
+      <c r="B40" s="181"/>
+      <c r="C40" s="181"/>
+      <c r="D40" s="181"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="186"/>
+      <c r="G40" s="181"/>
+      <c r="H40" s="181"/>
+      <c r="I40" s="187"/>
       <c r="J40" s="29" t="s">
         <v>75</v>
       </c>
@@ -6057,7 +6152,7 @@
       <c r="N40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="179"/>
+      <c r="O40" s="181"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="7">
@@ -6551,6 +6646,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A31:G31"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="A19:G19"/>
@@ -6567,19 +6675,6 @@
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -6788,10 +6883,10 @@
         <v>196</v>
       </c>
       <c r="B12" s="123"/>
-      <c r="C12" s="135" t="s">
+      <c r="C12" s="179" t="s">
         <v>197</v>
       </c>
-      <c r="D12" s="135"/>
+      <c r="D12" s="179"/>
       <c r="E12" s="96" t="s">
         <v>198</v>
       </c>
@@ -6804,10 +6899,10 @@
         <v>199</v>
       </c>
       <c r="B13" s="123"/>
-      <c r="C13" s="135" t="s">
+      <c r="C13" s="179" t="s">
         <v>200</v>
       </c>
-      <c r="D13" s="135"/>
+      <c r="D13" s="179"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="54"/>
@@ -6839,28 +6934,28 @@
       <c r="F15" s="96"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="137" t="s">
+      <c r="A16" s="167" t="s">
         <v>214</v>
       </c>
-      <c r="B16" s="137"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
+      <c r="B16" s="167"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="171" t="s">
+      <c r="B17" s="146" t="s">
         <v>205</v>
       </c>
-      <c r="C17" s="172"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="173"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="148"/>
       <c r="H17" s="106"/>
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
@@ -6871,12 +6966,12 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="117"/>
-      <c r="B18" s="155"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
       <c r="H18" s="113"/>
       <c r="J18" s="113"/>
       <c r="K18" s="113"/>
@@ -6887,12 +6982,12 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="118"/>
-      <c r="B19" s="157"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
       <c r="H19" s="113"/>
       <c r="J19" s="113"/>
       <c r="K19" s="113"/>
@@ -6903,12 +6998,12 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="119"/>
-      <c r="B20" s="159"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
       <c r="H20" s="113"/>
       <c r="I20" s="106"/>
       <c r="J20" s="113"/>
@@ -6923,29 +7018,29 @@
       <c r="I21" s="113"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="174" t="s">
+      <c r="A22" s="149" t="s">
         <v>215</v>
       </c>
-      <c r="B22" s="175"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="175"/>
-      <c r="G22" s="176"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="151"/>
       <c r="I22" s="113"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="151" t="s">
+      <c r="B23" s="160" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="151"/>
+      <c r="C23" s="160"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
       <c r="H23" s="106"/>
       <c r="I23" s="113"/>
       <c r="J23" s="106"/>
@@ -6959,14 +7054,14 @@
       <c r="A24" s="117">
         <v>1</v>
       </c>
-      <c r="B24" s="152" t="s">
+      <c r="B24" s="161" t="s">
         <v>207</v>
       </c>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
       <c r="H24" s="113"/>
       <c r="J24" s="113"/>
       <c r="K24" s="113"/>
@@ -6977,12 +7072,12 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="118"/>
-      <c r="B25" s="153"/>
-      <c r="C25" s="153"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
+      <c r="B25" s="162"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="162"/>
       <c r="H25" s="113"/>
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
@@ -6993,12 +7088,12 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="119"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
+      <c r="B26" s="163"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="163"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
       <c r="H26" s="113"/>
       <c r="I26" s="106"/>
       <c r="J26" s="113"/>
@@ -7025,29 +7120,29 @@
       <c r="N27"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="174" t="s">
+      <c r="A28" s="149" t="s">
         <v>216</v>
       </c>
-      <c r="B28" s="175"/>
-      <c r="C28" s="175"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="176"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="151"/>
       <c r="I28" s="113"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="151" t="s">
+      <c r="B29" s="160" t="s">
         <v>208</v>
       </c>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
       <c r="H29" s="106"/>
       <c r="I29" s="113"/>
       <c r="J29" s="106"/>
@@ -7059,12 +7154,12 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="117"/>
-      <c r="B30" s="155"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="156"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="164"/>
       <c r="H30" s="113"/>
       <c r="I30"/>
       <c r="J30" s="113"/>
@@ -7076,12 +7171,12 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="118"/>
-      <c r="B31" s="157"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="158"/>
+      <c r="B31" s="155"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
+      <c r="G31" s="165"/>
       <c r="H31" s="113"/>
       <c r="J31" s="113"/>
       <c r="K31" s="113"/>
@@ -7092,12 +7187,12 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="119"/>
-      <c r="B32" s="159"/>
-      <c r="C32" s="159"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="160"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="166"/>
       <c r="H32" s="113"/>
       <c r="I32" s="106"/>
       <c r="J32" s="113"/>
@@ -7147,45 +7242,45 @@
       <c r="O35" s="58"/>
     </row>
     <row r="36" spans="1:15" ht="15">
-      <c r="A36" s="183" t="s">
+      <c r="A36" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="183" t="s">
+      <c r="B36" s="185" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="183" t="s">
+      <c r="D36" s="185" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="183" t="s">
+      <c r="E36" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="183" t="s">
+      <c r="F36" s="185" t="s">
         <v>199</v>
       </c>
-      <c r="G36" s="183" t="s">
+      <c r="G36" s="185" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="183" t="s">
+      <c r="H36" s="185" t="s">
         <v>139</v>
       </c>
-      <c r="I36" s="177" t="s">
+      <c r="I36" s="180" t="s">
         <v>218</v>
       </c>
-      <c r="J36" s="185" t="s">
+      <c r="J36" s="189" t="s">
         <v>122</v>
       </c>
-      <c r="K36" s="186"/>
-      <c r="L36" s="187" t="s">
+      <c r="K36" s="190"/>
+      <c r="L36" s="191" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="186"/>
+      <c r="M36" s="190"/>
       <c r="N36" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="O36" s="183" t="s">
+      <c r="O36" s="185" t="s">
         <v>125</v>
       </c>
     </row>
@@ -7196,11 +7291,11 @@
         <v>121</v>
       </c>
       <c r="D37" s="188"/>
-      <c r="E37" s="184"/>
-      <c r="F37" s="184"/>
+      <c r="E37" s="186"/>
+      <c r="F37" s="186"/>
       <c r="G37" s="188"/>
       <c r="H37" s="188"/>
-      <c r="I37" s="178"/>
+      <c r="I37" s="187"/>
       <c r="J37" s="62" t="s">
         <v>126</v>
       </c>
@@ -7692,20 +7787,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="B32:G32"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="I36:I37"/>
@@ -7720,6 +7801,20 @@
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -7962,10 +8057,10 @@
         <v>196</v>
       </c>
       <c r="B15" s="123"/>
-      <c r="C15" s="135" t="s">
+      <c r="C15" s="179" t="s">
         <v>197</v>
       </c>
-      <c r="D15" s="135"/>
+      <c r="D15" s="179"/>
       <c r="E15" s="96" t="s">
         <v>198</v>
       </c>
@@ -7976,10 +8071,10 @@
         <v>199</v>
       </c>
       <c r="B16" s="123"/>
-      <c r="C16" s="135" t="s">
+      <c r="C16" s="179" t="s">
         <v>200</v>
       </c>
-      <c r="D16" s="135"/>
+      <c r="D16" s="179"/>
       <c r="E16" s="55"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -8011,28 +8106,28 @@
       <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="137" t="s">
+      <c r="A19" s="167" t="s">
         <v>214</v>
       </c>
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
+      <c r="B19" s="167"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="167"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="171" t="s">
+      <c r="B20" s="146" t="s">
         <v>205</v>
       </c>
-      <c r="C20" s="172"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="173"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="148"/>
       <c r="H20" s="106"/>
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
@@ -8044,12 +8139,12 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="117"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="155"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
       <c r="H21" s="113"/>
       <c r="I21" s="113"/>
       <c r="J21" s="113"/>
@@ -8061,12 +8156,12 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="118"/>
-      <c r="B22" s="157"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
       <c r="J22" s="113"/>
@@ -8078,12 +8173,12 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="119"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
       <c r="J23" s="113"/>
@@ -8097,28 +8192,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="174" t="s">
+      <c r="A25" s="149" t="s">
         <v>215</v>
       </c>
-      <c r="B25" s="175"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="176"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="151"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="151" t="s">
+      <c r="B26" s="160" t="s">
         <v>206</v>
       </c>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
+      <c r="C26" s="160"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
       <c r="H26" s="106"/>
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
@@ -8132,14 +8227,14 @@
       <c r="A27" s="117">
         <v>1</v>
       </c>
-      <c r="B27" s="152" t="s">
+      <c r="B27" s="161" t="s">
         <v>207</v>
       </c>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="152"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
@@ -8151,12 +8246,12 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="118"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -8168,12 +8263,12 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="119"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="163"/>
+      <c r="G29" s="163"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
       <c r="J29" s="113"/>
@@ -8200,28 +8295,28 @@
       <c r="N30"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="174" t="s">
+      <c r="A31" s="149" t="s">
         <v>216</v>
       </c>
-      <c r="B31" s="175"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="175"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="176"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="151"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="151" t="s">
+      <c r="B32" s="160" t="s">
         <v>208</v>
       </c>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
+      <c r="C32" s="160"/>
+      <c r="D32" s="160"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="160"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
@@ -8233,12 +8328,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="117"/>
-      <c r="B33" s="155"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="156"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="164"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -8250,12 +8345,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="118"/>
-      <c r="B34" s="157"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="158"/>
+      <c r="B34" s="155"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="155"/>
+      <c r="F34" s="155"/>
+      <c r="G34" s="165"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -8267,12 +8362,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="119"/>
-      <c r="B35" s="159"/>
-      <c r="C35" s="159"/>
-      <c r="D35" s="159"/>
-      <c r="E35" s="159"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="160"/>
+      <c r="B35" s="156"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="166"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -8326,58 +8421,58 @@
       <c r="T38" s="39"/>
     </row>
     <row r="39" spans="1:20">
-      <c r="A39" s="177" t="s">
+      <c r="A39" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="177" t="s">
+      <c r="B39" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="180" t="s">
+      <c r="C39" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="177" t="s">
+      <c r="D39" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="183" t="s">
+      <c r="E39" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="183" t="s">
+      <c r="F39" s="185" t="s">
         <v>199</v>
       </c>
-      <c r="G39" s="177" t="s">
+      <c r="G39" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="177" t="s">
+      <c r="H39" s="180" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="177" t="s">
+      <c r="I39" s="180" t="s">
         <v>218</v>
       </c>
-      <c r="J39" s="181" t="s">
+      <c r="J39" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="182"/>
-      <c r="L39" s="181" t="s">
+      <c r="K39" s="184"/>
+      <c r="L39" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="182"/>
+      <c r="M39" s="184"/>
       <c r="N39" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="O39" s="177" t="s">
+      <c r="O39" s="180" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="179"/>
-      <c r="B40" s="179"/>
-      <c r="C40" s="179"/>
-      <c r="D40" s="179"/>
-      <c r="E40" s="184"/>
-      <c r="F40" s="189"/>
-      <c r="G40" s="179"/>
-      <c r="H40" s="179"/>
-      <c r="I40" s="178"/>
+      <c r="A40" s="181"/>
+      <c r="B40" s="181"/>
+      <c r="C40" s="181"/>
+      <c r="D40" s="181"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="192"/>
+      <c r="G40" s="181"/>
+      <c r="H40" s="181"/>
+      <c r="I40" s="187"/>
       <c r="J40" s="29" t="s">
         <v>75</v>
       </c>
@@ -8393,7 +8488,7 @@
       <c r="N40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="179"/>
+      <c r="O40" s="181"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="7">
@@ -8887,6 +8982,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
     <mergeCell ref="J39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="O39:O40"/>
@@ -8899,23 +9011,6 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="I39:I40"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -9127,10 +9222,10 @@
         <v>196</v>
       </c>
       <c r="B12" s="123"/>
-      <c r="C12" s="135" t="s">
+      <c r="C12" s="179" t="s">
         <v>197</v>
       </c>
-      <c r="D12" s="135"/>
+      <c r="D12" s="179"/>
       <c r="E12" s="96" t="s">
         <v>198</v>
       </c>
@@ -9143,10 +9238,10 @@
         <v>199</v>
       </c>
       <c r="B13" s="123"/>
-      <c r="C13" s="135" t="s">
+      <c r="C13" s="179" t="s">
         <v>200</v>
       </c>
-      <c r="D13" s="135"/>
+      <c r="D13" s="179"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="54"/>
@@ -9178,28 +9273,28 @@
       <c r="F15" s="96"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="137" t="s">
+      <c r="A16" s="167" t="s">
         <v>214</v>
       </c>
-      <c r="B16" s="137"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
+      <c r="B16" s="167"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="171" t="s">
+      <c r="B17" s="146" t="s">
         <v>205</v>
       </c>
-      <c r="C17" s="172"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="173"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="148"/>
       <c r="H17" s="106"/>
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
@@ -9210,12 +9305,12 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="117"/>
-      <c r="B18" s="155"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
       <c r="H18" s="113"/>
       <c r="J18" s="113"/>
       <c r="K18" s="113"/>
@@ -9226,12 +9321,12 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="118"/>
-      <c r="B19" s="157"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
       <c r="H19" s="113"/>
       <c r="J19" s="113"/>
       <c r="K19" s="113"/>
@@ -9242,12 +9337,12 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="119"/>
-      <c r="B20" s="159"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
       <c r="H20" s="113"/>
       <c r="I20" s="106"/>
       <c r="J20" s="113"/>
@@ -9262,29 +9357,29 @@
       <c r="I21" s="113"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="174" t="s">
+      <c r="A22" s="149" t="s">
         <v>215</v>
       </c>
-      <c r="B22" s="175"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="175"/>
-      <c r="G22" s="176"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="151"/>
       <c r="I22" s="113"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="151" t="s">
+      <c r="B23" s="160" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="151"/>
+      <c r="C23" s="160"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
       <c r="H23" s="106"/>
       <c r="I23" s="113"/>
       <c r="J23" s="106"/>
@@ -9298,14 +9393,14 @@
       <c r="A24" s="117">
         <v>1</v>
       </c>
-      <c r="B24" s="152" t="s">
+      <c r="B24" s="161" t="s">
         <v>207</v>
       </c>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
       <c r="H24" s="113"/>
       <c r="J24" s="113"/>
       <c r="K24" s="113"/>
@@ -9316,12 +9411,12 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="118"/>
-      <c r="B25" s="153"/>
-      <c r="C25" s="153"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
+      <c r="B25" s="162"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="162"/>
       <c r="H25" s="113"/>
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
@@ -9332,12 +9427,12 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="119"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
+      <c r="B26" s="163"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="163"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
       <c r="H26" s="113"/>
       <c r="I26" s="106"/>
       <c r="J26" s="113"/>
@@ -9364,29 +9459,29 @@
       <c r="N27"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="174" t="s">
+      <c r="A28" s="149" t="s">
         <v>216</v>
       </c>
-      <c r="B28" s="175"/>
-      <c r="C28" s="175"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="176"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="151"/>
       <c r="I28" s="113"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="151" t="s">
+      <c r="B29" s="160" t="s">
         <v>208</v>
       </c>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
       <c r="H29" s="106"/>
       <c r="I29" s="113"/>
       <c r="J29" s="106"/>
@@ -9398,12 +9493,12 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="117"/>
-      <c r="B30" s="155"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="156"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="164"/>
       <c r="H30" s="113"/>
       <c r="I30"/>
       <c r="J30" s="113"/>
@@ -9415,12 +9510,12 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="118"/>
-      <c r="B31" s="157"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="158"/>
+      <c r="B31" s="155"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
+      <c r="G31" s="165"/>
       <c r="H31" s="113"/>
       <c r="J31" s="113"/>
       <c r="K31" s="113"/>
@@ -9431,12 +9526,12 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="119"/>
-      <c r="B32" s="159"/>
-      <c r="C32" s="159"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="160"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="166"/>
       <c r="H32" s="113"/>
       <c r="I32" s="106"/>
       <c r="J32" s="113"/>
@@ -9486,45 +9581,45 @@
       <c r="O35" s="58"/>
     </row>
     <row r="36" spans="1:15" ht="15">
-      <c r="A36" s="183" t="s">
+      <c r="A36" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="183" t="s">
+      <c r="B36" s="185" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="183" t="s">
+      <c r="D36" s="185" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="183" t="s">
+      <c r="E36" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="183" t="s">
+      <c r="F36" s="185" t="s">
         <v>199</v>
       </c>
-      <c r="G36" s="183" t="s">
+      <c r="G36" s="185" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="183" t="s">
+      <c r="H36" s="185" t="s">
         <v>139</v>
       </c>
-      <c r="I36" s="177" t="s">
+      <c r="I36" s="180" t="s">
         <v>218</v>
       </c>
-      <c r="J36" s="185" t="s">
+      <c r="J36" s="189" t="s">
         <v>122</v>
       </c>
-      <c r="K36" s="186"/>
-      <c r="L36" s="187" t="s">
+      <c r="K36" s="190"/>
+      <c r="L36" s="191" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="186"/>
+      <c r="M36" s="190"/>
       <c r="N36" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="O36" s="183" t="s">
+      <c r="O36" s="185" t="s">
         <v>125</v>
       </c>
     </row>
@@ -9535,11 +9630,11 @@
         <v>121</v>
       </c>
       <c r="D37" s="188"/>
-      <c r="E37" s="189"/>
-      <c r="F37" s="189"/>
+      <c r="E37" s="192"/>
+      <c r="F37" s="192"/>
       <c r="G37" s="188"/>
       <c r="H37" s="188"/>
-      <c r="I37" s="178"/>
+      <c r="I37" s="187"/>
       <c r="J37" s="62" t="s">
         <v>126</v>
       </c>
@@ -10031,6 +10126,23 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="A36:A37"/>
@@ -10042,23 +10154,6 @@
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="I36:I37"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="B29:G29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -10301,10 +10396,10 @@
         <v>196</v>
       </c>
       <c r="B15" s="123"/>
-      <c r="C15" s="135" t="s">
+      <c r="C15" s="179" t="s">
         <v>197</v>
       </c>
-      <c r="D15" s="135"/>
+      <c r="D15" s="179"/>
       <c r="E15" s="96" t="s">
         <v>198</v>
       </c>
@@ -10315,10 +10410,10 @@
         <v>199</v>
       </c>
       <c r="B16" s="123"/>
-      <c r="C16" s="135" t="s">
+      <c r="C16" s="179" t="s">
         <v>200</v>
       </c>
-      <c r="D16" s="135"/>
+      <c r="D16" s="179"/>
       <c r="E16" s="55"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -10350,28 +10445,28 @@
       <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="137" t="s">
+      <c r="A19" s="167" t="s">
         <v>214</v>
       </c>
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
+      <c r="B19" s="167"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="167"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="171" t="s">
+      <c r="B20" s="146" t="s">
         <v>205</v>
       </c>
-      <c r="C20" s="172"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="173"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="148"/>
       <c r="H20" s="106"/>
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
@@ -10383,12 +10478,12 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="117"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="155"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
       <c r="H21" s="113"/>
       <c r="I21" s="113"/>
       <c r="J21" s="113"/>
@@ -10400,12 +10495,12 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="118"/>
-      <c r="B22" s="157"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
       <c r="J22" s="113"/>
@@ -10417,12 +10512,12 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="119"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
       <c r="J23" s="113"/>
@@ -10436,28 +10531,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="174" t="s">
+      <c r="A25" s="149" t="s">
         <v>215</v>
       </c>
-      <c r="B25" s="175"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="176"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="151"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="151" t="s">
+      <c r="B26" s="160" t="s">
         <v>206</v>
       </c>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
+      <c r="C26" s="160"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
       <c r="H26" s="106"/>
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
@@ -10471,14 +10566,14 @@
       <c r="A27" s="117">
         <v>1</v>
       </c>
-      <c r="B27" s="152" t="s">
+      <c r="B27" s="161" t="s">
         <v>207</v>
       </c>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="152"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
@@ -10490,12 +10585,12 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="118"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -10507,12 +10602,12 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="119"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="163"/>
+      <c r="G29" s="163"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
       <c r="J29" s="113"/>
@@ -10539,28 +10634,28 @@
       <c r="N30"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="174" t="s">
+      <c r="A31" s="149" t="s">
         <v>216</v>
       </c>
-      <c r="B31" s="175"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="175"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="176"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="151"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="151" t="s">
+      <c r="B32" s="160" t="s">
         <v>208</v>
       </c>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
+      <c r="C32" s="160"/>
+      <c r="D32" s="160"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="160"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
@@ -10572,12 +10667,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="117"/>
-      <c r="B33" s="155"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="156"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="164"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -10589,12 +10684,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="118"/>
-      <c r="B34" s="157"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="158"/>
+      <c r="B34" s="155"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="155"/>
+      <c r="F34" s="155"/>
+      <c r="G34" s="165"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -10606,12 +10701,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="119"/>
-      <c r="B35" s="159"/>
-      <c r="C35" s="159"/>
-      <c r="D35" s="159"/>
-      <c r="E35" s="159"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="160"/>
+      <c r="B35" s="156"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="166"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -10665,58 +10760,58 @@
       <c r="T38" s="39"/>
     </row>
     <row r="39" spans="1:20">
-      <c r="A39" s="177" t="s">
+      <c r="A39" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="177" t="s">
+      <c r="B39" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="180" t="s">
+      <c r="C39" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="177" t="s">
+      <c r="D39" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="183" t="s">
+      <c r="E39" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="183" t="s">
+      <c r="F39" s="185" t="s">
         <v>199</v>
       </c>
-      <c r="G39" s="177" t="s">
+      <c r="G39" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="177" t="s">
+      <c r="H39" s="180" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="177" t="s">
+      <c r="I39" s="180" t="s">
         <v>218</v>
       </c>
-      <c r="J39" s="181" t="s">
+      <c r="J39" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="182"/>
-      <c r="L39" s="181" t="s">
+      <c r="K39" s="184"/>
+      <c r="L39" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="182"/>
+      <c r="M39" s="184"/>
       <c r="N39" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="O39" s="177" t="s">
+      <c r="O39" s="180" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="179"/>
-      <c r="B40" s="179"/>
-      <c r="C40" s="179"/>
-      <c r="D40" s="179"/>
-      <c r="E40" s="184"/>
-      <c r="F40" s="189"/>
-      <c r="G40" s="179"/>
-      <c r="H40" s="179"/>
-      <c r="I40" s="178"/>
+      <c r="A40" s="181"/>
+      <c r="B40" s="181"/>
+      <c r="C40" s="181"/>
+      <c r="D40" s="181"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="192"/>
+      <c r="G40" s="181"/>
+      <c r="H40" s="181"/>
+      <c r="I40" s="187"/>
       <c r="J40" s="29" t="s">
         <v>75</v>
       </c>
@@ -10732,7 +10827,7 @@
       <c r="N40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="179"/>
+      <c r="O40" s="181"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="7">
@@ -11226,6 +11321,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
     <mergeCell ref="J39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="O39:O40"/>
@@ -11238,23 +11350,6 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="I39:I40"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -11466,10 +11561,10 @@
         <v>196</v>
       </c>
       <c r="B12" s="123"/>
-      <c r="C12" s="135" t="s">
+      <c r="C12" s="179" t="s">
         <v>197</v>
       </c>
-      <c r="D12" s="135"/>
+      <c r="D12" s="179"/>
       <c r="E12" s="96" t="s">
         <v>198</v>
       </c>
@@ -11482,10 +11577,10 @@
         <v>199</v>
       </c>
       <c r="B13" s="123"/>
-      <c r="C13" s="135" t="s">
+      <c r="C13" s="179" t="s">
         <v>200</v>
       </c>
-      <c r="D13" s="135"/>
+      <c r="D13" s="179"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="54"/>
@@ -11517,28 +11612,28 @@
       <c r="F15" s="96"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="137" t="s">
+      <c r="A16" s="167" t="s">
         <v>214</v>
       </c>
-      <c r="B16" s="137"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
+      <c r="B16" s="167"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="171" t="s">
+      <c r="B17" s="146" t="s">
         <v>205</v>
       </c>
-      <c r="C17" s="172"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="173"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="148"/>
       <c r="H17" s="106"/>
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
@@ -11549,12 +11644,12 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="117"/>
-      <c r="B18" s="155"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
       <c r="H18" s="113"/>
       <c r="J18" s="113"/>
       <c r="K18" s="113"/>
@@ -11565,12 +11660,12 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="118"/>
-      <c r="B19" s="157"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
       <c r="H19" s="113"/>
       <c r="J19" s="113"/>
       <c r="K19" s="113"/>
@@ -11581,12 +11676,12 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="119"/>
-      <c r="B20" s="159"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
       <c r="H20" s="113"/>
       <c r="I20" s="106"/>
       <c r="J20" s="113"/>
@@ -11601,29 +11696,29 @@
       <c r="I21" s="113"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="174" t="s">
+      <c r="A22" s="149" t="s">
         <v>215</v>
       </c>
-      <c r="B22" s="175"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="175"/>
-      <c r="G22" s="176"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="151"/>
       <c r="I22" s="113"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="151" t="s">
+      <c r="B23" s="160" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="151"/>
+      <c r="C23" s="160"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
       <c r="H23" s="106"/>
       <c r="I23" s="113"/>
       <c r="J23" s="106"/>
@@ -11637,14 +11732,14 @@
       <c r="A24" s="117">
         <v>1</v>
       </c>
-      <c r="B24" s="152" t="s">
+      <c r="B24" s="161" t="s">
         <v>207</v>
       </c>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
       <c r="H24" s="113"/>
       <c r="J24" s="113"/>
       <c r="K24" s="113"/>
@@ -11655,12 +11750,12 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="118"/>
-      <c r="B25" s="153"/>
-      <c r="C25" s="153"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
+      <c r="B25" s="162"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="162"/>
       <c r="H25" s="113"/>
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
@@ -11671,12 +11766,12 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="119"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
+      <c r="B26" s="163"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="163"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
       <c r="H26" s="113"/>
       <c r="I26" s="106"/>
       <c r="J26" s="113"/>
@@ -11703,29 +11798,29 @@
       <c r="N27"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="174" t="s">
+      <c r="A28" s="149" t="s">
         <v>216</v>
       </c>
-      <c r="B28" s="175"/>
-      <c r="C28" s="175"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="176"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="151"/>
       <c r="I28" s="113"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="151" t="s">
+      <c r="B29" s="160" t="s">
         <v>208</v>
       </c>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
       <c r="H29" s="106"/>
       <c r="I29" s="113"/>
       <c r="J29" s="106"/>
@@ -11737,12 +11832,12 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="117"/>
-      <c r="B30" s="155"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="156"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="164"/>
       <c r="H30" s="113"/>
       <c r="I30"/>
       <c r="J30" s="113"/>
@@ -11754,12 +11849,12 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="118"/>
-      <c r="B31" s="157"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="158"/>
+      <c r="B31" s="155"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
+      <c r="G31" s="165"/>
       <c r="H31" s="113"/>
       <c r="J31" s="113"/>
       <c r="K31" s="113"/>
@@ -11770,12 +11865,12 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="119"/>
-      <c r="B32" s="159"/>
-      <c r="C32" s="159"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="160"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="166"/>
       <c r="H32" s="113"/>
       <c r="I32" s="106"/>
       <c r="J32" s="113"/>
@@ -11825,45 +11920,45 @@
       <c r="O35" s="58"/>
     </row>
     <row r="36" spans="1:15" ht="15">
-      <c r="A36" s="183" t="s">
+      <c r="A36" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="183" t="s">
+      <c r="B36" s="185" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="183" t="s">
+      <c r="D36" s="185" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="183" t="s">
+      <c r="E36" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="183" t="s">
+      <c r="F36" s="185" t="s">
         <v>199</v>
       </c>
-      <c r="G36" s="183" t="s">
+      <c r="G36" s="185" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="183" t="s">
+      <c r="H36" s="185" t="s">
         <v>139</v>
       </c>
-      <c r="I36" s="177" t="s">
+      <c r="I36" s="180" t="s">
         <v>218</v>
       </c>
-      <c r="J36" s="185" t="s">
+      <c r="J36" s="189" t="s">
         <v>122</v>
       </c>
-      <c r="K36" s="186"/>
-      <c r="L36" s="187" t="s">
+      <c r="K36" s="190"/>
+      <c r="L36" s="191" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="186"/>
+      <c r="M36" s="190"/>
       <c r="N36" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="O36" s="183" t="s">
+      <c r="O36" s="185" t="s">
         <v>125</v>
       </c>
     </row>
@@ -11874,11 +11969,11 @@
         <v>121</v>
       </c>
       <c r="D37" s="188"/>
-      <c r="E37" s="184"/>
-      <c r="F37" s="189"/>
+      <c r="E37" s="186"/>
+      <c r="F37" s="192"/>
       <c r="G37" s="188"/>
       <c r="H37" s="188"/>
-      <c r="I37" s="178"/>
+      <c r="I37" s="187"/>
       <c r="J37" s="62" t="s">
         <v>126</v>
       </c>
@@ -12370,6 +12465,23 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="A36:A37"/>
@@ -12381,23 +12493,6 @@
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="I36:I37"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="B29:G29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -12644,10 +12739,10 @@
         <v>196</v>
       </c>
       <c r="B15" s="123"/>
-      <c r="C15" s="135" t="s">
+      <c r="C15" s="179" t="s">
         <v>197</v>
       </c>
-      <c r="D15" s="135"/>
+      <c r="D15" s="179"/>
       <c r="E15" s="96" t="s">
         <v>198</v>
       </c>
@@ -12658,10 +12753,10 @@
         <v>199</v>
       </c>
       <c r="B16" s="123"/>
-      <c r="C16" s="135" t="s">
+      <c r="C16" s="179" t="s">
         <v>200</v>
       </c>
-      <c r="D16" s="135"/>
+      <c r="D16" s="179"/>
       <c r="E16" s="55"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -12693,28 +12788,28 @@
       <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="137" t="s">
+      <c r="A19" s="167" t="s">
         <v>214</v>
       </c>
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
+      <c r="B19" s="167"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="167"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="171" t="s">
+      <c r="B20" s="146" t="s">
         <v>205</v>
       </c>
-      <c r="C20" s="172"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="173"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="148"/>
       <c r="H20" s="106"/>
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
@@ -12726,12 +12821,12 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="117"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="155"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
       <c r="H21" s="113"/>
       <c r="I21" s="113"/>
       <c r="J21" s="113"/>
@@ -12743,12 +12838,12 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="118"/>
-      <c r="B22" s="157"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
       <c r="J22" s="113"/>
@@ -12760,12 +12855,12 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="119"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
       <c r="J23" s="113"/>
@@ -12779,28 +12874,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="174" t="s">
+      <c r="A25" s="149" t="s">
         <v>215</v>
       </c>
-      <c r="B25" s="175"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="176"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="151"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="151" t="s">
+      <c r="B26" s="160" t="s">
         <v>206</v>
       </c>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
+      <c r="C26" s="160"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
       <c r="H26" s="106"/>
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
@@ -12814,14 +12909,14 @@
       <c r="A27" s="117">
         <v>1</v>
       </c>
-      <c r="B27" s="152" t="s">
+      <c r="B27" s="161" t="s">
         <v>207</v>
       </c>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="152"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
@@ -12833,12 +12928,12 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="118"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -12850,12 +12945,12 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="119"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="163"/>
+      <c r="G29" s="163"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
       <c r="J29" s="113"/>
@@ -12882,28 +12977,28 @@
       <c r="N30"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="174" t="s">
+      <c r="A31" s="149" t="s">
         <v>216</v>
       </c>
-      <c r="B31" s="175"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="175"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="176"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="151"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="151" t="s">
+      <c r="B32" s="160" t="s">
         <v>208</v>
       </c>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
+      <c r="C32" s="160"/>
+      <c r="D32" s="160"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="160"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
@@ -12915,12 +13010,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="117"/>
-      <c r="B33" s="155"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="156"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="164"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -12932,12 +13027,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="118"/>
-      <c r="B34" s="157"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="158"/>
+      <c r="B34" s="155"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="155"/>
+      <c r="F34" s="155"/>
+      <c r="G34" s="165"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -12949,12 +13044,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="119"/>
-      <c r="B35" s="159"/>
-      <c r="C35" s="159"/>
-      <c r="D35" s="159"/>
-      <c r="E35" s="159"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="160"/>
+      <c r="B35" s="156"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="166"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -13010,58 +13105,58 @@
       <c r="T38" s="39"/>
     </row>
     <row r="39" spans="1:20">
-      <c r="A39" s="177" t="s">
+      <c r="A39" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="177" t="s">
+      <c r="B39" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="180" t="s">
+      <c r="C39" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="177" t="s">
+      <c r="D39" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="183" t="s">
+      <c r="E39" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="183" t="s">
+      <c r="F39" s="185" t="s">
         <v>199</v>
       </c>
-      <c r="G39" s="177" t="s">
+      <c r="G39" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="177" t="s">
+      <c r="H39" s="180" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="177" t="s">
+      <c r="I39" s="180" t="s">
         <v>218</v>
       </c>
-      <c r="J39" s="181" t="s">
+      <c r="J39" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="182"/>
-      <c r="L39" s="181" t="s">
+      <c r="K39" s="184"/>
+      <c r="L39" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="182"/>
+      <c r="M39" s="184"/>
       <c r="N39" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="O39" s="177" t="s">
+      <c r="O39" s="180" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="179"/>
-      <c r="B40" s="179"/>
-      <c r="C40" s="179"/>
-      <c r="D40" s="179"/>
-      <c r="E40" s="184"/>
-      <c r="F40" s="189"/>
-      <c r="G40" s="179"/>
-      <c r="H40" s="179"/>
-      <c r="I40" s="178"/>
+      <c r="A40" s="181"/>
+      <c r="B40" s="181"/>
+      <c r="C40" s="181"/>
+      <c r="D40" s="181"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="192"/>
+      <c r="G40" s="181"/>
+      <c r="H40" s="181"/>
+      <c r="I40" s="187"/>
       <c r="J40" s="29" t="s">
         <v>75</v>
       </c>
@@ -13077,7 +13172,7 @@
       <c r="N40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="179"/>
+      <c r="O40" s="181"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="7">
@@ -13571,6 +13666,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
     <mergeCell ref="J39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="O39:O40"/>
@@ -13583,23 +13695,6 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="I39:I40"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -13656,8 +13751,8 @@
   </sheetPr>
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -13811,10 +13906,10 @@
         <v>196</v>
       </c>
       <c r="B12" s="123"/>
-      <c r="C12" s="135" t="s">
+      <c r="C12" s="179" t="s">
         <v>197</v>
       </c>
-      <c r="D12" s="135"/>
+      <c r="D12" s="179"/>
       <c r="E12" s="96" t="s">
         <v>198</v>
       </c>
@@ -13827,10 +13922,10 @@
         <v>199</v>
       </c>
       <c r="B13" s="123"/>
-      <c r="C13" s="135" t="s">
+      <c r="C13" s="179" t="s">
         <v>200</v>
       </c>
-      <c r="D13" s="135"/>
+      <c r="D13" s="179"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="54"/>
@@ -13862,28 +13957,28 @@
       <c r="F15" s="96"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="137" t="s">
+      <c r="A16" s="167" t="s">
         <v>214</v>
       </c>
-      <c r="B16" s="137"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
+      <c r="B16" s="167"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="171" t="s">
+      <c r="B17" s="146" t="s">
         <v>205</v>
       </c>
-      <c r="C17" s="172"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="173"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="148"/>
       <c r="H17" s="106"/>
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
@@ -13894,12 +13989,12 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="117"/>
-      <c r="B18" s="155"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
       <c r="H18" s="113"/>
       <c r="J18" s="113"/>
       <c r="K18" s="113"/>
@@ -13910,12 +14005,12 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="118"/>
-      <c r="B19" s="157"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
       <c r="H19" s="113"/>
       <c r="J19" s="113"/>
       <c r="K19" s="113"/>
@@ -13926,12 +14021,12 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="119"/>
-      <c r="B20" s="159"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
       <c r="H20" s="113"/>
       <c r="I20" s="106"/>
       <c r="J20" s="113"/>
@@ -13946,29 +14041,29 @@
       <c r="I21" s="113"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="174" t="s">
+      <c r="A22" s="149" t="s">
         <v>215</v>
       </c>
-      <c r="B22" s="175"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="175"/>
-      <c r="G22" s="176"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="151"/>
       <c r="I22" s="113"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="151" t="s">
+      <c r="B23" s="160" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="151"/>
+      <c r="C23" s="160"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
       <c r="H23" s="106"/>
       <c r="I23" s="113"/>
       <c r="J23" s="106"/>
@@ -13982,14 +14077,14 @@
       <c r="A24" s="117">
         <v>1</v>
       </c>
-      <c r="B24" s="152" t="s">
+      <c r="B24" s="161" t="s">
         <v>207</v>
       </c>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
       <c r="H24" s="113"/>
       <c r="J24" s="113"/>
       <c r="K24" s="113"/>
@@ -14000,12 +14095,12 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="118"/>
-      <c r="B25" s="153"/>
-      <c r="C25" s="153"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
+      <c r="B25" s="162"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="162"/>
       <c r="H25" s="113"/>
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
@@ -14016,12 +14111,12 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="119"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
+      <c r="B26" s="163"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="163"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
       <c r="H26" s="113"/>
       <c r="I26" s="106"/>
       <c r="J26" s="113"/>
@@ -14048,29 +14143,29 @@
       <c r="N27"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="174" t="s">
+      <c r="A28" s="149" t="s">
         <v>216</v>
       </c>
-      <c r="B28" s="175"/>
-      <c r="C28" s="175"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="176"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="151"/>
       <c r="I28" s="113"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="151" t="s">
+      <c r="B29" s="160" t="s">
         <v>208</v>
       </c>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
       <c r="H29" s="106"/>
       <c r="I29" s="113"/>
       <c r="J29" s="106"/>
@@ -14082,12 +14177,12 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="117"/>
-      <c r="B30" s="155"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="156"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="164"/>
       <c r="H30" s="113"/>
       <c r="I30"/>
       <c r="J30" s="113"/>
@@ -14099,12 +14194,12 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="118"/>
-      <c r="B31" s="157"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="158"/>
+      <c r="B31" s="155"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
+      <c r="G31" s="165"/>
       <c r="H31" s="113"/>
       <c r="J31" s="113"/>
       <c r="K31" s="113"/>
@@ -14115,12 +14210,12 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="119"/>
-      <c r="B32" s="159"/>
-      <c r="C32" s="159"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="160"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="166"/>
       <c r="H32" s="113"/>
       <c r="I32" s="106"/>
       <c r="J32" s="113"/>
@@ -14170,45 +14265,45 @@
       <c r="O35" s="58"/>
     </row>
     <row r="36" spans="1:15" ht="15">
-      <c r="A36" s="183" t="s">
+      <c r="A36" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="183" t="s">
+      <c r="B36" s="185" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="183" t="s">
+      <c r="D36" s="185" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="183" t="s">
+      <c r="E36" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="183" t="s">
+      <c r="F36" s="185" t="s">
         <v>199</v>
       </c>
-      <c r="G36" s="183" t="s">
+      <c r="G36" s="185" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="183" t="s">
+      <c r="H36" s="185" t="s">
         <v>139</v>
       </c>
-      <c r="I36" s="177" t="s">
+      <c r="I36" s="180" t="s">
         <v>218</v>
       </c>
-      <c r="J36" s="185" t="s">
+      <c r="J36" s="189" t="s">
         <v>122</v>
       </c>
-      <c r="K36" s="186"/>
-      <c r="L36" s="187" t="s">
+      <c r="K36" s="190"/>
+      <c r="L36" s="191" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="186"/>
+      <c r="M36" s="190"/>
       <c r="N36" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="O36" s="183" t="s">
+      <c r="O36" s="185" t="s">
         <v>125</v>
       </c>
     </row>
@@ -14219,11 +14314,11 @@
         <v>121</v>
       </c>
       <c r="D37" s="188"/>
-      <c r="E37" s="184"/>
-      <c r="F37" s="189"/>
+      <c r="E37" s="186"/>
+      <c r="F37" s="192"/>
       <c r="G37" s="188"/>
       <c r="H37" s="188"/>
-      <c r="I37" s="178"/>
+      <c r="I37" s="187"/>
       <c r="J37" s="62" t="s">
         <v>126</v>
       </c>
@@ -14715,6 +14810,24 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="A36:A37"/>
@@ -14725,24 +14838,6 @@
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="I36:I37"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="B29:G29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">

--- a/meta/api/BlancoApiSample.xlsx
+++ b/meta/api/BlancoApiSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12526D5F-5A6F-D44A-9B75-CC9A7A64B979}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F79B452-9C10-F84F-9DFE-8A71A4EBAC5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12360" yWindow="1380" windowWidth="21420" windowHeight="17820" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12360" yWindow="1380" windowWidth="21420" windowHeight="17820" tabRatio="860" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="223">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -2072,14 +2072,6 @@
   </si>
   <si>
     <t>array&lt;ObjectSample&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ObjectSample</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ObjectSample</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -3446,10 +3438,94 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3461,9 +3537,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3474,12 +3547,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3500,51 +3567,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3557,34 +3579,10 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3603,12 +3601,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3618,11 +3610,11 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4170,7 +4162,7 @@
   </sheetPr>
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D15" sqref="D15:E15"/>
     </sheetView>
   </sheetViews>
@@ -4214,173 +4206,173 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="174" t="s">
+      <c r="A5" s="134" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="174"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="174"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
       <c r="F5" s="55"/>
       <c r="G5" s="55"/>
       <c r="H5" s="96"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="171" t="s">
+      <c r="A6" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="172"/>
-      <c r="C6" s="173"/>
-      <c r="D6" s="178" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="135" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="178"/>
+      <c r="E6" s="135"/>
       <c r="F6" s="55"/>
       <c r="G6" s="55"/>
       <c r="H6" s="96"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="174" t="s">
+      <c r="A7" s="134" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="174"/>
-      <c r="C7" s="174"/>
-      <c r="D7" s="178" t="s">
+      <c r="B7" s="134"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="135" t="s">
         <v>175</v>
       </c>
-      <c r="E7" s="178"/>
+      <c r="E7" s="135"/>
       <c r="F7" s="55"/>
       <c r="G7" s="55"/>
       <c r="H7" s="96"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="174" t="s">
+      <c r="A8" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="174"/>
-      <c r="C8" s="174"/>
-      <c r="D8" s="178" t="s">
+      <c r="B8" s="134"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="E8" s="178"/>
+      <c r="E8" s="135"/>
       <c r="F8" s="96"/>
       <c r="G8" s="96"/>
       <c r="H8" s="96"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="174" t="s">
+      <c r="A9" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="174"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="178" t="s">
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="178"/>
+      <c r="E9" s="135"/>
       <c r="F9" s="96"/>
       <c r="G9" s="96"/>
       <c r="H9" s="96"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="174" t="s">
+      <c r="A10" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="174"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="178"/>
-      <c r="E10" s="178"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
       <c r="F10" s="96"/>
       <c r="G10" s="96"/>
       <c r="H10" s="96"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="174" t="s">
+      <c r="A11" s="134" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="174"/>
-      <c r="C11" s="174"/>
-      <c r="D11" s="178" t="s">
+      <c r="B11" s="134"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="135" t="s">
         <v>167</v>
       </c>
-      <c r="E11" s="178"/>
+      <c r="E11" s="135"/>
       <c r="F11" s="96"/>
       <c r="G11" s="96"/>
       <c r="H11" s="96"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="139" t="s">
+      <c r="A12" s="136" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="136"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="138" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="138"/>
+      <c r="F12" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="139"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="179" t="s">
+      <c r="G12" s="54"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="136" t="s">
         <v>197</v>
       </c>
-      <c r="E12" s="179"/>
-      <c r="F12" s="96" t="s">
+      <c r="B13" s="136"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="138" t="s">
         <v>198</v>
       </c>
-      <c r="G12" s="54"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="139" t="s">
-        <v>199</v>
-      </c>
-      <c r="B13" s="139"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="179" t="s">
-        <v>200</v>
-      </c>
-      <c r="E13" s="179"/>
+      <c r="E13" s="138"/>
       <c r="F13" s="54"/>
       <c r="G13" s="54"/>
       <c r="H13" s="96"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="139" t="s">
+      <c r="A14" s="136" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" s="136"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="137" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" s="138"/>
+      <c r="F14" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B14" s="139"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="193" t="s">
-        <v>224</v>
-      </c>
-      <c r="E14" s="179"/>
-      <c r="F14" s="1" t="s">
-        <v>222</v>
-      </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="139" t="s">
+      <c r="A15" s="136" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" s="136"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="193"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="1" t="s">
-        <v>223</v>
-      </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="175" t="s">
+      <c r="A16" s="142" t="s">
         <v>143</v>
       </c>
-      <c r="B16" s="176"/>
-      <c r="C16" s="177"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="144"/>
       <c r="D16" s="115"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="140" t="s">
-        <v>201</v>
-      </c>
-      <c r="B17" s="141"/>
-      <c r="C17" s="142"/>
+      <c r="A17" s="167" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="168"/>
+      <c r="C17" s="169"/>
       <c r="D17" s="101" t="s">
         <v>141</v>
       </c>
       <c r="E17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
@@ -4395,19 +4387,19 @@
       <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="168" t="s">
-        <v>210</v>
-      </c>
-      <c r="B19" s="169"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="169"/>
-      <c r="G19" s="170"/>
+      <c r="A19" s="178" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19" s="179"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="179"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="179"/>
+      <c r="G19" s="180"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="102" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B20" s="111"/>
       <c r="C20" s="103"/>
@@ -4434,7 +4426,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="99" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B22" s="114"/>
       <c r="C22" s="100"/>
@@ -4447,28 +4439,28 @@
       <c r="C23"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="167" t="s">
-        <v>211</v>
-      </c>
-      <c r="B24" s="167"/>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
+      <c r="A24" s="177" t="s">
+        <v>209</v>
+      </c>
+      <c r="B24" s="177"/>
+      <c r="C24" s="177"/>
+      <c r="D24" s="177"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="177"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="146" t="s">
-        <v>205</v>
-      </c>
-      <c r="C25" s="147"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="148"/>
+      <c r="B25" s="171" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="172"/>
+      <c r="D25" s="172"/>
+      <c r="E25" s="172"/>
+      <c r="F25" s="172"/>
+      <c r="G25" s="173"/>
       <c r="H25" s="106"/>
       <c r="I25" s="106"/>
       <c r="J25" s="106"/>
@@ -4479,12 +4471,12 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="117"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
       <c r="H26" s="113"/>
       <c r="I26" s="113"/>
       <c r="J26" s="113"/>
@@ -4495,12 +4487,12 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="118"/>
-      <c r="B27" s="155"/>
-      <c r="C27" s="155"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="155"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="157"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
@@ -4511,12 +4503,12 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="119"/>
-      <c r="B28" s="156"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156"/>
+      <c r="B28" s="159"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -4529,28 +4521,28 @@
       <c r="C29"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="149" t="s">
-        <v>212</v>
-      </c>
-      <c r="B30" s="150"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="151"/>
+      <c r="A30" s="174" t="s">
+        <v>210</v>
+      </c>
+      <c r="B30" s="175"/>
+      <c r="C30" s="175"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="175"/>
+      <c r="G30" s="176"/>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="160" t="s">
-        <v>206</v>
-      </c>
-      <c r="C31" s="160"/>
-      <c r="D31" s="160"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="160"/>
+      <c r="B31" s="151" t="s">
+        <v>204</v>
+      </c>
+      <c r="C31" s="151"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="151"/>
+      <c r="G31" s="151"/>
       <c r="H31" s="106"/>
       <c r="I31" s="106"/>
       <c r="J31" s="106"/>
@@ -4563,14 +4555,14 @@
       <c r="A32" s="117">
         <v>1</v>
       </c>
-      <c r="B32" s="161" t="s">
-        <v>207</v>
-      </c>
-      <c r="C32" s="161"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="161"/>
+      <c r="B32" s="152" t="s">
+        <v>205</v>
+      </c>
+      <c r="C32" s="152"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="152"/>
       <c r="H32" s="113"/>
       <c r="I32" s="113"/>
       <c r="J32" s="113"/>
@@ -4581,12 +4573,12 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="118"/>
-      <c r="B33" s="162"/>
-      <c r="C33" s="162"/>
-      <c r="D33" s="162"/>
-      <c r="E33" s="162"/>
-      <c r="F33" s="162"/>
-      <c r="G33" s="162"/>
+      <c r="B33" s="153"/>
+      <c r="C33" s="153"/>
+      <c r="D33" s="153"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="153"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -4597,12 +4589,12 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="119"/>
-      <c r="B34" s="163"/>
-      <c r="C34" s="163"/>
-      <c r="D34" s="163"/>
-      <c r="E34" s="163"/>
-      <c r="F34" s="163"/>
-      <c r="G34" s="163"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="154"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -4627,28 +4619,28 @@
       <c r="M35"/>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="149" t="s">
-        <v>213</v>
-      </c>
-      <c r="B36" s="150"/>
-      <c r="C36" s="150"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="151"/>
+      <c r="A36" s="174" t="s">
+        <v>211</v>
+      </c>
+      <c r="B36" s="175"/>
+      <c r="C36" s="175"/>
+      <c r="D36" s="175"/>
+      <c r="E36" s="175"/>
+      <c r="F36" s="175"/>
+      <c r="G36" s="176"/>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="160" t="s">
-        <v>208</v>
-      </c>
-      <c r="C37" s="160"/>
-      <c r="D37" s="160"/>
-      <c r="E37" s="160"/>
-      <c r="F37" s="160"/>
-      <c r="G37" s="160"/>
+      <c r="B37" s="151" t="s">
+        <v>206</v>
+      </c>
+      <c r="C37" s="151"/>
+      <c r="D37" s="151"/>
+      <c r="E37" s="151"/>
+      <c r="F37" s="151"/>
+      <c r="G37" s="151"/>
       <c r="H37" s="106"/>
       <c r="I37" s="106"/>
       <c r="J37" s="106"/>
@@ -4659,12 +4651,12 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="117"/>
-      <c r="B38" s="154"/>
-      <c r="C38" s="154"/>
-      <c r="D38" s="154"/>
-      <c r="E38" s="154"/>
-      <c r="F38" s="154"/>
-      <c r="G38" s="164"/>
+      <c r="B38" s="155"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="155"/>
+      <c r="E38" s="155"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="156"/>
       <c r="H38" s="113"/>
       <c r="I38" s="113"/>
       <c r="J38" s="113"/>
@@ -4675,12 +4667,12 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="118"/>
-      <c r="B39" s="155"/>
-      <c r="C39" s="155"/>
-      <c r="D39" s="155"/>
-      <c r="E39" s="155"/>
-      <c r="F39" s="155"/>
-      <c r="G39" s="165"/>
+      <c r="B39" s="157"/>
+      <c r="C39" s="157"/>
+      <c r="D39" s="157"/>
+      <c r="E39" s="157"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="158"/>
       <c r="H39" s="113"/>
       <c r="I39" s="113"/>
       <c r="J39" s="113"/>
@@ -4691,12 +4683,12 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="119"/>
-      <c r="B40" s="156"/>
-      <c r="C40" s="156"/>
-      <c r="D40" s="156"/>
-      <c r="E40" s="156"/>
-      <c r="F40" s="156"/>
-      <c r="G40" s="166"/>
+      <c r="B40" s="159"/>
+      <c r="C40" s="159"/>
+      <c r="D40" s="159"/>
+      <c r="E40" s="159"/>
+      <c r="F40" s="159"/>
+      <c r="G40" s="160"/>
       <c r="H40" s="113"/>
       <c r="I40" s="113"/>
       <c r="J40" s="113"/>
@@ -4731,241 +4723,276 @@
       <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="136" t="s">
+      <c r="A43" s="164" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="143"/>
-      <c r="C43" s="136" t="s">
+      <c r="B43" s="170"/>
+      <c r="C43" s="164" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="137"/>
-      <c r="E43" s="138"/>
+      <c r="D43" s="165"/>
+      <c r="E43" s="166"/>
       <c r="F43" s="29" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="144"/>
-      <c r="B44" s="145"/>
-      <c r="C44" s="144"/>
-      <c r="D44" s="157"/>
-      <c r="E44" s="145"/>
+      <c r="A44" s="161"/>
+      <c r="B44" s="163"/>
+      <c r="C44" s="161"/>
+      <c r="D44" s="162"/>
+      <c r="E44" s="163"/>
       <c r="F44" s="49"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="134"/>
-      <c r="B45" s="135"/>
-      <c r="C45" s="134"/>
-      <c r="D45" s="158"/>
-      <c r="E45" s="135"/>
+      <c r="A45" s="145"/>
+      <c r="B45" s="147"/>
+      <c r="C45" s="145"/>
+      <c r="D45" s="146"/>
+      <c r="E45" s="147"/>
       <c r="F45" s="49"/>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="134"/>
-      <c r="B46" s="135"/>
-      <c r="C46" s="134"/>
-      <c r="D46" s="158"/>
-      <c r="E46" s="135"/>
+      <c r="A46" s="145"/>
+      <c r="B46" s="147"/>
+      <c r="C46" s="145"/>
+      <c r="D46" s="146"/>
+      <c r="E46" s="147"/>
       <c r="F46" s="49"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="134"/>
-      <c r="B47" s="135"/>
-      <c r="C47" s="134"/>
-      <c r="D47" s="158"/>
-      <c r="E47" s="135"/>
+      <c r="A47" s="145"/>
+      <c r="B47" s="147"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="146"/>
+      <c r="E47" s="147"/>
       <c r="F47" s="49"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="134"/>
-      <c r="B48" s="135"/>
-      <c r="C48" s="134"/>
-      <c r="D48" s="158"/>
-      <c r="E48" s="135"/>
+      <c r="A48" s="145"/>
+      <c r="B48" s="147"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="146"/>
+      <c r="E48" s="147"/>
       <c r="F48" s="49"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="134"/>
-      <c r="B49" s="135"/>
-      <c r="C49" s="134"/>
-      <c r="D49" s="158"/>
-      <c r="E49" s="135"/>
+      <c r="A49" s="145"/>
+      <c r="B49" s="147"/>
+      <c r="C49" s="145"/>
+      <c r="D49" s="146"/>
+      <c r="E49" s="147"/>
       <c r="F49" s="49"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="134"/>
-      <c r="B50" s="135"/>
-      <c r="C50" s="134"/>
-      <c r="D50" s="158"/>
-      <c r="E50" s="135"/>
+      <c r="A50" s="145"/>
+      <c r="B50" s="147"/>
+      <c r="C50" s="145"/>
+      <c r="D50" s="146"/>
+      <c r="E50" s="147"/>
       <c r="F50" s="49"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="134"/>
-      <c r="B51" s="135"/>
-      <c r="C51" s="134"/>
-      <c r="D51" s="158"/>
-      <c r="E51" s="135"/>
+      <c r="A51" s="145"/>
+      <c r="B51" s="147"/>
+      <c r="C51" s="145"/>
+      <c r="D51" s="146"/>
+      <c r="E51" s="147"/>
       <c r="F51" s="49"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="134"/>
-      <c r="B52" s="135"/>
-      <c r="C52" s="134"/>
-      <c r="D52" s="158"/>
-      <c r="E52" s="135"/>
+      <c r="A52" s="145"/>
+      <c r="B52" s="147"/>
+      <c r="C52" s="145"/>
+      <c r="D52" s="146"/>
+      <c r="E52" s="147"/>
       <c r="F52" s="49"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="134"/>
-      <c r="B53" s="135"/>
-      <c r="C53" s="134"/>
-      <c r="D53" s="158"/>
-      <c r="E53" s="135"/>
+      <c r="A53" s="145"/>
+      <c r="B53" s="147"/>
+      <c r="C53" s="145"/>
+      <c r="D53" s="146"/>
+      <c r="E53" s="147"/>
       <c r="F53" s="49"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="134"/>
-      <c r="B54" s="135"/>
-      <c r="C54" s="134"/>
-      <c r="D54" s="158"/>
-      <c r="E54" s="135"/>
+      <c r="A54" s="145"/>
+      <c r="B54" s="147"/>
+      <c r="C54" s="145"/>
+      <c r="D54" s="146"/>
+      <c r="E54" s="147"/>
       <c r="F54" s="49"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="134"/>
-      <c r="B55" s="135"/>
-      <c r="C55" s="134"/>
-      <c r="D55" s="158"/>
-      <c r="E55" s="135"/>
+      <c r="A55" s="145"/>
+      <c r="B55" s="147"/>
+      <c r="C55" s="145"/>
+      <c r="D55" s="146"/>
+      <c r="E55" s="147"/>
       <c r="F55" s="49"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="134"/>
-      <c r="B56" s="135"/>
-      <c r="C56" s="134"/>
-      <c r="D56" s="158"/>
-      <c r="E56" s="135"/>
+      <c r="A56" s="145"/>
+      <c r="B56" s="147"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="146"/>
+      <c r="E56" s="147"/>
       <c r="F56" s="49"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="134"/>
-      <c r="B57" s="135"/>
-      <c r="C57" s="134"/>
-      <c r="D57" s="158"/>
-      <c r="E57" s="135"/>
+      <c r="A57" s="145"/>
+      <c r="B57" s="147"/>
+      <c r="C57" s="145"/>
+      <c r="D57" s="146"/>
+      <c r="E57" s="147"/>
       <c r="F57" s="49"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="134"/>
-      <c r="B58" s="135"/>
-      <c r="C58" s="134"/>
-      <c r="D58" s="158"/>
-      <c r="E58" s="135"/>
+      <c r="A58" s="145"/>
+      <c r="B58" s="147"/>
+      <c r="C58" s="145"/>
+      <c r="D58" s="146"/>
+      <c r="E58" s="147"/>
       <c r="F58" s="49"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="134"/>
-      <c r="B59" s="135"/>
-      <c r="C59" s="134"/>
-      <c r="D59" s="158"/>
-      <c r="E59" s="135"/>
+      <c r="A59" s="145"/>
+      <c r="B59" s="147"/>
+      <c r="C59" s="145"/>
+      <c r="D59" s="146"/>
+      <c r="E59" s="147"/>
       <c r="F59" s="49"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="134"/>
-      <c r="B60" s="135"/>
-      <c r="C60" s="134"/>
-      <c r="D60" s="158"/>
-      <c r="E60" s="135"/>
+      <c r="A60" s="145"/>
+      <c r="B60" s="147"/>
+      <c r="C60" s="145"/>
+      <c r="D60" s="146"/>
+      <c r="E60" s="147"/>
       <c r="F60" s="49"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="134"/>
-      <c r="B61" s="135"/>
-      <c r="C61" s="134"/>
-      <c r="D61" s="158"/>
-      <c r="E61" s="135"/>
+      <c r="A61" s="145"/>
+      <c r="B61" s="147"/>
+      <c r="C61" s="145"/>
+      <c r="D61" s="146"/>
+      <c r="E61" s="147"/>
       <c r="F61" s="49"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="134"/>
-      <c r="B62" s="135"/>
-      <c r="C62" s="134"/>
-      <c r="D62" s="158"/>
-      <c r="E62" s="135"/>
+      <c r="A62" s="145"/>
+      <c r="B62" s="147"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="146"/>
+      <c r="E62" s="147"/>
       <c r="F62" s="49"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="134"/>
-      <c r="B63" s="135"/>
-      <c r="C63" s="134"/>
-      <c r="D63" s="158"/>
-      <c r="E63" s="135"/>
+      <c r="A63" s="145"/>
+      <c r="B63" s="147"/>
+      <c r="C63" s="145"/>
+      <c r="D63" s="146"/>
+      <c r="E63" s="147"/>
       <c r="F63" s="49"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="134"/>
-      <c r="B64" s="135"/>
-      <c r="C64" s="134"/>
-      <c r="D64" s="158"/>
-      <c r="E64" s="135"/>
+      <c r="A64" s="145"/>
+      <c r="B64" s="147"/>
+      <c r="C64" s="145"/>
+      <c r="D64" s="146"/>
+      <c r="E64" s="147"/>
       <c r="F64" s="49"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="134"/>
-      <c r="B65" s="135"/>
-      <c r="C65" s="134"/>
-      <c r="D65" s="158"/>
-      <c r="E65" s="135"/>
+      <c r="A65" s="145"/>
+      <c r="B65" s="147"/>
+      <c r="C65" s="145"/>
+      <c r="D65" s="146"/>
+      <c r="E65" s="147"/>
       <c r="F65" s="49"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="134"/>
-      <c r="B66" s="135"/>
-      <c r="C66" s="134"/>
-      <c r="D66" s="158"/>
-      <c r="E66" s="135"/>
+      <c r="A66" s="145"/>
+      <c r="B66" s="147"/>
+      <c r="C66" s="145"/>
+      <c r="D66" s="146"/>
+      <c r="E66" s="147"/>
       <c r="F66" s="49"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="134"/>
-      <c r="B67" s="135"/>
-      <c r="C67" s="134"/>
-      <c r="D67" s="158"/>
-      <c r="E67" s="135"/>
+      <c r="A67" s="145"/>
+      <c r="B67" s="147"/>
+      <c r="C67" s="145"/>
+      <c r="D67" s="146"/>
+      <c r="E67" s="147"/>
       <c r="F67" s="49"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="152"/>
-      <c r="B68" s="153"/>
-      <c r="C68" s="152"/>
-      <c r="D68" s="159"/>
-      <c r="E68" s="153"/>
+      <c r="A68" s="148"/>
+      <c r="B68" s="150"/>
+      <c r="C68" s="148"/>
+      <c r="D68" s="149"/>
+      <c r="E68" s="150"/>
       <c r="F68" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
     <mergeCell ref="C67:E67"/>
     <mergeCell ref="C68:E68"/>
     <mergeCell ref="B31:G31"/>
@@ -4982,61 +5009,26 @@
     <mergeCell ref="C65:E65"/>
     <mergeCell ref="C66:E66"/>
     <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -5450,10 +5442,10 @@
         <v>152</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5632,7 +5624,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="122" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D8" s="126"/>
       <c r="E8" s="54"/>
@@ -5718,27 +5710,27 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="123" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="123"/>
+      <c r="C15" s="138" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" s="138"/>
+      <c r="E15" s="96" t="s">
         <v>196</v>
-      </c>
-      <c r="B15" s="123"/>
-      <c r="C15" s="179" t="s">
-        <v>197</v>
-      </c>
-      <c r="D15" s="179"/>
-      <c r="E15" s="96" t="s">
-        <v>198</v>
       </c>
       <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="123" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B16" s="123"/>
-      <c r="C16" s="179" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" s="179"/>
+      <c r="C16" s="138" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="138"/>
       <c r="E16" s="55"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -5747,14 +5739,14 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="124" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B17" s="125"/>
       <c r="C17" s="101" t="s">
         <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
@@ -5770,28 +5762,28 @@
       <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="167" t="s">
-        <v>214</v>
-      </c>
-      <c r="B19" s="167"/>
-      <c r="C19" s="167"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="167"/>
-      <c r="G19" s="167"/>
+      <c r="A19" s="177" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" s="177"/>
+      <c r="C19" s="177"/>
+      <c r="D19" s="177"/>
+      <c r="E19" s="177"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="177"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="146" t="s">
-        <v>205</v>
-      </c>
-      <c r="C20" s="147"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="148"/>
+      <c r="B20" s="171" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="172"/>
+      <c r="D20" s="172"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="173"/>
       <c r="H20" s="106"/>
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
@@ -5803,12 +5795,12 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="117"/>
-      <c r="B21" s="154"/>
-      <c r="C21" s="154"/>
-      <c r="D21" s="154"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="154"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
       <c r="H21" s="113"/>
       <c r="I21" s="113"/>
       <c r="J21" s="113"/>
@@ -5820,12 +5812,12 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="118"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
+      <c r="B22" s="157"/>
+      <c r="C22" s="157"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="157"/>
+      <c r="G22" s="157"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
       <c r="J22" s="113"/>
@@ -5837,12 +5829,12 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="119"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
       <c r="J23" s="113"/>
@@ -5856,28 +5848,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="149" t="s">
-        <v>215</v>
-      </c>
-      <c r="B25" s="150"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="151"/>
+      <c r="A25" s="174" t="s">
+        <v>213</v>
+      </c>
+      <c r="B25" s="175"/>
+      <c r="C25" s="175"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="175"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="176"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="160" t="s">
-        <v>206</v>
-      </c>
-      <c r="C26" s="160"/>
-      <c r="D26" s="160"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
+      <c r="B26" s="151" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="151"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
       <c r="H26" s="106"/>
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
@@ -5891,14 +5883,14 @@
       <c r="A27" s="117">
         <v>1</v>
       </c>
-      <c r="B27" s="161" t="s">
-        <v>207</v>
-      </c>
-      <c r="C27" s="161"/>
-      <c r="D27" s="161"/>
-      <c r="E27" s="161"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="161"/>
+      <c r="B27" s="152" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" s="152"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="152"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
@@ -5910,12 +5902,12 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="118"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="153"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -5927,12 +5919,12 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="119"/>
-      <c r="B29" s="163"/>
-      <c r="C29" s="163"/>
-      <c r="D29" s="163"/>
-      <c r="E29" s="163"/>
-      <c r="F29" s="163"/>
-      <c r="G29" s="163"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
       <c r="J29" s="113"/>
@@ -5959,28 +5951,28 @@
       <c r="N30"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="149" t="s">
-        <v>216</v>
-      </c>
-      <c r="B31" s="150"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="151"/>
+      <c r="A31" s="174" t="s">
+        <v>214</v>
+      </c>
+      <c r="B31" s="175"/>
+      <c r="C31" s="175"/>
+      <c r="D31" s="175"/>
+      <c r="E31" s="175"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="176"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="160" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="160"/>
-      <c r="D32" s="160"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="160"/>
+      <c r="B32" s="151" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" s="151"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="151"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
@@ -5992,12 +5984,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="117"/>
-      <c r="B33" s="154"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="164"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="156"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -6009,12 +6001,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="118"/>
-      <c r="B34" s="155"/>
-      <c r="C34" s="155"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="155"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="165"/>
+      <c r="B34" s="157"/>
+      <c r="C34" s="157"/>
+      <c r="D34" s="157"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="158"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -6026,12 +6018,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="119"/>
-      <c r="B35" s="156"/>
-      <c r="C35" s="156"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="166"/>
+      <c r="B35" s="159"/>
+      <c r="C35" s="159"/>
+      <c r="D35" s="159"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="160"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -6085,58 +6077,58 @@
       <c r="T38" s="39"/>
     </row>
     <row r="39" spans="1:20">
-      <c r="A39" s="180" t="s">
+      <c r="A39" s="181" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="180" t="s">
+      <c r="B39" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="182" t="s">
+      <c r="C39" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="180" t="s">
+      <c r="D39" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="185" t="s">
+      <c r="E39" s="187" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="185" t="s">
-        <v>199</v>
-      </c>
-      <c r="G39" s="180" t="s">
+      <c r="F39" s="187" t="s">
+        <v>197</v>
+      </c>
+      <c r="G39" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="180" t="s">
+      <c r="H39" s="181" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="180" t="s">
-        <v>218</v>
-      </c>
-      <c r="J39" s="183" t="s">
+      <c r="I39" s="181" t="s">
+        <v>216</v>
+      </c>
+      <c r="J39" s="185" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="184"/>
-      <c r="L39" s="183" t="s">
+      <c r="K39" s="186"/>
+      <c r="L39" s="185" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="184"/>
+      <c r="M39" s="186"/>
       <c r="N39" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="O39" s="180" t="s">
+      <c r="O39" s="181" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="181"/>
-      <c r="B40" s="181"/>
-      <c r="C40" s="181"/>
-      <c r="D40" s="181"/>
-      <c r="E40" s="186"/>
-      <c r="F40" s="186"/>
-      <c r="G40" s="181"/>
-      <c r="H40" s="181"/>
-      <c r="I40" s="187"/>
+      <c r="A40" s="183"/>
+      <c r="B40" s="183"/>
+      <c r="C40" s="183"/>
+      <c r="D40" s="183"/>
+      <c r="E40" s="188"/>
+      <c r="F40" s="188"/>
+      <c r="G40" s="183"/>
+      <c r="H40" s="183"/>
+      <c r="I40" s="182"/>
       <c r="J40" s="29" t="s">
         <v>75</v>
       </c>
@@ -6152,7 +6144,7 @@
       <c r="N40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="181"/>
+      <c r="O40" s="183"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="7">
@@ -6646,19 +6638,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="A19:G19"/>
@@ -6675,6 +6654,19 @@
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A31:G31"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -6880,15 +6872,15 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="123" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="123"/>
+      <c r="C12" s="138" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="138"/>
+      <c r="E12" s="96" t="s">
         <v>196</v>
-      </c>
-      <c r="B12" s="123"/>
-      <c r="C12" s="179" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="179"/>
-      <c r="E12" s="96" t="s">
-        <v>198</v>
       </c>
       <c r="F12" s="96"/>
       <c r="H12" s="54"/>
@@ -6896,13 +6888,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="123" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B13" s="123"/>
-      <c r="C13" s="179" t="s">
-        <v>200</v>
-      </c>
-      <c r="D13" s="179"/>
+      <c r="C13" s="138" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="138"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="54"/>
@@ -6911,14 +6903,14 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="124" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B14" s="125"/>
       <c r="C14" s="101" t="s">
         <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -6934,28 +6926,28 @@
       <c r="F15" s="96"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="167" t="s">
-        <v>214</v>
-      </c>
-      <c r="B16" s="167"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
+      <c r="A16" s="177" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" s="177"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="177"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="146" t="s">
-        <v>205</v>
-      </c>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="148"/>
+      <c r="B17" s="171" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="172"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="173"/>
       <c r="H17" s="106"/>
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
@@ -6966,12 +6958,12 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="117"/>
-      <c r="B18" s="154"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="154"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="155"/>
       <c r="H18" s="113"/>
       <c r="J18" s="113"/>
       <c r="K18" s="113"/>
@@ -6982,12 +6974,12 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="118"/>
-      <c r="B19" s="155"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
       <c r="H19" s="113"/>
       <c r="J19" s="113"/>
       <c r="K19" s="113"/>
@@ -6998,12 +6990,12 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="119"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
+      <c r="B20" s="159"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="159"/>
       <c r="H20" s="113"/>
       <c r="I20" s="106"/>
       <c r="J20" s="113"/>
@@ -7018,29 +7010,29 @@
       <c r="I21" s="113"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="149" t="s">
-        <v>215</v>
-      </c>
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="151"/>
+      <c r="A22" s="174" t="s">
+        <v>213</v>
+      </c>
+      <c r="B22" s="175"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="175"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="175"/>
+      <c r="G22" s="176"/>
       <c r="I22" s="113"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="160" t="s">
-        <v>206</v>
-      </c>
-      <c r="C23" s="160"/>
-      <c r="D23" s="160"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
+      <c r="B23" s="151" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" s="151"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="151"/>
       <c r="H23" s="106"/>
       <c r="I23" s="113"/>
       <c r="J23" s="106"/>
@@ -7054,14 +7046,14 @@
       <c r="A24" s="117">
         <v>1</v>
       </c>
-      <c r="B24" s="161" t="s">
-        <v>207</v>
-      </c>
-      <c r="C24" s="161"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
+      <c r="B24" s="152" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
       <c r="H24" s="113"/>
       <c r="J24" s="113"/>
       <c r="K24" s="113"/>
@@ -7072,12 +7064,12 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="118"/>
-      <c r="B25" s="162"/>
-      <c r="C25" s="162"/>
-      <c r="D25" s="162"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="162"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="153"/>
       <c r="H25" s="113"/>
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
@@ -7088,12 +7080,12 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="119"/>
-      <c r="B26" s="163"/>
-      <c r="C26" s="163"/>
-      <c r="D26" s="163"/>
-      <c r="E26" s="163"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="163"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
       <c r="H26" s="113"/>
       <c r="I26" s="106"/>
       <c r="J26" s="113"/>
@@ -7120,29 +7112,29 @@
       <c r="N27"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="149" t="s">
-        <v>216</v>
-      </c>
-      <c r="B28" s="150"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="151"/>
+      <c r="A28" s="174" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28" s="175"/>
+      <c r="C28" s="175"/>
+      <c r="D28" s="175"/>
+      <c r="E28" s="175"/>
+      <c r="F28" s="175"/>
+      <c r="G28" s="176"/>
       <c r="I28" s="113"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="160" t="s">
-        <v>208</v>
-      </c>
-      <c r="C29" s="160"/>
-      <c r="D29" s="160"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
+      <c r="B29" s="151" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" s="151"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="151"/>
       <c r="H29" s="106"/>
       <c r="I29" s="113"/>
       <c r="J29" s="106"/>
@@ -7154,12 +7146,12 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="117"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="164"/>
+      <c r="B30" s="155"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="155"/>
+      <c r="E30" s="155"/>
+      <c r="F30" s="155"/>
+      <c r="G30" s="156"/>
       <c r="H30" s="113"/>
       <c r="I30"/>
       <c r="J30" s="113"/>
@@ -7171,12 +7163,12 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="118"/>
-      <c r="B31" s="155"/>
-      <c r="C31" s="155"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="155"/>
-      <c r="G31" s="165"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="158"/>
       <c r="H31" s="113"/>
       <c r="J31" s="113"/>
       <c r="K31" s="113"/>
@@ -7187,12 +7179,12 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="119"/>
-      <c r="B32" s="156"/>
-      <c r="C32" s="156"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="166"/>
+      <c r="B32" s="159"/>
+      <c r="C32" s="159"/>
+      <c r="D32" s="159"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="160"/>
       <c r="H32" s="113"/>
       <c r="I32" s="106"/>
       <c r="J32" s="113"/>
@@ -7242,32 +7234,32 @@
       <c r="O35" s="58"/>
     </row>
     <row r="36" spans="1:15" ht="15">
-      <c r="A36" s="185" t="s">
+      <c r="A36" s="187" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="185" t="s">
+      <c r="B36" s="187" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="185" t="s">
+      <c r="D36" s="187" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="185" t="s">
+      <c r="E36" s="187" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="185" t="s">
-        <v>199</v>
-      </c>
-      <c r="G36" s="185" t="s">
+      <c r="F36" s="187" t="s">
+        <v>197</v>
+      </c>
+      <c r="G36" s="187" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="185" t="s">
+      <c r="H36" s="187" t="s">
         <v>139</v>
       </c>
-      <c r="I36" s="180" t="s">
-        <v>218</v>
+      <c r="I36" s="181" t="s">
+        <v>216</v>
       </c>
       <c r="J36" s="189" t="s">
         <v>122</v>
@@ -7280,22 +7272,22 @@
       <c r="N36" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="O36" s="185" t="s">
+      <c r="O36" s="187" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15">
-      <c r="A37" s="188"/>
-      <c r="B37" s="188"/>
+      <c r="A37" s="192"/>
+      <c r="B37" s="192"/>
       <c r="C37" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="188"/>
-      <c r="E37" s="186"/>
-      <c r="F37" s="186"/>
-      <c r="G37" s="188"/>
-      <c r="H37" s="188"/>
-      <c r="I37" s="187"/>
+      <c r="D37" s="192"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="188"/>
+      <c r="G37" s="192"/>
+      <c r="H37" s="192"/>
+      <c r="I37" s="182"/>
       <c r="J37" s="62" t="s">
         <v>126</v>
       </c>
@@ -7311,7 +7303,7 @@
       <c r="N37" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="O37" s="188"/>
+      <c r="O37" s="192"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="64">
@@ -7787,6 +7779,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="G36:G37"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="I36:I37"/>
@@ -7803,18 +7807,6 @@
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -8054,27 +8046,27 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="123" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="123"/>
+      <c r="C15" s="138" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" s="138"/>
+      <c r="E15" s="96" t="s">
         <v>196</v>
-      </c>
-      <c r="B15" s="123"/>
-      <c r="C15" s="179" t="s">
-        <v>197</v>
-      </c>
-      <c r="D15" s="179"/>
-      <c r="E15" s="96" t="s">
-        <v>198</v>
       </c>
       <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="123" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B16" s="123"/>
-      <c r="C16" s="179" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" s="179"/>
+      <c r="C16" s="138" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="138"/>
       <c r="E16" s="55"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -8083,14 +8075,14 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="124" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B17" s="125"/>
       <c r="C17" s="101" t="s">
         <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
@@ -8106,28 +8098,28 @@
       <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="167" t="s">
-        <v>214</v>
-      </c>
-      <c r="B19" s="167"/>
-      <c r="C19" s="167"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="167"/>
-      <c r="G19" s="167"/>
+      <c r="A19" s="177" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" s="177"/>
+      <c r="C19" s="177"/>
+      <c r="D19" s="177"/>
+      <c r="E19" s="177"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="177"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="146" t="s">
-        <v>205</v>
-      </c>
-      <c r="C20" s="147"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="148"/>
+      <c r="B20" s="171" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="172"/>
+      <c r="D20" s="172"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="173"/>
       <c r="H20" s="106"/>
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
@@ -8139,12 +8131,12 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="117"/>
-      <c r="B21" s="154"/>
-      <c r="C21" s="154"/>
-      <c r="D21" s="154"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="154"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
       <c r="H21" s="113"/>
       <c r="I21" s="113"/>
       <c r="J21" s="113"/>
@@ -8156,12 +8148,12 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="118"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
+      <c r="B22" s="157"/>
+      <c r="C22" s="157"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="157"/>
+      <c r="G22" s="157"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
       <c r="J22" s="113"/>
@@ -8173,12 +8165,12 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="119"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
       <c r="J23" s="113"/>
@@ -8192,28 +8184,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="149" t="s">
-        <v>215</v>
-      </c>
-      <c r="B25" s="150"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="151"/>
+      <c r="A25" s="174" t="s">
+        <v>213</v>
+      </c>
+      <c r="B25" s="175"/>
+      <c r="C25" s="175"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="175"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="176"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="160" t="s">
-        <v>206</v>
-      </c>
-      <c r="C26" s="160"/>
-      <c r="D26" s="160"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
+      <c r="B26" s="151" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="151"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
       <c r="H26" s="106"/>
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
@@ -8227,14 +8219,14 @@
       <c r="A27" s="117">
         <v>1</v>
       </c>
-      <c r="B27" s="161" t="s">
-        <v>207</v>
-      </c>
-      <c r="C27" s="161"/>
-      <c r="D27" s="161"/>
-      <c r="E27" s="161"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="161"/>
+      <c r="B27" s="152" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" s="152"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="152"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
@@ -8246,12 +8238,12 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="118"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="153"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -8263,12 +8255,12 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="119"/>
-      <c r="B29" s="163"/>
-      <c r="C29" s="163"/>
-      <c r="D29" s="163"/>
-      <c r="E29" s="163"/>
-      <c r="F29" s="163"/>
-      <c r="G29" s="163"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
       <c r="J29" s="113"/>
@@ -8295,28 +8287,28 @@
       <c r="N30"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="149" t="s">
-        <v>216</v>
-      </c>
-      <c r="B31" s="150"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="151"/>
+      <c r="A31" s="174" t="s">
+        <v>214</v>
+      </c>
+      <c r="B31" s="175"/>
+      <c r="C31" s="175"/>
+      <c r="D31" s="175"/>
+      <c r="E31" s="175"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="176"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="160" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="160"/>
-      <c r="D32" s="160"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="160"/>
+      <c r="B32" s="151" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" s="151"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="151"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
@@ -8328,12 +8320,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="117"/>
-      <c r="B33" s="154"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="164"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="156"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -8345,12 +8337,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="118"/>
-      <c r="B34" s="155"/>
-      <c r="C34" s="155"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="155"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="165"/>
+      <c r="B34" s="157"/>
+      <c r="C34" s="157"/>
+      <c r="D34" s="157"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="158"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -8362,12 +8354,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="119"/>
-      <c r="B35" s="156"/>
-      <c r="C35" s="156"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="166"/>
+      <c r="B35" s="159"/>
+      <c r="C35" s="159"/>
+      <c r="D35" s="159"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="160"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -8421,58 +8413,58 @@
       <c r="T38" s="39"/>
     </row>
     <row r="39" spans="1:20">
-      <c r="A39" s="180" t="s">
+      <c r="A39" s="181" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="180" t="s">
+      <c r="B39" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="182" t="s">
+      <c r="C39" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="180" t="s">
+      <c r="D39" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="185" t="s">
+      <c r="E39" s="187" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="185" t="s">
-        <v>199</v>
-      </c>
-      <c r="G39" s="180" t="s">
+      <c r="F39" s="187" t="s">
+        <v>197</v>
+      </c>
+      <c r="G39" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="180" t="s">
+      <c r="H39" s="181" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="180" t="s">
-        <v>218</v>
-      </c>
-      <c r="J39" s="183" t="s">
+      <c r="I39" s="181" t="s">
+        <v>216</v>
+      </c>
+      <c r="J39" s="185" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="184"/>
-      <c r="L39" s="183" t="s">
+      <c r="K39" s="186"/>
+      <c r="L39" s="185" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="184"/>
+      <c r="M39" s="186"/>
       <c r="N39" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="O39" s="180" t="s">
+      <c r="O39" s="181" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="181"/>
-      <c r="B40" s="181"/>
-      <c r="C40" s="181"/>
-      <c r="D40" s="181"/>
-      <c r="E40" s="186"/>
-      <c r="F40" s="192"/>
-      <c r="G40" s="181"/>
-      <c r="H40" s="181"/>
-      <c r="I40" s="187"/>
+      <c r="A40" s="183"/>
+      <c r="B40" s="183"/>
+      <c r="C40" s="183"/>
+      <c r="D40" s="183"/>
+      <c r="E40" s="188"/>
+      <c r="F40" s="193"/>
+      <c r="G40" s="183"/>
+      <c r="H40" s="183"/>
+      <c r="I40" s="182"/>
       <c r="J40" s="29" t="s">
         <v>75</v>
       </c>
@@ -8488,7 +8480,7 @@
       <c r="N40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="181"/>
+      <c r="O40" s="183"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="7">
@@ -8982,23 +8974,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
     <mergeCell ref="J39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="O39:O40"/>
@@ -9011,6 +8986,23 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="I39:I40"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B32:G32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -9067,7 +9059,7 @@
   </sheetPr>
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="I38" sqref="I38:I44"/>
     </sheetView>
   </sheetViews>
@@ -9219,15 +9211,15 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="123" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="123"/>
+      <c r="C12" s="138" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="138"/>
+      <c r="E12" s="96" t="s">
         <v>196</v>
-      </c>
-      <c r="B12" s="123"/>
-      <c r="C12" s="179" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="179"/>
-      <c r="E12" s="96" t="s">
-        <v>198</v>
       </c>
       <c r="F12" s="96"/>
       <c r="H12" s="54"/>
@@ -9235,13 +9227,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="123" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B13" s="123"/>
-      <c r="C13" s="179" t="s">
-        <v>200</v>
-      </c>
-      <c r="D13" s="179"/>
+      <c r="C13" s="138" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="138"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="54"/>
@@ -9250,14 +9242,14 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="124" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B14" s="125"/>
       <c r="C14" s="101" t="s">
         <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -9273,28 +9265,28 @@
       <c r="F15" s="96"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="167" t="s">
-        <v>214</v>
-      </c>
-      <c r="B16" s="167"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
+      <c r="A16" s="177" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" s="177"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="177"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="146" t="s">
-        <v>205</v>
-      </c>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="148"/>
+      <c r="B17" s="171" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="172"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="173"/>
       <c r="H17" s="106"/>
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
@@ -9305,12 +9297,12 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="117"/>
-      <c r="B18" s="154"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="154"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="155"/>
       <c r="H18" s="113"/>
       <c r="J18" s="113"/>
       <c r="K18" s="113"/>
@@ -9321,12 +9313,12 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="118"/>
-      <c r="B19" s="155"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
       <c r="H19" s="113"/>
       <c r="J19" s="113"/>
       <c r="K19" s="113"/>
@@ -9337,12 +9329,12 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="119"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
+      <c r="B20" s="159"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="159"/>
       <c r="H20" s="113"/>
       <c r="I20" s="106"/>
       <c r="J20" s="113"/>
@@ -9357,29 +9349,29 @@
       <c r="I21" s="113"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="149" t="s">
-        <v>215</v>
-      </c>
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="151"/>
+      <c r="A22" s="174" t="s">
+        <v>213</v>
+      </c>
+      <c r="B22" s="175"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="175"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="175"/>
+      <c r="G22" s="176"/>
       <c r="I22" s="113"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="160" t="s">
-        <v>206</v>
-      </c>
-      <c r="C23" s="160"/>
-      <c r="D23" s="160"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
+      <c r="B23" s="151" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" s="151"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="151"/>
       <c r="H23" s="106"/>
       <c r="I23" s="113"/>
       <c r="J23" s="106"/>
@@ -9393,14 +9385,14 @@
       <c r="A24" s="117">
         <v>1</v>
       </c>
-      <c r="B24" s="161" t="s">
-        <v>207</v>
-      </c>
-      <c r="C24" s="161"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
+      <c r="B24" s="152" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
       <c r="H24" s="113"/>
       <c r="J24" s="113"/>
       <c r="K24" s="113"/>
@@ -9411,12 +9403,12 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="118"/>
-      <c r="B25" s="162"/>
-      <c r="C25" s="162"/>
-      <c r="D25" s="162"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="162"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="153"/>
       <c r="H25" s="113"/>
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
@@ -9427,12 +9419,12 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="119"/>
-      <c r="B26" s="163"/>
-      <c r="C26" s="163"/>
-      <c r="D26" s="163"/>
-      <c r="E26" s="163"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="163"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
       <c r="H26" s="113"/>
       <c r="I26" s="106"/>
       <c r="J26" s="113"/>
@@ -9459,29 +9451,29 @@
       <c r="N27"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="149" t="s">
-        <v>216</v>
-      </c>
-      <c r="B28" s="150"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="151"/>
+      <c r="A28" s="174" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28" s="175"/>
+      <c r="C28" s="175"/>
+      <c r="D28" s="175"/>
+      <c r="E28" s="175"/>
+      <c r="F28" s="175"/>
+      <c r="G28" s="176"/>
       <c r="I28" s="113"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="160" t="s">
-        <v>208</v>
-      </c>
-      <c r="C29" s="160"/>
-      <c r="D29" s="160"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
+      <c r="B29" s="151" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" s="151"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="151"/>
       <c r="H29" s="106"/>
       <c r="I29" s="113"/>
       <c r="J29" s="106"/>
@@ -9493,12 +9485,12 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="117"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="164"/>
+      <c r="B30" s="155"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="155"/>
+      <c r="E30" s="155"/>
+      <c r="F30" s="155"/>
+      <c r="G30" s="156"/>
       <c r="H30" s="113"/>
       <c r="I30"/>
       <c r="J30" s="113"/>
@@ -9510,12 +9502,12 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="118"/>
-      <c r="B31" s="155"/>
-      <c r="C31" s="155"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="155"/>
-      <c r="G31" s="165"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="158"/>
       <c r="H31" s="113"/>
       <c r="J31" s="113"/>
       <c r="K31" s="113"/>
@@ -9526,12 +9518,12 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="119"/>
-      <c r="B32" s="156"/>
-      <c r="C32" s="156"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="166"/>
+      <c r="B32" s="159"/>
+      <c r="C32" s="159"/>
+      <c r="D32" s="159"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="160"/>
       <c r="H32" s="113"/>
       <c r="I32" s="106"/>
       <c r="J32" s="113"/>
@@ -9581,32 +9573,32 @@
       <c r="O35" s="58"/>
     </row>
     <row r="36" spans="1:15" ht="15">
-      <c r="A36" s="185" t="s">
+      <c r="A36" s="187" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="185" t="s">
+      <c r="B36" s="187" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="185" t="s">
+      <c r="D36" s="187" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="185" t="s">
+      <c r="E36" s="187" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="185" t="s">
-        <v>199</v>
-      </c>
-      <c r="G36" s="185" t="s">
+      <c r="F36" s="187" t="s">
+        <v>197</v>
+      </c>
+      <c r="G36" s="187" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="185" t="s">
+      <c r="H36" s="187" t="s">
         <v>139</v>
       </c>
-      <c r="I36" s="180" t="s">
-        <v>218</v>
+      <c r="I36" s="181" t="s">
+        <v>216</v>
       </c>
       <c r="J36" s="189" t="s">
         <v>122</v>
@@ -9619,22 +9611,22 @@
       <c r="N36" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="O36" s="185" t="s">
+      <c r="O36" s="187" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15">
-      <c r="A37" s="188"/>
-      <c r="B37" s="188"/>
+      <c r="A37" s="192"/>
+      <c r="B37" s="192"/>
       <c r="C37" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="188"/>
-      <c r="E37" s="192"/>
-      <c r="F37" s="192"/>
-      <c r="G37" s="188"/>
-      <c r="H37" s="188"/>
-      <c r="I37" s="187"/>
+      <c r="D37" s="192"/>
+      <c r="E37" s="193"/>
+      <c r="F37" s="193"/>
+      <c r="G37" s="192"/>
+      <c r="H37" s="192"/>
+      <c r="I37" s="182"/>
       <c r="J37" s="62" t="s">
         <v>126</v>
       </c>
@@ -9650,7 +9642,7 @@
       <c r="N37" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="O37" s="188"/>
+      <c r="O37" s="192"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="64">
@@ -10126,23 +10118,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="A36:A37"/>
@@ -10154,6 +10129,23 @@
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="I36:I37"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B29:G29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -10393,27 +10385,27 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="123" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="123"/>
+      <c r="C15" s="138" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" s="138"/>
+      <c r="E15" s="96" t="s">
         <v>196</v>
-      </c>
-      <c r="B15" s="123"/>
-      <c r="C15" s="179" t="s">
-        <v>197</v>
-      </c>
-      <c r="D15" s="179"/>
-      <c r="E15" s="96" t="s">
-        <v>198</v>
       </c>
       <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="123" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B16" s="123"/>
-      <c r="C16" s="179" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" s="179"/>
+      <c r="C16" s="138" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="138"/>
       <c r="E16" s="55"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -10422,14 +10414,14 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="124" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B17" s="125"/>
       <c r="C17" s="101" t="s">
         <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
@@ -10445,28 +10437,28 @@
       <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="167" t="s">
-        <v>214</v>
-      </c>
-      <c r="B19" s="167"/>
-      <c r="C19" s="167"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="167"/>
-      <c r="G19" s="167"/>
+      <c r="A19" s="177" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" s="177"/>
+      <c r="C19" s="177"/>
+      <c r="D19" s="177"/>
+      <c r="E19" s="177"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="177"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="146" t="s">
-        <v>205</v>
-      </c>
-      <c r="C20" s="147"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="148"/>
+      <c r="B20" s="171" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="172"/>
+      <c r="D20" s="172"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="173"/>
       <c r="H20" s="106"/>
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
@@ -10478,12 +10470,12 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="117"/>
-      <c r="B21" s="154"/>
-      <c r="C21" s="154"/>
-      <c r="D21" s="154"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="154"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
       <c r="H21" s="113"/>
       <c r="I21" s="113"/>
       <c r="J21" s="113"/>
@@ -10495,12 +10487,12 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="118"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
+      <c r="B22" s="157"/>
+      <c r="C22" s="157"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="157"/>
+      <c r="G22" s="157"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
       <c r="J22" s="113"/>
@@ -10512,12 +10504,12 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="119"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
       <c r="J23" s="113"/>
@@ -10531,28 +10523,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="149" t="s">
-        <v>215</v>
-      </c>
-      <c r="B25" s="150"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="151"/>
+      <c r="A25" s="174" t="s">
+        <v>213</v>
+      </c>
+      <c r="B25" s="175"/>
+      <c r="C25" s="175"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="175"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="176"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="160" t="s">
-        <v>206</v>
-      </c>
-      <c r="C26" s="160"/>
-      <c r="D26" s="160"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
+      <c r="B26" s="151" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="151"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
       <c r="H26" s="106"/>
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
@@ -10566,14 +10558,14 @@
       <c r="A27" s="117">
         <v>1</v>
       </c>
-      <c r="B27" s="161" t="s">
-        <v>207</v>
-      </c>
-      <c r="C27" s="161"/>
-      <c r="D27" s="161"/>
-      <c r="E27" s="161"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="161"/>
+      <c r="B27" s="152" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" s="152"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="152"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
@@ -10585,12 +10577,12 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="118"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="153"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -10602,12 +10594,12 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="119"/>
-      <c r="B29" s="163"/>
-      <c r="C29" s="163"/>
-      <c r="D29" s="163"/>
-      <c r="E29" s="163"/>
-      <c r="F29" s="163"/>
-      <c r="G29" s="163"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
       <c r="J29" s="113"/>
@@ -10634,28 +10626,28 @@
       <c r="N30"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="149" t="s">
-        <v>216</v>
-      </c>
-      <c r="B31" s="150"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="151"/>
+      <c r="A31" s="174" t="s">
+        <v>214</v>
+      </c>
+      <c r="B31" s="175"/>
+      <c r="C31" s="175"/>
+      <c r="D31" s="175"/>
+      <c r="E31" s="175"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="176"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="160" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="160"/>
-      <c r="D32" s="160"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="160"/>
+      <c r="B32" s="151" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" s="151"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="151"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
@@ -10667,12 +10659,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="117"/>
-      <c r="B33" s="154"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="164"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="156"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -10684,12 +10676,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="118"/>
-      <c r="B34" s="155"/>
-      <c r="C34" s="155"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="155"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="165"/>
+      <c r="B34" s="157"/>
+      <c r="C34" s="157"/>
+      <c r="D34" s="157"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="158"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -10701,12 +10693,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="119"/>
-      <c r="B35" s="156"/>
-      <c r="C35" s="156"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="166"/>
+      <c r="B35" s="159"/>
+      <c r="C35" s="159"/>
+      <c r="D35" s="159"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="160"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -10760,58 +10752,58 @@
       <c r="T38" s="39"/>
     </row>
     <row r="39" spans="1:20">
-      <c r="A39" s="180" t="s">
+      <c r="A39" s="181" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="180" t="s">
+      <c r="B39" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="182" t="s">
+      <c r="C39" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="180" t="s">
+      <c r="D39" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="185" t="s">
+      <c r="E39" s="187" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="185" t="s">
-        <v>199</v>
-      </c>
-      <c r="G39" s="180" t="s">
+      <c r="F39" s="187" t="s">
+        <v>197</v>
+      </c>
+      <c r="G39" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="180" t="s">
+      <c r="H39" s="181" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="180" t="s">
-        <v>218</v>
-      </c>
-      <c r="J39" s="183" t="s">
+      <c r="I39" s="181" t="s">
+        <v>216</v>
+      </c>
+      <c r="J39" s="185" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="184"/>
-      <c r="L39" s="183" t="s">
+      <c r="K39" s="186"/>
+      <c r="L39" s="185" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="184"/>
+      <c r="M39" s="186"/>
       <c r="N39" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="O39" s="180" t="s">
+      <c r="O39" s="181" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="181"/>
-      <c r="B40" s="181"/>
-      <c r="C40" s="181"/>
-      <c r="D40" s="181"/>
-      <c r="E40" s="186"/>
-      <c r="F40" s="192"/>
-      <c r="G40" s="181"/>
-      <c r="H40" s="181"/>
-      <c r="I40" s="187"/>
+      <c r="A40" s="183"/>
+      <c r="B40" s="183"/>
+      <c r="C40" s="183"/>
+      <c r="D40" s="183"/>
+      <c r="E40" s="188"/>
+      <c r="F40" s="193"/>
+      <c r="G40" s="183"/>
+      <c r="H40" s="183"/>
+      <c r="I40" s="182"/>
       <c r="J40" s="29" t="s">
         <v>75</v>
       </c>
@@ -10827,7 +10819,7 @@
       <c r="N40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="181"/>
+      <c r="O40" s="183"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="7">
@@ -11321,23 +11313,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
     <mergeCell ref="J39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="O39:O40"/>
@@ -11350,6 +11325,23 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="I39:I40"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B32:G32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -11558,15 +11550,15 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="123" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="123"/>
+      <c r="C12" s="138" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="138"/>
+      <c r="E12" s="96" t="s">
         <v>196</v>
-      </c>
-      <c r="B12" s="123"/>
-      <c r="C12" s="179" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="179"/>
-      <c r="E12" s="96" t="s">
-        <v>198</v>
       </c>
       <c r="F12" s="96"/>
       <c r="H12" s="54"/>
@@ -11574,13 +11566,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="123" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B13" s="123"/>
-      <c r="C13" s="179" t="s">
-        <v>200</v>
-      </c>
-      <c r="D13" s="179"/>
+      <c r="C13" s="138" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="138"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="54"/>
@@ -11589,14 +11581,14 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="124" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B14" s="125"/>
       <c r="C14" s="101" t="s">
         <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -11612,28 +11604,28 @@
       <c r="F15" s="96"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="167" t="s">
-        <v>214</v>
-      </c>
-      <c r="B16" s="167"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
+      <c r="A16" s="177" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" s="177"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="177"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="146" t="s">
-        <v>205</v>
-      </c>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="148"/>
+      <c r="B17" s="171" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="172"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="173"/>
       <c r="H17" s="106"/>
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
@@ -11644,12 +11636,12 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="117"/>
-      <c r="B18" s="154"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="154"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="155"/>
       <c r="H18" s="113"/>
       <c r="J18" s="113"/>
       <c r="K18" s="113"/>
@@ -11660,12 +11652,12 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="118"/>
-      <c r="B19" s="155"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
       <c r="H19" s="113"/>
       <c r="J19" s="113"/>
       <c r="K19" s="113"/>
@@ -11676,12 +11668,12 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="119"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
+      <c r="B20" s="159"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="159"/>
       <c r="H20" s="113"/>
       <c r="I20" s="106"/>
       <c r="J20" s="113"/>
@@ -11696,29 +11688,29 @@
       <c r="I21" s="113"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="149" t="s">
-        <v>215</v>
-      </c>
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="151"/>
+      <c r="A22" s="174" t="s">
+        <v>213</v>
+      </c>
+      <c r="B22" s="175"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="175"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="175"/>
+      <c r="G22" s="176"/>
       <c r="I22" s="113"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="160" t="s">
-        <v>206</v>
-      </c>
-      <c r="C23" s="160"/>
-      <c r="D23" s="160"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
+      <c r="B23" s="151" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" s="151"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="151"/>
       <c r="H23" s="106"/>
       <c r="I23" s="113"/>
       <c r="J23" s="106"/>
@@ -11732,14 +11724,14 @@
       <c r="A24" s="117">
         <v>1</v>
       </c>
-      <c r="B24" s="161" t="s">
-        <v>207</v>
-      </c>
-      <c r="C24" s="161"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
+      <c r="B24" s="152" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
       <c r="H24" s="113"/>
       <c r="J24" s="113"/>
       <c r="K24" s="113"/>
@@ -11750,12 +11742,12 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="118"/>
-      <c r="B25" s="162"/>
-      <c r="C25" s="162"/>
-      <c r="D25" s="162"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="162"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="153"/>
       <c r="H25" s="113"/>
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
@@ -11766,12 +11758,12 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="119"/>
-      <c r="B26" s="163"/>
-      <c r="C26" s="163"/>
-      <c r="D26" s="163"/>
-      <c r="E26" s="163"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="163"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
       <c r="H26" s="113"/>
       <c r="I26" s="106"/>
       <c r="J26" s="113"/>
@@ -11798,29 +11790,29 @@
       <c r="N27"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="149" t="s">
-        <v>216</v>
-      </c>
-      <c r="B28" s="150"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="151"/>
+      <c r="A28" s="174" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28" s="175"/>
+      <c r="C28" s="175"/>
+      <c r="D28" s="175"/>
+      <c r="E28" s="175"/>
+      <c r="F28" s="175"/>
+      <c r="G28" s="176"/>
       <c r="I28" s="113"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="160" t="s">
-        <v>208</v>
-      </c>
-      <c r="C29" s="160"/>
-      <c r="D29" s="160"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
+      <c r="B29" s="151" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" s="151"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="151"/>
       <c r="H29" s="106"/>
       <c r="I29" s="113"/>
       <c r="J29" s="106"/>
@@ -11832,12 +11824,12 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="117"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="164"/>
+      <c r="B30" s="155"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="155"/>
+      <c r="E30" s="155"/>
+      <c r="F30" s="155"/>
+      <c r="G30" s="156"/>
       <c r="H30" s="113"/>
       <c r="I30"/>
       <c r="J30" s="113"/>
@@ -11849,12 +11841,12 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="118"/>
-      <c r="B31" s="155"/>
-      <c r="C31" s="155"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="155"/>
-      <c r="G31" s="165"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="158"/>
       <c r="H31" s="113"/>
       <c r="J31" s="113"/>
       <c r="K31" s="113"/>
@@ -11865,12 +11857,12 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="119"/>
-      <c r="B32" s="156"/>
-      <c r="C32" s="156"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="166"/>
+      <c r="B32" s="159"/>
+      <c r="C32" s="159"/>
+      <c r="D32" s="159"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="160"/>
       <c r="H32" s="113"/>
       <c r="I32" s="106"/>
       <c r="J32" s="113"/>
@@ -11920,32 +11912,32 @@
       <c r="O35" s="58"/>
     </row>
     <row r="36" spans="1:15" ht="15">
-      <c r="A36" s="185" t="s">
+      <c r="A36" s="187" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="185" t="s">
+      <c r="B36" s="187" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="185" t="s">
+      <c r="D36" s="187" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="185" t="s">
+      <c r="E36" s="187" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="185" t="s">
-        <v>199</v>
-      </c>
-      <c r="G36" s="185" t="s">
+      <c r="F36" s="187" t="s">
+        <v>197</v>
+      </c>
+      <c r="G36" s="187" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="185" t="s">
+      <c r="H36" s="187" t="s">
         <v>139</v>
       </c>
-      <c r="I36" s="180" t="s">
-        <v>218</v>
+      <c r="I36" s="181" t="s">
+        <v>216</v>
       </c>
       <c r="J36" s="189" t="s">
         <v>122</v>
@@ -11958,22 +11950,22 @@
       <c r="N36" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="O36" s="185" t="s">
+      <c r="O36" s="187" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15">
-      <c r="A37" s="188"/>
-      <c r="B37" s="188"/>
+      <c r="A37" s="192"/>
+      <c r="B37" s="192"/>
       <c r="C37" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="188"/>
-      <c r="E37" s="186"/>
-      <c r="F37" s="192"/>
-      <c r="G37" s="188"/>
-      <c r="H37" s="188"/>
-      <c r="I37" s="187"/>
+      <c r="D37" s="192"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="193"/>
+      <c r="G37" s="192"/>
+      <c r="H37" s="192"/>
+      <c r="I37" s="182"/>
       <c r="J37" s="62" t="s">
         <v>126</v>
       </c>
@@ -11989,7 +11981,7 @@
       <c r="N37" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="O37" s="188"/>
+      <c r="O37" s="192"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="64">
@@ -12465,23 +12457,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="A36:A37"/>
@@ -12493,6 +12468,23 @@
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="I36:I37"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B29:G29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -12540,7 +12532,7 @@
   </sheetPr>
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView topLeftCell="L7" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="I41" sqref="I41:I47"/>
     </sheetView>
   </sheetViews>
@@ -12736,27 +12728,27 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="123" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="123"/>
+      <c r="C15" s="138" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" s="138"/>
+      <c r="E15" s="96" t="s">
         <v>196</v>
-      </c>
-      <c r="B15" s="123"/>
-      <c r="C15" s="179" t="s">
-        <v>197</v>
-      </c>
-      <c r="D15" s="179"/>
-      <c r="E15" s="96" t="s">
-        <v>198</v>
       </c>
       <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="123" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B16" s="123"/>
-      <c r="C16" s="179" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" s="179"/>
+      <c r="C16" s="138" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="138"/>
       <c r="E16" s="55"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -12765,14 +12757,14 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="124" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B17" s="125"/>
       <c r="C17" s="101" t="s">
         <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
@@ -12788,28 +12780,28 @@
       <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="167" t="s">
-        <v>214</v>
-      </c>
-      <c r="B19" s="167"/>
-      <c r="C19" s="167"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="167"/>
-      <c r="G19" s="167"/>
+      <c r="A19" s="177" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" s="177"/>
+      <c r="C19" s="177"/>
+      <c r="D19" s="177"/>
+      <c r="E19" s="177"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="177"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="146" t="s">
-        <v>205</v>
-      </c>
-      <c r="C20" s="147"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="148"/>
+      <c r="B20" s="171" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="172"/>
+      <c r="D20" s="172"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="173"/>
       <c r="H20" s="106"/>
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
@@ -12821,12 +12813,12 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="117"/>
-      <c r="B21" s="154"/>
-      <c r="C21" s="154"/>
-      <c r="D21" s="154"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="154"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
       <c r="H21" s="113"/>
       <c r="I21" s="113"/>
       <c r="J21" s="113"/>
@@ -12838,12 +12830,12 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="118"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
+      <c r="B22" s="157"/>
+      <c r="C22" s="157"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="157"/>
+      <c r="G22" s="157"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
       <c r="J22" s="113"/>
@@ -12855,12 +12847,12 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="119"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
       <c r="J23" s="113"/>
@@ -12874,28 +12866,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="149" t="s">
-        <v>215</v>
-      </c>
-      <c r="B25" s="150"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="151"/>
+      <c r="A25" s="174" t="s">
+        <v>213</v>
+      </c>
+      <c r="B25" s="175"/>
+      <c r="C25" s="175"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="175"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="176"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="160" t="s">
-        <v>206</v>
-      </c>
-      <c r="C26" s="160"/>
-      <c r="D26" s="160"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
+      <c r="B26" s="151" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="151"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
       <c r="H26" s="106"/>
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
@@ -12909,14 +12901,14 @@
       <c r="A27" s="117">
         <v>1</v>
       </c>
-      <c r="B27" s="161" t="s">
-        <v>207</v>
-      </c>
-      <c r="C27" s="161"/>
-      <c r="D27" s="161"/>
-      <c r="E27" s="161"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="161"/>
+      <c r="B27" s="152" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" s="152"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="152"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
@@ -12928,12 +12920,12 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="118"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="153"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -12945,12 +12937,12 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="119"/>
-      <c r="B29" s="163"/>
-      <c r="C29" s="163"/>
-      <c r="D29" s="163"/>
-      <c r="E29" s="163"/>
-      <c r="F29" s="163"/>
-      <c r="G29" s="163"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
       <c r="J29" s="113"/>
@@ -12977,28 +12969,28 @@
       <c r="N30"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="149" t="s">
-        <v>216</v>
-      </c>
-      <c r="B31" s="150"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="151"/>
+      <c r="A31" s="174" t="s">
+        <v>214</v>
+      </c>
+      <c r="B31" s="175"/>
+      <c r="C31" s="175"/>
+      <c r="D31" s="175"/>
+      <c r="E31" s="175"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="176"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="160" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="160"/>
-      <c r="D32" s="160"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="160"/>
+      <c r="B32" s="151" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" s="151"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="151"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
@@ -13010,12 +13002,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="117"/>
-      <c r="B33" s="154"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="164"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="156"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -13027,12 +13019,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="118"/>
-      <c r="B34" s="155"/>
-      <c r="C34" s="155"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="155"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="165"/>
+      <c r="B34" s="157"/>
+      <c r="C34" s="157"/>
+      <c r="D34" s="157"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="158"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -13044,12 +13036,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="119"/>
-      <c r="B35" s="156"/>
-      <c r="C35" s="156"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="166"/>
+      <c r="B35" s="159"/>
+      <c r="C35" s="159"/>
+      <c r="D35" s="159"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="160"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -13105,58 +13097,58 @@
       <c r="T38" s="39"/>
     </row>
     <row r="39" spans="1:20">
-      <c r="A39" s="180" t="s">
+      <c r="A39" s="181" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="180" t="s">
+      <c r="B39" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="182" t="s">
+      <c r="C39" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="180" t="s">
+      <c r="D39" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="185" t="s">
+      <c r="E39" s="187" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="185" t="s">
-        <v>199</v>
-      </c>
-      <c r="G39" s="180" t="s">
+      <c r="F39" s="187" t="s">
+        <v>197</v>
+      </c>
+      <c r="G39" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="180" t="s">
+      <c r="H39" s="181" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="180" t="s">
-        <v>218</v>
-      </c>
-      <c r="J39" s="183" t="s">
+      <c r="I39" s="181" t="s">
+        <v>216</v>
+      </c>
+      <c r="J39" s="185" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="184"/>
-      <c r="L39" s="183" t="s">
+      <c r="K39" s="186"/>
+      <c r="L39" s="185" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="184"/>
+      <c r="M39" s="186"/>
       <c r="N39" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="O39" s="180" t="s">
+      <c r="O39" s="181" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="181"/>
-      <c r="B40" s="181"/>
-      <c r="C40" s="181"/>
-      <c r="D40" s="181"/>
-      <c r="E40" s="186"/>
-      <c r="F40" s="192"/>
-      <c r="G40" s="181"/>
-      <c r="H40" s="181"/>
-      <c r="I40" s="187"/>
+      <c r="A40" s="183"/>
+      <c r="B40" s="183"/>
+      <c r="C40" s="183"/>
+      <c r="D40" s="183"/>
+      <c r="E40" s="188"/>
+      <c r="F40" s="193"/>
+      <c r="G40" s="183"/>
+      <c r="H40" s="183"/>
+      <c r="I40" s="182"/>
       <c r="J40" s="29" t="s">
         <v>75</v>
       </c>
@@ -13172,7 +13164,7 @@
       <c r="N40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="181"/>
+      <c r="O40" s="183"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="7">
@@ -13666,23 +13658,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
     <mergeCell ref="J39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="O39:O40"/>
@@ -13695,6 +13670,23 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="I39:I40"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B32:G32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -13751,8 +13743,8 @@
   </sheetPr>
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -13903,15 +13895,15 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="123" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="123"/>
+      <c r="C12" s="138" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="138"/>
+      <c r="E12" s="96" t="s">
         <v>196</v>
-      </c>
-      <c r="B12" s="123"/>
-      <c r="C12" s="179" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="179"/>
-      <c r="E12" s="96" t="s">
-        <v>198</v>
       </c>
       <c r="F12" s="96"/>
       <c r="H12" s="54"/>
@@ -13919,13 +13911,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="123" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B13" s="123"/>
-      <c r="C13" s="179" t="s">
-        <v>200</v>
-      </c>
-      <c r="D13" s="179"/>
+      <c r="C13" s="138" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="138"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="54"/>
@@ -13934,14 +13926,14 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="124" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B14" s="125"/>
       <c r="C14" s="101" t="s">
         <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -13957,28 +13949,28 @@
       <c r="F15" s="96"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="167" t="s">
-        <v>214</v>
-      </c>
-      <c r="B16" s="167"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
+      <c r="A16" s="177" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" s="177"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="177"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="146" t="s">
-        <v>205</v>
-      </c>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="148"/>
+      <c r="B17" s="171" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="172"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="173"/>
       <c r="H17" s="106"/>
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
@@ -13989,12 +13981,12 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="117"/>
-      <c r="B18" s="154"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="154"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="155"/>
       <c r="H18" s="113"/>
       <c r="J18" s="113"/>
       <c r="K18" s="113"/>
@@ -14005,12 +13997,12 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="118"/>
-      <c r="B19" s="155"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
       <c r="H19" s="113"/>
       <c r="J19" s="113"/>
       <c r="K19" s="113"/>
@@ -14021,12 +14013,12 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="119"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
+      <c r="B20" s="159"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="159"/>
       <c r="H20" s="113"/>
       <c r="I20" s="106"/>
       <c r="J20" s="113"/>
@@ -14041,29 +14033,29 @@
       <c r="I21" s="113"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="149" t="s">
-        <v>215</v>
-      </c>
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="151"/>
+      <c r="A22" s="174" t="s">
+        <v>213</v>
+      </c>
+      <c r="B22" s="175"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="175"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="175"/>
+      <c r="G22" s="176"/>
       <c r="I22" s="113"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="160" t="s">
-        <v>206</v>
-      </c>
-      <c r="C23" s="160"/>
-      <c r="D23" s="160"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
+      <c r="B23" s="151" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" s="151"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="151"/>
       <c r="H23" s="106"/>
       <c r="I23" s="113"/>
       <c r="J23" s="106"/>
@@ -14077,14 +14069,14 @@
       <c r="A24" s="117">
         <v>1</v>
       </c>
-      <c r="B24" s="161" t="s">
-        <v>207</v>
-      </c>
-      <c r="C24" s="161"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
+      <c r="B24" s="152" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
       <c r="H24" s="113"/>
       <c r="J24" s="113"/>
       <c r="K24" s="113"/>
@@ -14095,12 +14087,12 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="118"/>
-      <c r="B25" s="162"/>
-      <c r="C25" s="162"/>
-      <c r="D25" s="162"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="162"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="153"/>
       <c r="H25" s="113"/>
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
@@ -14111,12 +14103,12 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="119"/>
-      <c r="B26" s="163"/>
-      <c r="C26" s="163"/>
-      <c r="D26" s="163"/>
-      <c r="E26" s="163"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="163"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
       <c r="H26" s="113"/>
       <c r="I26" s="106"/>
       <c r="J26" s="113"/>
@@ -14143,29 +14135,29 @@
       <c r="N27"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="149" t="s">
-        <v>216</v>
-      </c>
-      <c r="B28" s="150"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="151"/>
+      <c r="A28" s="174" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28" s="175"/>
+      <c r="C28" s="175"/>
+      <c r="D28" s="175"/>
+      <c r="E28" s="175"/>
+      <c r="F28" s="175"/>
+      <c r="G28" s="176"/>
       <c r="I28" s="113"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="160" t="s">
-        <v>208</v>
-      </c>
-      <c r="C29" s="160"/>
-      <c r="D29" s="160"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
+      <c r="B29" s="151" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" s="151"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="151"/>
       <c r="H29" s="106"/>
       <c r="I29" s="113"/>
       <c r="J29" s="106"/>
@@ -14177,12 +14169,12 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="117"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="164"/>
+      <c r="B30" s="155"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="155"/>
+      <c r="E30" s="155"/>
+      <c r="F30" s="155"/>
+      <c r="G30" s="156"/>
       <c r="H30" s="113"/>
       <c r="I30"/>
       <c r="J30" s="113"/>
@@ -14194,12 +14186,12 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="118"/>
-      <c r="B31" s="155"/>
-      <c r="C31" s="155"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="155"/>
-      <c r="G31" s="165"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="158"/>
       <c r="H31" s="113"/>
       <c r="J31" s="113"/>
       <c r="K31" s="113"/>
@@ -14210,12 +14202,12 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="119"/>
-      <c r="B32" s="156"/>
-      <c r="C32" s="156"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="166"/>
+      <c r="B32" s="159"/>
+      <c r="C32" s="159"/>
+      <c r="D32" s="159"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="160"/>
       <c r="H32" s="113"/>
       <c r="I32" s="106"/>
       <c r="J32" s="113"/>
@@ -14265,32 +14257,32 @@
       <c r="O35" s="58"/>
     </row>
     <row r="36" spans="1:15" ht="15">
-      <c r="A36" s="185" t="s">
+      <c r="A36" s="187" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="185" t="s">
+      <c r="B36" s="187" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="185" t="s">
+      <c r="D36" s="187" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="185" t="s">
+      <c r="E36" s="187" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="185" t="s">
-        <v>199</v>
-      </c>
-      <c r="G36" s="185" t="s">
+      <c r="F36" s="187" t="s">
+        <v>197</v>
+      </c>
+      <c r="G36" s="187" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="185" t="s">
+      <c r="H36" s="187" t="s">
         <v>139</v>
       </c>
-      <c r="I36" s="180" t="s">
-        <v>218</v>
+      <c r="I36" s="181" t="s">
+        <v>216</v>
       </c>
       <c r="J36" s="189" t="s">
         <v>122</v>
@@ -14303,22 +14295,22 @@
       <c r="N36" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="O36" s="185" t="s">
+      <c r="O36" s="187" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15">
-      <c r="A37" s="188"/>
-      <c r="B37" s="188"/>
+      <c r="A37" s="192"/>
+      <c r="B37" s="192"/>
       <c r="C37" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="188"/>
-      <c r="E37" s="186"/>
-      <c r="F37" s="192"/>
-      <c r="G37" s="188"/>
-      <c r="H37" s="188"/>
-      <c r="I37" s="187"/>
+      <c r="D37" s="192"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="193"/>
+      <c r="G37" s="192"/>
+      <c r="H37" s="192"/>
+      <c r="I37" s="182"/>
       <c r="J37" s="62" t="s">
         <v>126</v>
       </c>
@@ -14334,30 +14326,18 @@
       <c r="N37" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="O37" s="188"/>
+      <c r="O37" s="192"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="64">
-        <v>1</v>
-      </c>
-      <c r="B38" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="66" t="s">
-        <v>131</v>
-      </c>
-      <c r="D38" s="67" t="s">
-        <v>102</v>
-      </c>
+      <c r="A38" s="64"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="67"/>
       <c r="E38" s="67"/>
       <c r="F38" s="67"/>
-      <c r="G38" s="90" t="s">
-        <v>141</v>
-      </c>
+      <c r="G38" s="90"/>
       <c r="H38" s="67"/>
-      <c r="I38" s="24" t="s">
-        <v>141</v>
-      </c>
+      <c r="I38" s="24"/>
       <c r="J38" s="67"/>
       <c r="K38" s="67"/>
       <c r="L38" s="67"/>
@@ -14366,25 +14346,15 @@
       <c r="O38" s="68"/>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="64">
-        <v>2</v>
-      </c>
-      <c r="B39" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="C39" s="66" t="s">
-        <v>132</v>
-      </c>
-      <c r="D39" s="67" t="s">
-        <v>104</v>
-      </c>
+      <c r="A39" s="64"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="67"/>
       <c r="E39" s="67"/>
       <c r="F39" s="67"/>
       <c r="G39" s="90"/>
       <c r="H39" s="67"/>
-      <c r="I39" s="25" t="s">
-        <v>141</v>
-      </c>
+      <c r="I39" s="25"/>
       <c r="J39" s="65"/>
       <c r="K39" s="65"/>
       <c r="L39" s="65"/>
@@ -14393,23 +14363,15 @@
       <c r="O39" s="68"/>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="64">
-        <v>3</v>
-      </c>
-      <c r="B40" s="69" t="s">
-        <v>135</v>
-      </c>
+      <c r="A40" s="64"/>
+      <c r="B40" s="69"/>
       <c r="C40" s="51"/>
-      <c r="D40" s="70" t="s">
-        <v>106</v>
-      </c>
+      <c r="D40" s="70"/>
       <c r="E40" s="70"/>
       <c r="F40" s="70"/>
       <c r="G40" s="91"/>
       <c r="H40" s="70"/>
-      <c r="I40" s="25" t="s">
-        <v>141</v>
-      </c>
+      <c r="I40" s="25"/>
       <c r="J40" s="65"/>
       <c r="K40" s="65"/>
       <c r="L40" s="65"/>
@@ -14418,23 +14380,15 @@
       <c r="O40" s="71"/>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="64">
-        <v>4</v>
-      </c>
-      <c r="B41" s="72" t="s">
-        <v>136</v>
-      </c>
+      <c r="A41" s="64"/>
+      <c r="B41" s="72"/>
       <c r="C41" s="73"/>
-      <c r="D41" s="74" t="s">
-        <v>108</v>
-      </c>
+      <c r="D41" s="74"/>
       <c r="E41" s="74"/>
       <c r="F41" s="74"/>
       <c r="G41" s="94"/>
       <c r="H41" s="74"/>
-      <c r="I41" s="25" t="s">
-        <v>141</v>
-      </c>
+      <c r="I41" s="25"/>
       <c r="J41" s="65"/>
       <c r="K41" s="65"/>
       <c r="L41" s="65"/>
@@ -14443,25 +14397,15 @@
       <c r="O41" s="75"/>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="64">
-        <v>5</v>
-      </c>
-      <c r="B42" s="72" t="s">
-        <v>138</v>
-      </c>
+      <c r="A42" s="64"/>
+      <c r="B42" s="72"/>
       <c r="C42" s="73"/>
-      <c r="D42" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="E42" s="74" t="s">
-        <v>194</v>
-      </c>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
       <c r="F42" s="74"/>
       <c r="G42" s="92"/>
       <c r="H42" s="74"/>
-      <c r="I42" s="25" t="s">
-        <v>141</v>
-      </c>
+      <c r="I42" s="25"/>
       <c r="J42" s="67"/>
       <c r="K42" s="67"/>
       <c r="L42" s="67"/>
@@ -14470,23 +14414,15 @@
       <c r="O42" s="75"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="64">
-        <v>6</v>
-      </c>
-      <c r="B43" s="72" t="s">
-        <v>137</v>
-      </c>
+      <c r="A43" s="64"/>
+      <c r="B43" s="72"/>
       <c r="C43" s="73"/>
-      <c r="D43" s="74" t="s">
-        <v>112</v>
-      </c>
+      <c r="D43" s="74"/>
       <c r="E43" s="74"/>
       <c r="F43" s="74"/>
       <c r="G43" s="92"/>
       <c r="H43" s="74"/>
-      <c r="I43" s="25" t="s">
-        <v>141</v>
-      </c>
+      <c r="I43" s="25"/>
       <c r="J43" s="65"/>
       <c r="K43" s="65"/>
       <c r="L43" s="65"/>
@@ -14495,23 +14431,15 @@
       <c r="O43" s="75"/>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="64">
-        <v>7</v>
-      </c>
-      <c r="B44" s="72" t="s">
-        <v>114</v>
-      </c>
+      <c r="A44" s="64"/>
+      <c r="B44" s="72"/>
       <c r="C44" s="73"/>
-      <c r="D44" s="74" t="s">
-        <v>195</v>
-      </c>
+      <c r="D44" s="74"/>
       <c r="E44" s="74"/>
       <c r="F44" s="74"/>
       <c r="G44" s="92"/>
       <c r="H44" s="74"/>
-      <c r="I44" s="25" t="s">
-        <v>141</v>
-      </c>
+      <c r="I44" s="25"/>
       <c r="J44" s="65"/>
       <c r="K44" s="65"/>
       <c r="L44" s="65"/>
@@ -14810,24 +14738,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="A36:A37"/>
@@ -14838,6 +14748,24 @@
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="I36:I37"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B29:G29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">

--- a/meta/api/BlancoApiSample.xlsx
+++ b/meta/api/BlancoApiSample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F79B452-9C10-F84F-9DFE-8A71A4EBAC5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2480757-5986-7A41-89B9-2AFC2246B60A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12360" yWindow="1380" windowWidth="21420" windowHeight="17820" tabRatio="860" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="223">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -3438,94 +3438,10 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3537,6 +3453,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3547,6 +3466,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3579,10 +3504,82 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3601,6 +3598,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3608,9 +3611,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4206,168 +4206,168 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="176" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="176"/>
       <c r="F5" s="55"/>
       <c r="G5" s="55"/>
       <c r="H5" s="96"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="139" t="s">
+      <c r="A6" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="140"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="135" t="s">
+      <c r="B6" s="179"/>
+      <c r="C6" s="180"/>
+      <c r="D6" s="177" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="135"/>
+      <c r="E6" s="177"/>
       <c r="F6" s="55"/>
       <c r="G6" s="55"/>
       <c r="H6" s="96"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="176" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="135" t="s">
+      <c r="B7" s="176"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="177" t="s">
         <v>175</v>
       </c>
-      <c r="E7" s="135"/>
+      <c r="E7" s="177"/>
       <c r="F7" s="55"/>
       <c r="G7" s="55"/>
       <c r="H7" s="96"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="134"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="135" t="s">
+      <c r="B8" s="176"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="177" t="s">
         <v>165</v>
       </c>
-      <c r="E8" s="135"/>
+      <c r="E8" s="177"/>
       <c r="F8" s="96"/>
       <c r="G8" s="96"/>
       <c r="H8" s="96"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="135" t="s">
+      <c r="B9" s="176"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="177" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="135"/>
+      <c r="E9" s="177"/>
       <c r="F9" s="96"/>
       <c r="G9" s="96"/>
       <c r="H9" s="96"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="134" t="s">
+      <c r="A10" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="134"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="135"/>
-      <c r="E10" s="135"/>
+      <c r="B10" s="176"/>
+      <c r="C10" s="176"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="177"/>
       <c r="F10" s="96"/>
       <c r="G10" s="96"/>
       <c r="H10" s="96"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="134" t="s">
+      <c r="A11" s="176" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="134"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="135" t="s">
+      <c r="B11" s="176"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="177" t="s">
         <v>167</v>
       </c>
-      <c r="E11" s="135"/>
+      <c r="E11" s="177"/>
       <c r="F11" s="96"/>
       <c r="G11" s="96"/>
       <c r="H11" s="96"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="136" t="s">
+      <c r="A12" s="139" t="s">
         <v>194</v>
       </c>
-      <c r="B12" s="136"/>
-      <c r="C12" s="136"/>
-      <c r="D12" s="138" t="s">
+      <c r="B12" s="139"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="157" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="138"/>
+      <c r="E12" s="157"/>
       <c r="F12" s="96" t="s">
         <v>196</v>
       </c>
       <c r="G12" s="54"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="136" t="s">
+      <c r="A13" s="139" t="s">
         <v>197</v>
       </c>
-      <c r="B13" s="136"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="138" t="s">
+      <c r="B13" s="139"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="157" t="s">
         <v>198</v>
       </c>
-      <c r="E13" s="138"/>
+      <c r="E13" s="157"/>
       <c r="F13" s="54"/>
       <c r="G13" s="54"/>
       <c r="H13" s="96"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="136" t="s">
+      <c r="A14" s="139" t="s">
         <v>218</v>
       </c>
-      <c r="B14" s="136"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="137" t="s">
+      <c r="B14" s="139"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="156" t="s">
         <v>222</v>
       </c>
-      <c r="E14" s="138"/>
+      <c r="E14" s="157"/>
       <c r="F14" s="1" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="136" t="s">
+      <c r="A15" s="139" t="s">
         <v>219</v>
       </c>
-      <c r="B15" s="136"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="138"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="157"/>
       <c r="F15" s="1" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="173" t="s">
         <v>143</v>
       </c>
-      <c r="B16" s="143"/>
-      <c r="C16" s="144"/>
+      <c r="B16" s="174"/>
+      <c r="C16" s="175"/>
       <c r="D16" s="115"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="167" t="s">
+      <c r="A17" s="140" t="s">
         <v>199</v>
       </c>
-      <c r="B17" s="168"/>
-      <c r="C17" s="169"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="142"/>
       <c r="D17" s="101" t="s">
         <v>141</v>
       </c>
@@ -4387,15 +4387,15 @@
       <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="178" t="s">
+      <c r="A19" s="153" t="s">
         <v>208</v>
       </c>
-      <c r="B19" s="179"/>
-      <c r="C19" s="179"/>
-      <c r="D19" s="179"/>
-      <c r="E19" s="179"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="180"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="155"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="102" t="s">
@@ -4439,28 +4439,28 @@
       <c r="C23"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="177" t="s">
+      <c r="A24" s="152" t="s">
         <v>209</v>
       </c>
-      <c r="B24" s="177"/>
-      <c r="C24" s="177"/>
-      <c r="D24" s="177"/>
-      <c r="E24" s="177"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="177"/>
+      <c r="B24" s="152"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="171" t="s">
+      <c r="B25" s="146" t="s">
         <v>203</v>
       </c>
-      <c r="C25" s="172"/>
-      <c r="D25" s="172"/>
-      <c r="E25" s="172"/>
-      <c r="F25" s="172"/>
-      <c r="G25" s="173"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="148"/>
       <c r="H25" s="106"/>
       <c r="I25" s="106"/>
       <c r="J25" s="106"/>
@@ -4471,12 +4471,12 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="117"/>
-      <c r="B26" s="155"/>
-      <c r="C26" s="155"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="155"/>
+      <c r="B26" s="160"/>
+      <c r="C26" s="160"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
       <c r="H26" s="113"/>
       <c r="I26" s="113"/>
       <c r="J26" s="113"/>
@@ -4487,12 +4487,12 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="118"/>
-      <c r="B27" s="157"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
@@ -4503,12 +4503,12 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="119"/>
-      <c r="B28" s="159"/>
-      <c r="C28" s="159"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="159"/>
-      <c r="F28" s="159"/>
-      <c r="G28" s="159"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -4521,28 +4521,28 @@
       <c r="C29"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="174" t="s">
+      <c r="A30" s="149" t="s">
         <v>210</v>
       </c>
-      <c r="B30" s="175"/>
-      <c r="C30" s="175"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="175"/>
-      <c r="F30" s="175"/>
-      <c r="G30" s="176"/>
+      <c r="B30" s="150"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="151"/>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="151" t="s">
+      <c r="B31" s="166" t="s">
         <v>204</v>
       </c>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
+      <c r="C31" s="166"/>
+      <c r="D31" s="166"/>
+      <c r="E31" s="166"/>
+      <c r="F31" s="166"/>
+      <c r="G31" s="166"/>
       <c r="H31" s="106"/>
       <c r="I31" s="106"/>
       <c r="J31" s="106"/>
@@ -4555,14 +4555,14 @@
       <c r="A32" s="117">
         <v>1</v>
       </c>
-      <c r="B32" s="152" t="s">
+      <c r="B32" s="167" t="s">
         <v>205</v>
       </c>
-      <c r="C32" s="152"/>
-      <c r="D32" s="152"/>
-      <c r="E32" s="152"/>
-      <c r="F32" s="152"/>
-      <c r="G32" s="152"/>
+      <c r="C32" s="167"/>
+      <c r="D32" s="167"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="167"/>
       <c r="H32" s="113"/>
       <c r="I32" s="113"/>
       <c r="J32" s="113"/>
@@ -4573,12 +4573,12 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="118"/>
-      <c r="B33" s="153"/>
-      <c r="C33" s="153"/>
-      <c r="D33" s="153"/>
-      <c r="E33" s="153"/>
-      <c r="F33" s="153"/>
-      <c r="G33" s="153"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
+      <c r="E33" s="168"/>
+      <c r="F33" s="168"/>
+      <c r="G33" s="168"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -4589,12 +4589,12 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="119"/>
-      <c r="B34" s="154"/>
-      <c r="C34" s="154"/>
-      <c r="D34" s="154"/>
-      <c r="E34" s="154"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="154"/>
+      <c r="B34" s="169"/>
+      <c r="C34" s="169"/>
+      <c r="D34" s="169"/>
+      <c r="E34" s="169"/>
+      <c r="F34" s="169"/>
+      <c r="G34" s="169"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -4619,28 +4619,28 @@
       <c r="M35"/>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="174" t="s">
+      <c r="A36" s="149" t="s">
         <v>211</v>
       </c>
-      <c r="B36" s="175"/>
-      <c r="C36" s="175"/>
-      <c r="D36" s="175"/>
-      <c r="E36" s="175"/>
-      <c r="F36" s="175"/>
-      <c r="G36" s="176"/>
+      <c r="B36" s="150"/>
+      <c r="C36" s="150"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="151"/>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="151" t="s">
+      <c r="B37" s="166" t="s">
         <v>206</v>
       </c>
-      <c r="C37" s="151"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
+      <c r="C37" s="166"/>
+      <c r="D37" s="166"/>
+      <c r="E37" s="166"/>
+      <c r="F37" s="166"/>
+      <c r="G37" s="166"/>
       <c r="H37" s="106"/>
       <c r="I37" s="106"/>
       <c r="J37" s="106"/>
@@ -4651,12 +4651,12 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="117"/>
-      <c r="B38" s="155"/>
-      <c r="C38" s="155"/>
-      <c r="D38" s="155"/>
-      <c r="E38" s="155"/>
-      <c r="F38" s="155"/>
-      <c r="G38" s="156"/>
+      <c r="B38" s="160"/>
+      <c r="C38" s="160"/>
+      <c r="D38" s="160"/>
+      <c r="E38" s="160"/>
+      <c r="F38" s="160"/>
+      <c r="G38" s="170"/>
       <c r="H38" s="113"/>
       <c r="I38" s="113"/>
       <c r="J38" s="113"/>
@@ -4667,12 +4667,12 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="118"/>
-      <c r="B39" s="157"/>
-      <c r="C39" s="157"/>
-      <c r="D39" s="157"/>
-      <c r="E39" s="157"/>
-      <c r="F39" s="157"/>
-      <c r="G39" s="158"/>
+      <c r="B39" s="161"/>
+      <c r="C39" s="161"/>
+      <c r="D39" s="161"/>
+      <c r="E39" s="161"/>
+      <c r="F39" s="161"/>
+      <c r="G39" s="171"/>
       <c r="H39" s="113"/>
       <c r="I39" s="113"/>
       <c r="J39" s="113"/>
@@ -4683,12 +4683,12 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="119"/>
-      <c r="B40" s="159"/>
-      <c r="C40" s="159"/>
-      <c r="D40" s="159"/>
-      <c r="E40" s="159"/>
-      <c r="F40" s="159"/>
-      <c r="G40" s="160"/>
+      <c r="B40" s="162"/>
+      <c r="C40" s="162"/>
+      <c r="D40" s="162"/>
+      <c r="E40" s="162"/>
+      <c r="F40" s="162"/>
+      <c r="G40" s="172"/>
       <c r="H40" s="113"/>
       <c r="I40" s="113"/>
       <c r="J40" s="113"/>
@@ -4723,251 +4723,264 @@
       <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="164" t="s">
+      <c r="A43" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="170"/>
-      <c r="C43" s="164" t="s">
+      <c r="B43" s="143"/>
+      <c r="C43" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="165"/>
-      <c r="E43" s="166"/>
+      <c r="D43" s="137"/>
+      <c r="E43" s="138"/>
       <c r="F43" s="29" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="161"/>
-      <c r="B44" s="163"/>
-      <c r="C44" s="161"/>
-      <c r="D44" s="162"/>
-      <c r="E44" s="163"/>
+      <c r="A44" s="144"/>
+      <c r="B44" s="145"/>
+      <c r="C44" s="144"/>
+      <c r="D44" s="163"/>
+      <c r="E44" s="145"/>
       <c r="F44" s="49"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="145"/>
-      <c r="B45" s="147"/>
-      <c r="C45" s="145"/>
-      <c r="D45" s="146"/>
-      <c r="E45" s="147"/>
+      <c r="A45" s="134"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="164"/>
+      <c r="E45" s="135"/>
       <c r="F45" s="49"/>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="145"/>
-      <c r="B46" s="147"/>
-      <c r="C46" s="145"/>
-      <c r="D46" s="146"/>
-      <c r="E46" s="147"/>
+      <c r="A46" s="134"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="134"/>
+      <c r="D46" s="164"/>
+      <c r="E46" s="135"/>
       <c r="F46" s="49"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="145"/>
-      <c r="B47" s="147"/>
-      <c r="C47" s="145"/>
-      <c r="D47" s="146"/>
-      <c r="E47" s="147"/>
+      <c r="A47" s="134"/>
+      <c r="B47" s="135"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="164"/>
+      <c r="E47" s="135"/>
       <c r="F47" s="49"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="145"/>
-      <c r="B48" s="147"/>
-      <c r="C48" s="145"/>
-      <c r="D48" s="146"/>
-      <c r="E48" s="147"/>
+      <c r="A48" s="134"/>
+      <c r="B48" s="135"/>
+      <c r="C48" s="134"/>
+      <c r="D48" s="164"/>
+      <c r="E48" s="135"/>
       <c r="F48" s="49"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="145"/>
-      <c r="B49" s="147"/>
-      <c r="C49" s="145"/>
-      <c r="D49" s="146"/>
-      <c r="E49" s="147"/>
+      <c r="A49" s="134"/>
+      <c r="B49" s="135"/>
+      <c r="C49" s="134"/>
+      <c r="D49" s="164"/>
+      <c r="E49" s="135"/>
       <c r="F49" s="49"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="145"/>
-      <c r="B50" s="147"/>
-      <c r="C50" s="145"/>
-      <c r="D50" s="146"/>
-      <c r="E50" s="147"/>
+      <c r="A50" s="134"/>
+      <c r="B50" s="135"/>
+      <c r="C50" s="134"/>
+      <c r="D50" s="164"/>
+      <c r="E50" s="135"/>
       <c r="F50" s="49"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="145"/>
-      <c r="B51" s="147"/>
-      <c r="C51" s="145"/>
-      <c r="D51" s="146"/>
-      <c r="E51" s="147"/>
+      <c r="A51" s="134"/>
+      <c r="B51" s="135"/>
+      <c r="C51" s="134"/>
+      <c r="D51" s="164"/>
+      <c r="E51" s="135"/>
       <c r="F51" s="49"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="145"/>
-      <c r="B52" s="147"/>
-      <c r="C52" s="145"/>
-      <c r="D52" s="146"/>
-      <c r="E52" s="147"/>
+      <c r="A52" s="134"/>
+      <c r="B52" s="135"/>
+      <c r="C52" s="134"/>
+      <c r="D52" s="164"/>
+      <c r="E52" s="135"/>
       <c r="F52" s="49"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="145"/>
-      <c r="B53" s="147"/>
-      <c r="C53" s="145"/>
-      <c r="D53" s="146"/>
-      <c r="E53" s="147"/>
+      <c r="A53" s="134"/>
+      <c r="B53" s="135"/>
+      <c r="C53" s="134"/>
+      <c r="D53" s="164"/>
+      <c r="E53" s="135"/>
       <c r="F53" s="49"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="145"/>
-      <c r="B54" s="147"/>
-      <c r="C54" s="145"/>
-      <c r="D54" s="146"/>
-      <c r="E54" s="147"/>
+      <c r="A54" s="134"/>
+      <c r="B54" s="135"/>
+      <c r="C54" s="134"/>
+      <c r="D54" s="164"/>
+      <c r="E54" s="135"/>
       <c r="F54" s="49"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="145"/>
-      <c r="B55" s="147"/>
-      <c r="C55" s="145"/>
-      <c r="D55" s="146"/>
-      <c r="E55" s="147"/>
+      <c r="A55" s="134"/>
+      <c r="B55" s="135"/>
+      <c r="C55" s="134"/>
+      <c r="D55" s="164"/>
+      <c r="E55" s="135"/>
       <c r="F55" s="49"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="145"/>
-      <c r="B56" s="147"/>
-      <c r="C56" s="145"/>
-      <c r="D56" s="146"/>
-      <c r="E56" s="147"/>
+      <c r="A56" s="134"/>
+      <c r="B56" s="135"/>
+      <c r="C56" s="134"/>
+      <c r="D56" s="164"/>
+      <c r="E56" s="135"/>
       <c r="F56" s="49"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="145"/>
-      <c r="B57" s="147"/>
-      <c r="C57" s="145"/>
-      <c r="D57" s="146"/>
-      <c r="E57" s="147"/>
+      <c r="A57" s="134"/>
+      <c r="B57" s="135"/>
+      <c r="C57" s="134"/>
+      <c r="D57" s="164"/>
+      <c r="E57" s="135"/>
       <c r="F57" s="49"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="145"/>
-      <c r="B58" s="147"/>
-      <c r="C58" s="145"/>
-      <c r="D58" s="146"/>
-      <c r="E58" s="147"/>
+      <c r="A58" s="134"/>
+      <c r="B58" s="135"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="164"/>
+      <c r="E58" s="135"/>
       <c r="F58" s="49"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="145"/>
-      <c r="B59" s="147"/>
-      <c r="C59" s="145"/>
-      <c r="D59" s="146"/>
-      <c r="E59" s="147"/>
+      <c r="A59" s="134"/>
+      <c r="B59" s="135"/>
+      <c r="C59" s="134"/>
+      <c r="D59" s="164"/>
+      <c r="E59" s="135"/>
       <c r="F59" s="49"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="145"/>
-      <c r="B60" s="147"/>
-      <c r="C60" s="145"/>
-      <c r="D60" s="146"/>
-      <c r="E60" s="147"/>
+      <c r="A60" s="134"/>
+      <c r="B60" s="135"/>
+      <c r="C60" s="134"/>
+      <c r="D60" s="164"/>
+      <c r="E60" s="135"/>
       <c r="F60" s="49"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="145"/>
-      <c r="B61" s="147"/>
-      <c r="C61" s="145"/>
-      <c r="D61" s="146"/>
-      <c r="E61" s="147"/>
+      <c r="A61" s="134"/>
+      <c r="B61" s="135"/>
+      <c r="C61" s="134"/>
+      <c r="D61" s="164"/>
+      <c r="E61" s="135"/>
       <c r="F61" s="49"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="145"/>
-      <c r="B62" s="147"/>
-      <c r="C62" s="145"/>
-      <c r="D62" s="146"/>
-      <c r="E62" s="147"/>
+      <c r="A62" s="134"/>
+      <c r="B62" s="135"/>
+      <c r="C62" s="134"/>
+      <c r="D62" s="164"/>
+      <c r="E62" s="135"/>
       <c r="F62" s="49"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="145"/>
-      <c r="B63" s="147"/>
-      <c r="C63" s="145"/>
-      <c r="D63" s="146"/>
-      <c r="E63" s="147"/>
+      <c r="A63" s="134"/>
+      <c r="B63" s="135"/>
+      <c r="C63" s="134"/>
+      <c r="D63" s="164"/>
+      <c r="E63" s="135"/>
       <c r="F63" s="49"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="145"/>
-      <c r="B64" s="147"/>
-      <c r="C64" s="145"/>
-      <c r="D64" s="146"/>
-      <c r="E64" s="147"/>
+      <c r="A64" s="134"/>
+      <c r="B64" s="135"/>
+      <c r="C64" s="134"/>
+      <c r="D64" s="164"/>
+      <c r="E64" s="135"/>
       <c r="F64" s="49"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="145"/>
-      <c r="B65" s="147"/>
-      <c r="C65" s="145"/>
-      <c r="D65" s="146"/>
-      <c r="E65" s="147"/>
+      <c r="A65" s="134"/>
+      <c r="B65" s="135"/>
+      <c r="C65" s="134"/>
+      <c r="D65" s="164"/>
+      <c r="E65" s="135"/>
       <c r="F65" s="49"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="145"/>
-      <c r="B66" s="147"/>
-      <c r="C66" s="145"/>
-      <c r="D66" s="146"/>
-      <c r="E66" s="147"/>
+      <c r="A66" s="134"/>
+      <c r="B66" s="135"/>
+      <c r="C66" s="134"/>
+      <c r="D66" s="164"/>
+      <c r="E66" s="135"/>
       <c r="F66" s="49"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="145"/>
-      <c r="B67" s="147"/>
-      <c r="C67" s="145"/>
-      <c r="D67" s="146"/>
-      <c r="E67" s="147"/>
+      <c r="A67" s="134"/>
+      <c r="B67" s="135"/>
+      <c r="C67" s="134"/>
+      <c r="D67" s="164"/>
+      <c r="E67" s="135"/>
       <c r="F67" s="49"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="148"/>
-      <c r="B68" s="150"/>
-      <c r="C68" s="148"/>
-      <c r="D68" s="149"/>
-      <c r="E68" s="150"/>
+      <c r="A68" s="158"/>
+      <c r="B68" s="159"/>
+      <c r="C68" s="158"/>
+      <c r="D68" s="165"/>
+      <c r="E68" s="159"/>
       <c r="F68" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
     <mergeCell ref="A65:B65"/>
     <mergeCell ref="A66:B66"/>
     <mergeCell ref="A67:B67"/>
@@ -4984,51 +4997,38 @@
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A13:C13"/>
     <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -5519,7 +5519,7 @@
   <dimension ref="A1:T64"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41:I47"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -5713,10 +5713,10 @@
         <v>194</v>
       </c>
       <c r="B15" s="123"/>
-      <c r="C15" s="138" t="s">
+      <c r="C15" s="157" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="138"/>
+      <c r="D15" s="157"/>
       <c r="E15" s="96" t="s">
         <v>196</v>
       </c>
@@ -5727,10 +5727,10 @@
         <v>197</v>
       </c>
       <c r="B16" s="123"/>
-      <c r="C16" s="138" t="s">
+      <c r="C16" s="157" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="138"/>
+      <c r="D16" s="157"/>
       <c r="E16" s="55"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -5762,28 +5762,28 @@
       <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="177" t="s">
+      <c r="A19" s="152" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="177"/>
-      <c r="C19" s="177"/>
-      <c r="D19" s="177"/>
-      <c r="E19" s="177"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="177"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="171" t="s">
+      <c r="B20" s="146" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="172"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="173"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="148"/>
       <c r="H20" s="106"/>
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
@@ -5795,12 +5795,12 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="117"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="155"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
+      <c r="B21" s="160"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
       <c r="H21" s="113"/>
       <c r="I21" s="113"/>
       <c r="J21" s="113"/>
@@ -5812,12 +5812,12 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="118"/>
-      <c r="B22" s="157"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="161"/>
+      <c r="D22" s="161"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="161"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
       <c r="J22" s="113"/>
@@ -5829,12 +5829,12 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="119"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="162"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="162"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
       <c r="J23" s="113"/>
@@ -5848,28 +5848,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="174" t="s">
+      <c r="A25" s="149" t="s">
         <v>213</v>
       </c>
-      <c r="B25" s="175"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="176"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="151"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="151" t="s">
+      <c r="B26" s="166" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="166"/>
       <c r="H26" s="106"/>
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
@@ -5883,14 +5883,14 @@
       <c r="A27" s="117">
         <v>1</v>
       </c>
-      <c r="B27" s="152" t="s">
+      <c r="B27" s="167" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="152"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
@@ -5902,12 +5902,12 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="118"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="168"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="168"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -5919,12 +5919,12 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="119"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
+      <c r="B29" s="169"/>
+      <c r="C29" s="169"/>
+      <c r="D29" s="169"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="169"/>
+      <c r="G29" s="169"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
       <c r="J29" s="113"/>
@@ -5951,28 +5951,28 @@
       <c r="N30"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="174" t="s">
+      <c r="A31" s="149" t="s">
         <v>214</v>
       </c>
-      <c r="B31" s="175"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="175"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="176"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="151"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="151" t="s">
+      <c r="B32" s="166" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
+      <c r="C32" s="166"/>
+      <c r="D32" s="166"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="166"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
@@ -5984,12 +5984,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="117"/>
-      <c r="B33" s="155"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="156"/>
+      <c r="B33" s="160"/>
+      <c r="C33" s="160"/>
+      <c r="D33" s="160"/>
+      <c r="E33" s="160"/>
+      <c r="F33" s="160"/>
+      <c r="G33" s="170"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -6001,12 +6001,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="118"/>
-      <c r="B34" s="157"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="158"/>
+      <c r="B34" s="161"/>
+      <c r="C34" s="161"/>
+      <c r="D34" s="161"/>
+      <c r="E34" s="161"/>
+      <c r="F34" s="161"/>
+      <c r="G34" s="171"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -6018,12 +6018,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="119"/>
-      <c r="B35" s="159"/>
-      <c r="C35" s="159"/>
-      <c r="D35" s="159"/>
-      <c r="E35" s="159"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="160"/>
+      <c r="B35" s="162"/>
+      <c r="C35" s="162"/>
+      <c r="D35" s="162"/>
+      <c r="E35" s="162"/>
+      <c r="F35" s="162"/>
+      <c r="G35" s="172"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -6083,16 +6083,16 @@
       <c r="B39" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="184" t="s">
+      <c r="C39" s="183" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="187" t="s">
+      <c r="E39" s="186" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="187" t="s">
+      <c r="F39" s="186" t="s">
         <v>197</v>
       </c>
       <c r="G39" s="181" t="s">
@@ -6104,14 +6104,14 @@
       <c r="I39" s="181" t="s">
         <v>216</v>
       </c>
-      <c r="J39" s="185" t="s">
+      <c r="J39" s="184" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="186"/>
-      <c r="L39" s="185" t="s">
+      <c r="K39" s="185"/>
+      <c r="L39" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="186"/>
+      <c r="M39" s="185"/>
       <c r="N39" s="34" t="s">
         <v>70</v>
       </c>
@@ -6120,15 +6120,15 @@
       </c>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="183"/>
-      <c r="B40" s="183"/>
-      <c r="C40" s="183"/>
-      <c r="D40" s="183"/>
-      <c r="E40" s="188"/>
-      <c r="F40" s="188"/>
-      <c r="G40" s="183"/>
-      <c r="H40" s="183"/>
-      <c r="I40" s="182"/>
+      <c r="A40" s="182"/>
+      <c r="B40" s="182"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="182"/>
+      <c r="E40" s="187"/>
+      <c r="F40" s="187"/>
+      <c r="G40" s="182"/>
+      <c r="H40" s="182"/>
+      <c r="I40" s="188"/>
       <c r="J40" s="29" t="s">
         <v>75</v>
       </c>
@@ -6144,7 +6144,7 @@
       <c r="N40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="183"/>
+      <c r="O40" s="182"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="7">
@@ -6161,9 +6161,7 @@
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="121"/>
-      <c r="G41" s="85" t="s">
-        <v>141</v>
-      </c>
+      <c r="G41" s="85"/>
       <c r="H41" s="24"/>
       <c r="I41" s="24" t="s">
         <v>141</v>
@@ -6638,6 +6636,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A31:G31"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="A19:G19"/>
@@ -6654,19 +6665,6 @@
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -6721,7 +6719,7 @@
   <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="S42" sqref="G42:S42"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -6875,10 +6873,10 @@
         <v>194</v>
       </c>
       <c r="B12" s="123"/>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="157" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="138"/>
+      <c r="D12" s="157"/>
       <c r="E12" s="96" t="s">
         <v>196</v>
       </c>
@@ -6891,10 +6889,10 @@
         <v>197</v>
       </c>
       <c r="B13" s="123"/>
-      <c r="C13" s="138" t="s">
+      <c r="C13" s="157" t="s">
         <v>198</v>
       </c>
-      <c r="D13" s="138"/>
+      <c r="D13" s="157"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="54"/>
@@ -6926,28 +6924,28 @@
       <c r="F15" s="96"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="177" t="s">
+      <c r="A16" s="152" t="s">
         <v>212</v>
       </c>
-      <c r="B16" s="177"/>
-      <c r="C16" s="177"/>
-      <c r="D16" s="177"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="177"/>
+      <c r="B16" s="152"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="171" t="s">
+      <c r="B17" s="146" t="s">
         <v>203</v>
       </c>
-      <c r="C17" s="172"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="173"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="148"/>
       <c r="H17" s="106"/>
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
@@ -6958,12 +6956,12 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="117"/>
-      <c r="B18" s="155"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
+      <c r="B18" s="160"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="160"/>
       <c r="H18" s="113"/>
       <c r="J18" s="113"/>
       <c r="K18" s="113"/>
@@ -6974,12 +6972,12 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="118"/>
-      <c r="B19" s="157"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
       <c r="H19" s="113"/>
       <c r="J19" s="113"/>
       <c r="K19" s="113"/>
@@ -6990,12 +6988,12 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="119"/>
-      <c r="B20" s="159"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="162"/>
       <c r="H20" s="113"/>
       <c r="I20" s="106"/>
       <c r="J20" s="113"/>
@@ -7010,29 +7008,29 @@
       <c r="I21" s="113"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="174" t="s">
+      <c r="A22" s="149" t="s">
         <v>213</v>
       </c>
-      <c r="B22" s="175"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="175"/>
-      <c r="G22" s="176"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="151"/>
       <c r="I22" s="113"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="151" t="s">
+      <c r="B23" s="166" t="s">
         <v>204</v>
       </c>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="151"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="166"/>
+      <c r="G23" s="166"/>
       <c r="H23" s="106"/>
       <c r="I23" s="113"/>
       <c r="J23" s="106"/>
@@ -7046,14 +7044,14 @@
       <c r="A24" s="117">
         <v>1</v>
       </c>
-      <c r="B24" s="152" t="s">
+      <c r="B24" s="167" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
       <c r="H24" s="113"/>
       <c r="J24" s="113"/>
       <c r="K24" s="113"/>
@@ -7064,12 +7062,12 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="118"/>
-      <c r="B25" s="153"/>
-      <c r="C25" s="153"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="168"/>
       <c r="H25" s="113"/>
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
@@ -7080,12 +7078,12 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="119"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
+      <c r="B26" s="169"/>
+      <c r="C26" s="169"/>
+      <c r="D26" s="169"/>
+      <c r="E26" s="169"/>
+      <c r="F26" s="169"/>
+      <c r="G26" s="169"/>
       <c r="H26" s="113"/>
       <c r="I26" s="106"/>
       <c r="J26" s="113"/>
@@ -7112,29 +7110,29 @@
       <c r="N27"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="174" t="s">
+      <c r="A28" s="149" t="s">
         <v>214</v>
       </c>
-      <c r="B28" s="175"/>
-      <c r="C28" s="175"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="176"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="151"/>
       <c r="I28" s="113"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="151" t="s">
+      <c r="B29" s="166" t="s">
         <v>206</v>
       </c>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="166"/>
+      <c r="E29" s="166"/>
+      <c r="F29" s="166"/>
+      <c r="G29" s="166"/>
       <c r="H29" s="106"/>
       <c r="I29" s="113"/>
       <c r="J29" s="106"/>
@@ -7146,12 +7144,12 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="117"/>
-      <c r="B30" s="155"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="156"/>
+      <c r="B30" s="160"/>
+      <c r="C30" s="160"/>
+      <c r="D30" s="160"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="160"/>
+      <c r="G30" s="170"/>
       <c r="H30" s="113"/>
       <c r="I30"/>
       <c r="J30" s="113"/>
@@ -7163,12 +7161,12 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="118"/>
-      <c r="B31" s="157"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="158"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="161"/>
+      <c r="E31" s="161"/>
+      <c r="F31" s="161"/>
+      <c r="G31" s="171"/>
       <c r="H31" s="113"/>
       <c r="J31" s="113"/>
       <c r="K31" s="113"/>
@@ -7179,12 +7177,12 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="119"/>
-      <c r="B32" s="159"/>
-      <c r="C32" s="159"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="160"/>
+      <c r="B32" s="162"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="162"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="172"/>
       <c r="H32" s="113"/>
       <c r="I32" s="106"/>
       <c r="J32" s="113"/>
@@ -7234,60 +7232,60 @@
       <c r="O35" s="58"/>
     </row>
     <row r="36" spans="1:15" ht="15">
-      <c r="A36" s="187" t="s">
+      <c r="A36" s="186" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="187" t="s">
+      <c r="B36" s="186" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="187" t="s">
+      <c r="D36" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="187" t="s">
+      <c r="E36" s="186" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="187" t="s">
+      <c r="F36" s="186" t="s">
         <v>197</v>
       </c>
-      <c r="G36" s="187" t="s">
+      <c r="G36" s="186" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="187" t="s">
+      <c r="H36" s="186" t="s">
         <v>139</v>
       </c>
       <c r="I36" s="181" t="s">
         <v>216</v>
       </c>
-      <c r="J36" s="189" t="s">
+      <c r="J36" s="190" t="s">
         <v>122</v>
       </c>
-      <c r="K36" s="190"/>
-      <c r="L36" s="191" t="s">
+      <c r="K36" s="191"/>
+      <c r="L36" s="192" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="190"/>
+      <c r="M36" s="191"/>
       <c r="N36" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="O36" s="187" t="s">
+      <c r="O36" s="186" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15">
-      <c r="A37" s="192"/>
-      <c r="B37" s="192"/>
+      <c r="A37" s="189"/>
+      <c r="B37" s="189"/>
       <c r="C37" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="192"/>
-      <c r="E37" s="188"/>
-      <c r="F37" s="188"/>
-      <c r="G37" s="192"/>
-      <c r="H37" s="192"/>
-      <c r="I37" s="182"/>
+      <c r="D37" s="189"/>
+      <c r="E37" s="187"/>
+      <c r="F37" s="187"/>
+      <c r="G37" s="189"/>
+      <c r="H37" s="189"/>
+      <c r="I37" s="188"/>
       <c r="J37" s="62" t="s">
         <v>126</v>
       </c>
@@ -7303,7 +7301,7 @@
       <c r="N37" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="O37" s="192"/>
+      <c r="O37" s="189"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="64">
@@ -7320,9 +7318,7 @@
       </c>
       <c r="E38" s="67"/>
       <c r="F38" s="67"/>
-      <c r="G38" s="90" t="s">
-        <v>141</v>
-      </c>
+      <c r="G38" s="90"/>
       <c r="H38" s="67"/>
       <c r="I38" s="24" t="s">
         <v>141</v>
@@ -7779,18 +7775,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="G36:G37"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="I36:I37"/>
@@ -7807,6 +7791,18 @@
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -8049,10 +8045,10 @@
         <v>194</v>
       </c>
       <c r="B15" s="123"/>
-      <c r="C15" s="138" t="s">
+      <c r="C15" s="157" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="138"/>
+      <c r="D15" s="157"/>
       <c r="E15" s="96" t="s">
         <v>196</v>
       </c>
@@ -8063,10 +8059,10 @@
         <v>197</v>
       </c>
       <c r="B16" s="123"/>
-      <c r="C16" s="138" t="s">
+      <c r="C16" s="157" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="138"/>
+      <c r="D16" s="157"/>
       <c r="E16" s="55"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -8098,28 +8094,28 @@
       <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="177" t="s">
+      <c r="A19" s="152" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="177"/>
-      <c r="C19" s="177"/>
-      <c r="D19" s="177"/>
-      <c r="E19" s="177"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="177"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="171" t="s">
+      <c r="B20" s="146" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="172"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="173"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="148"/>
       <c r="H20" s="106"/>
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
@@ -8131,12 +8127,12 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="117"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="155"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
+      <c r="B21" s="160"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
       <c r="H21" s="113"/>
       <c r="I21" s="113"/>
       <c r="J21" s="113"/>
@@ -8148,12 +8144,12 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="118"/>
-      <c r="B22" s="157"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="161"/>
+      <c r="D22" s="161"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="161"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
       <c r="J22" s="113"/>
@@ -8165,12 +8161,12 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="119"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="162"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="162"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
       <c r="J23" s="113"/>
@@ -8184,28 +8180,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="174" t="s">
+      <c r="A25" s="149" t="s">
         <v>213</v>
       </c>
-      <c r="B25" s="175"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="176"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="151"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="151" t="s">
+      <c r="B26" s="166" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="166"/>
       <c r="H26" s="106"/>
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
@@ -8219,14 +8215,14 @@
       <c r="A27" s="117">
         <v>1</v>
       </c>
-      <c r="B27" s="152" t="s">
+      <c r="B27" s="167" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="152"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
@@ -8238,12 +8234,12 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="118"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="168"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="168"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -8255,12 +8251,12 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="119"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
+      <c r="B29" s="169"/>
+      <c r="C29" s="169"/>
+      <c r="D29" s="169"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="169"/>
+      <c r="G29" s="169"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
       <c r="J29" s="113"/>
@@ -8287,28 +8283,28 @@
       <c r="N30"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="174" t="s">
+      <c r="A31" s="149" t="s">
         <v>214</v>
       </c>
-      <c r="B31" s="175"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="175"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="176"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="151"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="151" t="s">
+      <c r="B32" s="166" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
+      <c r="C32" s="166"/>
+      <c r="D32" s="166"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="166"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
@@ -8320,12 +8316,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="117"/>
-      <c r="B33" s="155"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="156"/>
+      <c r="B33" s="160"/>
+      <c r="C33" s="160"/>
+      <c r="D33" s="160"/>
+      <c r="E33" s="160"/>
+      <c r="F33" s="160"/>
+      <c r="G33" s="170"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -8337,12 +8333,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="118"/>
-      <c r="B34" s="157"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="158"/>
+      <c r="B34" s="161"/>
+      <c r="C34" s="161"/>
+      <c r="D34" s="161"/>
+      <c r="E34" s="161"/>
+      <c r="F34" s="161"/>
+      <c r="G34" s="171"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -8354,12 +8350,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="119"/>
-      <c r="B35" s="159"/>
-      <c r="C35" s="159"/>
-      <c r="D35" s="159"/>
-      <c r="E35" s="159"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="160"/>
+      <c r="B35" s="162"/>
+      <c r="C35" s="162"/>
+      <c r="D35" s="162"/>
+      <c r="E35" s="162"/>
+      <c r="F35" s="162"/>
+      <c r="G35" s="172"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -8419,16 +8415,16 @@
       <c r="B39" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="184" t="s">
+      <c r="C39" s="183" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="187" t="s">
+      <c r="E39" s="186" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="187" t="s">
+      <c r="F39" s="186" t="s">
         <v>197</v>
       </c>
       <c r="G39" s="181" t="s">
@@ -8440,14 +8436,14 @@
       <c r="I39" s="181" t="s">
         <v>216</v>
       </c>
-      <c r="J39" s="185" t="s">
+      <c r="J39" s="184" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="186"/>
-      <c r="L39" s="185" t="s">
+      <c r="K39" s="185"/>
+      <c r="L39" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="186"/>
+      <c r="M39" s="185"/>
       <c r="N39" s="34" t="s">
         <v>70</v>
       </c>
@@ -8456,15 +8452,15 @@
       </c>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="183"/>
-      <c r="B40" s="183"/>
-      <c r="C40" s="183"/>
-      <c r="D40" s="183"/>
-      <c r="E40" s="188"/>
+      <c r="A40" s="182"/>
+      <c r="B40" s="182"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="182"/>
+      <c r="E40" s="187"/>
       <c r="F40" s="193"/>
-      <c r="G40" s="183"/>
-      <c r="H40" s="183"/>
-      <c r="I40" s="182"/>
+      <c r="G40" s="182"/>
+      <c r="H40" s="182"/>
+      <c r="I40" s="188"/>
       <c r="J40" s="29" t="s">
         <v>75</v>
       </c>
@@ -8480,7 +8476,7 @@
       <c r="N40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="183"/>
+      <c r="O40" s="182"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="7">
@@ -8974,6 +8970,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
     <mergeCell ref="J39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="O39:O40"/>
@@ -8986,23 +8999,6 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="I39:I40"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -9214,10 +9210,10 @@
         <v>194</v>
       </c>
       <c r="B12" s="123"/>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="157" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="138"/>
+      <c r="D12" s="157"/>
       <c r="E12" s="96" t="s">
         <v>196</v>
       </c>
@@ -9230,10 +9226,10 @@
         <v>197</v>
       </c>
       <c r="B13" s="123"/>
-      <c r="C13" s="138" t="s">
+      <c r="C13" s="157" t="s">
         <v>198</v>
       </c>
-      <c r="D13" s="138"/>
+      <c r="D13" s="157"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="54"/>
@@ -9265,28 +9261,28 @@
       <c r="F15" s="96"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="177" t="s">
+      <c r="A16" s="152" t="s">
         <v>212</v>
       </c>
-      <c r="B16" s="177"/>
-      <c r="C16" s="177"/>
-      <c r="D16" s="177"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="177"/>
+      <c r="B16" s="152"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="171" t="s">
+      <c r="B17" s="146" t="s">
         <v>203</v>
       </c>
-      <c r="C17" s="172"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="173"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="148"/>
       <c r="H17" s="106"/>
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
@@ -9297,12 +9293,12 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="117"/>
-      <c r="B18" s="155"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
+      <c r="B18" s="160"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="160"/>
       <c r="H18" s="113"/>
       <c r="J18" s="113"/>
       <c r="K18" s="113"/>
@@ -9313,12 +9309,12 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="118"/>
-      <c r="B19" s="157"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
       <c r="H19" s="113"/>
       <c r="J19" s="113"/>
       <c r="K19" s="113"/>
@@ -9329,12 +9325,12 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="119"/>
-      <c r="B20" s="159"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="162"/>
       <c r="H20" s="113"/>
       <c r="I20" s="106"/>
       <c r="J20" s="113"/>
@@ -9349,29 +9345,29 @@
       <c r="I21" s="113"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="174" t="s">
+      <c r="A22" s="149" t="s">
         <v>213</v>
       </c>
-      <c r="B22" s="175"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="175"/>
-      <c r="G22" s="176"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="151"/>
       <c r="I22" s="113"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="151" t="s">
+      <c r="B23" s="166" t="s">
         <v>204</v>
       </c>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="151"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="166"/>
+      <c r="G23" s="166"/>
       <c r="H23" s="106"/>
       <c r="I23" s="113"/>
       <c r="J23" s="106"/>
@@ -9385,14 +9381,14 @@
       <c r="A24" s="117">
         <v>1</v>
       </c>
-      <c r="B24" s="152" t="s">
+      <c r="B24" s="167" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
       <c r="H24" s="113"/>
       <c r="J24" s="113"/>
       <c r="K24" s="113"/>
@@ -9403,12 +9399,12 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="118"/>
-      <c r="B25" s="153"/>
-      <c r="C25" s="153"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="168"/>
       <c r="H25" s="113"/>
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
@@ -9419,12 +9415,12 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="119"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
+      <c r="B26" s="169"/>
+      <c r="C26" s="169"/>
+      <c r="D26" s="169"/>
+      <c r="E26" s="169"/>
+      <c r="F26" s="169"/>
+      <c r="G26" s="169"/>
       <c r="H26" s="113"/>
       <c r="I26" s="106"/>
       <c r="J26" s="113"/>
@@ -9451,29 +9447,29 @@
       <c r="N27"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="174" t="s">
+      <c r="A28" s="149" t="s">
         <v>214</v>
       </c>
-      <c r="B28" s="175"/>
-      <c r="C28" s="175"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="176"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="151"/>
       <c r="I28" s="113"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="151" t="s">
+      <c r="B29" s="166" t="s">
         <v>206</v>
       </c>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="166"/>
+      <c r="E29" s="166"/>
+      <c r="F29" s="166"/>
+      <c r="G29" s="166"/>
       <c r="H29" s="106"/>
       <c r="I29" s="113"/>
       <c r="J29" s="106"/>
@@ -9485,12 +9481,12 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="117"/>
-      <c r="B30" s="155"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="156"/>
+      <c r="B30" s="160"/>
+      <c r="C30" s="160"/>
+      <c r="D30" s="160"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="160"/>
+      <c r="G30" s="170"/>
       <c r="H30" s="113"/>
       <c r="I30"/>
       <c r="J30" s="113"/>
@@ -9502,12 +9498,12 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="118"/>
-      <c r="B31" s="157"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="158"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="161"/>
+      <c r="E31" s="161"/>
+      <c r="F31" s="161"/>
+      <c r="G31" s="171"/>
       <c r="H31" s="113"/>
       <c r="J31" s="113"/>
       <c r="K31" s="113"/>
@@ -9518,12 +9514,12 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="119"/>
-      <c r="B32" s="159"/>
-      <c r="C32" s="159"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="160"/>
+      <c r="B32" s="162"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="162"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="172"/>
       <c r="H32" s="113"/>
       <c r="I32" s="106"/>
       <c r="J32" s="113"/>
@@ -9573,60 +9569,60 @@
       <c r="O35" s="58"/>
     </row>
     <row r="36" spans="1:15" ht="15">
-      <c r="A36" s="187" t="s">
+      <c r="A36" s="186" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="187" t="s">
+      <c r="B36" s="186" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="187" t="s">
+      <c r="D36" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="187" t="s">
+      <c r="E36" s="186" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="187" t="s">
+      <c r="F36" s="186" t="s">
         <v>197</v>
       </c>
-      <c r="G36" s="187" t="s">
+      <c r="G36" s="186" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="187" t="s">
+      <c r="H36" s="186" t="s">
         <v>139</v>
       </c>
       <c r="I36" s="181" t="s">
         <v>216</v>
       </c>
-      <c r="J36" s="189" t="s">
+      <c r="J36" s="190" t="s">
         <v>122</v>
       </c>
-      <c r="K36" s="190"/>
-      <c r="L36" s="191" t="s">
+      <c r="K36" s="191"/>
+      <c r="L36" s="192" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="190"/>
+      <c r="M36" s="191"/>
       <c r="N36" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="O36" s="187" t="s">
+      <c r="O36" s="186" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15">
-      <c r="A37" s="192"/>
-      <c r="B37" s="192"/>
+      <c r="A37" s="189"/>
+      <c r="B37" s="189"/>
       <c r="C37" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="192"/>
+      <c r="D37" s="189"/>
       <c r="E37" s="193"/>
       <c r="F37" s="193"/>
-      <c r="G37" s="192"/>
-      <c r="H37" s="192"/>
-      <c r="I37" s="182"/>
+      <c r="G37" s="189"/>
+      <c r="H37" s="189"/>
+      <c r="I37" s="188"/>
       <c r="J37" s="62" t="s">
         <v>126</v>
       </c>
@@ -9642,7 +9638,7 @@
       <c r="N37" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="O37" s="192"/>
+      <c r="O37" s="189"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="64">
@@ -10118,6 +10114,23 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="A36:A37"/>
@@ -10129,23 +10142,6 @@
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="I36:I37"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="B29:G29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -10388,10 +10384,10 @@
         <v>194</v>
       </c>
       <c r="B15" s="123"/>
-      <c r="C15" s="138" t="s">
+      <c r="C15" s="157" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="138"/>
+      <c r="D15" s="157"/>
       <c r="E15" s="96" t="s">
         <v>196</v>
       </c>
@@ -10402,10 +10398,10 @@
         <v>197</v>
       </c>
       <c r="B16" s="123"/>
-      <c r="C16" s="138" t="s">
+      <c r="C16" s="157" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="138"/>
+      <c r="D16" s="157"/>
       <c r="E16" s="55"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -10437,28 +10433,28 @@
       <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="177" t="s">
+      <c r="A19" s="152" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="177"/>
-      <c r="C19" s="177"/>
-      <c r="D19" s="177"/>
-      <c r="E19" s="177"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="177"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="171" t="s">
+      <c r="B20" s="146" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="172"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="173"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="148"/>
       <c r="H20" s="106"/>
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
@@ -10470,12 +10466,12 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="117"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="155"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
+      <c r="B21" s="160"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
       <c r="H21" s="113"/>
       <c r="I21" s="113"/>
       <c r="J21" s="113"/>
@@ -10487,12 +10483,12 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="118"/>
-      <c r="B22" s="157"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="161"/>
+      <c r="D22" s="161"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="161"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
       <c r="J22" s="113"/>
@@ -10504,12 +10500,12 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="119"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="162"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="162"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
       <c r="J23" s="113"/>
@@ -10523,28 +10519,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="174" t="s">
+      <c r="A25" s="149" t="s">
         <v>213</v>
       </c>
-      <c r="B25" s="175"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="176"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="151"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="151" t="s">
+      <c r="B26" s="166" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="166"/>
       <c r="H26" s="106"/>
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
@@ -10558,14 +10554,14 @@
       <c r="A27" s="117">
         <v>1</v>
       </c>
-      <c r="B27" s="152" t="s">
+      <c r="B27" s="167" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="152"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
@@ -10577,12 +10573,12 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="118"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="168"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="168"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -10594,12 +10590,12 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="119"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
+      <c r="B29" s="169"/>
+      <c r="C29" s="169"/>
+      <c r="D29" s="169"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="169"/>
+      <c r="G29" s="169"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
       <c r="J29" s="113"/>
@@ -10626,28 +10622,28 @@
       <c r="N30"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="174" t="s">
+      <c r="A31" s="149" t="s">
         <v>214</v>
       </c>
-      <c r="B31" s="175"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="175"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="176"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="151"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="151" t="s">
+      <c r="B32" s="166" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
+      <c r="C32" s="166"/>
+      <c r="D32" s="166"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="166"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
@@ -10659,12 +10655,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="117"/>
-      <c r="B33" s="155"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="156"/>
+      <c r="B33" s="160"/>
+      <c r="C33" s="160"/>
+      <c r="D33" s="160"/>
+      <c r="E33" s="160"/>
+      <c r="F33" s="160"/>
+      <c r="G33" s="170"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -10676,12 +10672,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="118"/>
-      <c r="B34" s="157"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="158"/>
+      <c r="B34" s="161"/>
+      <c r="C34" s="161"/>
+      <c r="D34" s="161"/>
+      <c r="E34" s="161"/>
+      <c r="F34" s="161"/>
+      <c r="G34" s="171"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -10693,12 +10689,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="119"/>
-      <c r="B35" s="159"/>
-      <c r="C35" s="159"/>
-      <c r="D35" s="159"/>
-      <c r="E35" s="159"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="160"/>
+      <c r="B35" s="162"/>
+      <c r="C35" s="162"/>
+      <c r="D35" s="162"/>
+      <c r="E35" s="162"/>
+      <c r="F35" s="162"/>
+      <c r="G35" s="172"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -10758,16 +10754,16 @@
       <c r="B39" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="184" t="s">
+      <c r="C39" s="183" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="187" t="s">
+      <c r="E39" s="186" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="187" t="s">
+      <c r="F39" s="186" t="s">
         <v>197</v>
       </c>
       <c r="G39" s="181" t="s">
@@ -10779,14 +10775,14 @@
       <c r="I39" s="181" t="s">
         <v>216</v>
       </c>
-      <c r="J39" s="185" t="s">
+      <c r="J39" s="184" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="186"/>
-      <c r="L39" s="185" t="s">
+      <c r="K39" s="185"/>
+      <c r="L39" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="186"/>
+      <c r="M39" s="185"/>
       <c r="N39" s="34" t="s">
         <v>70</v>
       </c>
@@ -10795,15 +10791,15 @@
       </c>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="183"/>
-      <c r="B40" s="183"/>
-      <c r="C40" s="183"/>
-      <c r="D40" s="183"/>
-      <c r="E40" s="188"/>
+      <c r="A40" s="182"/>
+      <c r="B40" s="182"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="182"/>
+      <c r="E40" s="187"/>
       <c r="F40" s="193"/>
-      <c r="G40" s="183"/>
-      <c r="H40" s="183"/>
-      <c r="I40" s="182"/>
+      <c r="G40" s="182"/>
+      <c r="H40" s="182"/>
+      <c r="I40" s="188"/>
       <c r="J40" s="29" t="s">
         <v>75</v>
       </c>
@@ -10819,7 +10815,7 @@
       <c r="N40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="183"/>
+      <c r="O40" s="182"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="7">
@@ -11313,6 +11309,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
     <mergeCell ref="J39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="O39:O40"/>
@@ -11325,23 +11338,6 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="I39:I40"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -11553,10 +11549,10 @@
         <v>194</v>
       </c>
       <c r="B12" s="123"/>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="157" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="138"/>
+      <c r="D12" s="157"/>
       <c r="E12" s="96" t="s">
         <v>196</v>
       </c>
@@ -11569,10 +11565,10 @@
         <v>197</v>
       </c>
       <c r="B13" s="123"/>
-      <c r="C13" s="138" t="s">
+      <c r="C13" s="157" t="s">
         <v>198</v>
       </c>
-      <c r="D13" s="138"/>
+      <c r="D13" s="157"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="54"/>
@@ -11604,28 +11600,28 @@
       <c r="F15" s="96"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="177" t="s">
+      <c r="A16" s="152" t="s">
         <v>212</v>
       </c>
-      <c r="B16" s="177"/>
-      <c r="C16" s="177"/>
-      <c r="D16" s="177"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="177"/>
+      <c r="B16" s="152"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="171" t="s">
+      <c r="B17" s="146" t="s">
         <v>203</v>
       </c>
-      <c r="C17" s="172"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="173"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="148"/>
       <c r="H17" s="106"/>
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
@@ -11636,12 +11632,12 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="117"/>
-      <c r="B18" s="155"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
+      <c r="B18" s="160"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="160"/>
       <c r="H18" s="113"/>
       <c r="J18" s="113"/>
       <c r="K18" s="113"/>
@@ -11652,12 +11648,12 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="118"/>
-      <c r="B19" s="157"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
       <c r="H19" s="113"/>
       <c r="J19" s="113"/>
       <c r="K19" s="113"/>
@@ -11668,12 +11664,12 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="119"/>
-      <c r="B20" s="159"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="162"/>
       <c r="H20" s="113"/>
       <c r="I20" s="106"/>
       <c r="J20" s="113"/>
@@ -11688,29 +11684,29 @@
       <c r="I21" s="113"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="174" t="s">
+      <c r="A22" s="149" t="s">
         <v>213</v>
       </c>
-      <c r="B22" s="175"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="175"/>
-      <c r="G22" s="176"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="151"/>
       <c r="I22" s="113"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="151" t="s">
+      <c r="B23" s="166" t="s">
         <v>204</v>
       </c>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="151"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="166"/>
+      <c r="G23" s="166"/>
       <c r="H23" s="106"/>
       <c r="I23" s="113"/>
       <c r="J23" s="106"/>
@@ -11724,14 +11720,14 @@
       <c r="A24" s="117">
         <v>1</v>
       </c>
-      <c r="B24" s="152" t="s">
+      <c r="B24" s="167" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
       <c r="H24" s="113"/>
       <c r="J24" s="113"/>
       <c r="K24" s="113"/>
@@ -11742,12 +11738,12 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="118"/>
-      <c r="B25" s="153"/>
-      <c r="C25" s="153"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="168"/>
       <c r="H25" s="113"/>
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
@@ -11758,12 +11754,12 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="119"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
+      <c r="B26" s="169"/>
+      <c r="C26" s="169"/>
+      <c r="D26" s="169"/>
+      <c r="E26" s="169"/>
+      <c r="F26" s="169"/>
+      <c r="G26" s="169"/>
       <c r="H26" s="113"/>
       <c r="I26" s="106"/>
       <c r="J26" s="113"/>
@@ -11790,29 +11786,29 @@
       <c r="N27"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="174" t="s">
+      <c r="A28" s="149" t="s">
         <v>214</v>
       </c>
-      <c r="B28" s="175"/>
-      <c r="C28" s="175"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="176"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="151"/>
       <c r="I28" s="113"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="151" t="s">
+      <c r="B29" s="166" t="s">
         <v>206</v>
       </c>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="166"/>
+      <c r="E29" s="166"/>
+      <c r="F29" s="166"/>
+      <c r="G29" s="166"/>
       <c r="H29" s="106"/>
       <c r="I29" s="113"/>
       <c r="J29" s="106"/>
@@ -11824,12 +11820,12 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="117"/>
-      <c r="B30" s="155"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="156"/>
+      <c r="B30" s="160"/>
+      <c r="C30" s="160"/>
+      <c r="D30" s="160"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="160"/>
+      <c r="G30" s="170"/>
       <c r="H30" s="113"/>
       <c r="I30"/>
       <c r="J30" s="113"/>
@@ -11841,12 +11837,12 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="118"/>
-      <c r="B31" s="157"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="158"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="161"/>
+      <c r="E31" s="161"/>
+      <c r="F31" s="161"/>
+      <c r="G31" s="171"/>
       <c r="H31" s="113"/>
       <c r="J31" s="113"/>
       <c r="K31" s="113"/>
@@ -11857,12 +11853,12 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="119"/>
-      <c r="B32" s="159"/>
-      <c r="C32" s="159"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="160"/>
+      <c r="B32" s="162"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="162"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="172"/>
       <c r="H32" s="113"/>
       <c r="I32" s="106"/>
       <c r="J32" s="113"/>
@@ -11912,60 +11908,60 @@
       <c r="O35" s="58"/>
     </row>
     <row r="36" spans="1:15" ht="15">
-      <c r="A36" s="187" t="s">
+      <c r="A36" s="186" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="187" t="s">
+      <c r="B36" s="186" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="187" t="s">
+      <c r="D36" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="187" t="s">
+      <c r="E36" s="186" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="187" t="s">
+      <c r="F36" s="186" t="s">
         <v>197</v>
       </c>
-      <c r="G36" s="187" t="s">
+      <c r="G36" s="186" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="187" t="s">
+      <c r="H36" s="186" t="s">
         <v>139</v>
       </c>
       <c r="I36" s="181" t="s">
         <v>216</v>
       </c>
-      <c r="J36" s="189" t="s">
+      <c r="J36" s="190" t="s">
         <v>122</v>
       </c>
-      <c r="K36" s="190"/>
-      <c r="L36" s="191" t="s">
+      <c r="K36" s="191"/>
+      <c r="L36" s="192" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="190"/>
+      <c r="M36" s="191"/>
       <c r="N36" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="O36" s="187" t="s">
+      <c r="O36" s="186" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15">
-      <c r="A37" s="192"/>
-      <c r="B37" s="192"/>
+      <c r="A37" s="189"/>
+      <c r="B37" s="189"/>
       <c r="C37" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="192"/>
-      <c r="E37" s="188"/>
+      <c r="D37" s="189"/>
+      <c r="E37" s="187"/>
       <c r="F37" s="193"/>
-      <c r="G37" s="192"/>
-      <c r="H37" s="192"/>
-      <c r="I37" s="182"/>
+      <c r="G37" s="189"/>
+      <c r="H37" s="189"/>
+      <c r="I37" s="188"/>
       <c r="J37" s="62" t="s">
         <v>126</v>
       </c>
@@ -11981,7 +11977,7 @@
       <c r="N37" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="O37" s="192"/>
+      <c r="O37" s="189"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="64">
@@ -12457,6 +12453,23 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="A36:A37"/>
@@ -12468,23 +12481,6 @@
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="I36:I37"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="B29:G29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -12731,10 +12727,10 @@
         <v>194</v>
       </c>
       <c r="B15" s="123"/>
-      <c r="C15" s="138" t="s">
+      <c r="C15" s="157" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="138"/>
+      <c r="D15" s="157"/>
       <c r="E15" s="96" t="s">
         <v>196</v>
       </c>
@@ -12745,10 +12741,10 @@
         <v>197</v>
       </c>
       <c r="B16" s="123"/>
-      <c r="C16" s="138" t="s">
+      <c r="C16" s="157" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="138"/>
+      <c r="D16" s="157"/>
       <c r="E16" s="55"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -12780,28 +12776,28 @@
       <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="177" t="s">
+      <c r="A19" s="152" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="177"/>
-      <c r="C19" s="177"/>
-      <c r="D19" s="177"/>
-      <c r="E19" s="177"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="177"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="171" t="s">
+      <c r="B20" s="146" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="172"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="173"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="148"/>
       <c r="H20" s="106"/>
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
@@ -12813,12 +12809,12 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="117"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="155"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
+      <c r="B21" s="160"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
       <c r="H21" s="113"/>
       <c r="I21" s="113"/>
       <c r="J21" s="113"/>
@@ -12830,12 +12826,12 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="118"/>
-      <c r="B22" s="157"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="161"/>
+      <c r="D22" s="161"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="161"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
       <c r="J22" s="113"/>
@@ -12847,12 +12843,12 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="119"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="162"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="162"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
       <c r="J23" s="113"/>
@@ -12866,28 +12862,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="174" t="s">
+      <c r="A25" s="149" t="s">
         <v>213</v>
       </c>
-      <c r="B25" s="175"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="176"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="151"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="151" t="s">
+      <c r="B26" s="166" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="166"/>
       <c r="H26" s="106"/>
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
@@ -12901,14 +12897,14 @@
       <c r="A27" s="117">
         <v>1</v>
       </c>
-      <c r="B27" s="152" t="s">
+      <c r="B27" s="167" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="152"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
@@ -12920,12 +12916,12 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="118"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="168"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="168"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -12937,12 +12933,12 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="119"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
+      <c r="B29" s="169"/>
+      <c r="C29" s="169"/>
+      <c r="D29" s="169"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="169"/>
+      <c r="G29" s="169"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
       <c r="J29" s="113"/>
@@ -12969,28 +12965,28 @@
       <c r="N30"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="174" t="s">
+      <c r="A31" s="149" t="s">
         <v>214</v>
       </c>
-      <c r="B31" s="175"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="175"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="176"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="151"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="151" t="s">
+      <c r="B32" s="166" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
+      <c r="C32" s="166"/>
+      <c r="D32" s="166"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="166"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
@@ -13002,12 +12998,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="117"/>
-      <c r="B33" s="155"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="156"/>
+      <c r="B33" s="160"/>
+      <c r="C33" s="160"/>
+      <c r="D33" s="160"/>
+      <c r="E33" s="160"/>
+      <c r="F33" s="160"/>
+      <c r="G33" s="170"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -13019,12 +13015,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="118"/>
-      <c r="B34" s="157"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="158"/>
+      <c r="B34" s="161"/>
+      <c r="C34" s="161"/>
+      <c r="D34" s="161"/>
+      <c r="E34" s="161"/>
+      <c r="F34" s="161"/>
+      <c r="G34" s="171"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -13036,12 +13032,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="119"/>
-      <c r="B35" s="159"/>
-      <c r="C35" s="159"/>
-      <c r="D35" s="159"/>
-      <c r="E35" s="159"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="160"/>
+      <c r="B35" s="162"/>
+      <c r="C35" s="162"/>
+      <c r="D35" s="162"/>
+      <c r="E35" s="162"/>
+      <c r="F35" s="162"/>
+      <c r="G35" s="172"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -13103,16 +13099,16 @@
       <c r="B39" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="184" t="s">
+      <c r="C39" s="183" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="187" t="s">
+      <c r="E39" s="186" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="187" t="s">
+      <c r="F39" s="186" t="s">
         <v>197</v>
       </c>
       <c r="G39" s="181" t="s">
@@ -13124,14 +13120,14 @@
       <c r="I39" s="181" t="s">
         <v>216</v>
       </c>
-      <c r="J39" s="185" t="s">
+      <c r="J39" s="184" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="186"/>
-      <c r="L39" s="185" t="s">
+      <c r="K39" s="185"/>
+      <c r="L39" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="186"/>
+      <c r="M39" s="185"/>
       <c r="N39" s="34" t="s">
         <v>70</v>
       </c>
@@ -13140,15 +13136,15 @@
       </c>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="183"/>
-      <c r="B40" s="183"/>
-      <c r="C40" s="183"/>
-      <c r="D40" s="183"/>
-      <c r="E40" s="188"/>
+      <c r="A40" s="182"/>
+      <c r="B40" s="182"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="182"/>
+      <c r="E40" s="187"/>
       <c r="F40" s="193"/>
-      <c r="G40" s="183"/>
-      <c r="H40" s="183"/>
-      <c r="I40" s="182"/>
+      <c r="G40" s="182"/>
+      <c r="H40" s="182"/>
+      <c r="I40" s="188"/>
       <c r="J40" s="29" t="s">
         <v>75</v>
       </c>
@@ -13164,7 +13160,7 @@
       <c r="N40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="183"/>
+      <c r="O40" s="182"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="7">
@@ -13658,6 +13654,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
     <mergeCell ref="J39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="O39:O40"/>
@@ -13670,23 +13683,6 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="I39:I40"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -13743,7 +13739,7 @@
   </sheetPr>
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
@@ -13898,10 +13894,10 @@
         <v>194</v>
       </c>
       <c r="B12" s="123"/>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="157" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="138"/>
+      <c r="D12" s="157"/>
       <c r="E12" s="96" t="s">
         <v>196</v>
       </c>
@@ -13914,10 +13910,10 @@
         <v>197</v>
       </c>
       <c r="B13" s="123"/>
-      <c r="C13" s="138" t="s">
+      <c r="C13" s="157" t="s">
         <v>198</v>
       </c>
-      <c r="D13" s="138"/>
+      <c r="D13" s="157"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="54"/>
@@ -13949,28 +13945,28 @@
       <c r="F15" s="96"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="177" t="s">
+      <c r="A16" s="152" t="s">
         <v>212</v>
       </c>
-      <c r="B16" s="177"/>
-      <c r="C16" s="177"/>
-      <c r="D16" s="177"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="177"/>
+      <c r="B16" s="152"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="171" t="s">
+      <c r="B17" s="146" t="s">
         <v>203</v>
       </c>
-      <c r="C17" s="172"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="173"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="148"/>
       <c r="H17" s="106"/>
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
@@ -13981,12 +13977,12 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="117"/>
-      <c r="B18" s="155"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
+      <c r="B18" s="160"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="160"/>
       <c r="H18" s="113"/>
       <c r="J18" s="113"/>
       <c r="K18" s="113"/>
@@ -13997,12 +13993,12 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="118"/>
-      <c r="B19" s="157"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
       <c r="H19" s="113"/>
       <c r="J19" s="113"/>
       <c r="K19" s="113"/>
@@ -14013,12 +14009,12 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="119"/>
-      <c r="B20" s="159"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="162"/>
       <c r="H20" s="113"/>
       <c r="I20" s="106"/>
       <c r="J20" s="113"/>
@@ -14033,29 +14029,29 @@
       <c r="I21" s="113"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="174" t="s">
+      <c r="A22" s="149" t="s">
         <v>213</v>
       </c>
-      <c r="B22" s="175"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="175"/>
-      <c r="G22" s="176"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="151"/>
       <c r="I22" s="113"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="151" t="s">
+      <c r="B23" s="166" t="s">
         <v>204</v>
       </c>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="151"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="166"/>
+      <c r="G23" s="166"/>
       <c r="H23" s="106"/>
       <c r="I23" s="113"/>
       <c r="J23" s="106"/>
@@ -14069,14 +14065,14 @@
       <c r="A24" s="117">
         <v>1</v>
       </c>
-      <c r="B24" s="152" t="s">
+      <c r="B24" s="167" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
       <c r="H24" s="113"/>
       <c r="J24" s="113"/>
       <c r="K24" s="113"/>
@@ -14087,12 +14083,12 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="118"/>
-      <c r="B25" s="153"/>
-      <c r="C25" s="153"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="168"/>
       <c r="H25" s="113"/>
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
@@ -14103,12 +14099,12 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="119"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
+      <c r="B26" s="169"/>
+      <c r="C26" s="169"/>
+      <c r="D26" s="169"/>
+      <c r="E26" s="169"/>
+      <c r="F26" s="169"/>
+      <c r="G26" s="169"/>
       <c r="H26" s="113"/>
       <c r="I26" s="106"/>
       <c r="J26" s="113"/>
@@ -14135,29 +14131,29 @@
       <c r="N27"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="174" t="s">
+      <c r="A28" s="149" t="s">
         <v>214</v>
       </c>
-      <c r="B28" s="175"/>
-      <c r="C28" s="175"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="176"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="151"/>
       <c r="I28" s="113"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="151" t="s">
+      <c r="B29" s="166" t="s">
         <v>206</v>
       </c>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="166"/>
+      <c r="E29" s="166"/>
+      <c r="F29" s="166"/>
+      <c r="G29" s="166"/>
       <c r="H29" s="106"/>
       <c r="I29" s="113"/>
       <c r="J29" s="106"/>
@@ -14169,12 +14165,12 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="117"/>
-      <c r="B30" s="155"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="156"/>
+      <c r="B30" s="160"/>
+      <c r="C30" s="160"/>
+      <c r="D30" s="160"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="160"/>
+      <c r="G30" s="170"/>
       <c r="H30" s="113"/>
       <c r="I30"/>
       <c r="J30" s="113"/>
@@ -14186,12 +14182,12 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="118"/>
-      <c r="B31" s="157"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="158"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="161"/>
+      <c r="E31" s="161"/>
+      <c r="F31" s="161"/>
+      <c r="G31" s="171"/>
       <c r="H31" s="113"/>
       <c r="J31" s="113"/>
       <c r="K31" s="113"/>
@@ -14202,12 +14198,12 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="119"/>
-      <c r="B32" s="159"/>
-      <c r="C32" s="159"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="160"/>
+      <c r="B32" s="162"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="162"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="172"/>
       <c r="H32" s="113"/>
       <c r="I32" s="106"/>
       <c r="J32" s="113"/>
@@ -14257,60 +14253,60 @@
       <c r="O35" s="58"/>
     </row>
     <row r="36" spans="1:15" ht="15">
-      <c r="A36" s="187" t="s">
+      <c r="A36" s="186" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="187" t="s">
+      <c r="B36" s="186" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="187" t="s">
+      <c r="D36" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="187" t="s">
+      <c r="E36" s="186" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="187" t="s">
+      <c r="F36" s="186" t="s">
         <v>197</v>
       </c>
-      <c r="G36" s="187" t="s">
+      <c r="G36" s="186" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="187" t="s">
+      <c r="H36" s="186" t="s">
         <v>139</v>
       </c>
       <c r="I36" s="181" t="s">
         <v>216</v>
       </c>
-      <c r="J36" s="189" t="s">
+      <c r="J36" s="190" t="s">
         <v>122</v>
       </c>
-      <c r="K36" s="190"/>
-      <c r="L36" s="191" t="s">
+      <c r="K36" s="191"/>
+      <c r="L36" s="192" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="190"/>
+      <c r="M36" s="191"/>
       <c r="N36" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="O36" s="187" t="s">
+      <c r="O36" s="186" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15">
-      <c r="A37" s="192"/>
-      <c r="B37" s="192"/>
+      <c r="A37" s="189"/>
+      <c r="B37" s="189"/>
       <c r="C37" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="192"/>
-      <c r="E37" s="188"/>
+      <c r="D37" s="189"/>
+      <c r="E37" s="187"/>
       <c r="F37" s="193"/>
-      <c r="G37" s="192"/>
-      <c r="H37" s="192"/>
-      <c r="I37" s="182"/>
+      <c r="G37" s="189"/>
+      <c r="H37" s="189"/>
+      <c r="I37" s="188"/>
       <c r="J37" s="62" t="s">
         <v>126</v>
       </c>
@@ -14326,7 +14322,7 @@
       <c r="N37" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="O37" s="192"/>
+      <c r="O37" s="189"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="64"/>
@@ -14738,6 +14734,24 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="A36:A37"/>
@@ -14748,24 +14762,6 @@
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="I36:I37"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="B29:G29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">

--- a/meta/api/BlancoApiSample.xlsx
+++ b/meta/api/BlancoApiSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/api/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuji/projects/blanco/blancoRestGeneratorKt/meta/api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2480757-5986-7A41-89B9-2AFC2246B60A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8831E5B7-AFEA-084D-8470-546A29785682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12360" yWindow="1380" windowWidth="21420" windowHeight="17820" tabRatio="860" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="500" windowWidth="21420" windowHeight="17500" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
@@ -31,6 +31,7 @@
   <definedNames>
     <definedName name="isImport">config!$E$5:$E$6</definedName>
     <definedName name="isNullable">config!$F$5:$F$6</definedName>
+    <definedName name="path">config!$G$5:$G$7</definedName>
     <definedName name="Submit有無">config!$B$5:$B$6</definedName>
     <definedName name="Validate実装パターン">config!$A$5:$A$6</definedName>
     <definedName name="チェック種別">config!$D$5:$D$49</definedName>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="233">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -2310,6 +2311,50 @@
   </si>
   <si>
     <t>blanco.restgenerator.valueobject.BusinessApiRequestHeader</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目名</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>種別</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シュベツ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>ugId</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>query</t>
+  </si>
+  <si>
+    <t>Getリクエストバインド種別</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">シュベツ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電文処理定義・GETリクエストバインド</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2394,7 +2439,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2461,8 +2506,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="58">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -3181,6 +3238,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3189,7 +3259,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3438,23 +3508,86 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3464,15 +3597,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3504,57 +3628,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3564,22 +3637,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3598,12 +3659,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3613,9 +3668,36 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4160,10 +4242,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:O74"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:E15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -4206,168 +4288,168 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="176" t="s">
+      <c r="A5" s="134" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="176"/>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
-      <c r="E5" s="176"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
       <c r="F5" s="55"/>
       <c r="G5" s="55"/>
       <c r="H5" s="96"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="178" t="s">
+      <c r="A6" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="179"/>
-      <c r="C6" s="180"/>
-      <c r="D6" s="177" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="135" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="177"/>
+      <c r="E6" s="135"/>
       <c r="F6" s="55"/>
       <c r="G6" s="55"/>
       <c r="H6" s="96"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="176" t="s">
+      <c r="A7" s="134" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="176"/>
-      <c r="C7" s="176"/>
-      <c r="D7" s="177" t="s">
+      <c r="B7" s="134"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="135" t="s">
         <v>175</v>
       </c>
-      <c r="E7" s="177"/>
+      <c r="E7" s="135"/>
       <c r="F7" s="55"/>
       <c r="G7" s="55"/>
       <c r="H7" s="96"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="176" t="s">
+      <c r="A8" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="176"/>
-      <c r="C8" s="176"/>
-      <c r="D8" s="177" t="s">
+      <c r="B8" s="134"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="E8" s="177"/>
+      <c r="E8" s="135"/>
       <c r="F8" s="96"/>
       <c r="G8" s="96"/>
       <c r="H8" s="96"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="176" t="s">
+      <c r="A9" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="176"/>
-      <c r="C9" s="176"/>
-      <c r="D9" s="177" t="s">
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="177"/>
+      <c r="E9" s="135"/>
       <c r="F9" s="96"/>
       <c r="G9" s="96"/>
       <c r="H9" s="96"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="176" t="s">
+      <c r="A10" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="176"/>
-      <c r="C10" s="176"/>
-      <c r="D10" s="177"/>
-      <c r="E10" s="177"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
       <c r="F10" s="96"/>
       <c r="G10" s="96"/>
       <c r="H10" s="96"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="176" t="s">
+      <c r="A11" s="134" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="176"/>
-      <c r="C11" s="176"/>
-      <c r="D11" s="177" t="s">
+      <c r="B11" s="134"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="135" t="s">
         <v>167</v>
       </c>
-      <c r="E11" s="177"/>
+      <c r="E11" s="135"/>
       <c r="F11" s="96"/>
       <c r="G11" s="96"/>
       <c r="H11" s="96"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="139" t="s">
+      <c r="A12" s="136" t="s">
         <v>194</v>
       </c>
-      <c r="B12" s="139"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="157" t="s">
+      <c r="B12" s="136"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="138" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="157"/>
+      <c r="E12" s="138"/>
       <c r="F12" s="96" t="s">
         <v>196</v>
       </c>
       <c r="G12" s="54"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="139" t="s">
+      <c r="A13" s="136" t="s">
         <v>197</v>
       </c>
-      <c r="B13" s="139"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="157" t="s">
+      <c r="B13" s="136"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="138" t="s">
         <v>198</v>
       </c>
-      <c r="E13" s="157"/>
+      <c r="E13" s="138"/>
       <c r="F13" s="54"/>
       <c r="G13" s="54"/>
       <c r="H13" s="96"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="139" t="s">
+      <c r="A14" s="136" t="s">
         <v>218</v>
       </c>
-      <c r="B14" s="139"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="156" t="s">
+      <c r="B14" s="136"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="137" t="s">
         <v>222</v>
       </c>
-      <c r="E14" s="157"/>
+      <c r="E14" s="138"/>
       <c r="F14" s="1" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="139" t="s">
+      <c r="A15" s="136" t="s">
         <v>219</v>
       </c>
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="157"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="138"/>
       <c r="F15" s="1" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="173" t="s">
+      <c r="A16" s="174" t="s">
         <v>143</v>
       </c>
-      <c r="B16" s="174"/>
-      <c r="C16" s="175"/>
+      <c r="B16" s="175"/>
+      <c r="C16" s="176"/>
       <c r="D16" s="115"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="140" t="s">
+      <c r="A17" s="161" t="s">
         <v>199</v>
       </c>
-      <c r="B17" s="141"/>
-      <c r="C17" s="142"/>
+      <c r="B17" s="162"/>
+      <c r="C17" s="163"/>
       <c r="D17" s="101" t="s">
         <v>141</v>
       </c>
@@ -4387,15 +4469,15 @@
       <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="153" t="s">
+      <c r="A19" s="171" t="s">
         <v>208</v>
       </c>
-      <c r="B19" s="154"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="155"/>
+      <c r="B19" s="172"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="173"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="102" t="s">
@@ -4439,28 +4521,28 @@
       <c r="C23"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="152" t="s">
+      <c r="A24" s="170" t="s">
         <v>209</v>
       </c>
-      <c r="B24" s="152"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
+      <c r="B24" s="170"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="170"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="170"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="146" t="s">
+      <c r="B25" s="164" t="s">
         <v>203</v>
       </c>
-      <c r="C25" s="147"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="148"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="166"/>
       <c r="H25" s="106"/>
       <c r="I25" s="106"/>
       <c r="J25" s="106"/>
@@ -4471,12 +4553,12 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="117"/>
-      <c r="B26" s="160"/>
-      <c r="C26" s="160"/>
-      <c r="D26" s="160"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="152"/>
       <c r="H26" s="113"/>
       <c r="I26" s="113"/>
       <c r="J26" s="113"/>
@@ -4487,12 +4569,12 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="118"/>
-      <c r="B27" s="161"/>
-      <c r="C27" s="161"/>
-      <c r="D27" s="161"/>
-      <c r="E27" s="161"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="161"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="154"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
@@ -4503,12 +4585,12 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="119"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -4521,28 +4603,28 @@
       <c r="C29"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="149" t="s">
+      <c r="A30" s="167" t="s">
         <v>210</v>
       </c>
-      <c r="B30" s="150"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="151"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="169"/>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="166" t="s">
+      <c r="B31" s="148" t="s">
         <v>204</v>
       </c>
-      <c r="C31" s="166"/>
-      <c r="D31" s="166"/>
-      <c r="E31" s="166"/>
-      <c r="F31" s="166"/>
-      <c r="G31" s="166"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
       <c r="H31" s="106"/>
       <c r="I31" s="106"/>
       <c r="J31" s="106"/>
@@ -4555,14 +4637,14 @@
       <c r="A32" s="117">
         <v>1</v>
       </c>
-      <c r="B32" s="167" t="s">
+      <c r="B32" s="149" t="s">
         <v>205</v>
       </c>
-      <c r="C32" s="167"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="167"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
       <c r="H32" s="113"/>
       <c r="I32" s="113"/>
       <c r="J32" s="113"/>
@@ -4573,12 +4655,12 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="118"/>
-      <c r="B33" s="168"/>
-      <c r="C33" s="168"/>
-      <c r="D33" s="168"/>
-      <c r="E33" s="168"/>
-      <c r="F33" s="168"/>
-      <c r="G33" s="168"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -4589,12 +4671,12 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="119"/>
-      <c r="B34" s="169"/>
-      <c r="C34" s="169"/>
-      <c r="D34" s="169"/>
-      <c r="E34" s="169"/>
-      <c r="F34" s="169"/>
-      <c r="G34" s="169"/>
+      <c r="B34" s="151"/>
+      <c r="C34" s="151"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="151"/>
+      <c r="F34" s="151"/>
+      <c r="G34" s="151"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -4619,28 +4701,28 @@
       <c r="M35"/>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="149" t="s">
+      <c r="A36" s="167" t="s">
         <v>211</v>
       </c>
-      <c r="B36" s="150"/>
-      <c r="C36" s="150"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="151"/>
+      <c r="B36" s="168"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="168"/>
+      <c r="G36" s="169"/>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="166" t="s">
+      <c r="B37" s="148" t="s">
         <v>206</v>
       </c>
-      <c r="C37" s="166"/>
-      <c r="D37" s="166"/>
-      <c r="E37" s="166"/>
-      <c r="F37" s="166"/>
-      <c r="G37" s="166"/>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
       <c r="H37" s="106"/>
       <c r="I37" s="106"/>
       <c r="J37" s="106"/>
@@ -4651,12 +4733,12 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="117"/>
-      <c r="B38" s="160"/>
-      <c r="C38" s="160"/>
-      <c r="D38" s="160"/>
-      <c r="E38" s="160"/>
-      <c r="F38" s="160"/>
-      <c r="G38" s="170"/>
+      <c r="B38" s="152"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="153"/>
       <c r="H38" s="113"/>
       <c r="I38" s="113"/>
       <c r="J38" s="113"/>
@@ -4667,12 +4749,12 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="118"/>
-      <c r="B39" s="161"/>
-      <c r="C39" s="161"/>
-      <c r="D39" s="161"/>
-      <c r="E39" s="161"/>
-      <c r="F39" s="161"/>
-      <c r="G39" s="171"/>
+      <c r="B39" s="154"/>
+      <c r="C39" s="154"/>
+      <c r="D39" s="154"/>
+      <c r="E39" s="154"/>
+      <c r="F39" s="154"/>
+      <c r="G39" s="155"/>
       <c r="H39" s="113"/>
       <c r="I39" s="113"/>
       <c r="J39" s="113"/>
@@ -4683,12 +4765,12 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="119"/>
-      <c r="B40" s="162"/>
-      <c r="C40" s="162"/>
-      <c r="D40" s="162"/>
-      <c r="E40" s="162"/>
-      <c r="F40" s="162"/>
-      <c r="G40" s="172"/>
+      <c r="B40" s="156"/>
+      <c r="C40" s="156"/>
+      <c r="D40" s="156"/>
+      <c r="E40" s="156"/>
+      <c r="F40" s="156"/>
+      <c r="G40" s="157"/>
       <c r="H40" s="113"/>
       <c r="I40" s="113"/>
       <c r="J40" s="113"/>
@@ -4698,246 +4780,437 @@
       <c r="O40"/>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
+      <c r="A41" s="194"/>
+      <c r="B41" s="195"/>
+      <c r="C41" s="195"/>
+      <c r="D41" s="195"/>
+      <c r="E41" s="195"/>
+      <c r="F41" s="195"/>
+      <c r="G41" s="196"/>
+      <c r="H41" s="113"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="113"/>
       <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="170" t="s">
+        <v>232</v>
+      </c>
+      <c r="B42" s="170"/>
+      <c r="C42" s="170"/>
+      <c r="D42" s="170"/>
+      <c r="E42" s="170"/>
+      <c r="F42" s="170"/>
+      <c r="G42" s="170"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="116" t="s">
+        <v>223</v>
+      </c>
+      <c r="C43" s="116" t="s">
+        <v>224</v>
+      </c>
+      <c r="D43" s="116"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="116"/>
+      <c r="G43" s="116"/>
+      <c r="H43" s="106"/>
+      <c r="I43" s="106"/>
+      <c r="J43" s="106"/>
+      <c r="K43" s="106"/>
+      <c r="L43" s="106"/>
+      <c r="N43" s="112"/>
+      <c r="O43" s="112"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="117">
+        <v>1</v>
+      </c>
+      <c r="B44" s="190" t="s">
+        <v>231</v>
+      </c>
+      <c r="C44" s="190" t="s">
+        <v>225</v>
+      </c>
+      <c r="D44" s="190"/>
+      <c r="E44" s="190"/>
+      <c r="F44" s="190"/>
+      <c r="G44" s="190"/>
+      <c r="H44" s="113"/>
+      <c r="I44" s="113"/>
+      <c r="J44" s="113"/>
+      <c r="K44" s="113"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="118">
+        <v>2</v>
+      </c>
+      <c r="B45" s="190" t="s">
+        <v>226</v>
+      </c>
+      <c r="C45" s="190" t="s">
+        <v>228</v>
+      </c>
+      <c r="D45" s="190"/>
+      <c r="E45" s="190"/>
+      <c r="F45" s="190"/>
+      <c r="G45" s="190"/>
+      <c r="H45" s="113"/>
+      <c r="I45" s="113"/>
+      <c r="J45" s="113"/>
+      <c r="K45" s="113"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="119">
+        <v>3</v>
+      </c>
+      <c r="B46" s="190" t="s">
+        <v>227</v>
+      </c>
+      <c r="C46" s="190" t="s">
+        <v>228</v>
+      </c>
+      <c r="D46" s="190"/>
+      <c r="E46" s="190"/>
+      <c r="F46" s="190"/>
+      <c r="G46" s="190"/>
+      <c r="H46" s="113"/>
+      <c r="I46" s="113"/>
+      <c r="J46" s="113"/>
+      <c r="K46" s="113"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="136" t="s">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="191" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="143"/>
-      <c r="C43" s="136" t="s">
+      <c r="B49" s="192"/>
+      <c r="C49" s="191" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="137"/>
-      <c r="E43" s="138"/>
-      <c r="F43" s="29" t="s">
+      <c r="D49" s="193"/>
+      <c r="E49" s="192"/>
+      <c r="F49" s="29" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="144"/>
-      <c r="B44" s="145"/>
-      <c r="C44" s="144"/>
-      <c r="D44" s="163"/>
-      <c r="E44" s="145"/>
-      <c r="F44" s="49"/>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="134"/>
-      <c r="B45" s="135"/>
-      <c r="C45" s="134"/>
-      <c r="D45" s="164"/>
-      <c r="E45" s="135"/>
-      <c r="F45" s="49"/>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="134"/>
-      <c r="B46" s="135"/>
-      <c r="C46" s="134"/>
-      <c r="D46" s="164"/>
-      <c r="E46" s="135"/>
-      <c r="F46" s="49"/>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="134"/>
-      <c r="B47" s="135"/>
-      <c r="C47" s="134"/>
-      <c r="D47" s="164"/>
-      <c r="E47" s="135"/>
-      <c r="F47" s="49"/>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="134"/>
-      <c r="B48" s="135"/>
-      <c r="C48" s="134"/>
-      <c r="D48" s="164"/>
-      <c r="E48" s="135"/>
-      <c r="F48" s="49"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="134"/>
-      <c r="B49" s="135"/>
-      <c r="C49" s="134"/>
-      <c r="D49" s="164"/>
-      <c r="E49" s="135"/>
-      <c r="F49" s="49"/>
-    </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="134"/>
-      <c r="B50" s="135"/>
-      <c r="C50" s="134"/>
-      <c r="D50" s="164"/>
-      <c r="E50" s="135"/>
+      <c r="A50" s="158"/>
+      <c r="B50" s="160"/>
+      <c r="C50" s="158"/>
+      <c r="D50" s="159"/>
+      <c r="E50" s="160"/>
       <c r="F50" s="49"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="134"/>
-      <c r="B51" s="135"/>
-      <c r="C51" s="134"/>
-      <c r="D51" s="164"/>
-      <c r="E51" s="135"/>
+      <c r="A51" s="142"/>
+      <c r="B51" s="144"/>
+      <c r="C51" s="142"/>
+      <c r="D51" s="143"/>
+      <c r="E51" s="144"/>
       <c r="F51" s="49"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="134"/>
-      <c r="B52" s="135"/>
-      <c r="C52" s="134"/>
-      <c r="D52" s="164"/>
-      <c r="E52" s="135"/>
+      <c r="A52" s="142"/>
+      <c r="B52" s="144"/>
+      <c r="C52" s="142"/>
+      <c r="D52" s="143"/>
+      <c r="E52" s="144"/>
       <c r="F52" s="49"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="134"/>
-      <c r="B53" s="135"/>
-      <c r="C53" s="134"/>
-      <c r="D53" s="164"/>
-      <c r="E53" s="135"/>
+      <c r="A53" s="142"/>
+      <c r="B53" s="144"/>
+      <c r="C53" s="142"/>
+      <c r="D53" s="143"/>
+      <c r="E53" s="144"/>
       <c r="F53" s="49"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="134"/>
-      <c r="B54" s="135"/>
-      <c r="C54" s="134"/>
-      <c r="D54" s="164"/>
-      <c r="E54" s="135"/>
+      <c r="A54" s="142"/>
+      <c r="B54" s="144"/>
+      <c r="C54" s="142"/>
+      <c r="D54" s="143"/>
+      <c r="E54" s="144"/>
       <c r="F54" s="49"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="134"/>
-      <c r="B55" s="135"/>
-      <c r="C55" s="134"/>
-      <c r="D55" s="164"/>
-      <c r="E55" s="135"/>
+      <c r="A55" s="142"/>
+      <c r="B55" s="144"/>
+      <c r="C55" s="142"/>
+      <c r="D55" s="143"/>
+      <c r="E55" s="144"/>
       <c r="F55" s="49"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="134"/>
-      <c r="B56" s="135"/>
-      <c r="C56" s="134"/>
-      <c r="D56" s="164"/>
-      <c r="E56" s="135"/>
+      <c r="A56" s="142"/>
+      <c r="B56" s="144"/>
+      <c r="C56" s="142"/>
+      <c r="D56" s="143"/>
+      <c r="E56" s="144"/>
       <c r="F56" s="49"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="134"/>
-      <c r="B57" s="135"/>
-      <c r="C57" s="134"/>
-      <c r="D57" s="164"/>
-      <c r="E57" s="135"/>
+      <c r="A57" s="142"/>
+      <c r="B57" s="144"/>
+      <c r="C57" s="142"/>
+      <c r="D57" s="143"/>
+      <c r="E57" s="144"/>
       <c r="F57" s="49"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="134"/>
-      <c r="B58" s="135"/>
-      <c r="C58" s="134"/>
-      <c r="D58" s="164"/>
-      <c r="E58" s="135"/>
+      <c r="A58" s="142"/>
+      <c r="B58" s="144"/>
+      <c r="C58" s="142"/>
+      <c r="D58" s="143"/>
+      <c r="E58" s="144"/>
       <c r="F58" s="49"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="134"/>
-      <c r="B59" s="135"/>
-      <c r="C59" s="134"/>
-      <c r="D59" s="164"/>
-      <c r="E59" s="135"/>
+      <c r="A59" s="142"/>
+      <c r="B59" s="144"/>
+      <c r="C59" s="142"/>
+      <c r="D59" s="143"/>
+      <c r="E59" s="144"/>
       <c r="F59" s="49"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="134"/>
-      <c r="B60" s="135"/>
-      <c r="C60" s="134"/>
-      <c r="D60" s="164"/>
-      <c r="E60" s="135"/>
+      <c r="A60" s="142"/>
+      <c r="B60" s="144"/>
+      <c r="C60" s="142"/>
+      <c r="D60" s="143"/>
+      <c r="E60" s="144"/>
       <c r="F60" s="49"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="134"/>
-      <c r="B61" s="135"/>
-      <c r="C61" s="134"/>
-      <c r="D61" s="164"/>
-      <c r="E61" s="135"/>
+      <c r="A61" s="142"/>
+      <c r="B61" s="144"/>
+      <c r="C61" s="142"/>
+      <c r="D61" s="143"/>
+      <c r="E61" s="144"/>
       <c r="F61" s="49"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="134"/>
-      <c r="B62" s="135"/>
-      <c r="C62" s="134"/>
-      <c r="D62" s="164"/>
-      <c r="E62" s="135"/>
+      <c r="A62" s="142"/>
+      <c r="B62" s="144"/>
+      <c r="C62" s="142"/>
+      <c r="D62" s="143"/>
+      <c r="E62" s="144"/>
       <c r="F62" s="49"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="134"/>
-      <c r="B63" s="135"/>
-      <c r="C63" s="134"/>
-      <c r="D63" s="164"/>
-      <c r="E63" s="135"/>
+      <c r="A63" s="142"/>
+      <c r="B63" s="144"/>
+      <c r="C63" s="142"/>
+      <c r="D63" s="143"/>
+      <c r="E63" s="144"/>
       <c r="F63" s="49"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="134"/>
-      <c r="B64" s="135"/>
-      <c r="C64" s="134"/>
-      <c r="D64" s="164"/>
-      <c r="E64" s="135"/>
+      <c r="A64" s="142"/>
+      <c r="B64" s="144"/>
+      <c r="C64" s="142"/>
+      <c r="D64" s="143"/>
+      <c r="E64" s="144"/>
       <c r="F64" s="49"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="134"/>
-      <c r="B65" s="135"/>
-      <c r="C65" s="134"/>
-      <c r="D65" s="164"/>
-      <c r="E65" s="135"/>
+      <c r="A65" s="142"/>
+      <c r="B65" s="144"/>
+      <c r="C65" s="142"/>
+      <c r="D65" s="143"/>
+      <c r="E65" s="144"/>
       <c r="F65" s="49"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="134"/>
-      <c r="B66" s="135"/>
-      <c r="C66" s="134"/>
-      <c r="D66" s="164"/>
-      <c r="E66" s="135"/>
+      <c r="A66" s="142"/>
+      <c r="B66" s="144"/>
+      <c r="C66" s="142"/>
+      <c r="D66" s="143"/>
+      <c r="E66" s="144"/>
       <c r="F66" s="49"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="134"/>
-      <c r="B67" s="135"/>
-      <c r="C67" s="134"/>
-      <c r="D67" s="164"/>
-      <c r="E67" s="135"/>
+      <c r="A67" s="142"/>
+      <c r="B67" s="144"/>
+      <c r="C67" s="142"/>
+      <c r="D67" s="143"/>
+      <c r="E67" s="144"/>
       <c r="F67" s="49"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="158"/>
-      <c r="B68" s="159"/>
-      <c r="C68" s="158"/>
-      <c r="D68" s="165"/>
-      <c r="E68" s="159"/>
-      <c r="F68" s="50"/>
+      <c r="A68" s="142"/>
+      <c r="B68" s="144"/>
+      <c r="C68" s="142"/>
+      <c r="D68" s="143"/>
+      <c r="E68" s="144"/>
+      <c r="F68" s="49"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="142"/>
+      <c r="B69" s="144"/>
+      <c r="C69" s="142"/>
+      <c r="D69" s="143"/>
+      <c r="E69" s="144"/>
+      <c r="F69" s="49"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="142"/>
+      <c r="B70" s="144"/>
+      <c r="C70" s="142"/>
+      <c r="D70" s="143"/>
+      <c r="E70" s="144"/>
+      <c r="F70" s="49"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="142"/>
+      <c r="B71" s="144"/>
+      <c r="C71" s="142"/>
+      <c r="D71" s="143"/>
+      <c r="E71" s="144"/>
+      <c r="F71" s="49"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="142"/>
+      <c r="B72" s="144"/>
+      <c r="C72" s="142"/>
+      <c r="D72" s="143"/>
+      <c r="E72" s="144"/>
+      <c r="F72" s="49"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="142"/>
+      <c r="B73" s="144"/>
+      <c r="C73" s="142"/>
+      <c r="D73" s="143"/>
+      <c r="E73" s="144"/>
+      <c r="F73" s="49"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="145"/>
+      <c r="B74" s="147"/>
+      <c r="C74" s="145"/>
+      <c r="D74" s="146"/>
+      <c r="E74" s="147"/>
+      <c r="F74" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="91">
+  <mergeCells count="92">
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
@@ -4954,86 +5227,14 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17" xr:uid="{AA005DBF-E840-AD43-AC91-CD6CE016CB50}">
       <formula1>isImport</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C44:C46" xr:uid="{5359E819-3DA9-9F40-8153-6EB281F58DC2}">
+      <formula1>path</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.11811023622047245"/>
@@ -5395,10 +5596,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -5408,10 +5609,12 @@
     <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="24" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19">
+    <row r="1" spans="1:7" ht="19">
       <c r="A1" s="18" t="s">
         <v>21</v>
       </c>
@@ -5421,14 +5624,14 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="43" t="s">
         <v>4</v>
       </c>
@@ -5447,8 +5650,11 @@
       <c r="F4" s="43" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="197" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="44" t="s">
         <v>6</v>
       </c>
@@ -5465,8 +5671,11 @@
       <c r="F5" s="8" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="198" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="46" t="s">
         <v>7</v>
       </c>
@@ -5479,8 +5688,11 @@
       </c>
       <c r="E6" s="66"/>
       <c r="F6" s="66"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="49" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="B7" s="15"/>
       <c r="C7" s="48" t="s">
         <v>150</v>
@@ -5488,8 +5700,9 @@
       <c r="D7" s="47" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="199"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="C8" s="48" t="s">
         <v>151</v>
       </c>
@@ -5497,7 +5710,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="D10" s="3"/>
     </row>
   </sheetData>
@@ -5518,7 +5731,7 @@
   </sheetPr>
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
@@ -5713,10 +5926,10 @@
         <v>194</v>
       </c>
       <c r="B15" s="123"/>
-      <c r="C15" s="157" t="s">
+      <c r="C15" s="138" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="157"/>
+      <c r="D15" s="138"/>
       <c r="E15" s="96" t="s">
         <v>196</v>
       </c>
@@ -5727,10 +5940,10 @@
         <v>197</v>
       </c>
       <c r="B16" s="123"/>
-      <c r="C16" s="157" t="s">
+      <c r="C16" s="138" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="157"/>
+      <c r="D16" s="138"/>
       <c r="E16" s="55"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -5762,28 +5975,28 @@
       <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="152" t="s">
+      <c r="A19" s="170" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="152"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="146" t="s">
+      <c r="B20" s="164" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="147"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="148"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="166"/>
       <c r="H20" s="106"/>
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
@@ -5795,12 +6008,12 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="117"/>
-      <c r="B21" s="160"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
       <c r="H21" s="113"/>
       <c r="I21" s="113"/>
       <c r="J21" s="113"/>
@@ -5812,12 +6025,12 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="118"/>
-      <c r="B22" s="161"/>
-      <c r="C22" s="161"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
       <c r="J22" s="113"/>
@@ -5829,12 +6042,12 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="119"/>
-      <c r="B23" s="162"/>
-      <c r="C23" s="162"/>
-      <c r="D23" s="162"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="162"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
       <c r="J23" s="113"/>
@@ -5848,28 +6061,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="149" t="s">
+      <c r="A25" s="167" t="s">
         <v>213</v>
       </c>
-      <c r="B25" s="150"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="151"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="169"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="166" t="s">
+      <c r="B26" s="148" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="166"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="166"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
       <c r="H26" s="106"/>
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
@@ -5883,14 +6096,14 @@
       <c r="A27" s="117">
         <v>1</v>
       </c>
-      <c r="B27" s="167" t="s">
+      <c r="B27" s="149" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="167"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="149"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
@@ -5902,12 +6115,12 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="118"/>
-      <c r="B28" s="168"/>
-      <c r="C28" s="168"/>
-      <c r="D28" s="168"/>
-      <c r="E28" s="168"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="168"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -5919,12 +6132,12 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="119"/>
-      <c r="B29" s="169"/>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="169"/>
+      <c r="B29" s="151"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="151"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
       <c r="J29" s="113"/>
@@ -5951,28 +6164,28 @@
       <c r="N30"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="149" t="s">
+      <c r="A31" s="167" t="s">
         <v>214</v>
       </c>
-      <c r="B31" s="150"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="151"/>
+      <c r="B31" s="168"/>
+      <c r="C31" s="168"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="169"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="166" t="s">
+      <c r="B32" s="148" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="166"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="166"/>
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
@@ -5984,12 +6197,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="117"/>
-      <c r="B33" s="160"/>
-      <c r="C33" s="160"/>
-      <c r="D33" s="160"/>
-      <c r="E33" s="160"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="170"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="153"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -6001,12 +6214,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="118"/>
-      <c r="B34" s="161"/>
-      <c r="C34" s="161"/>
-      <c r="D34" s="161"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="171"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="155"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -6018,12 +6231,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="119"/>
-      <c r="B35" s="162"/>
-      <c r="C35" s="162"/>
-      <c r="D35" s="162"/>
-      <c r="E35" s="162"/>
-      <c r="F35" s="162"/>
-      <c r="G35" s="172"/>
+      <c r="B35" s="156"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="157"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -6077,58 +6290,58 @@
       <c r="T38" s="39"/>
     </row>
     <row r="39" spans="1:20">
-      <c r="A39" s="181" t="s">
+      <c r="A39" s="177" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="181" t="s">
+      <c r="B39" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="183" t="s">
+      <c r="C39" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="181" t="s">
+      <c r="D39" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="186" t="s">
+      <c r="E39" s="183" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="186" t="s">
+      <c r="F39" s="183" t="s">
         <v>197</v>
       </c>
-      <c r="G39" s="181" t="s">
+      <c r="G39" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="181" t="s">
+      <c r="H39" s="177" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="181" t="s">
+      <c r="I39" s="177" t="s">
         <v>216</v>
       </c>
-      <c r="J39" s="184" t="s">
+      <c r="J39" s="181" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="185"/>
-      <c r="L39" s="184" t="s">
+      <c r="K39" s="182"/>
+      <c r="L39" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="185"/>
+      <c r="M39" s="182"/>
       <c r="N39" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="O39" s="181" t="s">
+      <c r="O39" s="177" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="182"/>
-      <c r="B40" s="182"/>
-      <c r="C40" s="182"/>
-      <c r="D40" s="182"/>
-      <c r="E40" s="187"/>
-      <c r="F40" s="187"/>
-      <c r="G40" s="182"/>
-      <c r="H40" s="182"/>
-      <c r="I40" s="188"/>
+      <c r="A40" s="179"/>
+      <c r="B40" s="179"/>
+      <c r="C40" s="179"/>
+      <c r="D40" s="179"/>
+      <c r="E40" s="184"/>
+      <c r="F40" s="184"/>
+      <c r="G40" s="179"/>
+      <c r="H40" s="179"/>
+      <c r="I40" s="178"/>
       <c r="J40" s="29" t="s">
         <v>75</v>
       </c>
@@ -6144,7 +6357,7 @@
       <c r="N40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="182"/>
+      <c r="O40" s="179"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="7">
@@ -6636,19 +6849,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="A19:G19"/>
@@ -6665,6 +6865,19 @@
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A31:G31"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -6873,10 +7086,10 @@
         <v>194</v>
       </c>
       <c r="B12" s="123"/>
-      <c r="C12" s="157" t="s">
+      <c r="C12" s="138" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="157"/>
+      <c r="D12" s="138"/>
       <c r="E12" s="96" t="s">
         <v>196</v>
       </c>
@@ -6889,10 +7102,10 @@
         <v>197</v>
       </c>
       <c r="B13" s="123"/>
-      <c r="C13" s="157" t="s">
+      <c r="C13" s="138" t="s">
         <v>198</v>
       </c>
-      <c r="D13" s="157"/>
+      <c r="D13" s="138"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="54"/>
@@ -6924,28 +7137,28 @@
       <c r="F15" s="96"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="152" t="s">
+      <c r="A16" s="170" t="s">
         <v>212</v>
       </c>
-      <c r="B16" s="152"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
+      <c r="B16" s="170"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="170"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="146" t="s">
+      <c r="B17" s="164" t="s">
         <v>203</v>
       </c>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="148"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="166"/>
       <c r="H17" s="106"/>
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
@@ -6956,12 +7169,12 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="117"/>
-      <c r="B18" s="160"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
       <c r="H18" s="113"/>
       <c r="J18" s="113"/>
       <c r="K18" s="113"/>
@@ -6972,12 +7185,12 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="118"/>
-      <c r="B19" s="161"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
       <c r="H19" s="113"/>
       <c r="J19" s="113"/>
       <c r="K19" s="113"/>
@@ -6988,12 +7201,12 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="119"/>
-      <c r="B20" s="162"/>
-      <c r="C20" s="162"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="162"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
       <c r="H20" s="113"/>
       <c r="I20" s="106"/>
       <c r="J20" s="113"/>
@@ -7008,29 +7221,29 @@
       <c r="I21" s="113"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="149" t="s">
+      <c r="A22" s="167" t="s">
         <v>213</v>
       </c>
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="151"/>
+      <c r="B22" s="168"/>
+      <c r="C22" s="168"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="168"/>
+      <c r="F22" s="168"/>
+      <c r="G22" s="169"/>
       <c r="I22" s="113"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="166" t="s">
+      <c r="B23" s="148" t="s">
         <v>204</v>
       </c>
-      <c r="C23" s="166"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="166"/>
-      <c r="F23" s="166"/>
-      <c r="G23" s="166"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="148"/>
       <c r="H23" s="106"/>
       <c r="I23" s="113"/>
       <c r="J23" s="106"/>
@@ -7044,14 +7257,14 @@
       <c r="A24" s="117">
         <v>1</v>
       </c>
-      <c r="B24" s="167" t="s">
+      <c r="B24" s="149" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
       <c r="H24" s="113"/>
       <c r="J24" s="113"/>
       <c r="K24" s="113"/>
@@ -7062,12 +7275,12 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="118"/>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="168"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="168"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="150"/>
       <c r="H25" s="113"/>
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
@@ -7078,12 +7291,12 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="119"/>
-      <c r="B26" s="169"/>
-      <c r="C26" s="169"/>
-      <c r="D26" s="169"/>
-      <c r="E26" s="169"/>
-      <c r="F26" s="169"/>
-      <c r="G26" s="169"/>
+      <c r="B26" s="151"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
       <c r="H26" s="113"/>
       <c r="I26" s="106"/>
       <c r="J26" s="113"/>
@@ -7110,29 +7323,29 @@
       <c r="N27"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="149" t="s">
+      <c r="A28" s="167" t="s">
         <v>214</v>
       </c>
-      <c r="B28" s="150"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="151"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="168"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="169"/>
       <c r="I28" s="113"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="166" t="s">
+      <c r="B29" s="148" t="s">
         <v>206</v>
       </c>
-      <c r="C29" s="166"/>
-      <c r="D29" s="166"/>
-      <c r="E29" s="166"/>
-      <c r="F29" s="166"/>
-      <c r="G29" s="166"/>
+      <c r="C29" s="148"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
       <c r="H29" s="106"/>
       <c r="I29" s="113"/>
       <c r="J29" s="106"/>
@@ -7144,12 +7357,12 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="117"/>
-      <c r="B30" s="160"/>
-      <c r="C30" s="160"/>
-      <c r="D30" s="160"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="170"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="153"/>
       <c r="H30" s="113"/>
       <c r="I30"/>
       <c r="J30" s="113"/>
@@ -7161,12 +7374,12 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="118"/>
-      <c r="B31" s="161"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="171"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="155"/>
       <c r="H31" s="113"/>
       <c r="J31" s="113"/>
       <c r="K31" s="113"/>
@@ -7177,12 +7390,12 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="119"/>
-      <c r="B32" s="162"/>
-      <c r="C32" s="162"/>
-      <c r="D32" s="162"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="172"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="157"/>
       <c r="H32" s="113"/>
       <c r="I32" s="106"/>
       <c r="J32" s="113"/>
@@ -7232,60 +7445,60 @@
       <c r="O35" s="58"/>
     </row>
     <row r="36" spans="1:15" ht="15">
-      <c r="A36" s="186" t="s">
+      <c r="A36" s="183" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="186" t="s">
+      <c r="B36" s="183" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="186" t="s">
+      <c r="D36" s="183" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="186" t="s">
+      <c r="E36" s="183" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="186" t="s">
+      <c r="F36" s="183" t="s">
         <v>197</v>
       </c>
-      <c r="G36" s="186" t="s">
+      <c r="G36" s="183" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="186" t="s">
+      <c r="H36" s="183" t="s">
         <v>139</v>
       </c>
-      <c r="I36" s="181" t="s">
+      <c r="I36" s="177" t="s">
         <v>216</v>
       </c>
-      <c r="J36" s="190" t="s">
+      <c r="J36" s="185" t="s">
         <v>122</v>
       </c>
-      <c r="K36" s="191"/>
-      <c r="L36" s="192" t="s">
+      <c r="K36" s="186"/>
+      <c r="L36" s="187" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="191"/>
+      <c r="M36" s="186"/>
       <c r="N36" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="O36" s="186" t="s">
+      <c r="O36" s="183" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15">
-      <c r="A37" s="189"/>
-      <c r="B37" s="189"/>
+      <c r="A37" s="188"/>
+      <c r="B37" s="188"/>
       <c r="C37" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="189"/>
-      <c r="E37" s="187"/>
-      <c r="F37" s="187"/>
-      <c r="G37" s="189"/>
-      <c r="H37" s="189"/>
-      <c r="I37" s="188"/>
+      <c r="D37" s="188"/>
+      <c r="E37" s="184"/>
+      <c r="F37" s="184"/>
+      <c r="G37" s="188"/>
+      <c r="H37" s="188"/>
+      <c r="I37" s="178"/>
       <c r="J37" s="62" t="s">
         <v>126</v>
       </c>
@@ -7301,7 +7514,7 @@
       <c r="N37" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="O37" s="189"/>
+      <c r="O37" s="188"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="64">
@@ -7775,6 +7988,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="G36:G37"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="I36:I37"/>
@@ -7791,18 +8016,6 @@
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -8045,10 +8258,10 @@
         <v>194</v>
       </c>
       <c r="B15" s="123"/>
-      <c r="C15" s="157" t="s">
+      <c r="C15" s="138" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="157"/>
+      <c r="D15" s="138"/>
       <c r="E15" s="96" t="s">
         <v>196</v>
       </c>
@@ -8059,10 +8272,10 @@
         <v>197</v>
       </c>
       <c r="B16" s="123"/>
-      <c r="C16" s="157" t="s">
+      <c r="C16" s="138" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="157"/>
+      <c r="D16" s="138"/>
       <c r="E16" s="55"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -8094,28 +8307,28 @@
       <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="152" t="s">
+      <c r="A19" s="170" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="152"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="146" t="s">
+      <c r="B20" s="164" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="147"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="148"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="166"/>
       <c r="H20" s="106"/>
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
@@ -8127,12 +8340,12 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="117"/>
-      <c r="B21" s="160"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
       <c r="H21" s="113"/>
       <c r="I21" s="113"/>
       <c r="J21" s="113"/>
@@ -8144,12 +8357,12 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="118"/>
-      <c r="B22" s="161"/>
-      <c r="C22" s="161"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
       <c r="J22" s="113"/>
@@ -8161,12 +8374,12 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="119"/>
-      <c r="B23" s="162"/>
-      <c r="C23" s="162"/>
-      <c r="D23" s="162"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="162"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
       <c r="J23" s="113"/>
@@ -8180,28 +8393,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="149" t="s">
+      <c r="A25" s="167" t="s">
         <v>213</v>
       </c>
-      <c r="B25" s="150"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="151"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="169"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="166" t="s">
+      <c r="B26" s="148" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="166"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="166"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
       <c r="H26" s="106"/>
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
@@ -8215,14 +8428,14 @@
       <c r="A27" s="117">
         <v>1</v>
       </c>
-      <c r="B27" s="167" t="s">
+      <c r="B27" s="149" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="167"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="149"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
@@ -8234,12 +8447,12 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="118"/>
-      <c r="B28" s="168"/>
-      <c r="C28" s="168"/>
-      <c r="D28" s="168"/>
-      <c r="E28" s="168"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="168"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -8251,12 +8464,12 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="119"/>
-      <c r="B29" s="169"/>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="169"/>
+      <c r="B29" s="151"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="151"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
       <c r="J29" s="113"/>
@@ -8283,28 +8496,28 @@
       <c r="N30"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="149" t="s">
+      <c r="A31" s="167" t="s">
         <v>214</v>
       </c>
-      <c r="B31" s="150"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="151"/>
+      <c r="B31" s="168"/>
+      <c r="C31" s="168"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="169"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="166" t="s">
+      <c r="B32" s="148" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="166"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="166"/>
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
@@ -8316,12 +8529,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="117"/>
-      <c r="B33" s="160"/>
-      <c r="C33" s="160"/>
-      <c r="D33" s="160"/>
-      <c r="E33" s="160"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="170"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="153"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -8333,12 +8546,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="118"/>
-      <c r="B34" s="161"/>
-      <c r="C34" s="161"/>
-      <c r="D34" s="161"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="171"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="155"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -8350,12 +8563,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="119"/>
-      <c r="B35" s="162"/>
-      <c r="C35" s="162"/>
-      <c r="D35" s="162"/>
-      <c r="E35" s="162"/>
-      <c r="F35" s="162"/>
-      <c r="G35" s="172"/>
+      <c r="B35" s="156"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="157"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -8409,58 +8622,58 @@
       <c r="T38" s="39"/>
     </row>
     <row r="39" spans="1:20">
-      <c r="A39" s="181" t="s">
+      <c r="A39" s="177" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="181" t="s">
+      <c r="B39" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="183" t="s">
+      <c r="C39" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="181" t="s">
+      <c r="D39" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="186" t="s">
+      <c r="E39" s="183" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="186" t="s">
+      <c r="F39" s="183" t="s">
         <v>197</v>
       </c>
-      <c r="G39" s="181" t="s">
+      <c r="G39" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="181" t="s">
+      <c r="H39" s="177" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="181" t="s">
+      <c r="I39" s="177" t="s">
         <v>216</v>
       </c>
-      <c r="J39" s="184" t="s">
+      <c r="J39" s="181" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="185"/>
-      <c r="L39" s="184" t="s">
+      <c r="K39" s="182"/>
+      <c r="L39" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="185"/>
+      <c r="M39" s="182"/>
       <c r="N39" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="O39" s="181" t="s">
+      <c r="O39" s="177" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="182"/>
-      <c r="B40" s="182"/>
-      <c r="C40" s="182"/>
-      <c r="D40" s="182"/>
-      <c r="E40" s="187"/>
-      <c r="F40" s="193"/>
-      <c r="G40" s="182"/>
-      <c r="H40" s="182"/>
-      <c r="I40" s="188"/>
+      <c r="A40" s="179"/>
+      <c r="B40" s="179"/>
+      <c r="C40" s="179"/>
+      <c r="D40" s="179"/>
+      <c r="E40" s="184"/>
+      <c r="F40" s="189"/>
+      <c r="G40" s="179"/>
+      <c r="H40" s="179"/>
+      <c r="I40" s="178"/>
       <c r="J40" s="29" t="s">
         <v>75</v>
       </c>
@@ -8476,7 +8689,7 @@
       <c r="N40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="182"/>
+      <c r="O40" s="179"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="7">
@@ -8970,23 +9183,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
     <mergeCell ref="J39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="O39:O40"/>
@@ -8999,6 +9195,23 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="I39:I40"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B32:G32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -9210,10 +9423,10 @@
         <v>194</v>
       </c>
       <c r="B12" s="123"/>
-      <c r="C12" s="157" t="s">
+      <c r="C12" s="138" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="157"/>
+      <c r="D12" s="138"/>
       <c r="E12" s="96" t="s">
         <v>196</v>
       </c>
@@ -9226,10 +9439,10 @@
         <v>197</v>
       </c>
       <c r="B13" s="123"/>
-      <c r="C13" s="157" t="s">
+      <c r="C13" s="138" t="s">
         <v>198</v>
       </c>
-      <c r="D13" s="157"/>
+      <c r="D13" s="138"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="54"/>
@@ -9261,28 +9474,28 @@
       <c r="F15" s="96"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="152" t="s">
+      <c r="A16" s="170" t="s">
         <v>212</v>
       </c>
-      <c r="B16" s="152"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
+      <c r="B16" s="170"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="170"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="146" t="s">
+      <c r="B17" s="164" t="s">
         <v>203</v>
       </c>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="148"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="166"/>
       <c r="H17" s="106"/>
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
@@ -9293,12 +9506,12 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="117"/>
-      <c r="B18" s="160"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
       <c r="H18" s="113"/>
       <c r="J18" s="113"/>
       <c r="K18" s="113"/>
@@ -9309,12 +9522,12 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="118"/>
-      <c r="B19" s="161"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
       <c r="H19" s="113"/>
       <c r="J19" s="113"/>
       <c r="K19" s="113"/>
@@ -9325,12 +9538,12 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="119"/>
-      <c r="B20" s="162"/>
-      <c r="C20" s="162"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="162"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
       <c r="H20" s="113"/>
       <c r="I20" s="106"/>
       <c r="J20" s="113"/>
@@ -9345,29 +9558,29 @@
       <c r="I21" s="113"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="149" t="s">
+      <c r="A22" s="167" t="s">
         <v>213</v>
       </c>
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="151"/>
+      <c r="B22" s="168"/>
+      <c r="C22" s="168"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="168"/>
+      <c r="F22" s="168"/>
+      <c r="G22" s="169"/>
       <c r="I22" s="113"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="166" t="s">
+      <c r="B23" s="148" t="s">
         <v>204</v>
       </c>
-      <c r="C23" s="166"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="166"/>
-      <c r="F23" s="166"/>
-      <c r="G23" s="166"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="148"/>
       <c r="H23" s="106"/>
       <c r="I23" s="113"/>
       <c r="J23" s="106"/>
@@ -9381,14 +9594,14 @@
       <c r="A24" s="117">
         <v>1</v>
       </c>
-      <c r="B24" s="167" t="s">
+      <c r="B24" s="149" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
       <c r="H24" s="113"/>
       <c r="J24" s="113"/>
       <c r="K24" s="113"/>
@@ -9399,12 +9612,12 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="118"/>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="168"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="168"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="150"/>
       <c r="H25" s="113"/>
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
@@ -9415,12 +9628,12 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="119"/>
-      <c r="B26" s="169"/>
-      <c r="C26" s="169"/>
-      <c r="D26" s="169"/>
-      <c r="E26" s="169"/>
-      <c r="F26" s="169"/>
-      <c r="G26" s="169"/>
+      <c r="B26" s="151"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
       <c r="H26" s="113"/>
       <c r="I26" s="106"/>
       <c r="J26" s="113"/>
@@ -9447,29 +9660,29 @@
       <c r="N27"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="149" t="s">
+      <c r="A28" s="167" t="s">
         <v>214</v>
       </c>
-      <c r="B28" s="150"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="151"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="168"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="169"/>
       <c r="I28" s="113"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="166" t="s">
+      <c r="B29" s="148" t="s">
         <v>206</v>
       </c>
-      <c r="C29" s="166"/>
-      <c r="D29" s="166"/>
-      <c r="E29" s="166"/>
-      <c r="F29" s="166"/>
-      <c r="G29" s="166"/>
+      <c r="C29" s="148"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
       <c r="H29" s="106"/>
       <c r="I29" s="113"/>
       <c r="J29" s="106"/>
@@ -9481,12 +9694,12 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="117"/>
-      <c r="B30" s="160"/>
-      <c r="C30" s="160"/>
-      <c r="D30" s="160"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="170"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="153"/>
       <c r="H30" s="113"/>
       <c r="I30"/>
       <c r="J30" s="113"/>
@@ -9498,12 +9711,12 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="118"/>
-      <c r="B31" s="161"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="171"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="155"/>
       <c r="H31" s="113"/>
       <c r="J31" s="113"/>
       <c r="K31" s="113"/>
@@ -9514,12 +9727,12 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="119"/>
-      <c r="B32" s="162"/>
-      <c r="C32" s="162"/>
-      <c r="D32" s="162"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="172"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="157"/>
       <c r="H32" s="113"/>
       <c r="I32" s="106"/>
       <c r="J32" s="113"/>
@@ -9569,60 +9782,60 @@
       <c r="O35" s="58"/>
     </row>
     <row r="36" spans="1:15" ht="15">
-      <c r="A36" s="186" t="s">
+      <c r="A36" s="183" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="186" t="s">
+      <c r="B36" s="183" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="186" t="s">
+      <c r="D36" s="183" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="186" t="s">
+      <c r="E36" s="183" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="186" t="s">
+      <c r="F36" s="183" t="s">
         <v>197</v>
       </c>
-      <c r="G36" s="186" t="s">
+      <c r="G36" s="183" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="186" t="s">
+      <c r="H36" s="183" t="s">
         <v>139</v>
       </c>
-      <c r="I36" s="181" t="s">
+      <c r="I36" s="177" t="s">
         <v>216</v>
       </c>
-      <c r="J36" s="190" t="s">
+      <c r="J36" s="185" t="s">
         <v>122</v>
       </c>
-      <c r="K36" s="191"/>
-      <c r="L36" s="192" t="s">
+      <c r="K36" s="186"/>
+      <c r="L36" s="187" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="191"/>
+      <c r="M36" s="186"/>
       <c r="N36" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="O36" s="186" t="s">
+      <c r="O36" s="183" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15">
-      <c r="A37" s="189"/>
-      <c r="B37" s="189"/>
+      <c r="A37" s="188"/>
+      <c r="B37" s="188"/>
       <c r="C37" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="189"/>
-      <c r="E37" s="193"/>
-      <c r="F37" s="193"/>
-      <c r="G37" s="189"/>
-      <c r="H37" s="189"/>
-      <c r="I37" s="188"/>
+      <c r="D37" s="188"/>
+      <c r="E37" s="189"/>
+      <c r="F37" s="189"/>
+      <c r="G37" s="188"/>
+      <c r="H37" s="188"/>
+      <c r="I37" s="178"/>
       <c r="J37" s="62" t="s">
         <v>126</v>
       </c>
@@ -9638,7 +9851,7 @@
       <c r="N37" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="O37" s="189"/>
+      <c r="O37" s="188"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="64">
@@ -10114,23 +10327,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="A36:A37"/>
@@ -10142,6 +10338,23 @@
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="I36:I37"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B29:G29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -10384,10 +10597,10 @@
         <v>194</v>
       </c>
       <c r="B15" s="123"/>
-      <c r="C15" s="157" t="s">
+      <c r="C15" s="138" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="157"/>
+      <c r="D15" s="138"/>
       <c r="E15" s="96" t="s">
         <v>196</v>
       </c>
@@ -10398,10 +10611,10 @@
         <v>197</v>
       </c>
       <c r="B16" s="123"/>
-      <c r="C16" s="157" t="s">
+      <c r="C16" s="138" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="157"/>
+      <c r="D16" s="138"/>
       <c r="E16" s="55"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -10433,28 +10646,28 @@
       <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="152" t="s">
+      <c r="A19" s="170" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="152"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="146" t="s">
+      <c r="B20" s="164" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="147"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="148"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="166"/>
       <c r="H20" s="106"/>
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
@@ -10466,12 +10679,12 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="117"/>
-      <c r="B21" s="160"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
       <c r="H21" s="113"/>
       <c r="I21" s="113"/>
       <c r="J21" s="113"/>
@@ -10483,12 +10696,12 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="118"/>
-      <c r="B22" s="161"/>
-      <c r="C22" s="161"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
       <c r="J22" s="113"/>
@@ -10500,12 +10713,12 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="119"/>
-      <c r="B23" s="162"/>
-      <c r="C23" s="162"/>
-      <c r="D23" s="162"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="162"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
       <c r="J23" s="113"/>
@@ -10519,28 +10732,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="149" t="s">
+      <c r="A25" s="167" t="s">
         <v>213</v>
       </c>
-      <c r="B25" s="150"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="151"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="169"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="166" t="s">
+      <c r="B26" s="148" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="166"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="166"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
       <c r="H26" s="106"/>
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
@@ -10554,14 +10767,14 @@
       <c r="A27" s="117">
         <v>1</v>
       </c>
-      <c r="B27" s="167" t="s">
+      <c r="B27" s="149" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="167"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="149"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
@@ -10573,12 +10786,12 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="118"/>
-      <c r="B28" s="168"/>
-      <c r="C28" s="168"/>
-      <c r="D28" s="168"/>
-      <c r="E28" s="168"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="168"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -10590,12 +10803,12 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="119"/>
-      <c r="B29" s="169"/>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="169"/>
+      <c r="B29" s="151"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="151"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
       <c r="J29" s="113"/>
@@ -10622,28 +10835,28 @@
       <c r="N30"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="149" t="s">
+      <c r="A31" s="167" t="s">
         <v>214</v>
       </c>
-      <c r="B31" s="150"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="151"/>
+      <c r="B31" s="168"/>
+      <c r="C31" s="168"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="169"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="166" t="s">
+      <c r="B32" s="148" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="166"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="166"/>
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
@@ -10655,12 +10868,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="117"/>
-      <c r="B33" s="160"/>
-      <c r="C33" s="160"/>
-      <c r="D33" s="160"/>
-      <c r="E33" s="160"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="170"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="153"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -10672,12 +10885,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="118"/>
-      <c r="B34" s="161"/>
-      <c r="C34" s="161"/>
-      <c r="D34" s="161"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="171"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="155"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -10689,12 +10902,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="119"/>
-      <c r="B35" s="162"/>
-      <c r="C35" s="162"/>
-      <c r="D35" s="162"/>
-      <c r="E35" s="162"/>
-      <c r="F35" s="162"/>
-      <c r="G35" s="172"/>
+      <c r="B35" s="156"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="157"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -10748,58 +10961,58 @@
       <c r="T38" s="39"/>
     </row>
     <row r="39" spans="1:20">
-      <c r="A39" s="181" t="s">
+      <c r="A39" s="177" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="181" t="s">
+      <c r="B39" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="183" t="s">
+      <c r="C39" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="181" t="s">
+      <c r="D39" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="186" t="s">
+      <c r="E39" s="183" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="186" t="s">
+      <c r="F39" s="183" t="s">
         <v>197</v>
       </c>
-      <c r="G39" s="181" t="s">
+      <c r="G39" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="181" t="s">
+      <c r="H39" s="177" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="181" t="s">
+      <c r="I39" s="177" t="s">
         <v>216</v>
       </c>
-      <c r="J39" s="184" t="s">
+      <c r="J39" s="181" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="185"/>
-      <c r="L39" s="184" t="s">
+      <c r="K39" s="182"/>
+      <c r="L39" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="185"/>
+      <c r="M39" s="182"/>
       <c r="N39" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="O39" s="181" t="s">
+      <c r="O39" s="177" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="182"/>
-      <c r="B40" s="182"/>
-      <c r="C40" s="182"/>
-      <c r="D40" s="182"/>
-      <c r="E40" s="187"/>
-      <c r="F40" s="193"/>
-      <c r="G40" s="182"/>
-      <c r="H40" s="182"/>
-      <c r="I40" s="188"/>
+      <c r="A40" s="179"/>
+      <c r="B40" s="179"/>
+      <c r="C40" s="179"/>
+      <c r="D40" s="179"/>
+      <c r="E40" s="184"/>
+      <c r="F40" s="189"/>
+      <c r="G40" s="179"/>
+      <c r="H40" s="179"/>
+      <c r="I40" s="178"/>
       <c r="J40" s="29" t="s">
         <v>75</v>
       </c>
@@ -10815,7 +11028,7 @@
       <c r="N40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="182"/>
+      <c r="O40" s="179"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="7">
@@ -11309,23 +11522,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
     <mergeCell ref="J39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="O39:O40"/>
@@ -11338,6 +11534,23 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="I39:I40"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B32:G32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -11549,10 +11762,10 @@
         <v>194</v>
       </c>
       <c r="B12" s="123"/>
-      <c r="C12" s="157" t="s">
+      <c r="C12" s="138" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="157"/>
+      <c r="D12" s="138"/>
       <c r="E12" s="96" t="s">
         <v>196</v>
       </c>
@@ -11565,10 +11778,10 @@
         <v>197</v>
       </c>
       <c r="B13" s="123"/>
-      <c r="C13" s="157" t="s">
+      <c r="C13" s="138" t="s">
         <v>198</v>
       </c>
-      <c r="D13" s="157"/>
+      <c r="D13" s="138"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="54"/>
@@ -11600,28 +11813,28 @@
       <c r="F15" s="96"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="152" t="s">
+      <c r="A16" s="170" t="s">
         <v>212</v>
       </c>
-      <c r="B16" s="152"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
+      <c r="B16" s="170"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="170"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="146" t="s">
+      <c r="B17" s="164" t="s">
         <v>203</v>
       </c>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="148"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="166"/>
       <c r="H17" s="106"/>
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
@@ -11632,12 +11845,12 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="117"/>
-      <c r="B18" s="160"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
       <c r="H18" s="113"/>
       <c r="J18" s="113"/>
       <c r="K18" s="113"/>
@@ -11648,12 +11861,12 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="118"/>
-      <c r="B19" s="161"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
       <c r="H19" s="113"/>
       <c r="J19" s="113"/>
       <c r="K19" s="113"/>
@@ -11664,12 +11877,12 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="119"/>
-      <c r="B20" s="162"/>
-      <c r="C20" s="162"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="162"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
       <c r="H20" s="113"/>
       <c r="I20" s="106"/>
       <c r="J20" s="113"/>
@@ -11684,29 +11897,29 @@
       <c r="I21" s="113"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="149" t="s">
+      <c r="A22" s="167" t="s">
         <v>213</v>
       </c>
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="151"/>
+      <c r="B22" s="168"/>
+      <c r="C22" s="168"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="168"/>
+      <c r="F22" s="168"/>
+      <c r="G22" s="169"/>
       <c r="I22" s="113"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="166" t="s">
+      <c r="B23" s="148" t="s">
         <v>204</v>
       </c>
-      <c r="C23" s="166"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="166"/>
-      <c r="F23" s="166"/>
-      <c r="G23" s="166"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="148"/>
       <c r="H23" s="106"/>
       <c r="I23" s="113"/>
       <c r="J23" s="106"/>
@@ -11720,14 +11933,14 @@
       <c r="A24" s="117">
         <v>1</v>
       </c>
-      <c r="B24" s="167" t="s">
+      <c r="B24" s="149" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
       <c r="H24" s="113"/>
       <c r="J24" s="113"/>
       <c r="K24" s="113"/>
@@ -11738,12 +11951,12 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="118"/>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="168"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="168"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="150"/>
       <c r="H25" s="113"/>
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
@@ -11754,12 +11967,12 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="119"/>
-      <c r="B26" s="169"/>
-      <c r="C26" s="169"/>
-      <c r="D26" s="169"/>
-      <c r="E26" s="169"/>
-      <c r="F26" s="169"/>
-      <c r="G26" s="169"/>
+      <c r="B26" s="151"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
       <c r="H26" s="113"/>
       <c r="I26" s="106"/>
       <c r="J26" s="113"/>
@@ -11786,29 +11999,29 @@
       <c r="N27"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="149" t="s">
+      <c r="A28" s="167" t="s">
         <v>214</v>
       </c>
-      <c r="B28" s="150"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="151"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="168"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="169"/>
       <c r="I28" s="113"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="166" t="s">
+      <c r="B29" s="148" t="s">
         <v>206</v>
       </c>
-      <c r="C29" s="166"/>
-      <c r="D29" s="166"/>
-      <c r="E29" s="166"/>
-      <c r="F29" s="166"/>
-      <c r="G29" s="166"/>
+      <c r="C29" s="148"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
       <c r="H29" s="106"/>
       <c r="I29" s="113"/>
       <c r="J29" s="106"/>
@@ -11820,12 +12033,12 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="117"/>
-      <c r="B30" s="160"/>
-      <c r="C30" s="160"/>
-      <c r="D30" s="160"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="170"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="153"/>
       <c r="H30" s="113"/>
       <c r="I30"/>
       <c r="J30" s="113"/>
@@ -11837,12 +12050,12 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="118"/>
-      <c r="B31" s="161"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="171"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="155"/>
       <c r="H31" s="113"/>
       <c r="J31" s="113"/>
       <c r="K31" s="113"/>
@@ -11853,12 +12066,12 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="119"/>
-      <c r="B32" s="162"/>
-      <c r="C32" s="162"/>
-      <c r="D32" s="162"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="172"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="157"/>
       <c r="H32" s="113"/>
       <c r="I32" s="106"/>
       <c r="J32" s="113"/>
@@ -11908,60 +12121,60 @@
       <c r="O35" s="58"/>
     </row>
     <row r="36" spans="1:15" ht="15">
-      <c r="A36" s="186" t="s">
+      <c r="A36" s="183" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="186" t="s">
+      <c r="B36" s="183" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="186" t="s">
+      <c r="D36" s="183" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="186" t="s">
+      <c r="E36" s="183" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="186" t="s">
+      <c r="F36" s="183" t="s">
         <v>197</v>
       </c>
-      <c r="G36" s="186" t="s">
+      <c r="G36" s="183" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="186" t="s">
+      <c r="H36" s="183" t="s">
         <v>139</v>
       </c>
-      <c r="I36" s="181" t="s">
+      <c r="I36" s="177" t="s">
         <v>216</v>
       </c>
-      <c r="J36" s="190" t="s">
+      <c r="J36" s="185" t="s">
         <v>122</v>
       </c>
-      <c r="K36" s="191"/>
-      <c r="L36" s="192" t="s">
+      <c r="K36" s="186"/>
+      <c r="L36" s="187" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="191"/>
+      <c r="M36" s="186"/>
       <c r="N36" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="O36" s="186" t="s">
+      <c r="O36" s="183" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15">
-      <c r="A37" s="189"/>
-      <c r="B37" s="189"/>
+      <c r="A37" s="188"/>
+      <c r="B37" s="188"/>
       <c r="C37" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="189"/>
-      <c r="E37" s="187"/>
-      <c r="F37" s="193"/>
-      <c r="G37" s="189"/>
-      <c r="H37" s="189"/>
-      <c r="I37" s="188"/>
+      <c r="D37" s="188"/>
+      <c r="E37" s="184"/>
+      <c r="F37" s="189"/>
+      <c r="G37" s="188"/>
+      <c r="H37" s="188"/>
+      <c r="I37" s="178"/>
       <c r="J37" s="62" t="s">
         <v>126</v>
       </c>
@@ -11977,7 +12190,7 @@
       <c r="N37" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="O37" s="189"/>
+      <c r="O37" s="188"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="64">
@@ -12453,23 +12666,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="A36:A37"/>
@@ -12481,6 +12677,23 @@
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="I36:I37"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B29:G29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -12727,10 +12940,10 @@
         <v>194</v>
       </c>
       <c r="B15" s="123"/>
-      <c r="C15" s="157" t="s">
+      <c r="C15" s="138" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="157"/>
+      <c r="D15" s="138"/>
       <c r="E15" s="96" t="s">
         <v>196</v>
       </c>
@@ -12741,10 +12954,10 @@
         <v>197</v>
       </c>
       <c r="B16" s="123"/>
-      <c r="C16" s="157" t="s">
+      <c r="C16" s="138" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="157"/>
+      <c r="D16" s="138"/>
       <c r="E16" s="55"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -12776,28 +12989,28 @@
       <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="152" t="s">
+      <c r="A19" s="170" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="152"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="146" t="s">
+      <c r="B20" s="164" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="147"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="148"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="166"/>
       <c r="H20" s="106"/>
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
@@ -12809,12 +13022,12 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="117"/>
-      <c r="B21" s="160"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
       <c r="H21" s="113"/>
       <c r="I21" s="113"/>
       <c r="J21" s="113"/>
@@ -12826,12 +13039,12 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="118"/>
-      <c r="B22" s="161"/>
-      <c r="C22" s="161"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
       <c r="J22" s="113"/>
@@ -12843,12 +13056,12 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="119"/>
-      <c r="B23" s="162"/>
-      <c r="C23" s="162"/>
-      <c r="D23" s="162"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="162"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
       <c r="J23" s="113"/>
@@ -12862,28 +13075,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="149" t="s">
+      <c r="A25" s="167" t="s">
         <v>213</v>
       </c>
-      <c r="B25" s="150"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="151"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="169"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="166" t="s">
+      <c r="B26" s="148" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="166"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="166"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
       <c r="H26" s="106"/>
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
@@ -12897,14 +13110,14 @@
       <c r="A27" s="117">
         <v>1</v>
       </c>
-      <c r="B27" s="167" t="s">
+      <c r="B27" s="149" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="167"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="149"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
@@ -12916,12 +13129,12 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="118"/>
-      <c r="B28" s="168"/>
-      <c r="C28" s="168"/>
-      <c r="D28" s="168"/>
-      <c r="E28" s="168"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="168"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -12933,12 +13146,12 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="119"/>
-      <c r="B29" s="169"/>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="169"/>
+      <c r="B29" s="151"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="151"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
       <c r="J29" s="113"/>
@@ -12965,28 +13178,28 @@
       <c r="N30"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="149" t="s">
+      <c r="A31" s="167" t="s">
         <v>214</v>
       </c>
-      <c r="B31" s="150"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="151"/>
+      <c r="B31" s="168"/>
+      <c r="C31" s="168"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="169"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="166" t="s">
+      <c r="B32" s="148" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="166"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="166"/>
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
@@ -12998,12 +13211,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="117"/>
-      <c r="B33" s="160"/>
-      <c r="C33" s="160"/>
-      <c r="D33" s="160"/>
-      <c r="E33" s="160"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="170"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="153"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -13015,12 +13228,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="118"/>
-      <c r="B34" s="161"/>
-      <c r="C34" s="161"/>
-      <c r="D34" s="161"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="171"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="155"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -13032,12 +13245,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="119"/>
-      <c r="B35" s="162"/>
-      <c r="C35" s="162"/>
-      <c r="D35" s="162"/>
-      <c r="E35" s="162"/>
-      <c r="F35" s="162"/>
-      <c r="G35" s="172"/>
+      <c r="B35" s="156"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="157"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -13093,58 +13306,58 @@
       <c r="T38" s="39"/>
     </row>
     <row r="39" spans="1:20">
-      <c r="A39" s="181" t="s">
+      <c r="A39" s="177" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="181" t="s">
+      <c r="B39" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="183" t="s">
+      <c r="C39" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="181" t="s">
+      <c r="D39" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="186" t="s">
+      <c r="E39" s="183" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="186" t="s">
+      <c r="F39" s="183" t="s">
         <v>197</v>
       </c>
-      <c r="G39" s="181" t="s">
+      <c r="G39" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="181" t="s">
+      <c r="H39" s="177" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="181" t="s">
+      <c r="I39" s="177" t="s">
         <v>216</v>
       </c>
-      <c r="J39" s="184" t="s">
+      <c r="J39" s="181" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="185"/>
-      <c r="L39" s="184" t="s">
+      <c r="K39" s="182"/>
+      <c r="L39" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="185"/>
+      <c r="M39" s="182"/>
       <c r="N39" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="O39" s="181" t="s">
+      <c r="O39" s="177" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="182"/>
-      <c r="B40" s="182"/>
-      <c r="C40" s="182"/>
-      <c r="D40" s="182"/>
-      <c r="E40" s="187"/>
-      <c r="F40" s="193"/>
-      <c r="G40" s="182"/>
-      <c r="H40" s="182"/>
-      <c r="I40" s="188"/>
+      <c r="A40" s="179"/>
+      <c r="B40" s="179"/>
+      <c r="C40" s="179"/>
+      <c r="D40" s="179"/>
+      <c r="E40" s="184"/>
+      <c r="F40" s="189"/>
+      <c r="G40" s="179"/>
+      <c r="H40" s="179"/>
+      <c r="I40" s="178"/>
       <c r="J40" s="29" t="s">
         <v>75</v>
       </c>
@@ -13160,7 +13373,7 @@
       <c r="N40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="182"/>
+      <c r="O40" s="179"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="7">
@@ -13654,23 +13867,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
     <mergeCell ref="J39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="O39:O40"/>
@@ -13683,6 +13879,23 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="I39:I40"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B32:G32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -13739,8 +13952,8 @@
   </sheetPr>
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -13894,10 +14107,10 @@
         <v>194</v>
       </c>
       <c r="B12" s="123"/>
-      <c r="C12" s="157" t="s">
+      <c r="C12" s="138" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="157"/>
+      <c r="D12" s="138"/>
       <c r="E12" s="96" t="s">
         <v>196</v>
       </c>
@@ -13910,10 +14123,10 @@
         <v>197</v>
       </c>
       <c r="B13" s="123"/>
-      <c r="C13" s="157" t="s">
+      <c r="C13" s="138" t="s">
         <v>198</v>
       </c>
-      <c r="D13" s="157"/>
+      <c r="D13" s="138"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="54"/>
@@ -13945,28 +14158,28 @@
       <c r="F15" s="96"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="152" t="s">
+      <c r="A16" s="170" t="s">
         <v>212</v>
       </c>
-      <c r="B16" s="152"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
+      <c r="B16" s="170"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="170"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="146" t="s">
+      <c r="B17" s="164" t="s">
         <v>203</v>
       </c>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="148"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="166"/>
       <c r="H17" s="106"/>
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
@@ -13977,12 +14190,12 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="117"/>
-      <c r="B18" s="160"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
       <c r="H18" s="113"/>
       <c r="J18" s="113"/>
       <c r="K18" s="113"/>
@@ -13993,12 +14206,12 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="118"/>
-      <c r="B19" s="161"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
       <c r="H19" s="113"/>
       <c r="J19" s="113"/>
       <c r="K19" s="113"/>
@@ -14009,12 +14222,12 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="119"/>
-      <c r="B20" s="162"/>
-      <c r="C20" s="162"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="162"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
       <c r="H20" s="113"/>
       <c r="I20" s="106"/>
       <c r="J20" s="113"/>
@@ -14029,29 +14242,29 @@
       <c r="I21" s="113"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="149" t="s">
+      <c r="A22" s="167" t="s">
         <v>213</v>
       </c>
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="151"/>
+      <c r="B22" s="168"/>
+      <c r="C22" s="168"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="168"/>
+      <c r="F22" s="168"/>
+      <c r="G22" s="169"/>
       <c r="I22" s="113"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="166" t="s">
+      <c r="B23" s="148" t="s">
         <v>204</v>
       </c>
-      <c r="C23" s="166"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="166"/>
-      <c r="F23" s="166"/>
-      <c r="G23" s="166"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="148"/>
       <c r="H23" s="106"/>
       <c r="I23" s="113"/>
       <c r="J23" s="106"/>
@@ -14065,14 +14278,14 @@
       <c r="A24" s="117">
         <v>1</v>
       </c>
-      <c r="B24" s="167" t="s">
+      <c r="B24" s="149" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
       <c r="H24" s="113"/>
       <c r="J24" s="113"/>
       <c r="K24" s="113"/>
@@ -14083,12 +14296,12 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="118"/>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="168"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="168"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="150"/>
       <c r="H25" s="113"/>
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
@@ -14099,12 +14312,12 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="119"/>
-      <c r="B26" s="169"/>
-      <c r="C26" s="169"/>
-      <c r="D26" s="169"/>
-      <c r="E26" s="169"/>
-      <c r="F26" s="169"/>
-      <c r="G26" s="169"/>
+      <c r="B26" s="151"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
       <c r="H26" s="113"/>
       <c r="I26" s="106"/>
       <c r="J26" s="113"/>
@@ -14131,29 +14344,29 @@
       <c r="N27"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="149" t="s">
+      <c r="A28" s="167" t="s">
         <v>214</v>
       </c>
-      <c r="B28" s="150"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="151"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="168"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="169"/>
       <c r="I28" s="113"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="166" t="s">
+      <c r="B29" s="148" t="s">
         <v>206</v>
       </c>
-      <c r="C29" s="166"/>
-      <c r="D29" s="166"/>
-      <c r="E29" s="166"/>
-      <c r="F29" s="166"/>
-      <c r="G29" s="166"/>
+      <c r="C29" s="148"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
       <c r="H29" s="106"/>
       <c r="I29" s="113"/>
       <c r="J29" s="106"/>
@@ -14165,12 +14378,12 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="117"/>
-      <c r="B30" s="160"/>
-      <c r="C30" s="160"/>
-      <c r="D30" s="160"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="170"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="153"/>
       <c r="H30" s="113"/>
       <c r="I30"/>
       <c r="J30" s="113"/>
@@ -14182,12 +14395,12 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="118"/>
-      <c r="B31" s="161"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="171"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="155"/>
       <c r="H31" s="113"/>
       <c r="J31" s="113"/>
       <c r="K31" s="113"/>
@@ -14198,12 +14411,12 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="119"/>
-      <c r="B32" s="162"/>
-      <c r="C32" s="162"/>
-      <c r="D32" s="162"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="172"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="157"/>
       <c r="H32" s="113"/>
       <c r="I32" s="106"/>
       <c r="J32" s="113"/>
@@ -14253,60 +14466,60 @@
       <c r="O35" s="58"/>
     </row>
     <row r="36" spans="1:15" ht="15">
-      <c r="A36" s="186" t="s">
+      <c r="A36" s="183" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="186" t="s">
+      <c r="B36" s="183" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="186" t="s">
+      <c r="D36" s="183" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="186" t="s">
+      <c r="E36" s="183" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="186" t="s">
+      <c r="F36" s="183" t="s">
         <v>197</v>
       </c>
-      <c r="G36" s="186" t="s">
+      <c r="G36" s="183" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="186" t="s">
+      <c r="H36" s="183" t="s">
         <v>139</v>
       </c>
-      <c r="I36" s="181" t="s">
+      <c r="I36" s="177" t="s">
         <v>216</v>
       </c>
-      <c r="J36" s="190" t="s">
+      <c r="J36" s="185" t="s">
         <v>122</v>
       </c>
-      <c r="K36" s="191"/>
-      <c r="L36" s="192" t="s">
+      <c r="K36" s="186"/>
+      <c r="L36" s="187" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="191"/>
+      <c r="M36" s="186"/>
       <c r="N36" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="O36" s="186" t="s">
+      <c r="O36" s="183" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15">
-      <c r="A37" s="189"/>
-      <c r="B37" s="189"/>
+      <c r="A37" s="188"/>
+      <c r="B37" s="188"/>
       <c r="C37" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="189"/>
-      <c r="E37" s="187"/>
-      <c r="F37" s="193"/>
-      <c r="G37" s="189"/>
-      <c r="H37" s="189"/>
-      <c r="I37" s="188"/>
+      <c r="D37" s="188"/>
+      <c r="E37" s="184"/>
+      <c r="F37" s="189"/>
+      <c r="G37" s="188"/>
+      <c r="H37" s="188"/>
+      <c r="I37" s="178"/>
       <c r="J37" s="62" t="s">
         <v>126</v>
       </c>
@@ -14322,7 +14535,7 @@
       <c r="N37" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="O37" s="189"/>
+      <c r="O37" s="188"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="64"/>
@@ -14734,24 +14947,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="A36:A37"/>
@@ -14762,6 +14957,24 @@
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="I36:I37"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B29:G29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">

--- a/meta/api/BlancoApiSample.xlsx
+++ b/meta/api/BlancoApiSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuji/projects/blanco/blancoRestGeneratorKt/meta/api/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8831E5B7-AFEA-084D-8470-546A29785682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339D20F4-2344-614C-A078-65CEB73C688F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="500" windowWidth="21420" windowHeight="17500" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1700" yWindow="500" windowWidth="21420" windowHeight="17500" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="239">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -2355,6 +2355,53 @@
   </si>
   <si>
     <t>電文処理定義・GETリクエストバインド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無効チェックを実装する</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ムコウ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ジッソウスル </t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>/* micronaut の controller クラスにメソッド無効チェック呼び出しを生成します。当面はkotlinにのみ対応。 */</t>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">ムコウ </t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t xml:space="preserve">ヨビダシ </t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">セイセイ </t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t xml:space="preserve">トウメンハ </t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アノテーション(Kt)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>@Requirements</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>@JsonAutoDetect</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>@io.micronaut.context.annotation.Requirements(
+    io.micronaut.context.annotation.Requires(property = "api-type", value = "sp"),
+)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3259,7 +3306,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3508,86 +3555,38 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3597,6 +3596,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3628,6 +3633,12 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3637,10 +3648,67 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3659,6 +3727,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3668,36 +3742,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4242,10 +4292,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O74"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -4288,293 +4338,291 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="174" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
       <c r="F5" s="55"/>
       <c r="G5" s="55"/>
       <c r="H5" s="96"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="139" t="s">
+      <c r="A6" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="140"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="135" t="s">
+      <c r="B6" s="185"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="183" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="135"/>
+      <c r="E6" s="183"/>
       <c r="F6" s="55"/>
       <c r="G6" s="55"/>
       <c r="H6" s="96"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="174" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="135" t="s">
+      <c r="B7" s="174"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="183" t="s">
         <v>175</v>
       </c>
-      <c r="E7" s="135"/>
+      <c r="E7" s="183"/>
       <c r="F7" s="55"/>
       <c r="G7" s="55"/>
       <c r="H7" s="96"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="134"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="135" t="s">
+      <c r="B8" s="174"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="183" t="s">
         <v>165</v>
       </c>
-      <c r="E8" s="135"/>
+      <c r="E8" s="183"/>
       <c r="F8" s="96"/>
       <c r="G8" s="96"/>
       <c r="H8" s="96"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="135" t="s">
+      <c r="B9" s="174"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="183" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="135"/>
+      <c r="E9" s="183"/>
       <c r="F9" s="96"/>
       <c r="G9" s="96"/>
       <c r="H9" s="96"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="134" t="s">
+      <c r="A10" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="134"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="135"/>
-      <c r="E10" s="135"/>
+      <c r="B10" s="174"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183"/>
       <c r="F10" s="96"/>
       <c r="G10" s="96"/>
       <c r="H10" s="96"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="134" t="s">
+      <c r="A11" s="174" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="134"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="135" t="s">
+      <c r="B11" s="174"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="183" t="s">
         <v>167</v>
       </c>
-      <c r="E11" s="135"/>
+      <c r="E11" s="183"/>
       <c r="F11" s="96"/>
       <c r="G11" s="96"/>
       <c r="H11" s="96"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="136" t="s">
+      <c r="A12" s="146" t="s">
         <v>194</v>
       </c>
-      <c r="B12" s="136"/>
-      <c r="C12" s="136"/>
-      <c r="D12" s="138" t="s">
+      <c r="B12" s="146"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="163" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="138"/>
+      <c r="E12" s="163"/>
       <c r="F12" s="96" t="s">
         <v>196</v>
       </c>
       <c r="G12" s="54"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="136" t="s">
+      <c r="A13" s="146" t="s">
         <v>197</v>
       </c>
-      <c r="B13" s="136"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="138" t="s">
-        <v>198</v>
-      </c>
-      <c r="E13" s="138"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="162" t="s">
+        <v>236</v>
+      </c>
+      <c r="E13" s="163"/>
       <c r="F13" s="54"/>
       <c r="G13" s="54"/>
       <c r="H13" s="96"/>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="136" t="s">
+    <row r="14" spans="1:8" ht="55" customHeight="1">
+      <c r="A14" s="146" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" s="146"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="200" t="s">
+        <v>238</v>
+      </c>
+      <c r="E14" s="163"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="96"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="146" t="s">
         <v>218</v>
       </c>
-      <c r="B14" s="136"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="137" t="s">
+      <c r="B15" s="146"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="162" t="s">
         <v>222</v>
       </c>
-      <c r="E14" s="138"/>
-      <c r="F14" s="1" t="s">
+      <c r="E15" s="163"/>
+      <c r="F15" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="136" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="146" t="s">
         <v>219</v>
       </c>
-      <c r="B15" s="136"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="1" t="s">
+      <c r="B16" s="146"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="162"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="174" t="s">
+    <row r="17" spans="1:15">
+      <c r="A17" s="164" t="s">
         <v>143</v>
       </c>
-      <c r="B16" s="175"/>
-      <c r="C16" s="176"/>
-      <c r="D16" s="115"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="161" t="s">
+      <c r="B17" s="165"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="115"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="147" t="s">
         <v>199</v>
       </c>
-      <c r="B17" s="162"/>
-      <c r="C17" s="163"/>
-      <c r="D17" s="101" t="s">
+      <c r="B18" s="148"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>200</v>
       </c>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="171" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="159" t="s">
         <v>208</v>
       </c>
-      <c r="B19" s="172"/>
-      <c r="C19" s="172"/>
-      <c r="D19" s="172"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="172"/>
-      <c r="G19" s="173"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="102" t="s">
+      <c r="B20" s="160"/>
+      <c r="C20" s="160"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="161"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="102" t="s">
         <v>201</v>
       </c>
-      <c r="B20" s="111"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="99" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="114"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="107"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="106"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="99" t="s">
-        <v>202</v>
+        <v>99</v>
       </c>
       <c r="B22" s="114"/>
       <c r="C22" s="100"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="110"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="107"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="C23"/>
+      <c r="A23" s="99" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="114"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="110"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="170" t="s">
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="158" t="s">
         <v>209</v>
       </c>
-      <c r="B24" s="170"/>
-      <c r="C24" s="170"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="170"/>
-      <c r="F24" s="170"/>
-      <c r="G24" s="170"/>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="116" t="s">
+      <c r="B25" s="158"/>
+      <c r="C25" s="158"/>
+      <c r="D25" s="158"/>
+      <c r="E25" s="158"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="158"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="164" t="s">
+      <c r="B26" s="152" t="s">
         <v>203</v>
       </c>
-      <c r="C25" s="165"/>
-      <c r="D25" s="165"/>
-      <c r="E25" s="165"/>
-      <c r="F25" s="165"/>
-      <c r="G25" s="166"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="106"/>
-      <c r="N25" s="112"/>
-      <c r="O25" s="112"/>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="117"/>
-      <c r="B26" s="152"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="152"/>
-      <c r="F26" s="152"/>
-      <c r="G26" s="152"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="113"/>
-      <c r="J26" s="113"/>
-      <c r="K26" s="113"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="106"/>
+      <c r="N26" s="112"/>
+      <c r="O26" s="112"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="118"/>
-      <c r="B27" s="154"/>
-      <c r="C27" s="154"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="154"/>
+      <c r="A27" s="117"/>
+      <c r="B27" s="169"/>
+      <c r="C27" s="169"/>
+      <c r="D27" s="169"/>
+      <c r="E27" s="169"/>
+      <c r="F27" s="169"/>
+      <c r="G27" s="169"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
@@ -4584,13 +4632,13 @@
       <c r="O27"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="119"/>
-      <c r="B28" s="156"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156"/>
+      <c r="A28" s="118"/>
+      <c r="B28" s="170"/>
+      <c r="C28" s="170"/>
+      <c r="D28" s="170"/>
+      <c r="E28" s="170"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="170"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -4600,67 +4648,67 @@
       <c r="O28"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="C29"/>
+      <c r="A29" s="119"/>
+      <c r="B29" s="171"/>
+      <c r="C29" s="171"/>
+      <c r="D29" s="171"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="171"/>
+      <c r="G29" s="171"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="113"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="167" t="s">
+      <c r="C30"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="155" t="s">
         <v>210</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="169"/>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="116" t="s">
+      <c r="B31" s="156"/>
+      <c r="C31" s="156"/>
+      <c r="D31" s="156"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="157"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="148" t="s">
+      <c r="B32" s="176" t="s">
         <v>204</v>
       </c>
-      <c r="C31" s="148"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="148"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="106"/>
-      <c r="J31" s="106"/>
-      <c r="K31" s="106"/>
-      <c r="L31" s="106"/>
-      <c r="N31" s="112"/>
-      <c r="O31" s="112"/>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="117">
+      <c r="C32" s="176"/>
+      <c r="D32" s="176"/>
+      <c r="E32" s="176"/>
+      <c r="F32" s="176"/>
+      <c r="G32" s="176"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="106"/>
+      <c r="K32" s="106"/>
+      <c r="L32" s="106"/>
+      <c r="N32" s="112"/>
+      <c r="O32" s="112"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="117">
         <v>1</v>
       </c>
-      <c r="B32" s="149" t="s">
+      <c r="B33" s="177" t="s">
         <v>205</v>
       </c>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="113"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="118"/>
-      <c r="B33" s="150"/>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="177"/>
+      <c r="E33" s="177"/>
+      <c r="F33" s="177"/>
+      <c r="G33" s="177"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -4670,13 +4718,13 @@
       <c r="O33"/>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="119"/>
-      <c r="B34" s="151"/>
-      <c r="C34" s="151"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
+      <c r="A34" s="118"/>
+      <c r="B34" s="178"/>
+      <c r="C34" s="178"/>
+      <c r="D34" s="178"/>
+      <c r="E34" s="178"/>
+      <c r="F34" s="178"/>
+      <c r="G34" s="178"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -4686,75 +4734,75 @@
       <c r="O34"/>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
+      <c r="A35" s="119"/>
+      <c r="B35" s="179"/>
+      <c r="C35" s="179"/>
+      <c r="D35" s="179"/>
+      <c r="E35" s="179"/>
+      <c r="F35" s="179"/>
+      <c r="G35" s="179"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="113"/>
       <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="167" t="s">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="155" t="s">
         <v>211</v>
       </c>
-      <c r="B36" s="168"/>
-      <c r="C36" s="168"/>
-      <c r="D36" s="168"/>
-      <c r="E36" s="168"/>
-      <c r="F36" s="168"/>
-      <c r="G36" s="169"/>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="116" t="s">
+      <c r="B37" s="156"/>
+      <c r="C37" s="156"/>
+      <c r="D37" s="156"/>
+      <c r="E37" s="156"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="157"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="148" t="s">
+      <c r="B38" s="176" t="s">
         <v>206</v>
       </c>
-      <c r="C37" s="148"/>
-      <c r="D37" s="148"/>
-      <c r="E37" s="148"/>
-      <c r="F37" s="148"/>
-      <c r="G37" s="148"/>
-      <c r="H37" s="106"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="106"/>
-      <c r="K37" s="106"/>
-      <c r="L37" s="106"/>
-      <c r="N37" s="112"/>
-      <c r="O37" s="112"/>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="117"/>
-      <c r="B38" s="152"/>
-      <c r="C38" s="152"/>
-      <c r="D38" s="152"/>
-      <c r="E38" s="152"/>
-      <c r="F38" s="152"/>
-      <c r="G38" s="153"/>
-      <c r="H38" s="113"/>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113"/>
-      <c r="K38" s="113"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38"/>
+      <c r="C38" s="176"/>
+      <c r="D38" s="176"/>
+      <c r="E38" s="176"/>
+      <c r="F38" s="176"/>
+      <c r="G38" s="176"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="106"/>
+      <c r="K38" s="106"/>
+      <c r="L38" s="106"/>
+      <c r="N38" s="112"/>
+      <c r="O38" s="112"/>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="118"/>
-      <c r="B39" s="154"/>
-      <c r="C39" s="154"/>
-      <c r="D39" s="154"/>
-      <c r="E39" s="154"/>
-      <c r="F39" s="154"/>
-      <c r="G39" s="155"/>
+      <c r="A39" s="117"/>
+      <c r="B39" s="169"/>
+      <c r="C39" s="169"/>
+      <c r="D39" s="169"/>
+      <c r="E39" s="169"/>
+      <c r="F39" s="169"/>
+      <c r="G39" s="180"/>
       <c r="H39" s="113"/>
       <c r="I39" s="113"/>
       <c r="J39" s="113"/>
@@ -4764,13 +4812,13 @@
       <c r="O39"/>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="119"/>
-      <c r="B40" s="156"/>
-      <c r="C40" s="156"/>
-      <c r="D40" s="156"/>
-      <c r="E40" s="156"/>
-      <c r="F40" s="156"/>
-      <c r="G40" s="157"/>
+      <c r="A40" s="118"/>
+      <c r="B40" s="170"/>
+      <c r="C40" s="170"/>
+      <c r="D40" s="170"/>
+      <c r="E40" s="170"/>
+      <c r="F40" s="170"/>
+      <c r="G40" s="181"/>
       <c r="H40" s="113"/>
       <c r="I40" s="113"/>
       <c r="J40" s="113"/>
@@ -4780,13 +4828,13 @@
       <c r="O40"/>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="194"/>
-      <c r="B41" s="195"/>
-      <c r="C41" s="195"/>
-      <c r="D41" s="195"/>
-      <c r="E41" s="195"/>
-      <c r="F41" s="195"/>
-      <c r="G41" s="196"/>
+      <c r="A41" s="119"/>
+      <c r="B41" s="171"/>
+      <c r="C41" s="171"/>
+      <c r="D41" s="171"/>
+      <c r="E41" s="171"/>
+      <c r="F41" s="171"/>
+      <c r="G41" s="182"/>
       <c r="H41" s="113"/>
       <c r="I41" s="113"/>
       <c r="J41" s="113"/>
@@ -4796,74 +4844,68 @@
       <c r="O41"/>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="170" t="s">
+      <c r="A42" s="135"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="136"/>
+      <c r="D42" s="136"/>
+      <c r="E42" s="136"/>
+      <c r="F42" s="136"/>
+      <c r="G42" s="137"/>
+      <c r="H42" s="113"/>
+      <c r="I42" s="113"/>
+      <c r="J42" s="113"/>
+      <c r="K42" s="113"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="158" t="s">
         <v>232</v>
       </c>
-      <c r="B42" s="170"/>
-      <c r="C42" s="170"/>
-      <c r="D42" s="170"/>
-      <c r="E42" s="170"/>
-      <c r="F42" s="170"/>
-      <c r="G42" s="170"/>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="116" t="s">
+      <c r="B43" s="158"/>
+      <c r="C43" s="158"/>
+      <c r="D43" s="158"/>
+      <c r="E43" s="158"/>
+      <c r="F43" s="158"/>
+      <c r="G43" s="158"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="116" t="s">
+      <c r="B44" s="116" t="s">
         <v>223</v>
       </c>
-      <c r="C43" s="116" t="s">
+      <c r="C44" s="116" t="s">
         <v>224</v>
       </c>
-      <c r="D43" s="116"/>
-      <c r="E43" s="116"/>
-      <c r="F43" s="116"/>
-      <c r="G43" s="116"/>
-      <c r="H43" s="106"/>
-      <c r="I43" s="106"/>
-      <c r="J43" s="106"/>
-      <c r="K43" s="106"/>
-      <c r="L43" s="106"/>
-      <c r="N43" s="112"/>
-      <c r="O43" s="112"/>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="117">
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="106"/>
+      <c r="K44" s="106"/>
+      <c r="L44" s="106"/>
+      <c r="N44" s="112"/>
+      <c r="O44" s="112"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="117">
         <v>1</v>
       </c>
-      <c r="B44" s="190" t="s">
+      <c r="B45" s="134" t="s">
         <v>231</v>
       </c>
-      <c r="C44" s="190" t="s">
+      <c r="C45" s="134" t="s">
         <v>225</v>
       </c>
-      <c r="D44" s="190"/>
-      <c r="E44" s="190"/>
-      <c r="F44" s="190"/>
-      <c r="G44" s="190"/>
-      <c r="H44" s="113"/>
-      <c r="I44" s="113"/>
-      <c r="J44" s="113"/>
-      <c r="K44" s="113"/>
-      <c r="M44"/>
-      <c r="N44"/>
-      <c r="O44"/>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="118">
-        <v>2</v>
-      </c>
-      <c r="B45" s="190" t="s">
-        <v>226</v>
-      </c>
-      <c r="C45" s="190" t="s">
-        <v>228</v>
-      </c>
-      <c r="D45" s="190"/>
-      <c r="E45" s="190"/>
-      <c r="F45" s="190"/>
-      <c r="G45" s="190"/>
+      <c r="D45" s="134"/>
+      <c r="E45" s="134"/>
+      <c r="F45" s="134"/>
+      <c r="G45" s="134"/>
       <c r="H45" s="113"/>
       <c r="I45" s="113"/>
       <c r="J45" s="113"/>
@@ -4873,19 +4915,19 @@
       <c r="O45"/>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="119">
-        <v>3</v>
-      </c>
-      <c r="B46" s="190" t="s">
-        <v>227</v>
-      </c>
-      <c r="C46" s="190" t="s">
+      <c r="A46" s="118">
+        <v>2</v>
+      </c>
+      <c r="B46" s="134" t="s">
+        <v>226</v>
+      </c>
+      <c r="C46" s="134" t="s">
         <v>228</v>
       </c>
-      <c r="D46" s="190"/>
-      <c r="E46" s="190"/>
-      <c r="F46" s="190"/>
-      <c r="G46" s="190"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="134"/>
+      <c r="F46" s="134"/>
+      <c r="G46" s="134"/>
       <c r="H46" s="113"/>
       <c r="I46" s="113"/>
       <c r="J46" s="113"/>
@@ -4895,287 +4937,318 @@
       <c r="O46"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
+      <c r="A47" s="119">
+        <v>3</v>
+      </c>
+      <c r="B47" s="134" t="s">
+        <v>227</v>
+      </c>
+      <c r="C47" s="134" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47" s="134"/>
+      <c r="E47" s="134"/>
+      <c r="F47" s="134"/>
+      <c r="G47" s="134"/>
+      <c r="H47" s="113"/>
+      <c r="I47" s="113"/>
+      <c r="J47" s="113"/>
+      <c r="K47" s="113"/>
       <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="4" t="s">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="191" t="s">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="143" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="192"/>
-      <c r="C49" s="191" t="s">
+      <c r="B50" s="145"/>
+      <c r="C50" s="143" t="s">
         <v>66</v>
       </c>
-      <c r="D49" s="193"/>
-      <c r="E49" s="192"/>
-      <c r="F49" s="29" t="s">
+      <c r="D50" s="144"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="29" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="158"/>
-      <c r="B50" s="160"/>
-      <c r="C50" s="158"/>
-      <c r="D50" s="159"/>
-      <c r="E50" s="160"/>
-      <c r="F50" s="49"/>
-    </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="142"/>
-      <c r="B51" s="144"/>
-      <c r="C51" s="142"/>
-      <c r="D51" s="143"/>
-      <c r="E51" s="144"/>
+      <c r="A51" s="150"/>
+      <c r="B51" s="151"/>
+      <c r="C51" s="150"/>
+      <c r="D51" s="172"/>
+      <c r="E51" s="151"/>
       <c r="F51" s="49"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="142"/>
-      <c r="B52" s="144"/>
-      <c r="C52" s="142"/>
-      <c r="D52" s="143"/>
-      <c r="E52" s="144"/>
+      <c r="A52" s="141"/>
+      <c r="B52" s="142"/>
+      <c r="C52" s="141"/>
+      <c r="D52" s="173"/>
+      <c r="E52" s="142"/>
       <c r="F52" s="49"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="142"/>
-      <c r="B53" s="144"/>
-      <c r="C53" s="142"/>
-      <c r="D53" s="143"/>
-      <c r="E53" s="144"/>
+      <c r="A53" s="141"/>
+      <c r="B53" s="142"/>
+      <c r="C53" s="141"/>
+      <c r="D53" s="173"/>
+      <c r="E53" s="142"/>
       <c r="F53" s="49"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="142"/>
-      <c r="B54" s="144"/>
-      <c r="C54" s="142"/>
-      <c r="D54" s="143"/>
-      <c r="E54" s="144"/>
+      <c r="A54" s="141"/>
+      <c r="B54" s="142"/>
+      <c r="C54" s="141"/>
+      <c r="D54" s="173"/>
+      <c r="E54" s="142"/>
       <c r="F54" s="49"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="142"/>
-      <c r="B55" s="144"/>
-      <c r="C55" s="142"/>
-      <c r="D55" s="143"/>
-      <c r="E55" s="144"/>
+      <c r="A55" s="141"/>
+      <c r="B55" s="142"/>
+      <c r="C55" s="141"/>
+      <c r="D55" s="173"/>
+      <c r="E55" s="142"/>
       <c r="F55" s="49"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="142"/>
-      <c r="B56" s="144"/>
-      <c r="C56" s="142"/>
-      <c r="D56" s="143"/>
-      <c r="E56" s="144"/>
+      <c r="A56" s="141"/>
+      <c r="B56" s="142"/>
+      <c r="C56" s="141"/>
+      <c r="D56" s="173"/>
+      <c r="E56" s="142"/>
       <c r="F56" s="49"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="142"/>
-      <c r="B57" s="144"/>
-      <c r="C57" s="142"/>
-      <c r="D57" s="143"/>
-      <c r="E57" s="144"/>
+      <c r="A57" s="141"/>
+      <c r="B57" s="142"/>
+      <c r="C57" s="141"/>
+      <c r="D57" s="173"/>
+      <c r="E57" s="142"/>
       <c r="F57" s="49"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="142"/>
-      <c r="B58" s="144"/>
-      <c r="C58" s="142"/>
-      <c r="D58" s="143"/>
-      <c r="E58" s="144"/>
+      <c r="A58" s="141"/>
+      <c r="B58" s="142"/>
+      <c r="C58" s="141"/>
+      <c r="D58" s="173"/>
+      <c r="E58" s="142"/>
       <c r="F58" s="49"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="142"/>
-      <c r="B59" s="144"/>
-      <c r="C59" s="142"/>
-      <c r="D59" s="143"/>
-      <c r="E59" s="144"/>
+      <c r="A59" s="141"/>
+      <c r="B59" s="142"/>
+      <c r="C59" s="141"/>
+      <c r="D59" s="173"/>
+      <c r="E59" s="142"/>
       <c r="F59" s="49"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="142"/>
-      <c r="B60" s="144"/>
-      <c r="C60" s="142"/>
-      <c r="D60" s="143"/>
-      <c r="E60" s="144"/>
+      <c r="A60" s="141"/>
+      <c r="B60" s="142"/>
+      <c r="C60" s="141"/>
+      <c r="D60" s="173"/>
+      <c r="E60" s="142"/>
       <c r="F60" s="49"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="142"/>
-      <c r="B61" s="144"/>
-      <c r="C61" s="142"/>
-      <c r="D61" s="143"/>
-      <c r="E61" s="144"/>
+      <c r="A61" s="141"/>
+      <c r="B61" s="142"/>
+      <c r="C61" s="141"/>
+      <c r="D61" s="173"/>
+      <c r="E61" s="142"/>
       <c r="F61" s="49"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="142"/>
-      <c r="B62" s="144"/>
-      <c r="C62" s="142"/>
-      <c r="D62" s="143"/>
-      <c r="E62" s="144"/>
+      <c r="A62" s="141"/>
+      <c r="B62" s="142"/>
+      <c r="C62" s="141"/>
+      <c r="D62" s="173"/>
+      <c r="E62" s="142"/>
       <c r="F62" s="49"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="142"/>
-      <c r="B63" s="144"/>
-      <c r="C63" s="142"/>
-      <c r="D63" s="143"/>
-      <c r="E63" s="144"/>
+      <c r="A63" s="141"/>
+      <c r="B63" s="142"/>
+      <c r="C63" s="141"/>
+      <c r="D63" s="173"/>
+      <c r="E63" s="142"/>
       <c r="F63" s="49"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="142"/>
-      <c r="B64" s="144"/>
-      <c r="C64" s="142"/>
-      <c r="D64" s="143"/>
-      <c r="E64" s="144"/>
+      <c r="A64" s="141"/>
+      <c r="B64" s="142"/>
+      <c r="C64" s="141"/>
+      <c r="D64" s="173"/>
+      <c r="E64" s="142"/>
       <c r="F64" s="49"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="142"/>
-      <c r="B65" s="144"/>
-      <c r="C65" s="142"/>
-      <c r="D65" s="143"/>
-      <c r="E65" s="144"/>
+      <c r="A65" s="141"/>
+      <c r="B65" s="142"/>
+      <c r="C65" s="141"/>
+      <c r="D65" s="173"/>
+      <c r="E65" s="142"/>
       <c r="F65" s="49"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="142"/>
-      <c r="B66" s="144"/>
-      <c r="C66" s="142"/>
-      <c r="D66" s="143"/>
-      <c r="E66" s="144"/>
+      <c r="A66" s="141"/>
+      <c r="B66" s="142"/>
+      <c r="C66" s="141"/>
+      <c r="D66" s="173"/>
+      <c r="E66" s="142"/>
       <c r="F66" s="49"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="142"/>
-      <c r="B67" s="144"/>
-      <c r="C67" s="142"/>
-      <c r="D67" s="143"/>
-      <c r="E67" s="144"/>
+      <c r="A67" s="141"/>
+      <c r="B67" s="142"/>
+      <c r="C67" s="141"/>
+      <c r="D67" s="173"/>
+      <c r="E67" s="142"/>
       <c r="F67" s="49"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="142"/>
-      <c r="B68" s="144"/>
-      <c r="C68" s="142"/>
-      <c r="D68" s="143"/>
-      <c r="E68" s="144"/>
+      <c r="A68" s="141"/>
+      <c r="B68" s="142"/>
+      <c r="C68" s="141"/>
+      <c r="D68" s="173"/>
+      <c r="E68" s="142"/>
       <c r="F68" s="49"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="142"/>
-      <c r="B69" s="144"/>
-      <c r="C69" s="142"/>
-      <c r="D69" s="143"/>
-      <c r="E69" s="144"/>
+      <c r="A69" s="141"/>
+      <c r="B69" s="142"/>
+      <c r="C69" s="141"/>
+      <c r="D69" s="173"/>
+      <c r="E69" s="142"/>
       <c r="F69" s="49"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="142"/>
-      <c r="B70" s="144"/>
-      <c r="C70" s="142"/>
-      <c r="D70" s="143"/>
-      <c r="E70" s="144"/>
+      <c r="A70" s="141"/>
+      <c r="B70" s="142"/>
+      <c r="C70" s="141"/>
+      <c r="D70" s="173"/>
+      <c r="E70" s="142"/>
       <c r="F70" s="49"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="142"/>
-      <c r="B71" s="144"/>
-      <c r="C71" s="142"/>
-      <c r="D71" s="143"/>
-      <c r="E71" s="144"/>
+      <c r="A71" s="141"/>
+      <c r="B71" s="142"/>
+      <c r="C71" s="141"/>
+      <c r="D71" s="173"/>
+      <c r="E71" s="142"/>
       <c r="F71" s="49"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="142"/>
-      <c r="B72" s="144"/>
-      <c r="C72" s="142"/>
-      <c r="D72" s="143"/>
-      <c r="E72" s="144"/>
+      <c r="A72" s="141"/>
+      <c r="B72" s="142"/>
+      <c r="C72" s="141"/>
+      <c r="D72" s="173"/>
+      <c r="E72" s="142"/>
       <c r="F72" s="49"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="142"/>
-      <c r="B73" s="144"/>
-      <c r="C73" s="142"/>
-      <c r="D73" s="143"/>
-      <c r="E73" s="144"/>
+      <c r="A73" s="141"/>
+      <c r="B73" s="142"/>
+      <c r="C73" s="141"/>
+      <c r="D73" s="173"/>
+      <c r="E73" s="142"/>
       <c r="F73" s="49"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="145"/>
-      <c r="B74" s="147"/>
-      <c r="C74" s="145"/>
-      <c r="D74" s="146"/>
-      <c r="E74" s="147"/>
-      <c r="F74" s="50"/>
+      <c r="A74" s="141"/>
+      <c r="B74" s="142"/>
+      <c r="C74" s="141"/>
+      <c r="D74" s="173"/>
+      <c r="E74" s="142"/>
+      <c r="F74" s="49"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="167"/>
+      <c r="B75" s="168"/>
+      <c r="C75" s="167"/>
+      <c r="D75" s="175"/>
+      <c r="E75" s="168"/>
+      <c r="F75" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A19:G19"/>
+  <mergeCells count="94">
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
     <mergeCell ref="A72:B72"/>
     <mergeCell ref="A73:B73"/>
     <mergeCell ref="A74:B74"/>
-    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A75:B75"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="B28:G28"/>
-    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="B29:G29"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="C53:E53"/>
@@ -5183,57 +5256,50 @@
     <mergeCell ref="C55:E55"/>
     <mergeCell ref="C56:E56"/>
     <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
     <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A43:G43"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17" xr:uid="{AA005DBF-E840-AD43-AC91-CD6CE016CB50}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18" xr:uid="{AA005DBF-E840-AD43-AC91-CD6CE016CB50}">
       <formula1>isImport</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C44:C46" xr:uid="{5359E819-3DA9-9F40-8153-6EB281F58DC2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45:C47" xr:uid="{5359E819-3DA9-9F40-8153-6EB281F58DC2}">
       <formula1>path</formula1>
     </dataValidation>
   </dataValidations>
@@ -5249,7 +5315,7 @@
           <x14:formula1>
             <xm:f>config!$B$5:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D16</xm:sqref>
+          <xm:sqref>D17</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5650,7 +5716,7 @@
       <c r="F4" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="G4" s="197" t="s">
+      <c r="G4" s="138" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5671,7 +5737,7 @@
       <c r="F5" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G5" s="198" t="s">
+      <c r="G5" s="139" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5700,7 +5766,7 @@
       <c r="D7" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="G7" s="199"/>
+      <c r="G7" s="140"/>
     </row>
     <row r="8" spans="1:7">
       <c r="C8" s="48" t="s">
@@ -5729,10 +5795,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T64"/>
+  <dimension ref="A1:T66"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -5926,10 +5992,10 @@
         <v>194</v>
       </c>
       <c r="B15" s="123"/>
-      <c r="C15" s="138" t="s">
+      <c r="C15" s="163" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="138"/>
+      <c r="D15" s="163"/>
       <c r="E15" s="96" t="s">
         <v>196</v>
       </c>
@@ -5940,10 +6006,10 @@
         <v>197</v>
       </c>
       <c r="B16" s="123"/>
-      <c r="C16" s="138" t="s">
+      <c r="C16" s="163" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="138"/>
+      <c r="D16" s="163"/>
       <c r="E16" s="55"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -5951,103 +6017,104 @@
       <c r="I16" s="96"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="124" t="s">
+      <c r="A17" s="123" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17" s="123"/>
+      <c r="C17" s="162" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="163"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="124" t="s">
         <v>199</v>
       </c>
-      <c r="B17" s="125"/>
-      <c r="C17" s="101" t="s">
+      <c r="B18" s="125"/>
+      <c r="C18" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>200</v>
       </c>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="6"/>
-      <c r="C18" s="28"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="170" t="s">
+      <c r="A19" s="124" t="s">
+        <v>233</v>
+      </c>
+      <c r="B19" s="125"/>
+      <c r="C19" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="6"/>
+      <c r="C20" s="28"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="158" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="170"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="116" t="s">
+      <c r="B21" s="158"/>
+      <c r="C21" s="158"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="158"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="164" t="s">
+      <c r="B22" s="152" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="165"/>
-      <c r="D20" s="165"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="165"/>
-      <c r="G20" s="166"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
-      <c r="O20" s="112"/>
-      <c r="P20" s="112"/>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="117"/>
-      <c r="B21" s="152"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="152"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="113"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="118"/>
-      <c r="B22" s="154"/>
-      <c r="C22" s="154"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="154"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
       <c r="G22" s="154"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="113"/>
-      <c r="L22" s="113"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="106"/>
+      <c r="O22" s="112"/>
+      <c r="P22" s="112"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="119"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
+      <c r="A23" s="117"/>
+      <c r="B23" s="169"/>
+      <c r="C23" s="169"/>
+      <c r="D23" s="169"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="169"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
       <c r="J23" s="113"/>
@@ -6058,86 +6125,86 @@
       <c r="P23"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="C24"/>
+      <c r="A24" s="118"/>
+      <c r="B24" s="170"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="170"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="170"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="113"/>
+      <c r="L24" s="113"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="167" t="s">
+      <c r="A25" s="119"/>
+      <c r="B25" s="171"/>
+      <c r="C25" s="171"/>
+      <c r="D25" s="171"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="171"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="113"/>
+      <c r="L25" s="113"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="155" t="s">
         <v>213</v>
       </c>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="168"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="169"/>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="116" t="s">
+      <c r="B27" s="156"/>
+      <c r="C27" s="156"/>
+      <c r="D27" s="156"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="157"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="148" t="s">
+      <c r="B28" s="176" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="148"/>
-      <c r="D26" s="148"/>
-      <c r="E26" s="148"/>
-      <c r="F26" s="148"/>
-      <c r="G26" s="148"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="106"/>
-      <c r="M26" s="106"/>
-      <c r="O26" s="112"/>
-      <c r="P26" s="112"/>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="117">
+      <c r="C28" s="176"/>
+      <c r="D28" s="176"/>
+      <c r="E28" s="176"/>
+      <c r="F28" s="176"/>
+      <c r="G28" s="176"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="106"/>
+      <c r="M28" s="106"/>
+      <c r="O28" s="112"/>
+      <c r="P28" s="112"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="117">
         <v>1</v>
       </c>
-      <c r="B27" s="149" t="s">
+      <c r="B29" s="177" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="149"/>
-      <c r="D27" s="149"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="113"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="113"/>
-      <c r="L27" s="113"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="118"/>
-      <c r="B28" s="150"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="113"/>
-      <c r="K28" s="113"/>
-      <c r="L28" s="113"/>
-      <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="119"/>
-      <c r="B29" s="151"/>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
+      <c r="C29" s="177"/>
+      <c r="D29" s="177"/>
+      <c r="E29" s="177"/>
+      <c r="F29" s="177"/>
+      <c r="G29" s="177"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
       <c r="J29" s="113"/>
@@ -6148,95 +6215,95 @@
       <c r="P29"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
+      <c r="A30" s="118"/>
+      <c r="B30" s="178"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="178"/>
+      <c r="G30" s="178"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="113"/>
       <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="167" t="s">
+      <c r="A31" s="119"/>
+      <c r="B31" s="179"/>
+      <c r="C31" s="179"/>
+      <c r="D31" s="179"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="179"/>
+      <c r="G31" s="179"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="113"/>
+      <c r="L31" s="113"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="155" t="s">
         <v>214</v>
       </c>
-      <c r="B31" s="168"/>
-      <c r="C31" s="168"/>
-      <c r="D31" s="168"/>
-      <c r="E31" s="168"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="169"/>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="116" t="s">
+      <c r="B33" s="156"/>
+      <c r="C33" s="156"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="157"/>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="148" t="s">
+      <c r="B34" s="176" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="148"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="148"/>
-      <c r="F32" s="148"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="106"/>
-      <c r="L32" s="106"/>
-      <c r="M32" s="106"/>
-      <c r="O32" s="112"/>
-      <c r="P32" s="112"/>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" s="117"/>
-      <c r="B33" s="152"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="152"/>
-      <c r="E33" s="152"/>
-      <c r="F33" s="152"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="113"/>
-      <c r="K33" s="113"/>
-      <c r="L33" s="113"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" s="118"/>
-      <c r="B34" s="154"/>
-      <c r="C34" s="154"/>
-      <c r="D34" s="154"/>
-      <c r="E34" s="154"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="155"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="113"/>
-      <c r="L34" s="113"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
+      <c r="C34" s="176"/>
+      <c r="D34" s="176"/>
+      <c r="E34" s="176"/>
+      <c r="F34" s="176"/>
+      <c r="G34" s="176"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="106"/>
+      <c r="L34" s="106"/>
+      <c r="M34" s="106"/>
+      <c r="O34" s="112"/>
+      <c r="P34" s="112"/>
     </row>
     <row r="35" spans="1:20">
-      <c r="A35" s="119"/>
-      <c r="B35" s="156"/>
-      <c r="C35" s="156"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="157"/>
+      <c r="A35" s="117"/>
+      <c r="B35" s="169"/>
+      <c r="C35" s="169"/>
+      <c r="D35" s="169"/>
+      <c r="E35" s="169"/>
+      <c r="F35" s="169"/>
+      <c r="G35" s="180"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -6247,281 +6314,259 @@
       <c r="P35"/>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
+      <c r="A36" s="118"/>
+      <c r="B36" s="170"/>
+      <c r="C36" s="170"/>
+      <c r="D36" s="170"/>
+      <c r="E36" s="170"/>
+      <c r="F36" s="170"/>
+      <c r="G36" s="181"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="113"/>
+      <c r="L36" s="113"/>
       <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
     </row>
     <row r="37" spans="1:20">
-      <c r="A37" s="6"/>
+      <c r="A37" s="119"/>
+      <c r="B37" s="171"/>
+      <c r="C37" s="171"/>
+      <c r="D37" s="171"/>
+      <c r="E37" s="171"/>
+      <c r="F37" s="171"/>
+      <c r="G37" s="182"/>
+      <c r="H37" s="113"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="113"/>
+      <c r="L37" s="113"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
     </row>
     <row r="38" spans="1:20">
-      <c r="A38" s="19" t="s">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="6"/>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="120"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="55"/>
-      <c r="S38" s="39"/>
-      <c r="T38" s="39"/>
-    </row>
-    <row r="39" spans="1:20">
-      <c r="A39" s="177" t="s">
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="55"/>
+      <c r="S40" s="39"/>
+      <c r="T40" s="39"/>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="187" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="177" t="s">
+      <c r="B41" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="180" t="s">
+      <c r="C41" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="177" t="s">
+      <c r="D41" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="183" t="s">
+      <c r="E41" s="192" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="183" t="s">
+      <c r="F41" s="192" t="s">
         <v>197</v>
       </c>
-      <c r="G39" s="177" t="s">
+      <c r="G41" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="177" t="s">
+      <c r="H41" s="187" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="177" t="s">
+      <c r="I41" s="187" t="s">
         <v>216</v>
       </c>
-      <c r="J39" s="181" t="s">
+      <c r="J41" s="190" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="182"/>
-      <c r="L39" s="181" t="s">
+      <c r="K41" s="191"/>
+      <c r="L41" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="182"/>
-      <c r="N39" s="34" t="s">
+      <c r="M41" s="191"/>
+      <c r="N41" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="O39" s="177" t="s">
+      <c r="O41" s="187" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
-      <c r="A40" s="179"/>
-      <c r="B40" s="179"/>
-      <c r="C40" s="179"/>
-      <c r="D40" s="179"/>
-      <c r="E40" s="184"/>
-      <c r="F40" s="184"/>
-      <c r="G40" s="179"/>
-      <c r="H40" s="179"/>
-      <c r="I40" s="178"/>
-      <c r="J40" s="29" t="s">
+    <row r="42" spans="1:20">
+      <c r="A42" s="188"/>
+      <c r="B42" s="188"/>
+      <c r="C42" s="188"/>
+      <c r="D42" s="188"/>
+      <c r="E42" s="193"/>
+      <c r="F42" s="193"/>
+      <c r="G42" s="188"/>
+      <c r="H42" s="188"/>
+      <c r="I42" s="194"/>
+      <c r="J42" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="K40" s="29" t="s">
+      <c r="K42" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="L40" s="29" t="s">
+      <c r="L42" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M40" s="29" t="s">
+      <c r="M42" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="N40" s="29" t="s">
+      <c r="N42" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="179"/>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="A41" s="7">
+      <c r="O42" s="188"/>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" s="7">
         <v>1</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B43" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C43" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D43" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="121"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="121"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="J41" s="24">
+      <c r="J43" s="24">
         <v>0</v>
       </c>
-      <c r="K41" s="30">
+      <c r="K43" s="30">
         <v>10</v>
       </c>
-      <c r="L41" s="24"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="9"/>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="A42" s="10">
-        <f t="shared" ref="A42:A47" si="0">A41+1</f>
-        <v>2</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="J42" s="21"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="21">
-        <v>0</v>
-      </c>
-      <c r="M42" s="31">
-        <v>100</v>
-      </c>
-      <c r="N42" s="31"/>
-      <c r="O42" s="12"/>
-    </row>
-    <row r="43" spans="1:20">
-      <c r="A43" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="J43" s="21"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="14"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="9"/>
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44" s="82"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="82"/>
+        <f t="shared" ref="A44:A49" si="0">A43+1</f>
+        <v>2</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="25"/>
       <c r="I44" s="25" t="s">
         <v>141</v>
       </c>
       <c r="J44" s="21"/>
       <c r="K44" s="31"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="31"/>
+      <c r="L44" s="21">
+        <v>0</v>
+      </c>
+      <c r="M44" s="31">
+        <v>100</v>
+      </c>
       <c r="N44" s="31"/>
-      <c r="O44" s="14"/>
+      <c r="O44" s="12"/>
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="10">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>177</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E45" s="26"/>
       <c r="F45" s="26"/>
       <c r="G45" s="87"/>
-      <c r="H45" s="26"/>
+      <c r="H45" s="26" t="b">
+        <v>1</v>
+      </c>
       <c r="I45" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="J45" s="25"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="14" t="s">
-        <v>179</v>
-      </c>
+      <c r="J45" s="21"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="14"/>
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="87"/>
-      <c r="H46" s="26"/>
+        <v>109</v>
+      </c>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="82"/>
       <c r="I46" s="25" t="s">
         <v>141</v>
       </c>
@@ -6535,39 +6580,52 @@
     <row r="47" spans="1:20">
       <c r="A47" s="10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="E47" s="26"/>
+        <v>111</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>177</v>
+      </c>
       <c r="F47" s="26"/>
       <c r="G47" s="87"/>
       <c r="H47" s="26"/>
       <c r="I47" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="J47" s="21"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="14"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="14" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="48" spans="1:20">
-      <c r="A48" s="10"/>
-      <c r="B48" s="22"/>
+      <c r="A48" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>98</v>
+      </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="26"/>
+      <c r="D48" s="26" t="s">
+        <v>113</v>
+      </c>
       <c r="E48" s="26"/>
       <c r="F48" s="26"/>
       <c r="G48" s="87"/>
       <c r="H48" s="26"/>
-      <c r="I48" s="25"/>
+      <c r="I48" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J48" s="21"/>
       <c r="K48" s="31"/>
       <c r="L48" s="21"/>
@@ -6576,20 +6634,29 @@
       <c r="O48" s="14"/>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="10"/>
-      <c r="B49" s="22"/>
+      <c r="A49" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>115</v>
+      </c>
       <c r="C49" s="13"/>
-      <c r="D49" s="26"/>
+      <c r="D49" s="26" t="s">
+        <v>178</v>
+      </c>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
       <c r="G49" s="87"/>
       <c r="H49" s="26"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
+      <c r="I49" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="J49" s="21"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
       <c r="O49" s="14"/>
     </row>
     <row r="50" spans="1:15">
@@ -6619,11 +6686,11 @@
       <c r="G51" s="87"/>
       <c r="H51" s="26"/>
       <c r="I51" s="25"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
       <c r="O51" s="14"/>
     </row>
     <row r="52" spans="1:15">
@@ -6687,11 +6754,11 @@
       <c r="G55" s="87"/>
       <c r="H55" s="26"/>
       <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
       <c r="O55" s="14"/>
     </row>
     <row r="56" spans="1:15">
@@ -6721,11 +6788,11 @@
       <c r="G57" s="87"/>
       <c r="H57" s="26"/>
       <c r="I57" s="25"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="21"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="32"/>
       <c r="O57" s="14"/>
     </row>
     <row r="58" spans="1:15">
@@ -6772,11 +6839,11 @@
       <c r="G60" s="87"/>
       <c r="H60" s="26"/>
       <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="32"/>
-      <c r="N60" s="32"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
       <c r="O60" s="14"/>
     </row>
     <row r="61" spans="1:15">
@@ -6806,11 +6873,11 @@
       <c r="G62" s="87"/>
       <c r="H62" s="26"/>
       <c r="I62" s="25"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="21"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="31"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
       <c r="O62" s="14"/>
     </row>
     <row r="63" spans="1:15">
@@ -6823,71 +6890,106 @@
       <c r="G63" s="87"/>
       <c r="H63" s="26"/>
       <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="32"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="31"/>
       <c r="O63" s="14"/>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="15"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="89"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="23"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="33"/>
-      <c r="O64" s="17"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="87"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="14"/>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="10"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="87"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="14"/>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="15"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="89"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="33"/>
+      <c r="O66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="30">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="A33:G33"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Validate実装パターン</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{CFFA7773-4692-1A4F-AFD8-DE5759D4A959}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:C19" xr:uid="{CFFA7773-4692-1A4F-AFD8-DE5759D4A959}">
       <formula1>isImport</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I41:I63 I64" xr:uid="{155C00D3-4072-D445-8D9E-81416AE5A4E4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I43:I66" xr:uid="{155C00D3-4072-D445-8D9E-81416AE5A4E4}">
       <formula1>isNullable</formula1>
     </dataValidation>
   </dataValidations>
@@ -6904,7 +7006,7 @@
           <x14:formula1>
             <xm:f>config!$B$5:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G41:G64</xm:sqref>
+          <xm:sqref>G43:G66</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
@@ -7086,10 +7188,10 @@
         <v>194</v>
       </c>
       <c r="B12" s="123"/>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="163" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="138"/>
+      <c r="D12" s="163"/>
       <c r="E12" s="96" t="s">
         <v>196</v>
       </c>
@@ -7102,10 +7204,10 @@
         <v>197</v>
       </c>
       <c r="B13" s="123"/>
-      <c r="C13" s="138" t="s">
+      <c r="C13" s="163" t="s">
         <v>198</v>
       </c>
-      <c r="D13" s="138"/>
+      <c r="D13" s="163"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="54"/>
@@ -7137,28 +7239,28 @@
       <c r="F15" s="96"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="170" t="s">
+      <c r="A16" s="158" t="s">
         <v>212</v>
       </c>
-      <c r="B16" s="170"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="170"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="164" t="s">
+      <c r="B17" s="152" t="s">
         <v>203</v>
       </c>
-      <c r="C17" s="165"/>
-      <c r="D17" s="165"/>
-      <c r="E17" s="165"/>
-      <c r="F17" s="165"/>
-      <c r="G17" s="166"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="154"/>
       <c r="H17" s="106"/>
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
@@ -7169,12 +7271,12 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="117"/>
-      <c r="B18" s="152"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
+      <c r="B18" s="169"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="169"/>
+      <c r="E18" s="169"/>
+      <c r="F18" s="169"/>
+      <c r="G18" s="169"/>
       <c r="H18" s="113"/>
       <c r="J18" s="113"/>
       <c r="K18" s="113"/>
@@ -7185,12 +7287,12 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="118"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
       <c r="H19" s="113"/>
       <c r="J19" s="113"/>
       <c r="K19" s="113"/>
@@ -7201,12 +7303,12 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="119"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
+      <c r="B20" s="171"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="171"/>
       <c r="H20" s="113"/>
       <c r="I20" s="106"/>
       <c r="J20" s="113"/>
@@ -7221,29 +7323,29 @@
       <c r="I21" s="113"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="167" t="s">
+      <c r="A22" s="155" t="s">
         <v>213</v>
       </c>
-      <c r="B22" s="168"/>
-      <c r="C22" s="168"/>
-      <c r="D22" s="168"/>
-      <c r="E22" s="168"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="169"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="157"/>
       <c r="I22" s="113"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="148" t="s">
+      <c r="B23" s="176" t="s">
         <v>204</v>
       </c>
-      <c r="C23" s="148"/>
-      <c r="D23" s="148"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="148"/>
+      <c r="C23" s="176"/>
+      <c r="D23" s="176"/>
+      <c r="E23" s="176"/>
+      <c r="F23" s="176"/>
+      <c r="G23" s="176"/>
       <c r="H23" s="106"/>
       <c r="I23" s="113"/>
       <c r="J23" s="106"/>
@@ -7257,14 +7359,14 @@
       <c r="A24" s="117">
         <v>1</v>
       </c>
-      <c r="B24" s="149" t="s">
+      <c r="B24" s="177" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="149"/>
-      <c r="D24" s="149"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="149"/>
-      <c r="G24" s="149"/>
+      <c r="C24" s="177"/>
+      <c r="D24" s="177"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="177"/>
       <c r="H24" s="113"/>
       <c r="J24" s="113"/>
       <c r="K24" s="113"/>
@@ -7275,12 +7377,12 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="118"/>
-      <c r="B25" s="150"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
+      <c r="B25" s="178"/>
+      <c r="C25" s="178"/>
+      <c r="D25" s="178"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="178"/>
       <c r="H25" s="113"/>
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
@@ -7291,12 +7393,12 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="119"/>
-      <c r="B26" s="151"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
+      <c r="B26" s="179"/>
+      <c r="C26" s="179"/>
+      <c r="D26" s="179"/>
+      <c r="E26" s="179"/>
+      <c r="F26" s="179"/>
+      <c r="G26" s="179"/>
       <c r="H26" s="113"/>
       <c r="I26" s="106"/>
       <c r="J26" s="113"/>
@@ -7323,29 +7425,29 @@
       <c r="N27"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="167" t="s">
+      <c r="A28" s="155" t="s">
         <v>214</v>
       </c>
-      <c r="B28" s="168"/>
-      <c r="C28" s="168"/>
-      <c r="D28" s="168"/>
-      <c r="E28" s="168"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="169"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="157"/>
       <c r="I28" s="113"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="148" t="s">
+      <c r="B29" s="176" t="s">
         <v>206</v>
       </c>
-      <c r="C29" s="148"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="148"/>
-      <c r="F29" s="148"/>
-      <c r="G29" s="148"/>
+      <c r="C29" s="176"/>
+      <c r="D29" s="176"/>
+      <c r="E29" s="176"/>
+      <c r="F29" s="176"/>
+      <c r="G29" s="176"/>
       <c r="H29" s="106"/>
       <c r="I29" s="113"/>
       <c r="J29" s="106"/>
@@ -7357,12 +7459,12 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="117"/>
-      <c r="B30" s="152"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="152"/>
-      <c r="G30" s="153"/>
+      <c r="B30" s="169"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="169"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="169"/>
+      <c r="G30" s="180"/>
       <c r="H30" s="113"/>
       <c r="I30"/>
       <c r="J30" s="113"/>
@@ -7374,12 +7476,12 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="118"/>
-      <c r="B31" s="154"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="155"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="170"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="181"/>
       <c r="H31" s="113"/>
       <c r="J31" s="113"/>
       <c r="K31" s="113"/>
@@ -7390,12 +7492,12 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="119"/>
-      <c r="B32" s="156"/>
-      <c r="C32" s="156"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="157"/>
+      <c r="B32" s="171"/>
+      <c r="C32" s="171"/>
+      <c r="D32" s="171"/>
+      <c r="E32" s="171"/>
+      <c r="F32" s="171"/>
+      <c r="G32" s="182"/>
       <c r="H32" s="113"/>
       <c r="I32" s="106"/>
       <c r="J32" s="113"/>
@@ -7445,60 +7547,60 @@
       <c r="O35" s="58"/>
     </row>
     <row r="36" spans="1:15" ht="15">
-      <c r="A36" s="183" t="s">
+      <c r="A36" s="192" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="183" t="s">
+      <c r="B36" s="192" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="183" t="s">
+      <c r="D36" s="192" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="183" t="s">
+      <c r="E36" s="192" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="183" t="s">
+      <c r="F36" s="192" t="s">
         <v>197</v>
       </c>
-      <c r="G36" s="183" t="s">
+      <c r="G36" s="192" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="183" t="s">
+      <c r="H36" s="192" t="s">
         <v>139</v>
       </c>
-      <c r="I36" s="177" t="s">
+      <c r="I36" s="187" t="s">
         <v>216</v>
       </c>
-      <c r="J36" s="185" t="s">
+      <c r="J36" s="196" t="s">
         <v>122</v>
       </c>
-      <c r="K36" s="186"/>
-      <c r="L36" s="187" t="s">
+      <c r="K36" s="197"/>
+      <c r="L36" s="198" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="186"/>
+      <c r="M36" s="197"/>
       <c r="N36" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="O36" s="183" t="s">
+      <c r="O36" s="192" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15">
-      <c r="A37" s="188"/>
-      <c r="B37" s="188"/>
+      <c r="A37" s="195"/>
+      <c r="B37" s="195"/>
       <c r="C37" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="188"/>
-      <c r="E37" s="184"/>
-      <c r="F37" s="184"/>
-      <c r="G37" s="188"/>
-      <c r="H37" s="188"/>
-      <c r="I37" s="178"/>
+      <c r="D37" s="195"/>
+      <c r="E37" s="193"/>
+      <c r="F37" s="193"/>
+      <c r="G37" s="195"/>
+      <c r="H37" s="195"/>
+      <c r="I37" s="194"/>
       <c r="J37" s="62" t="s">
         <v>126</v>
       </c>
@@ -7514,7 +7616,7 @@
       <c r="N37" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="O37" s="188"/>
+      <c r="O37" s="195"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="64">
@@ -7988,18 +8090,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="G36:G37"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="I36:I37"/>
@@ -8016,6 +8106,18 @@
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -8061,10 +8163,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T64"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41:I47"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -8258,10 +8360,10 @@
         <v>194</v>
       </c>
       <c r="B15" s="123"/>
-      <c r="C15" s="138" t="s">
+      <c r="C15" s="163" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="138"/>
+      <c r="D15" s="163"/>
       <c r="E15" s="96" t="s">
         <v>196</v>
       </c>
@@ -8272,10 +8374,10 @@
         <v>197</v>
       </c>
       <c r="B16" s="123"/>
-      <c r="C16" s="138" t="s">
+      <c r="C16" s="163" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="138"/>
+      <c r="D16" s="163"/>
       <c r="E16" s="55"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -8303,66 +8405,69 @@
       <c r="M17"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="6"/>
-      <c r="C18" s="28"/>
+      <c r="A18" s="124" t="s">
+        <v>233</v>
+      </c>
+      <c r="B18" s="125"/>
+      <c r="C18" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" t="s">
+        <v>234</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="170" t="s">
+      <c r="A19" s="6"/>
+      <c r="C19" s="28"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="158" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="170"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="116" t="s">
+      <c r="B20" s="158"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="164" t="s">
+      <c r="B21" s="152" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="165"/>
-      <c r="D20" s="165"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="165"/>
-      <c r="G20" s="166"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
-      <c r="O20" s="112"/>
-      <c r="P20" s="112"/>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="117"/>
-      <c r="B21" s="152"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="152"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="113"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
+      <c r="C21" s="153"/>
+      <c r="D21" s="153"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="106"/>
+      <c r="M21" s="106"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="112"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="118"/>
-      <c r="B22" s="154"/>
-      <c r="C22" s="154"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="154"/>
+      <c r="A22" s="117"/>
+      <c r="B22" s="169"/>
+      <c r="C22" s="169"/>
+      <c r="D22" s="169"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="169"/>
+      <c r="G22" s="169"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
       <c r="J22" s="113"/>
@@ -8373,13 +8478,13 @@
       <c r="P22"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="119"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
+      <c r="A23" s="118"/>
+      <c r="B23" s="170"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="170"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
       <c r="J23" s="113"/>
@@ -8390,69 +8495,69 @@
       <c r="P23"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="C24"/>
+      <c r="A24" s="119"/>
+      <c r="B24" s="171"/>
+      <c r="C24" s="171"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="171"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="113"/>
+      <c r="L24" s="113"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="167" t="s">
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="155" t="s">
         <v>213</v>
       </c>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="168"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="169"/>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="116" t="s">
+      <c r="B26" s="156"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="157"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="148" t="s">
+      <c r="B27" s="176" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="148"/>
-      <c r="D26" s="148"/>
-      <c r="E26" s="148"/>
-      <c r="F26" s="148"/>
-      <c r="G26" s="148"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="106"/>
-      <c r="M26" s="106"/>
-      <c r="O26" s="112"/>
-      <c r="P26" s="112"/>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="117">
+      <c r="C27" s="176"/>
+      <c r="D27" s="176"/>
+      <c r="E27" s="176"/>
+      <c r="F27" s="176"/>
+      <c r="G27" s="176"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="106"/>
+      <c r="M27" s="106"/>
+      <c r="O27" s="112"/>
+      <c r="P27" s="112"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="117">
         <v>1</v>
       </c>
-      <c r="B27" s="149" t="s">
+      <c r="B28" s="177" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="149"/>
-      <c r="D27" s="149"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="113"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="113"/>
-      <c r="L27" s="113"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="118"/>
-      <c r="B28" s="150"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
+      <c r="C28" s="177"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="177"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -8463,13 +8568,13 @@
       <c r="P28"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="119"/>
-      <c r="B29" s="151"/>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
+      <c r="A29" s="118"/>
+      <c r="B29" s="178"/>
+      <c r="C29" s="178"/>
+      <c r="D29" s="178"/>
+      <c r="E29" s="178"/>
+      <c r="F29" s="178"/>
+      <c r="G29" s="178"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
       <c r="J29" s="113"/>
@@ -8480,78 +8585,78 @@
       <c r="P29"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
+      <c r="A30" s="119"/>
+      <c r="B30" s="179"/>
+      <c r="C30" s="179"/>
+      <c r="D30" s="179"/>
+      <c r="E30" s="179"/>
+      <c r="F30" s="179"/>
+      <c r="G30" s="179"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="113"/>
       <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="167" t="s">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="155" t="s">
         <v>214</v>
       </c>
-      <c r="B31" s="168"/>
-      <c r="C31" s="168"/>
-      <c r="D31" s="168"/>
-      <c r="E31" s="168"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="169"/>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="116" t="s">
+      <c r="B32" s="156"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="157"/>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="148" t="s">
+      <c r="B33" s="176" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="148"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="148"/>
-      <c r="F32" s="148"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="106"/>
-      <c r="L32" s="106"/>
-      <c r="M32" s="106"/>
-      <c r="O32" s="112"/>
-      <c r="P32" s="112"/>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" s="117"/>
-      <c r="B33" s="152"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="152"/>
-      <c r="E33" s="152"/>
-      <c r="F33" s="152"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="113"/>
-      <c r="K33" s="113"/>
-      <c r="L33" s="113"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
+      <c r="C33" s="176"/>
+      <c r="D33" s="176"/>
+      <c r="E33" s="176"/>
+      <c r="F33" s="176"/>
+      <c r="G33" s="176"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="106"/>
+      <c r="L33" s="106"/>
+      <c r="M33" s="106"/>
+      <c r="O33" s="112"/>
+      <c r="P33" s="112"/>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" s="118"/>
-      <c r="B34" s="154"/>
-      <c r="C34" s="154"/>
-      <c r="D34" s="154"/>
-      <c r="E34" s="154"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="155"/>
+      <c r="A34" s="117"/>
+      <c r="B34" s="169"/>
+      <c r="C34" s="169"/>
+      <c r="D34" s="169"/>
+      <c r="E34" s="169"/>
+      <c r="F34" s="169"/>
+      <c r="G34" s="180"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -8562,13 +8667,13 @@
       <c r="P34"/>
     </row>
     <row r="35" spans="1:20">
-      <c r="A35" s="119"/>
-      <c r="B35" s="156"/>
-      <c r="C35" s="156"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="157"/>
+      <c r="A35" s="118"/>
+      <c r="B35" s="170"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="170"/>
+      <c r="E35" s="170"/>
+      <c r="F35" s="170"/>
+      <c r="G35" s="181"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -8579,227 +8684,218 @@
       <c r="P35"/>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
+      <c r="A36" s="119"/>
+      <c r="B36" s="171"/>
+      <c r="C36" s="171"/>
+      <c r="D36" s="171"/>
+      <c r="E36" s="171"/>
+      <c r="F36" s="171"/>
+      <c r="G36" s="182"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="113"/>
+      <c r="L36" s="113"/>
       <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
     </row>
     <row r="37" spans="1:20">
-      <c r="A37" s="6"/>
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
     </row>
     <row r="38" spans="1:20">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="6"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="120"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="55"/>
-      <c r="S38" s="39"/>
-      <c r="T38" s="39"/>
-    </row>
-    <row r="39" spans="1:20">
-      <c r="A39" s="177" t="s">
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="120"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="187" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="177" t="s">
+      <c r="B40" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="180" t="s">
+      <c r="C40" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="177" t="s">
+      <c r="D40" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="183" t="s">
+      <c r="E40" s="192" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="183" t="s">
+      <c r="F40" s="192" t="s">
         <v>197</v>
       </c>
-      <c r="G39" s="177" t="s">
+      <c r="G40" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="177" t="s">
+      <c r="H40" s="187" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="177" t="s">
+      <c r="I40" s="187" t="s">
         <v>216</v>
       </c>
-      <c r="J39" s="181" t="s">
+      <c r="J40" s="190" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="182"/>
-      <c r="L39" s="181" t="s">
+      <c r="K40" s="191"/>
+      <c r="L40" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="182"/>
-      <c r="N39" s="34" t="s">
+      <c r="M40" s="191"/>
+      <c r="N40" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="O39" s="177" t="s">
+      <c r="O40" s="187" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
-      <c r="A40" s="179"/>
-      <c r="B40" s="179"/>
-      <c r="C40" s="179"/>
-      <c r="D40" s="179"/>
-      <c r="E40" s="184"/>
-      <c r="F40" s="189"/>
-      <c r="G40" s="179"/>
-      <c r="H40" s="179"/>
-      <c r="I40" s="178"/>
-      <c r="J40" s="29" t="s">
+    <row r="41" spans="1:20">
+      <c r="A41" s="188"/>
+      <c r="B41" s="188"/>
+      <c r="C41" s="188"/>
+      <c r="D41" s="188"/>
+      <c r="E41" s="193"/>
+      <c r="F41" s="199"/>
+      <c r="G41" s="188"/>
+      <c r="H41" s="188"/>
+      <c r="I41" s="194"/>
+      <c r="J41" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="K40" s="29" t="s">
+      <c r="K41" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="L40" s="29" t="s">
+      <c r="L41" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M40" s="29" t="s">
+      <c r="M41" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="N40" s="29" t="s">
+      <c r="N41" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="179"/>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="A41" s="7">
+      <c r="O41" s="188"/>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="7">
         <v>1</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B42" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D42" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="121"/>
-      <c r="G41" s="85" t="s">
+      <c r="E42" s="24"/>
+      <c r="F42" s="121"/>
+      <c r="G42" s="85" t="s">
         <v>141</v>
       </c>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24" t="s">
+      <c r="H42" s="24"/>
+      <c r="I42" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="J41" s="24">
+      <c r="J42" s="24">
         <v>0</v>
       </c>
-      <c r="K41" s="30">
+      <c r="K42" s="30">
         <v>10</v>
       </c>
-      <c r="L41" s="24"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="9"/>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="A42" s="10">
-        <f t="shared" ref="A42:A47" si="0">A41+1</f>
-        <v>2</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="J42" s="21"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="21">
-        <v>0</v>
-      </c>
-      <c r="M42" s="31">
-        <v>100</v>
-      </c>
-      <c r="N42" s="31"/>
-      <c r="O42" s="12"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="9"/>
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="26" t="b">
-        <v>1</v>
-      </c>
+        <f t="shared" ref="A43:A48" si="0">A42+1</f>
+        <v>2</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="25"/>
       <c r="I43" s="25" t="s">
         <v>141</v>
       </c>
       <c r="J43" s="21"/>
       <c r="K43" s="31"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="31"/>
+      <c r="L43" s="21">
+        <v>0</v>
+      </c>
+      <c r="M43" s="31">
+        <v>100</v>
+      </c>
       <c r="N43" s="31"/>
-      <c r="O43" s="14"/>
+      <c r="O43" s="12"/>
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="10">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44" s="82"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="82"/>
+        <v>107</v>
+      </c>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="26" t="b">
+        <v>1</v>
+      </c>
       <c r="I44" s="25" t="s">
         <v>141</v>
       </c>
@@ -8813,70 +8909,70 @@
     <row r="45" spans="1:20">
       <c r="A45" s="10">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="F45" s="26"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="26"/>
+        <v>109</v>
+      </c>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="88"/>
+      <c r="H45" s="82"/>
       <c r="I45" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="J45" s="25"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="14" t="s">
-        <v>184</v>
-      </c>
+      <c r="J45" s="21"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="14"/>
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="E46" s="26"/>
+        <v>111</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>181</v>
+      </c>
       <c r="F46" s="26"/>
       <c r="G46" s="87"/>
       <c r="H46" s="26"/>
       <c r="I46" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="J46" s="21"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="14"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="14" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="26" t="s">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
@@ -8893,15 +8989,24 @@
       <c r="O47" s="14"/>
     </row>
     <row r="48" spans="1:20">
-      <c r="A48" s="10"/>
-      <c r="B48" s="22"/>
+      <c r="A48" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>115</v>
+      </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="26"/>
+      <c r="D48" s="26" t="s">
+        <v>183</v>
+      </c>
       <c r="E48" s="26"/>
       <c r="F48" s="26"/>
       <c r="G48" s="87"/>
       <c r="H48" s="26"/>
-      <c r="I48" s="25"/>
+      <c r="I48" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J48" s="21"/>
       <c r="K48" s="31"/>
       <c r="L48" s="21"/>
@@ -8919,11 +9024,11 @@
       <c r="G49" s="87"/>
       <c r="H49" s="26"/>
       <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
       <c r="O49" s="14"/>
     </row>
     <row r="50" spans="1:15">
@@ -8936,11 +9041,11 @@
       <c r="G50" s="87"/>
       <c r="H50" s="26"/>
       <c r="I50" s="25"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
       <c r="O50" s="14"/>
     </row>
     <row r="51" spans="1:15">
@@ -9021,11 +9126,11 @@
       <c r="G55" s="87"/>
       <c r="H55" s="26"/>
       <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
       <c r="O55" s="14"/>
     </row>
     <row r="56" spans="1:15">
@@ -9038,11 +9143,11 @@
       <c r="G56" s="87"/>
       <c r="H56" s="26"/>
       <c r="I56" s="25"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="31"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="32"/>
       <c r="O56" s="14"/>
     </row>
     <row r="57" spans="1:15">
@@ -9106,11 +9211,11 @@
       <c r="G60" s="87"/>
       <c r="H60" s="26"/>
       <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="32"/>
-      <c r="N60" s="32"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
       <c r="O60" s="14"/>
     </row>
     <row r="61" spans="1:15">
@@ -9123,11 +9228,11 @@
       <c r="G61" s="87"/>
       <c r="H61" s="26"/>
       <c r="I61" s="25"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="21"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="31"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
       <c r="O61" s="14"/>
     </row>
     <row r="62" spans="1:15">
@@ -9157,71 +9262,88 @@
       <c r="G63" s="87"/>
       <c r="H63" s="26"/>
       <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="32"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="31"/>
       <c r="O63" s="14"/>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="15"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="89"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="23"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="33"/>
-      <c r="O64" s="17"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="87"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="14"/>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="15"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="89"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B34:G34"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A20:G20"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="I40:I41"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>Validate実装パターン</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{C2D0C7F4-19B0-DB40-AFFD-E6928EE4E5C2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17:C18" xr:uid="{C2D0C7F4-19B0-DB40-AFFD-E6928EE4E5C2}">
       <formula1>isImport</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I41:I64" xr:uid="{1FBC7B49-ABAE-AE4A-8A55-EF1A4EFC4446}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I42:I65" xr:uid="{1FBC7B49-ABAE-AE4A-8A55-EF1A4EFC4446}">
       <formula1>isNullable</formula1>
     </dataValidation>
   </dataValidations>
@@ -9253,7 +9375,7 @@
           <x14:formula1>
             <xm:f>config!$B$5:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G41:G64</xm:sqref>
+          <xm:sqref>G42:G65</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9423,10 +9545,10 @@
         <v>194</v>
       </c>
       <c r="B12" s="123"/>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="163" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="138"/>
+      <c r="D12" s="163"/>
       <c r="E12" s="96" t="s">
         <v>196</v>
       </c>
@@ -9439,10 +9561,10 @@
         <v>197</v>
       </c>
       <c r="B13" s="123"/>
-      <c r="C13" s="138" t="s">
+      <c r="C13" s="163" t="s">
         <v>198</v>
       </c>
-      <c r="D13" s="138"/>
+      <c r="D13" s="163"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="54"/>
@@ -9474,28 +9596,28 @@
       <c r="F15" s="96"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="170" t="s">
+      <c r="A16" s="158" t="s">
         <v>212</v>
       </c>
-      <c r="B16" s="170"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="170"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="164" t="s">
+      <c r="B17" s="152" t="s">
         <v>203</v>
       </c>
-      <c r="C17" s="165"/>
-      <c r="D17" s="165"/>
-      <c r="E17" s="165"/>
-      <c r="F17" s="165"/>
-      <c r="G17" s="166"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="154"/>
       <c r="H17" s="106"/>
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
@@ -9506,12 +9628,12 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="117"/>
-      <c r="B18" s="152"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
+      <c r="B18" s="169"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="169"/>
+      <c r="E18" s="169"/>
+      <c r="F18" s="169"/>
+      <c r="G18" s="169"/>
       <c r="H18" s="113"/>
       <c r="J18" s="113"/>
       <c r="K18" s="113"/>
@@ -9522,12 +9644,12 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="118"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
       <c r="H19" s="113"/>
       <c r="J19" s="113"/>
       <c r="K19" s="113"/>
@@ -9538,12 +9660,12 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="119"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
+      <c r="B20" s="171"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="171"/>
       <c r="H20" s="113"/>
       <c r="I20" s="106"/>
       <c r="J20" s="113"/>
@@ -9558,29 +9680,29 @@
       <c r="I21" s="113"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="167" t="s">
+      <c r="A22" s="155" t="s">
         <v>213</v>
       </c>
-      <c r="B22" s="168"/>
-      <c r="C22" s="168"/>
-      <c r="D22" s="168"/>
-      <c r="E22" s="168"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="169"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="157"/>
       <c r="I22" s="113"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="148" t="s">
+      <c r="B23" s="176" t="s">
         <v>204</v>
       </c>
-      <c r="C23" s="148"/>
-      <c r="D23" s="148"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="148"/>
+      <c r="C23" s="176"/>
+      <c r="D23" s="176"/>
+      <c r="E23" s="176"/>
+      <c r="F23" s="176"/>
+      <c r="G23" s="176"/>
       <c r="H23" s="106"/>
       <c r="I23" s="113"/>
       <c r="J23" s="106"/>
@@ -9594,14 +9716,14 @@
       <c r="A24" s="117">
         <v>1</v>
       </c>
-      <c r="B24" s="149" t="s">
+      <c r="B24" s="177" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="149"/>
-      <c r="D24" s="149"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="149"/>
-      <c r="G24" s="149"/>
+      <c r="C24" s="177"/>
+      <c r="D24" s="177"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="177"/>
       <c r="H24" s="113"/>
       <c r="J24" s="113"/>
       <c r="K24" s="113"/>
@@ -9612,12 +9734,12 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="118"/>
-      <c r="B25" s="150"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
+      <c r="B25" s="178"/>
+      <c r="C25" s="178"/>
+      <c r="D25" s="178"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="178"/>
       <c r="H25" s="113"/>
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
@@ -9628,12 +9750,12 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="119"/>
-      <c r="B26" s="151"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
+      <c r="B26" s="179"/>
+      <c r="C26" s="179"/>
+      <c r="D26" s="179"/>
+      <c r="E26" s="179"/>
+      <c r="F26" s="179"/>
+      <c r="G26" s="179"/>
       <c r="H26" s="113"/>
       <c r="I26" s="106"/>
       <c r="J26" s="113"/>
@@ -9660,29 +9782,29 @@
       <c r="N27"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="167" t="s">
+      <c r="A28" s="155" t="s">
         <v>214</v>
       </c>
-      <c r="B28" s="168"/>
-      <c r="C28" s="168"/>
-      <c r="D28" s="168"/>
-      <c r="E28" s="168"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="169"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="157"/>
       <c r="I28" s="113"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="148" t="s">
+      <c r="B29" s="176" t="s">
         <v>206</v>
       </c>
-      <c r="C29" s="148"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="148"/>
-      <c r="F29" s="148"/>
-      <c r="G29" s="148"/>
+      <c r="C29" s="176"/>
+      <c r="D29" s="176"/>
+      <c r="E29" s="176"/>
+      <c r="F29" s="176"/>
+      <c r="G29" s="176"/>
       <c r="H29" s="106"/>
       <c r="I29" s="113"/>
       <c r="J29" s="106"/>
@@ -9694,12 +9816,12 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="117"/>
-      <c r="B30" s="152"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="152"/>
-      <c r="G30" s="153"/>
+      <c r="B30" s="169"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="169"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="169"/>
+      <c r="G30" s="180"/>
       <c r="H30" s="113"/>
       <c r="I30"/>
       <c r="J30" s="113"/>
@@ -9711,12 +9833,12 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="118"/>
-      <c r="B31" s="154"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="155"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="170"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="181"/>
       <c r="H31" s="113"/>
       <c r="J31" s="113"/>
       <c r="K31" s="113"/>
@@ -9727,12 +9849,12 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="119"/>
-      <c r="B32" s="156"/>
-      <c r="C32" s="156"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="157"/>
+      <c r="B32" s="171"/>
+      <c r="C32" s="171"/>
+      <c r="D32" s="171"/>
+      <c r="E32" s="171"/>
+      <c r="F32" s="171"/>
+      <c r="G32" s="182"/>
       <c r="H32" s="113"/>
       <c r="I32" s="106"/>
       <c r="J32" s="113"/>
@@ -9782,60 +9904,60 @@
       <c r="O35" s="58"/>
     </row>
     <row r="36" spans="1:15" ht="15">
-      <c r="A36" s="183" t="s">
+      <c r="A36" s="192" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="183" t="s">
+      <c r="B36" s="192" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="183" t="s">
+      <c r="D36" s="192" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="183" t="s">
+      <c r="E36" s="192" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="183" t="s">
+      <c r="F36" s="192" t="s">
         <v>197</v>
       </c>
-      <c r="G36" s="183" t="s">
+      <c r="G36" s="192" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="183" t="s">
+      <c r="H36" s="192" t="s">
         <v>139</v>
       </c>
-      <c r="I36" s="177" t="s">
+      <c r="I36" s="187" t="s">
         <v>216</v>
       </c>
-      <c r="J36" s="185" t="s">
+      <c r="J36" s="196" t="s">
         <v>122</v>
       </c>
-      <c r="K36" s="186"/>
-      <c r="L36" s="187" t="s">
+      <c r="K36" s="197"/>
+      <c r="L36" s="198" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="186"/>
+      <c r="M36" s="197"/>
       <c r="N36" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="O36" s="183" t="s">
+      <c r="O36" s="192" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15">
-      <c r="A37" s="188"/>
-      <c r="B37" s="188"/>
+      <c r="A37" s="195"/>
+      <c r="B37" s="195"/>
       <c r="C37" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="188"/>
-      <c r="E37" s="189"/>
-      <c r="F37" s="189"/>
-      <c r="G37" s="188"/>
-      <c r="H37" s="188"/>
-      <c r="I37" s="178"/>
+      <c r="D37" s="195"/>
+      <c r="E37" s="199"/>
+      <c r="F37" s="199"/>
+      <c r="G37" s="195"/>
+      <c r="H37" s="195"/>
+      <c r="I37" s="194"/>
       <c r="J37" s="62" t="s">
         <v>126</v>
       </c>
@@ -9851,7 +9973,7 @@
       <c r="N37" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="O37" s="188"/>
+      <c r="O37" s="195"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="64">
@@ -10327,6 +10449,23 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="A36:A37"/>
@@ -10338,23 +10477,6 @@
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="I36:I37"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="B29:G29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -10400,10 +10522,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T64"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41:I47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -10597,10 +10719,10 @@
         <v>194</v>
       </c>
       <c r="B15" s="123"/>
-      <c r="C15" s="138" t="s">
+      <c r="C15" s="163" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="138"/>
+      <c r="D15" s="163"/>
       <c r="E15" s="96" t="s">
         <v>196</v>
       </c>
@@ -10611,10 +10733,10 @@
         <v>197</v>
       </c>
       <c r="B16" s="123"/>
-      <c r="C16" s="138" t="s">
+      <c r="C16" s="163" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="138"/>
+      <c r="D16" s="163"/>
       <c r="E16" s="55"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -10642,66 +10764,67 @@
       <c r="M17"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="6"/>
-      <c r="C18" s="28"/>
+      <c r="A18" s="124" t="s">
+        <v>233</v>
+      </c>
+      <c r="B18" s="125"/>
+      <c r="C18" s="101"/>
+      <c r="D18" t="s">
+        <v>234</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="170" t="s">
+      <c r="A19" s="6"/>
+      <c r="C19" s="28"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="158" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="170"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="116" t="s">
+      <c r="B20" s="158"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="164" t="s">
+      <c r="B21" s="152" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="165"/>
-      <c r="D20" s="165"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="165"/>
-      <c r="G20" s="166"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
-      <c r="O20" s="112"/>
-      <c r="P20" s="112"/>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="117"/>
-      <c r="B21" s="152"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="152"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="113"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
+      <c r="C21" s="153"/>
+      <c r="D21" s="153"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="106"/>
+      <c r="M21" s="106"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="112"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="118"/>
-      <c r="B22" s="154"/>
-      <c r="C22" s="154"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="154"/>
+      <c r="A22" s="117"/>
+      <c r="B22" s="169"/>
+      <c r="C22" s="169"/>
+      <c r="D22" s="169"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="169"/>
+      <c r="G22" s="169"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
       <c r="J22" s="113"/>
@@ -10712,13 +10835,13 @@
       <c r="P22"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="119"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
+      <c r="A23" s="118"/>
+      <c r="B23" s="170"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="170"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
       <c r="J23" s="113"/>
@@ -10729,69 +10852,69 @@
       <c r="P23"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="C24"/>
+      <c r="A24" s="119"/>
+      <c r="B24" s="171"/>
+      <c r="C24" s="171"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="171"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="113"/>
+      <c r="L24" s="113"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="167" t="s">
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="155" t="s">
         <v>213</v>
       </c>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="168"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="169"/>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="116" t="s">
+      <c r="B26" s="156"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="157"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="148" t="s">
+      <c r="B27" s="176" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="148"/>
-      <c r="D26" s="148"/>
-      <c r="E26" s="148"/>
-      <c r="F26" s="148"/>
-      <c r="G26" s="148"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="106"/>
-      <c r="M26" s="106"/>
-      <c r="O26" s="112"/>
-      <c r="P26" s="112"/>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="117">
+      <c r="C27" s="176"/>
+      <c r="D27" s="176"/>
+      <c r="E27" s="176"/>
+      <c r="F27" s="176"/>
+      <c r="G27" s="176"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="106"/>
+      <c r="M27" s="106"/>
+      <c r="O27" s="112"/>
+      <c r="P27" s="112"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="117">
         <v>1</v>
       </c>
-      <c r="B27" s="149" t="s">
+      <c r="B28" s="177" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="149"/>
-      <c r="D27" s="149"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="113"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="113"/>
-      <c r="L27" s="113"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="118"/>
-      <c r="B28" s="150"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
+      <c r="C28" s="177"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="177"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -10802,13 +10925,13 @@
       <c r="P28"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="119"/>
-      <c r="B29" s="151"/>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
+      <c r="A29" s="118"/>
+      <c r="B29" s="178"/>
+      <c r="C29" s="178"/>
+      <c r="D29" s="178"/>
+      <c r="E29" s="178"/>
+      <c r="F29" s="178"/>
+      <c r="G29" s="178"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
       <c r="J29" s="113"/>
@@ -10819,78 +10942,78 @@
       <c r="P29"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
+      <c r="A30" s="119"/>
+      <c r="B30" s="179"/>
+      <c r="C30" s="179"/>
+      <c r="D30" s="179"/>
+      <c r="E30" s="179"/>
+      <c r="F30" s="179"/>
+      <c r="G30" s="179"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="113"/>
       <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="167" t="s">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="155" t="s">
         <v>214</v>
       </c>
-      <c r="B31" s="168"/>
-      <c r="C31" s="168"/>
-      <c r="D31" s="168"/>
-      <c r="E31" s="168"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="169"/>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="116" t="s">
+      <c r="B32" s="156"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="157"/>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="148" t="s">
+      <c r="B33" s="176" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="148"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="148"/>
-      <c r="F32" s="148"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="106"/>
-      <c r="L32" s="106"/>
-      <c r="M32" s="106"/>
-      <c r="O32" s="112"/>
-      <c r="P32" s="112"/>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" s="117"/>
-      <c r="B33" s="152"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="152"/>
-      <c r="E33" s="152"/>
-      <c r="F33" s="152"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="113"/>
-      <c r="K33" s="113"/>
-      <c r="L33" s="113"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
+      <c r="C33" s="176"/>
+      <c r="D33" s="176"/>
+      <c r="E33" s="176"/>
+      <c r="F33" s="176"/>
+      <c r="G33" s="176"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="106"/>
+      <c r="L33" s="106"/>
+      <c r="M33" s="106"/>
+      <c r="O33" s="112"/>
+      <c r="P33" s="112"/>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" s="118"/>
-      <c r="B34" s="154"/>
-      <c r="C34" s="154"/>
-      <c r="D34" s="154"/>
-      <c r="E34" s="154"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="155"/>
+      <c r="A34" s="117"/>
+      <c r="B34" s="169"/>
+      <c r="C34" s="169"/>
+      <c r="D34" s="169"/>
+      <c r="E34" s="169"/>
+      <c r="F34" s="169"/>
+      <c r="G34" s="180"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -10901,13 +11024,13 @@
       <c r="P34"/>
     </row>
     <row r="35" spans="1:20">
-      <c r="A35" s="119"/>
-      <c r="B35" s="156"/>
-      <c r="C35" s="156"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="157"/>
+      <c r="A35" s="118"/>
+      <c r="B35" s="170"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="170"/>
+      <c r="E35" s="170"/>
+      <c r="F35" s="170"/>
+      <c r="G35" s="181"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -10918,227 +11041,218 @@
       <c r="P35"/>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
+      <c r="A36" s="119"/>
+      <c r="B36" s="171"/>
+      <c r="C36" s="171"/>
+      <c r="D36" s="171"/>
+      <c r="E36" s="171"/>
+      <c r="F36" s="171"/>
+      <c r="G36" s="182"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="113"/>
+      <c r="L36" s="113"/>
       <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
     </row>
     <row r="37" spans="1:20">
-      <c r="A37" s="6"/>
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
     </row>
     <row r="38" spans="1:20">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="6"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="55"/>
-      <c r="S38" s="39"/>
-      <c r="T38" s="39"/>
-    </row>
-    <row r="39" spans="1:20">
-      <c r="A39" s="177" t="s">
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="187" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="177" t="s">
+      <c r="B40" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="180" t="s">
+      <c r="C40" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="177" t="s">
+      <c r="D40" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="183" t="s">
+      <c r="E40" s="192" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="183" t="s">
+      <c r="F40" s="192" t="s">
         <v>197</v>
       </c>
-      <c r="G39" s="177" t="s">
+      <c r="G40" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="177" t="s">
+      <c r="H40" s="187" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="177" t="s">
+      <c r="I40" s="187" t="s">
         <v>216</v>
       </c>
-      <c r="J39" s="181" t="s">
+      <c r="J40" s="190" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="182"/>
-      <c r="L39" s="181" t="s">
+      <c r="K40" s="191"/>
+      <c r="L40" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="182"/>
-      <c r="N39" s="34" t="s">
+      <c r="M40" s="191"/>
+      <c r="N40" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="O39" s="177" t="s">
+      <c r="O40" s="187" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
-      <c r="A40" s="179"/>
-      <c r="B40" s="179"/>
-      <c r="C40" s="179"/>
-      <c r="D40" s="179"/>
-      <c r="E40" s="184"/>
-      <c r="F40" s="189"/>
-      <c r="G40" s="179"/>
-      <c r="H40" s="179"/>
-      <c r="I40" s="178"/>
-      <c r="J40" s="29" t="s">
+    <row r="41" spans="1:20">
+      <c r="A41" s="188"/>
+      <c r="B41" s="188"/>
+      <c r="C41" s="188"/>
+      <c r="D41" s="188"/>
+      <c r="E41" s="193"/>
+      <c r="F41" s="199"/>
+      <c r="G41" s="188"/>
+      <c r="H41" s="188"/>
+      <c r="I41" s="194"/>
+      <c r="J41" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="K40" s="29" t="s">
+      <c r="K41" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="L40" s="29" t="s">
+      <c r="L41" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M40" s="29" t="s">
+      <c r="M41" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="N40" s="29" t="s">
+      <c r="N41" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="179"/>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="A41" s="7">
+      <c r="O41" s="188"/>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="7">
         <v>1</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B42" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D42" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="85" t="s">
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="85" t="s">
         <v>141</v>
       </c>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24" t="s">
+      <c r="H42" s="24"/>
+      <c r="I42" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="J41" s="24">
+      <c r="J42" s="24">
         <v>0</v>
       </c>
-      <c r="K41" s="30">
+      <c r="K42" s="30">
         <v>10</v>
       </c>
-      <c r="L41" s="24"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="9"/>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="A42" s="10">
-        <f t="shared" ref="A42:A47" si="0">A41+1</f>
-        <v>2</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="J42" s="21"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="21">
-        <v>0</v>
-      </c>
-      <c r="M42" s="31">
-        <v>100</v>
-      </c>
-      <c r="N42" s="31"/>
-      <c r="O42" s="12"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="9"/>
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="26" t="b">
-        <v>1</v>
-      </c>
+        <f t="shared" ref="A43:A48" si="0">A42+1</f>
+        <v>2</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="25"/>
       <c r="I43" s="25" t="s">
         <v>141</v>
       </c>
       <c r="J43" s="21"/>
       <c r="K43" s="31"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="31"/>
+      <c r="L43" s="21">
+        <v>0</v>
+      </c>
+      <c r="M43" s="31">
+        <v>100</v>
+      </c>
       <c r="N43" s="31"/>
-      <c r="O43" s="14"/>
+      <c r="O43" s="12"/>
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="10">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44" s="82"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="82"/>
+        <v>107</v>
+      </c>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="26" t="b">
+        <v>1</v>
+      </c>
       <c r="I44" s="25" t="s">
         <v>141</v>
       </c>
@@ -11152,70 +11266,70 @@
     <row r="45" spans="1:20">
       <c r="A45" s="10">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="F45" s="26"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="26"/>
+        <v>109</v>
+      </c>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="88"/>
+      <c r="H45" s="82"/>
       <c r="I45" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="J45" s="25"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="14" t="s">
-        <v>189</v>
-      </c>
+      <c r="J45" s="21"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="14"/>
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="E46" s="26"/>
+        <v>111</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>188</v>
+      </c>
       <c r="F46" s="26"/>
       <c r="G46" s="87"/>
       <c r="H46" s="26"/>
       <c r="I46" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="J46" s="21"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="14"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="14" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="26" t="s">
-        <v>187</v>
+        <v>113</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
@@ -11232,15 +11346,24 @@
       <c r="O47" s="14"/>
     </row>
     <row r="48" spans="1:20">
-      <c r="A48" s="10"/>
-      <c r="B48" s="22"/>
+      <c r="A48" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>115</v>
+      </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="26"/>
+      <c r="D48" s="26" t="s">
+        <v>187</v>
+      </c>
       <c r="E48" s="26"/>
       <c r="F48" s="26"/>
       <c r="G48" s="87"/>
       <c r="H48" s="26"/>
-      <c r="I48" s="25"/>
+      <c r="I48" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J48" s="21"/>
       <c r="K48" s="31"/>
       <c r="L48" s="21"/>
@@ -11258,11 +11381,11 @@
       <c r="G49" s="87"/>
       <c r="H49" s="26"/>
       <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
       <c r="O49" s="14"/>
     </row>
     <row r="50" spans="1:15">
@@ -11275,11 +11398,11 @@
       <c r="G50" s="87"/>
       <c r="H50" s="26"/>
       <c r="I50" s="25"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
       <c r="O50" s="14"/>
     </row>
     <row r="51" spans="1:15">
@@ -11360,11 +11483,11 @@
       <c r="G55" s="87"/>
       <c r="H55" s="26"/>
       <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
       <c r="O55" s="14"/>
     </row>
     <row r="56" spans="1:15">
@@ -11377,11 +11500,11 @@
       <c r="G56" s="87"/>
       <c r="H56" s="26"/>
       <c r="I56" s="25"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="31"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="32"/>
       <c r="O56" s="14"/>
     </row>
     <row r="57" spans="1:15">
@@ -11445,11 +11568,11 @@
       <c r="G60" s="87"/>
       <c r="H60" s="26"/>
       <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="32"/>
-      <c r="N60" s="32"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
       <c r="O60" s="14"/>
     </row>
     <row r="61" spans="1:15">
@@ -11462,11 +11585,11 @@
       <c r="G61" s="87"/>
       <c r="H61" s="26"/>
       <c r="I61" s="25"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="21"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="31"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
       <c r="O61" s="14"/>
     </row>
     <row r="62" spans="1:15">
@@ -11496,71 +11619,88 @@
       <c r="G63" s="87"/>
       <c r="H63" s="26"/>
       <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="32"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="31"/>
       <c r="O63" s="14"/>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="15"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="89"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="23"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="33"/>
-      <c r="O64" s="17"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="87"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="14"/>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="15"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="89"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B34:G34"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A20:G20"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="I40:I41"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>Validate実装パターン</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{8DCE618D-7292-824C-BB89-A7819F622C03}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17:C18" xr:uid="{8DCE618D-7292-824C-BB89-A7819F622C03}">
       <formula1>isImport</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I41:I64" xr:uid="{00E63083-CDBF-F045-B8D5-63F639C95F60}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I42:I65" xr:uid="{00E63083-CDBF-F045-B8D5-63F639C95F60}">
       <formula1>isNullable</formula1>
     </dataValidation>
   </dataValidations>
@@ -11592,7 +11732,7 @@
           <x14:formula1>
             <xm:f>config!$B$5:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G41:G64</xm:sqref>
+          <xm:sqref>G42:G65</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11762,10 +11902,10 @@
         <v>194</v>
       </c>
       <c r="B12" s="123"/>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="163" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="138"/>
+      <c r="D12" s="163"/>
       <c r="E12" s="96" t="s">
         <v>196</v>
       </c>
@@ -11778,10 +11918,10 @@
         <v>197</v>
       </c>
       <c r="B13" s="123"/>
-      <c r="C13" s="138" t="s">
+      <c r="C13" s="163" t="s">
         <v>198</v>
       </c>
-      <c r="D13" s="138"/>
+      <c r="D13" s="163"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="54"/>
@@ -11813,28 +11953,28 @@
       <c r="F15" s="96"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="170" t="s">
+      <c r="A16" s="158" t="s">
         <v>212</v>
       </c>
-      <c r="B16" s="170"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="170"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="164" t="s">
+      <c r="B17" s="152" t="s">
         <v>203</v>
       </c>
-      <c r="C17" s="165"/>
-      <c r="D17" s="165"/>
-      <c r="E17" s="165"/>
-      <c r="F17" s="165"/>
-      <c r="G17" s="166"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="154"/>
       <c r="H17" s="106"/>
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
@@ -11845,12 +11985,12 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="117"/>
-      <c r="B18" s="152"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
+      <c r="B18" s="169"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="169"/>
+      <c r="E18" s="169"/>
+      <c r="F18" s="169"/>
+      <c r="G18" s="169"/>
       <c r="H18" s="113"/>
       <c r="J18" s="113"/>
       <c r="K18" s="113"/>
@@ -11861,12 +12001,12 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="118"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
       <c r="H19" s="113"/>
       <c r="J19" s="113"/>
       <c r="K19" s="113"/>
@@ -11877,12 +12017,12 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="119"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
+      <c r="B20" s="171"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="171"/>
       <c r="H20" s="113"/>
       <c r="I20" s="106"/>
       <c r="J20" s="113"/>
@@ -11897,29 +12037,29 @@
       <c r="I21" s="113"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="167" t="s">
+      <c r="A22" s="155" t="s">
         <v>213</v>
       </c>
-      <c r="B22" s="168"/>
-      <c r="C22" s="168"/>
-      <c r="D22" s="168"/>
-      <c r="E22" s="168"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="169"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="157"/>
       <c r="I22" s="113"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="148" t="s">
+      <c r="B23" s="176" t="s">
         <v>204</v>
       </c>
-      <c r="C23" s="148"/>
-      <c r="D23" s="148"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="148"/>
+      <c r="C23" s="176"/>
+      <c r="D23" s="176"/>
+      <c r="E23" s="176"/>
+      <c r="F23" s="176"/>
+      <c r="G23" s="176"/>
       <c r="H23" s="106"/>
       <c r="I23" s="113"/>
       <c r="J23" s="106"/>
@@ -11933,14 +12073,14 @@
       <c r="A24" s="117">
         <v>1</v>
       </c>
-      <c r="B24" s="149" t="s">
+      <c r="B24" s="177" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="149"/>
-      <c r="D24" s="149"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="149"/>
-      <c r="G24" s="149"/>
+      <c r="C24" s="177"/>
+      <c r="D24" s="177"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="177"/>
       <c r="H24" s="113"/>
       <c r="J24" s="113"/>
       <c r="K24" s="113"/>
@@ -11951,12 +12091,12 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="118"/>
-      <c r="B25" s="150"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
+      <c r="B25" s="178"/>
+      <c r="C25" s="178"/>
+      <c r="D25" s="178"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="178"/>
       <c r="H25" s="113"/>
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
@@ -11967,12 +12107,12 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="119"/>
-      <c r="B26" s="151"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
+      <c r="B26" s="179"/>
+      <c r="C26" s="179"/>
+      <c r="D26" s="179"/>
+      <c r="E26" s="179"/>
+      <c r="F26" s="179"/>
+      <c r="G26" s="179"/>
       <c r="H26" s="113"/>
       <c r="I26" s="106"/>
       <c r="J26" s="113"/>
@@ -11999,29 +12139,29 @@
       <c r="N27"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="167" t="s">
+      <c r="A28" s="155" t="s">
         <v>214</v>
       </c>
-      <c r="B28" s="168"/>
-      <c r="C28" s="168"/>
-      <c r="D28" s="168"/>
-      <c r="E28" s="168"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="169"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="157"/>
       <c r="I28" s="113"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="148" t="s">
+      <c r="B29" s="176" t="s">
         <v>206</v>
       </c>
-      <c r="C29" s="148"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="148"/>
-      <c r="F29" s="148"/>
-      <c r="G29" s="148"/>
+      <c r="C29" s="176"/>
+      <c r="D29" s="176"/>
+      <c r="E29" s="176"/>
+      <c r="F29" s="176"/>
+      <c r="G29" s="176"/>
       <c r="H29" s="106"/>
       <c r="I29" s="113"/>
       <c r="J29" s="106"/>
@@ -12033,12 +12173,12 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="117"/>
-      <c r="B30" s="152"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="152"/>
-      <c r="G30" s="153"/>
+      <c r="B30" s="169"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="169"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="169"/>
+      <c r="G30" s="180"/>
       <c r="H30" s="113"/>
       <c r="I30"/>
       <c r="J30" s="113"/>
@@ -12050,12 +12190,12 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="118"/>
-      <c r="B31" s="154"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="155"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="170"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="181"/>
       <c r="H31" s="113"/>
       <c r="J31" s="113"/>
       <c r="K31" s="113"/>
@@ -12066,12 +12206,12 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="119"/>
-      <c r="B32" s="156"/>
-      <c r="C32" s="156"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="157"/>
+      <c r="B32" s="171"/>
+      <c r="C32" s="171"/>
+      <c r="D32" s="171"/>
+      <c r="E32" s="171"/>
+      <c r="F32" s="171"/>
+      <c r="G32" s="182"/>
       <c r="H32" s="113"/>
       <c r="I32" s="106"/>
       <c r="J32" s="113"/>
@@ -12121,60 +12261,60 @@
       <c r="O35" s="58"/>
     </row>
     <row r="36" spans="1:15" ht="15">
-      <c r="A36" s="183" t="s">
+      <c r="A36" s="192" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="183" t="s">
+      <c r="B36" s="192" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="183" t="s">
+      <c r="D36" s="192" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="183" t="s">
+      <c r="E36" s="192" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="183" t="s">
+      <c r="F36" s="192" t="s">
         <v>197</v>
       </c>
-      <c r="G36" s="183" t="s">
+      <c r="G36" s="192" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="183" t="s">
+      <c r="H36" s="192" t="s">
         <v>139</v>
       </c>
-      <c r="I36" s="177" t="s">
+      <c r="I36" s="187" t="s">
         <v>216</v>
       </c>
-      <c r="J36" s="185" t="s">
+      <c r="J36" s="196" t="s">
         <v>122</v>
       </c>
-      <c r="K36" s="186"/>
-      <c r="L36" s="187" t="s">
+      <c r="K36" s="197"/>
+      <c r="L36" s="198" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="186"/>
+      <c r="M36" s="197"/>
       <c r="N36" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="O36" s="183" t="s">
+      <c r="O36" s="192" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15">
-      <c r="A37" s="188"/>
-      <c r="B37" s="188"/>
+      <c r="A37" s="195"/>
+      <c r="B37" s="195"/>
       <c r="C37" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="188"/>
-      <c r="E37" s="184"/>
-      <c r="F37" s="189"/>
-      <c r="G37" s="188"/>
-      <c r="H37" s="188"/>
-      <c r="I37" s="178"/>
+      <c r="D37" s="195"/>
+      <c r="E37" s="193"/>
+      <c r="F37" s="199"/>
+      <c r="G37" s="195"/>
+      <c r="H37" s="195"/>
+      <c r="I37" s="194"/>
       <c r="J37" s="62" t="s">
         <v>126</v>
       </c>
@@ -12190,7 +12330,7 @@
       <c r="N37" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="O37" s="188"/>
+      <c r="O37" s="195"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="64">
@@ -12666,6 +12806,23 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="A36:A37"/>
@@ -12677,23 +12834,6 @@
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="I36:I37"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="B29:G29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -12739,10 +12879,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T64"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41:I47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -12940,10 +13080,10 @@
         <v>194</v>
       </c>
       <c r="B15" s="123"/>
-      <c r="C15" s="138" t="s">
+      <c r="C15" s="163" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="138"/>
+      <c r="D15" s="163"/>
       <c r="E15" s="96" t="s">
         <v>196</v>
       </c>
@@ -12954,10 +13094,10 @@
         <v>197</v>
       </c>
       <c r="B16" s="123"/>
-      <c r="C16" s="138" t="s">
+      <c r="C16" s="163" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="138"/>
+      <c r="D16" s="163"/>
       <c r="E16" s="55"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -12985,66 +13125,69 @@
       <c r="M17"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="6"/>
-      <c r="C18" s="28"/>
+      <c r="A18" s="124" t="s">
+        <v>233</v>
+      </c>
+      <c r="B18" s="125"/>
+      <c r="C18" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" t="s">
+        <v>234</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="170" t="s">
+      <c r="A19" s="6"/>
+      <c r="C19" s="28"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="158" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="170"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="116" t="s">
+      <c r="B20" s="158"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="164" t="s">
+      <c r="B21" s="152" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="165"/>
-      <c r="D20" s="165"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="165"/>
-      <c r="G20" s="166"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
-      <c r="O20" s="112"/>
-      <c r="P20" s="112"/>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="117"/>
-      <c r="B21" s="152"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="152"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="113"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
+      <c r="C21" s="153"/>
+      <c r="D21" s="153"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="106"/>
+      <c r="M21" s="106"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="112"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="118"/>
-      <c r="B22" s="154"/>
-      <c r="C22" s="154"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="154"/>
+      <c r="A22" s="117"/>
+      <c r="B22" s="169"/>
+      <c r="C22" s="169"/>
+      <c r="D22" s="169"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="169"/>
+      <c r="G22" s="169"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
       <c r="J22" s="113"/>
@@ -13055,13 +13198,13 @@
       <c r="P22"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="119"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
+      <c r="A23" s="118"/>
+      <c r="B23" s="170"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="170"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
       <c r="J23" s="113"/>
@@ -13072,69 +13215,69 @@
       <c r="P23"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="C24"/>
+      <c r="A24" s="119"/>
+      <c r="B24" s="171"/>
+      <c r="C24" s="171"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="171"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="113"/>
+      <c r="L24" s="113"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="167" t="s">
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="155" t="s">
         <v>213</v>
       </c>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="168"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="169"/>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="116" t="s">
+      <c r="B26" s="156"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="157"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="148" t="s">
+      <c r="B27" s="176" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="148"/>
-      <c r="D26" s="148"/>
-      <c r="E26" s="148"/>
-      <c r="F26" s="148"/>
-      <c r="G26" s="148"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="106"/>
-      <c r="M26" s="106"/>
-      <c r="O26" s="112"/>
-      <c r="P26" s="112"/>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="117">
+      <c r="C27" s="176"/>
+      <c r="D27" s="176"/>
+      <c r="E27" s="176"/>
+      <c r="F27" s="176"/>
+      <c r="G27" s="176"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="106"/>
+      <c r="M27" s="106"/>
+      <c r="O27" s="112"/>
+      <c r="P27" s="112"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="117">
         <v>1</v>
       </c>
-      <c r="B27" s="149" t="s">
+      <c r="B28" s="177" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="149"/>
-      <c r="D27" s="149"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="113"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="113"/>
-      <c r="L27" s="113"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="118"/>
-      <c r="B28" s="150"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
+      <c r="C28" s="177"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="177"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -13145,13 +13288,13 @@
       <c r="P28"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="119"/>
-      <c r="B29" s="151"/>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
+      <c r="A29" s="118"/>
+      <c r="B29" s="178"/>
+      <c r="C29" s="178"/>
+      <c r="D29" s="178"/>
+      <c r="E29" s="178"/>
+      <c r="F29" s="178"/>
+      <c r="G29" s="178"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
       <c r="J29" s="113"/>
@@ -13162,78 +13305,78 @@
       <c r="P29"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
+      <c r="A30" s="119"/>
+      <c r="B30" s="179"/>
+      <c r="C30" s="179"/>
+      <c r="D30" s="179"/>
+      <c r="E30" s="179"/>
+      <c r="F30" s="179"/>
+      <c r="G30" s="179"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="113"/>
       <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="167" t="s">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="155" t="s">
         <v>214</v>
       </c>
-      <c r="B31" s="168"/>
-      <c r="C31" s="168"/>
-      <c r="D31" s="168"/>
-      <c r="E31" s="168"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="169"/>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="116" t="s">
+      <c r="B32" s="156"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="157"/>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="148" t="s">
+      <c r="B33" s="176" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="148"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="148"/>
-      <c r="F32" s="148"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="106"/>
-      <c r="L32" s="106"/>
-      <c r="M32" s="106"/>
-      <c r="O32" s="112"/>
-      <c r="P32" s="112"/>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" s="117"/>
-      <c r="B33" s="152"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="152"/>
-      <c r="E33" s="152"/>
-      <c r="F33" s="152"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="113"/>
-      <c r="K33" s="113"/>
-      <c r="L33" s="113"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
+      <c r="C33" s="176"/>
+      <c r="D33" s="176"/>
+      <c r="E33" s="176"/>
+      <c r="F33" s="176"/>
+      <c r="G33" s="176"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="106"/>
+      <c r="L33" s="106"/>
+      <c r="M33" s="106"/>
+      <c r="O33" s="112"/>
+      <c r="P33" s="112"/>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" s="118"/>
-      <c r="B34" s="154"/>
-      <c r="C34" s="154"/>
-      <c r="D34" s="154"/>
-      <c r="E34" s="154"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="155"/>
+      <c r="A34" s="117"/>
+      <c r="B34" s="169"/>
+      <c r="C34" s="169"/>
+      <c r="D34" s="169"/>
+      <c r="E34" s="169"/>
+      <c r="F34" s="169"/>
+      <c r="G34" s="180"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -13244,13 +13387,13 @@
       <c r="P34"/>
     </row>
     <row r="35" spans="1:20">
-      <c r="A35" s="119"/>
-      <c r="B35" s="156"/>
-      <c r="C35" s="156"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="157"/>
+      <c r="A35" s="118"/>
+      <c r="B35" s="170"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="170"/>
+      <c r="E35" s="170"/>
+      <c r="F35" s="170"/>
+      <c r="G35" s="181"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -13261,229 +13404,220 @@
       <c r="P35"/>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
+      <c r="A36" s="119"/>
+      <c r="B36" s="171"/>
+      <c r="C36" s="171"/>
+      <c r="D36" s="171"/>
+      <c r="E36" s="171"/>
+      <c r="F36" s="171"/>
+      <c r="G36" s="182"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="113"/>
+      <c r="L36" s="113"/>
       <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
     </row>
     <row r="37" spans="1:20">
-      <c r="A37" s="6"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="96"/>
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
     </row>
     <row r="38" spans="1:20">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="6"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="96"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="55"/>
-      <c r="S38" s="39"/>
-      <c r="T38" s="39"/>
-    </row>
-    <row r="39" spans="1:20">
-      <c r="A39" s="177" t="s">
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="187" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="177" t="s">
+      <c r="B40" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="180" t="s">
+      <c r="C40" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="177" t="s">
+      <c r="D40" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="183" t="s">
+      <c r="E40" s="192" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="183" t="s">
+      <c r="F40" s="192" t="s">
         <v>197</v>
       </c>
-      <c r="G39" s="177" t="s">
+      <c r="G40" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="177" t="s">
+      <c r="H40" s="187" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="177" t="s">
+      <c r="I40" s="187" t="s">
         <v>216</v>
       </c>
-      <c r="J39" s="181" t="s">
+      <c r="J40" s="190" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="182"/>
-      <c r="L39" s="181" t="s">
+      <c r="K40" s="191"/>
+      <c r="L40" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="182"/>
-      <c r="N39" s="34" t="s">
+      <c r="M40" s="191"/>
+      <c r="N40" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="O39" s="177" t="s">
+      <c r="O40" s="187" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
-      <c r="A40" s="179"/>
-      <c r="B40" s="179"/>
-      <c r="C40" s="179"/>
-      <c r="D40" s="179"/>
-      <c r="E40" s="184"/>
-      <c r="F40" s="189"/>
-      <c r="G40" s="179"/>
-      <c r="H40" s="179"/>
-      <c r="I40" s="178"/>
-      <c r="J40" s="29" t="s">
+    <row r="41" spans="1:20">
+      <c r="A41" s="188"/>
+      <c r="B41" s="188"/>
+      <c r="C41" s="188"/>
+      <c r="D41" s="188"/>
+      <c r="E41" s="193"/>
+      <c r="F41" s="199"/>
+      <c r="G41" s="188"/>
+      <c r="H41" s="188"/>
+      <c r="I41" s="194"/>
+      <c r="J41" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="K40" s="29" t="s">
+      <c r="K41" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="L40" s="29" t="s">
+      <c r="L41" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M40" s="29" t="s">
+      <c r="M41" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="N40" s="29" t="s">
+      <c r="N41" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="179"/>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="A41" s="7">
+      <c r="O41" s="188"/>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="7">
         <v>1</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B42" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D42" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="85" t="s">
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="85" t="s">
         <v>141</v>
       </c>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24" t="s">
+      <c r="H42" s="24"/>
+      <c r="I42" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="J41" s="24">
+      <c r="J42" s="24">
         <v>0</v>
       </c>
-      <c r="K41" s="30">
+      <c r="K42" s="30">
         <v>10</v>
       </c>
-      <c r="L41" s="24"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="9"/>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="A42" s="10">
-        <f t="shared" ref="A42:A47" si="0">A41+1</f>
-        <v>2</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="J42" s="21"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="21">
-        <v>0</v>
-      </c>
-      <c r="M42" s="31">
-        <v>100</v>
-      </c>
-      <c r="N42" s="31"/>
-      <c r="O42" s="12"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="9"/>
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="26" t="b">
-        <v>1</v>
-      </c>
+        <f t="shared" ref="A43:A48" si="0">A42+1</f>
+        <v>2</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="25"/>
       <c r="I43" s="25" t="s">
         <v>141</v>
       </c>
       <c r="J43" s="21"/>
       <c r="K43" s="31"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="31"/>
+      <c r="L43" s="21">
+        <v>0</v>
+      </c>
+      <c r="M43" s="31">
+        <v>100</v>
+      </c>
       <c r="N43" s="31"/>
-      <c r="O43" s="14"/>
+      <c r="O43" s="12"/>
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="10">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44" s="82"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="82"/>
+        <v>107</v>
+      </c>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="26" t="b">
+        <v>1</v>
+      </c>
       <c r="I44" s="25" t="s">
         <v>141</v>
       </c>
@@ -13497,70 +13631,70 @@
     <row r="45" spans="1:20">
       <c r="A45" s="10">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F45" s="26"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="26"/>
+        <v>109</v>
+      </c>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="88"/>
+      <c r="H45" s="82"/>
       <c r="I45" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="J45" s="25"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="14" t="s">
-        <v>193</v>
-      </c>
+      <c r="J45" s="21"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="14"/>
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="E46" s="26"/>
+        <v>111</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>190</v>
+      </c>
       <c r="F46" s="26"/>
       <c r="G46" s="87"/>
       <c r="H46" s="26"/>
       <c r="I46" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="J46" s="21"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="14"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="14" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="26" t="s">
-        <v>192</v>
+        <v>113</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
@@ -13577,15 +13711,24 @@
       <c r="O47" s="14"/>
     </row>
     <row r="48" spans="1:20">
-      <c r="A48" s="10"/>
-      <c r="B48" s="22"/>
+      <c r="A48" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>115</v>
+      </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="26"/>
+      <c r="D48" s="26" t="s">
+        <v>192</v>
+      </c>
       <c r="E48" s="26"/>
       <c r="F48" s="26"/>
       <c r="G48" s="87"/>
       <c r="H48" s="26"/>
-      <c r="I48" s="25"/>
+      <c r="I48" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J48" s="21"/>
       <c r="K48" s="31"/>
       <c r="L48" s="21"/>
@@ -13603,11 +13746,11 @@
       <c r="G49" s="87"/>
       <c r="H49" s="26"/>
       <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
       <c r="O49" s="14"/>
     </row>
     <row r="50" spans="1:15">
@@ -13620,11 +13763,11 @@
       <c r="G50" s="87"/>
       <c r="H50" s="26"/>
       <c r="I50" s="25"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
       <c r="O50" s="14"/>
     </row>
     <row r="51" spans="1:15">
@@ -13705,11 +13848,11 @@
       <c r="G55" s="87"/>
       <c r="H55" s="26"/>
       <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
       <c r="O55" s="14"/>
     </row>
     <row r="56" spans="1:15">
@@ -13722,11 +13865,11 @@
       <c r="G56" s="87"/>
       <c r="H56" s="26"/>
       <c r="I56" s="25"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="31"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="32"/>
       <c r="O56" s="14"/>
     </row>
     <row r="57" spans="1:15">
@@ -13790,11 +13933,11 @@
       <c r="G60" s="87"/>
       <c r="H60" s="26"/>
       <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="32"/>
-      <c r="N60" s="32"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
       <c r="O60" s="14"/>
     </row>
     <row r="61" spans="1:15">
@@ -13807,11 +13950,11 @@
       <c r="G61" s="87"/>
       <c r="H61" s="26"/>
       <c r="I61" s="25"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="21"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="31"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
       <c r="O61" s="14"/>
     </row>
     <row r="62" spans="1:15">
@@ -13841,71 +13984,88 @@
       <c r="G63" s="87"/>
       <c r="H63" s="26"/>
       <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="32"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="31"/>
       <c r="O63" s="14"/>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="15"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="89"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="23"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="33"/>
-      <c r="O64" s="17"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="87"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="14"/>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="15"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="89"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B34:G34"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A20:G20"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="I40:I41"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>Validate実装パターン</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{D042724C-04C8-7543-B320-3FB3C90CDDBD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17:C18" xr:uid="{D042724C-04C8-7543-B320-3FB3C90CDDBD}">
       <formula1>isImport</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I41:I64" xr:uid="{CFBE0A6C-B335-C941-AC9E-5384782A27DC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I42:I65" xr:uid="{CFBE0A6C-B335-C941-AC9E-5384782A27DC}">
       <formula1>isNullable</formula1>
     </dataValidation>
   </dataValidations>
@@ -13937,7 +14097,7 @@
           <x14:formula1>
             <xm:f>config!$B$5:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G41:G64</xm:sqref>
+          <xm:sqref>G42:G65</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -14107,10 +14267,10 @@
         <v>194</v>
       </c>
       <c r="B12" s="123"/>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="163" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="138"/>
+      <c r="D12" s="163"/>
       <c r="E12" s="96" t="s">
         <v>196</v>
       </c>
@@ -14123,10 +14283,10 @@
         <v>197</v>
       </c>
       <c r="B13" s="123"/>
-      <c r="C13" s="138" t="s">
+      <c r="C13" s="163" t="s">
         <v>198</v>
       </c>
-      <c r="D13" s="138"/>
+      <c r="D13" s="163"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="54"/>
@@ -14158,28 +14318,28 @@
       <c r="F15" s="96"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="170" t="s">
+      <c r="A16" s="158" t="s">
         <v>212</v>
       </c>
-      <c r="B16" s="170"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="170"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="164" t="s">
+      <c r="B17" s="152" t="s">
         <v>203</v>
       </c>
-      <c r="C17" s="165"/>
-      <c r="D17" s="165"/>
-      <c r="E17" s="165"/>
-      <c r="F17" s="165"/>
-      <c r="G17" s="166"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="154"/>
       <c r="H17" s="106"/>
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
@@ -14190,12 +14350,12 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="117"/>
-      <c r="B18" s="152"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
+      <c r="B18" s="169"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="169"/>
+      <c r="E18" s="169"/>
+      <c r="F18" s="169"/>
+      <c r="G18" s="169"/>
       <c r="H18" s="113"/>
       <c r="J18" s="113"/>
       <c r="K18" s="113"/>
@@ -14206,12 +14366,12 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="118"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
       <c r="H19" s="113"/>
       <c r="J19" s="113"/>
       <c r="K19" s="113"/>
@@ -14222,12 +14382,12 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="119"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
+      <c r="B20" s="171"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="171"/>
       <c r="H20" s="113"/>
       <c r="I20" s="106"/>
       <c r="J20" s="113"/>
@@ -14242,29 +14402,29 @@
       <c r="I21" s="113"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="167" t="s">
+      <c r="A22" s="155" t="s">
         <v>213</v>
       </c>
-      <c r="B22" s="168"/>
-      <c r="C22" s="168"/>
-      <c r="D22" s="168"/>
-      <c r="E22" s="168"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="169"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="157"/>
       <c r="I22" s="113"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="148" t="s">
+      <c r="B23" s="176" t="s">
         <v>204</v>
       </c>
-      <c r="C23" s="148"/>
-      <c r="D23" s="148"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="148"/>
+      <c r="C23" s="176"/>
+      <c r="D23" s="176"/>
+      <c r="E23" s="176"/>
+      <c r="F23" s="176"/>
+      <c r="G23" s="176"/>
       <c r="H23" s="106"/>
       <c r="I23" s="113"/>
       <c r="J23" s="106"/>
@@ -14278,14 +14438,14 @@
       <c r="A24" s="117">
         <v>1</v>
       </c>
-      <c r="B24" s="149" t="s">
+      <c r="B24" s="177" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="149"/>
-      <c r="D24" s="149"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="149"/>
-      <c r="G24" s="149"/>
+      <c r="C24" s="177"/>
+      <c r="D24" s="177"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="177"/>
       <c r="H24" s="113"/>
       <c r="J24" s="113"/>
       <c r="K24" s="113"/>
@@ -14296,12 +14456,12 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="118"/>
-      <c r="B25" s="150"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
+      <c r="B25" s="178"/>
+      <c r="C25" s="178"/>
+      <c r="D25" s="178"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="178"/>
       <c r="H25" s="113"/>
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
@@ -14312,12 +14472,12 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="119"/>
-      <c r="B26" s="151"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
+      <c r="B26" s="179"/>
+      <c r="C26" s="179"/>
+      <c r="D26" s="179"/>
+      <c r="E26" s="179"/>
+      <c r="F26" s="179"/>
+      <c r="G26" s="179"/>
       <c r="H26" s="113"/>
       <c r="I26" s="106"/>
       <c r="J26" s="113"/>
@@ -14344,29 +14504,29 @@
       <c r="N27"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="167" t="s">
+      <c r="A28" s="155" t="s">
         <v>214</v>
       </c>
-      <c r="B28" s="168"/>
-      <c r="C28" s="168"/>
-      <c r="D28" s="168"/>
-      <c r="E28" s="168"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="169"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="157"/>
       <c r="I28" s="113"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="148" t="s">
+      <c r="B29" s="176" t="s">
         <v>206</v>
       </c>
-      <c r="C29" s="148"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="148"/>
-      <c r="F29" s="148"/>
-      <c r="G29" s="148"/>
+      <c r="C29" s="176"/>
+      <c r="D29" s="176"/>
+      <c r="E29" s="176"/>
+      <c r="F29" s="176"/>
+      <c r="G29" s="176"/>
       <c r="H29" s="106"/>
       <c r="I29" s="113"/>
       <c r="J29" s="106"/>
@@ -14378,12 +14538,12 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="117"/>
-      <c r="B30" s="152"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="152"/>
-      <c r="G30" s="153"/>
+      <c r="B30" s="169"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="169"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="169"/>
+      <c r="G30" s="180"/>
       <c r="H30" s="113"/>
       <c r="I30"/>
       <c r="J30" s="113"/>
@@ -14395,12 +14555,12 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="118"/>
-      <c r="B31" s="154"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="155"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="170"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="181"/>
       <c r="H31" s="113"/>
       <c r="J31" s="113"/>
       <c r="K31" s="113"/>
@@ -14411,12 +14571,12 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="119"/>
-      <c r="B32" s="156"/>
-      <c r="C32" s="156"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="157"/>
+      <c r="B32" s="171"/>
+      <c r="C32" s="171"/>
+      <c r="D32" s="171"/>
+      <c r="E32" s="171"/>
+      <c r="F32" s="171"/>
+      <c r="G32" s="182"/>
       <c r="H32" s="113"/>
       <c r="I32" s="106"/>
       <c r="J32" s="113"/>
@@ -14466,60 +14626,60 @@
       <c r="O35" s="58"/>
     </row>
     <row r="36" spans="1:15" ht="15">
-      <c r="A36" s="183" t="s">
+      <c r="A36" s="192" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="183" t="s">
+      <c r="B36" s="192" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="183" t="s">
+      <c r="D36" s="192" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="183" t="s">
+      <c r="E36" s="192" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="183" t="s">
+      <c r="F36" s="192" t="s">
         <v>197</v>
       </c>
-      <c r="G36" s="183" t="s">
+      <c r="G36" s="192" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="183" t="s">
+      <c r="H36" s="192" t="s">
         <v>139</v>
       </c>
-      <c r="I36" s="177" t="s">
+      <c r="I36" s="187" t="s">
         <v>216</v>
       </c>
-      <c r="J36" s="185" t="s">
+      <c r="J36" s="196" t="s">
         <v>122</v>
       </c>
-      <c r="K36" s="186"/>
-      <c r="L36" s="187" t="s">
+      <c r="K36" s="197"/>
+      <c r="L36" s="198" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="186"/>
+      <c r="M36" s="197"/>
       <c r="N36" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="O36" s="183" t="s">
+      <c r="O36" s="192" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15">
-      <c r="A37" s="188"/>
-      <c r="B37" s="188"/>
+      <c r="A37" s="195"/>
+      <c r="B37" s="195"/>
       <c r="C37" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="188"/>
-      <c r="E37" s="184"/>
-      <c r="F37" s="189"/>
-      <c r="G37" s="188"/>
-      <c r="H37" s="188"/>
-      <c r="I37" s="178"/>
+      <c r="D37" s="195"/>
+      <c r="E37" s="193"/>
+      <c r="F37" s="199"/>
+      <c r="G37" s="195"/>
+      <c r="H37" s="195"/>
+      <c r="I37" s="194"/>
       <c r="J37" s="62" t="s">
         <v>126</v>
       </c>
@@ -14535,7 +14695,7 @@
       <c r="N37" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="O37" s="188"/>
+      <c r="O37" s="195"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="64"/>
@@ -14947,6 +15107,24 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="A36:A37"/>
@@ -14957,24 +15135,6 @@
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="I36:I37"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="B29:G29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">

--- a/meta/api/BlancoApiSample.xlsx
+++ b/meta/api/BlancoApiSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/vscode/blanco/blancoRestGeneratorKt/meta/api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826A9A8E-3EC4-CC46-BC68-25C648B6E5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB3BEB2-642A-0B4D-AFC2-F25AF913F7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="500" windowWidth="29440" windowHeight="20500" tabRatio="860" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2440" yWindow="1280" windowWidth="29440" windowHeight="21600" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
@@ -2405,12 +2405,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>@io.micronaut.context.annotation.Requirements(
-    io.micronaut.context.annotation.Requires(property = "api-type", value = "sp"),
-)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>エラー電文(S→C)</t>
     <rPh sb="3" eb="5">
       <t>デンブン</t>
@@ -2633,6 +2627,12 @@
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ツイカ </t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>@io.micronaut.context.annotation.Requirements(
+    io.micronaut.context.annotation.Requires(property = "api-type", value = "sp")
+)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4524,8 +4524,8 @@
   </sheetPr>
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45:C47"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -4672,7 +4672,7 @@
       <c r="B14" s="137"/>
       <c r="C14" s="137"/>
       <c r="D14" s="175" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="E14" s="154"/>
     </row>
@@ -5619,7 +5619,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D8" s="34"/>
     </row>
@@ -5635,39 +5635,39 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="130" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="130" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="46"/>
       <c r="D12" s="33"/>
       <c r="E12" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -6070,7 +6070,7 @@
         <v>116</v>
       </c>
       <c r="I39" s="184" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J39" s="188" t="s">
         <v>122</v>
@@ -6121,10 +6121,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C41" s="57" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D41" s="58" t="s">
         <v>102</v>
@@ -6146,10 +6146,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C42" s="57" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D42" s="58" t="s">
         <v>103</v>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D8" s="34"/>
     </row>
@@ -6717,39 +6717,39 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="130" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="130" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="46"/>
       <c r="D12" s="33"/>
       <c r="E12" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -7152,7 +7152,7 @@
         <v>116</v>
       </c>
       <c r="I39" s="184" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J39" s="188" t="s">
         <v>122</v>
@@ -7203,10 +7203,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C41" s="57" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D41" s="58" t="s">
         <v>102</v>
@@ -7228,10 +7228,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C42" s="57" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D42" s="58" t="s">
         <v>103</v>
@@ -7696,7 +7696,7 @@
   </sheetPr>
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1:J1048576"/>
     </sheetView>
   </sheetViews>
@@ -7824,13 +7824,13 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="46"/>
       <c r="D13" s="33"/>
       <c r="E13" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -8250,7 +8250,7 @@
     <row r="40" spans="1:18">
       <c r="A40" s="6"/>
       <c r="J40" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -8300,10 +8300,10 @@
         <v>116</v>
       </c>
       <c r="I42" s="179" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J42" s="179" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K42" s="193" t="s">
         <v>216</v>
@@ -8372,7 +8372,7 @@
       </c>
       <c r="H44" s="23"/>
       <c r="I44" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J44" s="123" t="s">
         <v>225</v>
@@ -9095,13 +9095,13 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="46"/>
       <c r="D10" s="33"/>
       <c r="E10" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -9517,7 +9517,7 @@
         <v>139</v>
       </c>
       <c r="I37" s="184" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J37" s="179" t="s">
         <v>216</v>
@@ -10165,7 +10165,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D8" s="34"/>
     </row>
@@ -10181,39 +10181,39 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="130" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="130" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="46"/>
       <c r="D12" s="33"/>
       <c r="E12" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -10629,7 +10629,7 @@
         <v>116</v>
       </c>
       <c r="I39" s="192" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J39" s="179" t="s">
         <v>216</v>
@@ -10684,10 +10684,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C41" s="57" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D41" s="58" t="s">
         <v>102</v>
@@ -10712,10 +10712,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C42" s="57" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D42" s="58" t="s">
         <v>103</v>
@@ -11600,7 +11600,7 @@
         <v>229</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>230</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -11644,12 +11644,12 @@
         <v>228</v>
       </c>
       <c r="H6" s="42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="11" t="s">
@@ -11660,7 +11660,7 @@
       </c>
       <c r="G7" s="129"/>
       <c r="H7" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -11822,13 +11822,13 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="46"/>
       <c r="D13" s="33"/>
       <c r="E13" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -12248,7 +12248,7 @@
     <row r="40" spans="1:18">
       <c r="A40" s="6"/>
       <c r="J40" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -12298,10 +12298,10 @@
         <v>116</v>
       </c>
       <c r="I42" s="179" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J42" s="179" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K42" s="179" t="s">
         <v>216</v>
@@ -12368,7 +12368,7 @@
       <c r="G44" s="75"/>
       <c r="H44" s="23"/>
       <c r="I44" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J44" s="123" t="s">
         <v>225</v>
@@ -13088,13 +13088,13 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="46"/>
       <c r="D10" s="33"/>
       <c r="E10" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -13510,7 +13510,7 @@
         <v>116</v>
       </c>
       <c r="I37" s="184" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J37" s="179" t="s">
         <v>216</v>
@@ -14220,7 +14220,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D8" s="34"/>
     </row>
@@ -14236,39 +14236,39 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="130" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="130" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="46"/>
       <c r="D12" s="33"/>
       <c r="E12" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -14684,7 +14684,7 @@
         <v>116</v>
       </c>
       <c r="I39" s="192" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J39" s="179" t="s">
         <v>216</v>
@@ -14739,10 +14739,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C41" s="57" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D41" s="58" t="s">
         <v>102</v>
@@ -14767,10 +14767,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C42" s="57" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D42" s="58" t="s">
         <v>103</v>
@@ -15265,7 +15265,7 @@
   <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J42" sqref="J42:J43"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -15392,13 +15392,13 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="46"/>
       <c r="D13" s="33"/>
       <c r="E13" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -15487,14 +15487,14 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="113" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B20" s="114"/>
       <c r="C20" s="90" t="s">
+        <v>265</v>
+      </c>
+      <c r="D20" t="s">
         <v>266</v>
-      </c>
-      <c r="D20" t="s">
-        <v>267</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
@@ -15829,7 +15829,7 @@
     <row r="40" spans="1:18">
       <c r="A40" s="6"/>
       <c r="J40" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -15879,10 +15879,10 @@
         <v>116</v>
       </c>
       <c r="I42" s="179" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J42" s="193" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K42" s="179" t="s">
         <v>216</v>
@@ -15951,7 +15951,7 @@
       </c>
       <c r="H44" s="23"/>
       <c r="I44" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J44" s="123" t="s">
         <v>225</v>
@@ -16674,13 +16674,13 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="46"/>
       <c r="D10" s="33"/>
       <c r="E10" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -17096,7 +17096,7 @@
         <v>116</v>
       </c>
       <c r="I37" s="184" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J37" s="179" t="s">
         <v>216</v>
@@ -17808,7 +17808,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D8" s="34"/>
     </row>
@@ -17824,37 +17824,37 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="130"/>
       <c r="D10" s="33"/>
       <c r="E10" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="130" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="46"/>
       <c r="D12" s="33"/>
       <c r="E12" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -18270,7 +18270,7 @@
         <v>116</v>
       </c>
       <c r="I39" s="184" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J39" s="179" t="s">
         <v>216</v>
@@ -18325,10 +18325,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C41" s="57" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D41" s="58" t="s">
         <v>102</v>
@@ -18353,10 +18353,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C42" s="57" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D42" s="58" t="s">
         <v>103</v>
@@ -18850,7 +18850,7 @@
   </sheetPr>
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -18978,13 +18978,13 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="46"/>
       <c r="D13" s="33"/>
       <c r="E13" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -19071,14 +19071,14 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="113" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B20" s="114"/>
       <c r="C20" s="90" t="s">
+        <v>265</v>
+      </c>
+      <c r="D20" t="s">
         <v>266</v>
-      </c>
-      <c r="D20" t="s">
-        <v>267</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
@@ -19415,7 +19415,7 @@
     <row r="40" spans="1:18">
       <c r="A40" s="6"/>
       <c r="J40" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -19465,10 +19465,10 @@
         <v>116</v>
       </c>
       <c r="I42" s="179" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J42" s="193" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K42" s="179" t="s">
         <v>216</v>
@@ -19537,7 +19537,7 @@
       </c>
       <c r="H44" s="23"/>
       <c r="I44" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J44" s="123" t="s">
         <v>225</v>
@@ -20259,13 +20259,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="46"/>
       <c r="D10" s="33"/>
       <c r="E10" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -20668,7 +20668,7 @@
         <v>139</v>
       </c>
       <c r="I37" s="184" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J37" s="188" t="s">
         <v>122</v>

--- a/meta/api/BlancoApiSample.xlsx
+++ b/meta/api/BlancoApiSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/vscode/blanco/blancoRestGeneratorKt/meta/api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB3BEB2-642A-0B4D-AFC2-F25AF913F7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89F724C-83FF-7C49-87BC-1F676D5E5C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="1280" windowWidth="29440" windowHeight="21600" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2440" yWindow="1280" windowWidth="29440" windowHeight="21600" tabRatio="860" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="270">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -4524,8 +4524,8 @@
   </sheetPr>
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -7696,8 +7696,8 @@
   </sheetPr>
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -8377,9 +8377,7 @@
       <c r="J44" s="123" t="s">
         <v>225</v>
       </c>
-      <c r="K44" s="23" t="s">
-        <v>141</v>
-      </c>
+      <c r="K44" s="23"/>
       <c r="L44" s="23">
         <v>0</v>
       </c>
@@ -11694,7 +11692,7 @@
   <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1048576"/>
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -12365,7 +12363,9 @@
       </c>
       <c r="E44" s="23"/>
       <c r="F44" s="131"/>
-      <c r="G44" s="75"/>
+      <c r="G44" s="75" t="s">
+        <v>141</v>
+      </c>
       <c r="H44" s="23"/>
       <c r="I44" s="23" t="s">
         <v>257</v>
@@ -12373,9 +12373,7 @@
       <c r="J44" s="123" t="s">
         <v>225</v>
       </c>
-      <c r="K44" s="23" t="s">
-        <v>141</v>
-      </c>
+      <c r="K44" s="23"/>
       <c r="L44" s="23">
         <v>0</v>
       </c>
@@ -15265,7 +15263,7 @@
   <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -15956,9 +15954,7 @@
       <c r="J44" s="123" t="s">
         <v>225</v>
       </c>
-      <c r="K44" s="23" t="s">
-        <v>141</v>
-      </c>
+      <c r="K44" s="23"/>
       <c r="L44" s="23">
         <v>0</v>
       </c>
@@ -18851,7 +18847,7 @@
   <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -19542,9 +19538,7 @@
       <c r="J44" s="123" t="s">
         <v>225</v>
       </c>
-      <c r="K44" s="23" t="s">
-        <v>141</v>
-      </c>
+      <c r="K44" s="23"/>
       <c r="L44" s="23">
         <v>0</v>
       </c>

--- a/meta/api/BlancoApiSample.xlsx
+++ b/meta/api/BlancoApiSample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/vscode/blanco/blancoRestGeneratorKt/meta/api/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89F724C-83FF-7C49-87BC-1F676D5E5C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BFD307-1BEB-ED41-97EF-3699222E88B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="1280" windowWidth="29440" windowHeight="21600" tabRatio="860" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2440" yWindow="500" windowWidth="29440" windowHeight="20500" tabRatio="860" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="270">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -3794,10 +3794,88 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3809,9 +3887,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3820,12 +3895,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3857,12 +3926,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3872,70 +3935,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3954,12 +3957,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3969,10 +3966,13 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4568,154 +4568,154 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="165" t="s">
+      <c r="A5" s="132" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="165"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="165"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="176" t="s">
+      <c r="A6" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="177"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="174" t="s">
+      <c r="B6" s="139"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="133" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="174"/>
+      <c r="E6" s="133"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="165" t="s">
+      <c r="A7" s="132" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="165"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="174" t="s">
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="133" t="s">
         <v>175</v>
       </c>
-      <c r="E7" s="174"/>
+      <c r="E7" s="133"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="165" t="s">
+      <c r="A8" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="165"/>
-      <c r="C8" s="165"/>
-      <c r="D8" s="174" t="s">
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="133" t="s">
         <v>165</v>
       </c>
-      <c r="E8" s="174"/>
+      <c r="E8" s="133"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="165" t="s">
+      <c r="A9" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="165"/>
-      <c r="C9" s="165"/>
-      <c r="D9" s="174" t="s">
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="133" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="174"/>
+      <c r="E9" s="133"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="165" t="s">
+      <c r="A10" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="165"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="174"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="165" t="s">
+      <c r="A11" s="132" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="165"/>
-      <c r="C11" s="165"/>
-      <c r="D11" s="174" t="s">
+      <c r="B11" s="132"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="133" t="s">
         <v>167</v>
       </c>
-      <c r="E11" s="174"/>
+      <c r="E11" s="133"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="137" t="s">
+      <c r="A12" s="134" t="s">
         <v>194</v>
       </c>
-      <c r="B12" s="137"/>
-      <c r="C12" s="137"/>
-      <c r="D12" s="154" t="s">
+      <c r="B12" s="134"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="136" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="154"/>
+      <c r="E12" s="136"/>
       <c r="F12" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="137" t="s">
+      <c r="A13" s="134" t="s">
         <v>197</v>
       </c>
-      <c r="B13" s="137"/>
-      <c r="C13" s="137"/>
-      <c r="D13" s="153" t="s">
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="135" t="s">
         <v>236</v>
       </c>
-      <c r="E13" s="154"/>
+      <c r="E13" s="136"/>
     </row>
     <row r="14" spans="1:6" ht="55" customHeight="1">
-      <c r="A14" s="137" t="s">
+      <c r="A14" s="134" t="s">
         <v>235</v>
       </c>
-      <c r="B14" s="137"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="175" t="s">
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="137" t="s">
         <v>269</v>
       </c>
-      <c r="E14" s="154"/>
+      <c r="E14" s="136"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="137" t="s">
+      <c r="A15" s="134" t="s">
         <v>218</v>
       </c>
-      <c r="B15" s="137"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="153" t="s">
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="135" t="s">
         <v>222</v>
       </c>
-      <c r="E15" s="154"/>
+      <c r="E15" s="136"/>
       <c r="F15" s="1" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="137" t="s">
+      <c r="A16" s="134" t="s">
         <v>219</v>
       </c>
-      <c r="B16" s="137"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="154"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="136"/>
       <c r="F16" s="1" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="155" t="s">
+      <c r="A17" s="176" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="156"/>
-      <c r="C17" s="157"/>
+      <c r="B17" s="177"/>
+      <c r="C17" s="178"/>
       <c r="D17" s="104"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="138" t="s">
+      <c r="A18" s="163" t="s">
         <v>199</v>
       </c>
-      <c r="B18" s="139"/>
-      <c r="C18" s="140"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="165"/>
       <c r="D18" s="90" t="s">
         <v>141</v>
       </c>
@@ -4735,15 +4735,15 @@
       <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="150" t="s">
+      <c r="A20" s="173" t="s">
         <v>208</v>
       </c>
-      <c r="B20" s="151"/>
-      <c r="C20" s="151"/>
-      <c r="D20" s="151"/>
-      <c r="E20" s="151"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="152"/>
+      <c r="B20" s="174"/>
+      <c r="C20" s="174"/>
+      <c r="D20" s="174"/>
+      <c r="E20" s="174"/>
+      <c r="F20" s="174"/>
+      <c r="G20" s="175"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="91" t="s">
@@ -4787,28 +4787,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="149" t="s">
+      <c r="A25" s="172" t="s">
         <v>209</v>
       </c>
-      <c r="B25" s="149"/>
-      <c r="C25" s="149"/>
-      <c r="D25" s="149"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
+      <c r="B25" s="172"/>
+      <c r="C25" s="172"/>
+      <c r="D25" s="172"/>
+      <c r="E25" s="172"/>
+      <c r="F25" s="172"/>
+      <c r="G25" s="172"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="143" t="s">
+      <c r="B26" s="166" t="s">
         <v>203</v>
       </c>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="145"/>
+      <c r="C26" s="167"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="167"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="168"/>
       <c r="H26" s="95"/>
       <c r="I26" s="95"/>
       <c r="J26" s="95"/>
@@ -4819,12 +4819,12 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="106"/>
-      <c r="B27" s="160"/>
-      <c r="C27" s="160"/>
-      <c r="D27" s="160"/>
-      <c r="E27" s="160"/>
-      <c r="F27" s="160"/>
-      <c r="G27" s="160"/>
+      <c r="B27" s="151"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="151"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="102"/>
@@ -4835,12 +4835,12 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="107"/>
-      <c r="B28" s="161"/>
-      <c r="C28" s="161"/>
-      <c r="D28" s="161"/>
-      <c r="E28" s="161"/>
-      <c r="F28" s="161"/>
-      <c r="G28" s="161"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="153"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="J28" s="102"/>
@@ -4851,12 +4851,12 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="108"/>
-      <c r="B29" s="162"/>
-      <c r="C29" s="162"/>
-      <c r="D29" s="162"/>
-      <c r="E29" s="162"/>
-      <c r="F29" s="162"/>
-      <c r="G29" s="162"/>
+      <c r="B29" s="155"/>
+      <c r="C29" s="155"/>
+      <c r="D29" s="155"/>
+      <c r="E29" s="155"/>
+      <c r="F29" s="155"/>
+      <c r="G29" s="155"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
       <c r="J29" s="102"/>
@@ -4869,28 +4869,28 @@
       <c r="C30"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="146" t="s">
+      <c r="A31" s="169" t="s">
         <v>210</v>
       </c>
-      <c r="B31" s="147"/>
-      <c r="C31" s="147"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="148"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="170"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="171"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="167" t="s">
+      <c r="B32" s="147" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="167"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="167"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
       <c r="H32" s="95"/>
       <c r="I32" s="95"/>
       <c r="J32" s="95"/>
@@ -4903,14 +4903,14 @@
       <c r="A33" s="106">
         <v>1</v>
       </c>
-      <c r="B33" s="168" t="s">
+      <c r="B33" s="148" t="s">
         <v>205</v>
       </c>
-      <c r="C33" s="168"/>
-      <c r="D33" s="168"/>
-      <c r="E33" s="168"/>
-      <c r="F33" s="168"/>
-      <c r="G33" s="168"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="102"/>
@@ -4921,12 +4921,12 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="107"/>
-      <c r="B34" s="169"/>
-      <c r="C34" s="169"/>
-      <c r="D34" s="169"/>
-      <c r="E34" s="169"/>
-      <c r="F34" s="169"/>
-      <c r="G34" s="169"/>
+      <c r="B34" s="149"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="J34" s="102"/>
@@ -4937,12 +4937,12 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="108"/>
-      <c r="B35" s="170"/>
-      <c r="C35" s="170"/>
-      <c r="D35" s="170"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="170"/>
-      <c r="G35" s="170"/>
+      <c r="B35" s="150"/>
+      <c r="C35" s="150"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
       <c r="H35" s="102"/>
       <c r="I35" s="102"/>
       <c r="J35" s="102"/>
@@ -4967,28 +4967,28 @@
       <c r="M36"/>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="146" t="s">
+      <c r="A37" s="169" t="s">
         <v>211</v>
       </c>
-      <c r="B37" s="147"/>
-      <c r="C37" s="147"/>
-      <c r="D37" s="147"/>
-      <c r="E37" s="147"/>
-      <c r="F37" s="147"/>
-      <c r="G37" s="148"/>
+      <c r="B37" s="170"/>
+      <c r="C37" s="170"/>
+      <c r="D37" s="170"/>
+      <c r="E37" s="170"/>
+      <c r="F37" s="170"/>
+      <c r="G37" s="171"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="167" t="s">
+      <c r="B38" s="147" t="s">
         <v>206</v>
       </c>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
-      <c r="E38" s="167"/>
-      <c r="F38" s="167"/>
-      <c r="G38" s="167"/>
+      <c r="C38" s="147"/>
+      <c r="D38" s="147"/>
+      <c r="E38" s="147"/>
+      <c r="F38" s="147"/>
+      <c r="G38" s="147"/>
       <c r="H38" s="95"/>
       <c r="I38" s="95"/>
       <c r="J38" s="95"/>
@@ -4999,12 +4999,12 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="106"/>
-      <c r="B39" s="160"/>
-      <c r="C39" s="160"/>
-      <c r="D39" s="160"/>
-      <c r="E39" s="160"/>
-      <c r="F39" s="160"/>
-      <c r="G39" s="171"/>
+      <c r="B39" s="151"/>
+      <c r="C39" s="151"/>
+      <c r="D39" s="151"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="151"/>
+      <c r="G39" s="152"/>
       <c r="H39" s="102"/>
       <c r="I39" s="102"/>
       <c r="J39" s="102"/>
@@ -5015,12 +5015,12 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="107"/>
-      <c r="B40" s="161"/>
-      <c r="C40" s="161"/>
-      <c r="D40" s="161"/>
-      <c r="E40" s="161"/>
-      <c r="F40" s="161"/>
-      <c r="G40" s="172"/>
+      <c r="B40" s="153"/>
+      <c r="C40" s="153"/>
+      <c r="D40" s="153"/>
+      <c r="E40" s="153"/>
+      <c r="F40" s="153"/>
+      <c r="G40" s="154"/>
       <c r="H40" s="102"/>
       <c r="I40" s="102"/>
       <c r="J40" s="102"/>
@@ -5031,12 +5031,12 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="108"/>
-      <c r="B41" s="162"/>
-      <c r="C41" s="162"/>
-      <c r="D41" s="162"/>
-      <c r="E41" s="162"/>
-      <c r="F41" s="162"/>
-      <c r="G41" s="173"/>
+      <c r="B41" s="155"/>
+      <c r="C41" s="155"/>
+      <c r="D41" s="155"/>
+      <c r="E41" s="155"/>
+      <c r="F41" s="155"/>
+      <c r="G41" s="156"/>
       <c r="H41" s="102"/>
       <c r="I41" s="102"/>
       <c r="J41" s="102"/>
@@ -5062,15 +5062,15 @@
       <c r="O42"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="149" t="s">
+      <c r="A43" s="172" t="s">
         <v>232</v>
       </c>
-      <c r="B43" s="149"/>
-      <c r="C43" s="149"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
+      <c r="B43" s="172"/>
+      <c r="C43" s="172"/>
+      <c r="D43" s="172"/>
+      <c r="E43" s="172"/>
+      <c r="F43" s="172"/>
+      <c r="G43" s="172"/>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="105" t="s">
@@ -5186,221 +5186,299 @@
       <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="134" t="s">
+      <c r="A50" s="160" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="136"/>
-      <c r="C50" s="134" t="s">
+      <c r="B50" s="162"/>
+      <c r="C50" s="160" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="135"/>
-      <c r="E50" s="136"/>
+      <c r="D50" s="161"/>
+      <c r="E50" s="162"/>
       <c r="F50" s="27" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="141"/>
-      <c r="B51" s="142"/>
-      <c r="C51" s="141"/>
-      <c r="D51" s="163"/>
-      <c r="E51" s="142"/>
+      <c r="A51" s="157"/>
+      <c r="B51" s="159"/>
+      <c r="C51" s="157"/>
+      <c r="D51" s="158"/>
+      <c r="E51" s="159"/>
       <c r="F51" s="43"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="132"/>
-      <c r="B52" s="133"/>
-      <c r="C52" s="132"/>
-      <c r="D52" s="164"/>
-      <c r="E52" s="133"/>
+      <c r="A52" s="141"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="141"/>
+      <c r="D52" s="142"/>
+      <c r="E52" s="143"/>
       <c r="F52" s="43"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="132"/>
-      <c r="B53" s="133"/>
-      <c r="C53" s="132"/>
-      <c r="D53" s="164"/>
-      <c r="E53" s="133"/>
+      <c r="A53" s="141"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="141"/>
+      <c r="D53" s="142"/>
+      <c r="E53" s="143"/>
       <c r="F53" s="43"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="132"/>
-      <c r="B54" s="133"/>
-      <c r="C54" s="132"/>
-      <c r="D54" s="164"/>
-      <c r="E54" s="133"/>
+      <c r="A54" s="141"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="141"/>
+      <c r="D54" s="142"/>
+      <c r="E54" s="143"/>
       <c r="F54" s="43"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="132"/>
-      <c r="B55" s="133"/>
-      <c r="C55" s="132"/>
-      <c r="D55" s="164"/>
-      <c r="E55" s="133"/>
+      <c r="A55" s="141"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="141"/>
+      <c r="D55" s="142"/>
+      <c r="E55" s="143"/>
       <c r="F55" s="43"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="132"/>
-      <c r="B56" s="133"/>
-      <c r="C56" s="132"/>
-      <c r="D56" s="164"/>
-      <c r="E56" s="133"/>
+      <c r="A56" s="141"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="141"/>
+      <c r="D56" s="142"/>
+      <c r="E56" s="143"/>
       <c r="F56" s="43"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="132"/>
-      <c r="B57" s="133"/>
-      <c r="C57" s="132"/>
-      <c r="D57" s="164"/>
-      <c r="E57" s="133"/>
+      <c r="A57" s="141"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="141"/>
+      <c r="D57" s="142"/>
+      <c r="E57" s="143"/>
       <c r="F57" s="43"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="132"/>
-      <c r="B58" s="133"/>
-      <c r="C58" s="132"/>
-      <c r="D58" s="164"/>
-      <c r="E58" s="133"/>
+      <c r="A58" s="141"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="141"/>
+      <c r="D58" s="142"/>
+      <c r="E58" s="143"/>
       <c r="F58" s="43"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="132"/>
-      <c r="B59" s="133"/>
-      <c r="C59" s="132"/>
-      <c r="D59" s="164"/>
-      <c r="E59" s="133"/>
+      <c r="A59" s="141"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="141"/>
+      <c r="D59" s="142"/>
+      <c r="E59" s="143"/>
       <c r="F59" s="43"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="132"/>
-      <c r="B60" s="133"/>
-      <c r="C60" s="132"/>
-      <c r="D60" s="164"/>
-      <c r="E60" s="133"/>
+      <c r="A60" s="141"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="141"/>
+      <c r="D60" s="142"/>
+      <c r="E60" s="143"/>
       <c r="F60" s="43"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="132"/>
-      <c r="B61" s="133"/>
-      <c r="C61" s="132"/>
-      <c r="D61" s="164"/>
-      <c r="E61" s="133"/>
+      <c r="A61" s="141"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="141"/>
+      <c r="D61" s="142"/>
+      <c r="E61" s="143"/>
       <c r="F61" s="43"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="132"/>
-      <c r="B62" s="133"/>
-      <c r="C62" s="132"/>
-      <c r="D62" s="164"/>
-      <c r="E62" s="133"/>
+      <c r="A62" s="141"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="141"/>
+      <c r="D62" s="142"/>
+      <c r="E62" s="143"/>
       <c r="F62" s="43"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="132"/>
-      <c r="B63" s="133"/>
-      <c r="C63" s="132"/>
-      <c r="D63" s="164"/>
-      <c r="E63" s="133"/>
+      <c r="A63" s="141"/>
+      <c r="B63" s="143"/>
+      <c r="C63" s="141"/>
+      <c r="D63" s="142"/>
+      <c r="E63" s="143"/>
       <c r="F63" s="43"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="132"/>
-      <c r="B64" s="133"/>
-      <c r="C64" s="132"/>
-      <c r="D64" s="164"/>
-      <c r="E64" s="133"/>
+      <c r="A64" s="141"/>
+      <c r="B64" s="143"/>
+      <c r="C64" s="141"/>
+      <c r="D64" s="142"/>
+      <c r="E64" s="143"/>
       <c r="F64" s="43"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="132"/>
-      <c r="B65" s="133"/>
-      <c r="C65" s="132"/>
-      <c r="D65" s="164"/>
-      <c r="E65" s="133"/>
+      <c r="A65" s="141"/>
+      <c r="B65" s="143"/>
+      <c r="C65" s="141"/>
+      <c r="D65" s="142"/>
+      <c r="E65" s="143"/>
       <c r="F65" s="43"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="132"/>
-      <c r="B66" s="133"/>
-      <c r="C66" s="132"/>
-      <c r="D66" s="164"/>
-      <c r="E66" s="133"/>
+      <c r="A66" s="141"/>
+      <c r="B66" s="143"/>
+      <c r="C66" s="141"/>
+      <c r="D66" s="142"/>
+      <c r="E66" s="143"/>
       <c r="F66" s="43"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="132"/>
-      <c r="B67" s="133"/>
-      <c r="C67" s="132"/>
-      <c r="D67" s="164"/>
-      <c r="E67" s="133"/>
+      <c r="A67" s="141"/>
+      <c r="B67" s="143"/>
+      <c r="C67" s="141"/>
+      <c r="D67" s="142"/>
+      <c r="E67" s="143"/>
       <c r="F67" s="43"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="132"/>
-      <c r="B68" s="133"/>
-      <c r="C68" s="132"/>
-      <c r="D68" s="164"/>
-      <c r="E68" s="133"/>
+      <c r="A68" s="141"/>
+      <c r="B68" s="143"/>
+      <c r="C68" s="141"/>
+      <c r="D68" s="142"/>
+      <c r="E68" s="143"/>
       <c r="F68" s="43"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="132"/>
-      <c r="B69" s="133"/>
-      <c r="C69" s="132"/>
-      <c r="D69" s="164"/>
-      <c r="E69" s="133"/>
+      <c r="A69" s="141"/>
+      <c r="B69" s="143"/>
+      <c r="C69" s="141"/>
+      <c r="D69" s="142"/>
+      <c r="E69" s="143"/>
       <c r="F69" s="43"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="132"/>
-      <c r="B70" s="133"/>
-      <c r="C70" s="132"/>
-      <c r="D70" s="164"/>
-      <c r="E70" s="133"/>
+      <c r="A70" s="141"/>
+      <c r="B70" s="143"/>
+      <c r="C70" s="141"/>
+      <c r="D70" s="142"/>
+      <c r="E70" s="143"/>
       <c r="F70" s="43"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="132"/>
-      <c r="B71" s="133"/>
-      <c r="C71" s="132"/>
-      <c r="D71" s="164"/>
-      <c r="E71" s="133"/>
+      <c r="A71" s="141"/>
+      <c r="B71" s="143"/>
+      <c r="C71" s="141"/>
+      <c r="D71" s="142"/>
+      <c r="E71" s="143"/>
       <c r="F71" s="43"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="132"/>
-      <c r="B72" s="133"/>
-      <c r="C72" s="132"/>
-      <c r="D72" s="164"/>
-      <c r="E72" s="133"/>
+      <c r="A72" s="141"/>
+      <c r="B72" s="143"/>
+      <c r="C72" s="141"/>
+      <c r="D72" s="142"/>
+      <c r="E72" s="143"/>
       <c r="F72" s="43"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="132"/>
-      <c r="B73" s="133"/>
-      <c r="C73" s="132"/>
-      <c r="D73" s="164"/>
-      <c r="E73" s="133"/>
+      <c r="A73" s="141"/>
+      <c r="B73" s="143"/>
+      <c r="C73" s="141"/>
+      <c r="D73" s="142"/>
+      <c r="E73" s="143"/>
       <c r="F73" s="43"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="132"/>
-      <c r="B74" s="133"/>
-      <c r="C74" s="132"/>
-      <c r="D74" s="164"/>
-      <c r="E74" s="133"/>
+      <c r="A74" s="141"/>
+      <c r="B74" s="143"/>
+      <c r="C74" s="141"/>
+      <c r="D74" s="142"/>
+      <c r="E74" s="143"/>
       <c r="F74" s="43"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="158"/>
-      <c r="B75" s="159"/>
-      <c r="C75" s="158"/>
-      <c r="D75" s="166"/>
-      <c r="E75" s="159"/>
+      <c r="A75" s="144"/>
+      <c r="B75" s="146"/>
+      <c r="C75" s="144"/>
+      <c r="D75" s="145"/>
+      <c r="E75" s="146"/>
       <c r="F75" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
@@ -5417,84 +5495,6 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -5693,10 +5693,10 @@
         <v>194</v>
       </c>
       <c r="B15" s="112"/>
-      <c r="C15" s="154" t="s">
+      <c r="C15" s="136" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="154"/>
+      <c r="D15" s="136"/>
       <c r="E15" s="1" t="s">
         <v>196</v>
       </c>
@@ -5706,10 +5706,10 @@
         <v>197</v>
       </c>
       <c r="B16" s="112"/>
-      <c r="C16" s="154" t="s">
+      <c r="C16" s="136" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="154"/>
+      <c r="D16" s="136"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="113" t="s">
@@ -5735,28 +5735,28 @@
       <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="149" t="s">
+      <c r="A19" s="172" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="149"/>
-      <c r="C19" s="149"/>
-      <c r="D19" s="149"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="149"/>
-      <c r="G19" s="149"/>
+      <c r="B19" s="172"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="172"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="143" t="s">
+      <c r="B20" s="166" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="145"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="168"/>
       <c r="H20" s="95"/>
       <c r="I20" s="95"/>
       <c r="J20" s="95"/>
@@ -5768,12 +5768,12 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="106"/>
-      <c r="B21" s="160"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
+      <c r="B21" s="151"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="J21" s="102"/>
@@ -5785,12 +5785,12 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="107"/>
-      <c r="B22" s="161"/>
-      <c r="C22" s="161"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
       <c r="H22" s="102"/>
       <c r="I22" s="102"/>
       <c r="J22" s="102"/>
@@ -5802,12 +5802,12 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="108"/>
-      <c r="B23" s="162"/>
-      <c r="C23" s="162"/>
-      <c r="D23" s="162"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="162"/>
+      <c r="B23" s="155"/>
+      <c r="C23" s="155"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
       <c r="H23" s="102"/>
       <c r="I23" s="102"/>
       <c r="J23" s="102"/>
@@ -5821,28 +5821,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="146" t="s">
+      <c r="A25" s="169" t="s">
         <v>213</v>
       </c>
-      <c r="B25" s="147"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="148"/>
+      <c r="B25" s="170"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="171"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="167" t="s">
+      <c r="B26" s="147" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="167"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="167"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
       <c r="H26" s="95"/>
       <c r="I26" s="95"/>
       <c r="J26" s="95"/>
@@ -5856,14 +5856,14 @@
       <c r="A27" s="106">
         <v>1</v>
       </c>
-      <c r="B27" s="168" t="s">
+      <c r="B27" s="148" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="168"/>
-      <c r="D27" s="168"/>
-      <c r="E27" s="168"/>
-      <c r="F27" s="168"/>
-      <c r="G27" s="168"/>
+      <c r="C27" s="148"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="102"/>
@@ -5875,12 +5875,12 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="107"/>
-      <c r="B28" s="169"/>
-      <c r="C28" s="169"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="169"/>
+      <c r="B28" s="149"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="J28" s="102"/>
@@ -5892,12 +5892,12 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="108"/>
-      <c r="B29" s="170"/>
-      <c r="C29" s="170"/>
-      <c r="D29" s="170"/>
-      <c r="E29" s="170"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="170"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
       <c r="J29" s="102"/>
@@ -5924,28 +5924,28 @@
       <c r="N30"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="146" t="s">
+      <c r="A31" s="169" t="s">
         <v>214</v>
       </c>
-      <c r="B31" s="147"/>
-      <c r="C31" s="147"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="148"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="170"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="171"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="167" t="s">
+      <c r="B32" s="147" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="167"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="167"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
       <c r="H32" s="95"/>
       <c r="I32" s="95"/>
       <c r="J32" s="95"/>
@@ -5957,12 +5957,12 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="106"/>
-      <c r="B33" s="160"/>
-      <c r="C33" s="160"/>
-      <c r="D33" s="160"/>
-      <c r="E33" s="160"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="171"/>
+      <c r="B33" s="151"/>
+      <c r="C33" s="151"/>
+      <c r="D33" s="151"/>
+      <c r="E33" s="151"/>
+      <c r="F33" s="151"/>
+      <c r="G33" s="152"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="102"/>
@@ -5974,12 +5974,12 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="107"/>
-      <c r="B34" s="161"/>
-      <c r="C34" s="161"/>
-      <c r="D34" s="161"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="172"/>
+      <c r="B34" s="153"/>
+      <c r="C34" s="153"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="154"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="J34" s="102"/>
@@ -5991,12 +5991,12 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="108"/>
-      <c r="B35" s="162"/>
-      <c r="C35" s="162"/>
-      <c r="D35" s="162"/>
-      <c r="E35" s="162"/>
-      <c r="F35" s="162"/>
-      <c r="G35" s="173"/>
+      <c r="B35" s="155"/>
+      <c r="C35" s="155"/>
+      <c r="D35" s="155"/>
+      <c r="E35" s="155"/>
+      <c r="F35" s="155"/>
+      <c r="G35" s="156"/>
       <c r="H35" s="102"/>
       <c r="I35" s="102"/>
       <c r="J35" s="102"/>
@@ -6045,60 +6045,60 @@
       <c r="O38" s="49"/>
     </row>
     <row r="39" spans="1:16" ht="15">
-      <c r="A39" s="184" t="s">
+      <c r="A39" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="184" t="s">
+      <c r="B39" s="185" t="s">
         <v>119</v>
       </c>
       <c r="C39" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="D39" s="184" t="s">
+      <c r="D39" s="185" t="s">
         <v>101</v>
       </c>
-      <c r="E39" s="184" t="s">
+      <c r="E39" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="184" t="s">
+      <c r="F39" s="185" t="s">
         <v>197</v>
       </c>
-      <c r="G39" s="184" t="s">
+      <c r="G39" s="185" t="s">
         <v>140</v>
       </c>
-      <c r="H39" s="184" t="s">
+      <c r="H39" s="185" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="184" t="s">
+      <c r="I39" s="185" t="s">
         <v>258</v>
       </c>
-      <c r="J39" s="188" t="s">
+      <c r="J39" s="187" t="s">
         <v>122</v>
       </c>
-      <c r="K39" s="189"/>
-      <c r="L39" s="190" t="s">
+      <c r="K39" s="188"/>
+      <c r="L39" s="189" t="s">
         <v>123</v>
       </c>
-      <c r="M39" s="189"/>
+      <c r="M39" s="188"/>
       <c r="N39" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="O39" s="184" t="s">
+      <c r="O39" s="185" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15">
-      <c r="A40" s="187"/>
-      <c r="B40" s="187"/>
+      <c r="A40" s="190"/>
+      <c r="B40" s="190"/>
       <c r="C40" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="D40" s="187"/>
-      <c r="E40" s="185"/>
-      <c r="F40" s="185"/>
-      <c r="G40" s="187"/>
-      <c r="H40" s="187"/>
-      <c r="I40" s="187"/>
+      <c r="D40" s="190"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="186"/>
+      <c r="G40" s="190"/>
+      <c r="H40" s="190"/>
+      <c r="I40" s="190"/>
       <c r="J40" s="53" t="s">
         <v>126</v>
       </c>
@@ -6114,7 +6114,7 @@
       <c r="N40" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="O40" s="187"/>
+      <c r="O40" s="190"/>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="55">
@@ -6542,18 +6542,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
     <mergeCell ref="O39:O40"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="B32:G32"/>
@@ -6570,6 +6558,18 @@
     <mergeCell ref="I39:I40"/>
     <mergeCell ref="J39:K39"/>
     <mergeCell ref="L39:M39"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -6775,10 +6775,10 @@
         <v>194</v>
       </c>
       <c r="B15" s="112"/>
-      <c r="C15" s="154" t="s">
+      <c r="C15" s="136" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="154"/>
+      <c r="D15" s="136"/>
       <c r="E15" s="1" t="s">
         <v>196</v>
       </c>
@@ -6788,10 +6788,10 @@
         <v>197</v>
       </c>
       <c r="B16" s="112"/>
-      <c r="C16" s="154" t="s">
+      <c r="C16" s="136" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="154"/>
+      <c r="D16" s="136"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="113" t="s">
@@ -6817,28 +6817,28 @@
       <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="149" t="s">
+      <c r="A19" s="172" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="149"/>
-      <c r="C19" s="149"/>
-      <c r="D19" s="149"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="149"/>
-      <c r="G19" s="149"/>
+      <c r="B19" s="172"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="172"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="143" t="s">
+      <c r="B20" s="166" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="145"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="168"/>
       <c r="H20" s="95"/>
       <c r="I20" s="95"/>
       <c r="J20" s="95"/>
@@ -6850,12 +6850,12 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="106"/>
-      <c r="B21" s="160"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
+      <c r="B21" s="151"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="J21" s="102"/>
@@ -6867,12 +6867,12 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="107"/>
-      <c r="B22" s="161"/>
-      <c r="C22" s="161"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
       <c r="H22" s="102"/>
       <c r="I22" s="102"/>
       <c r="J22" s="102"/>
@@ -6884,12 +6884,12 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="108"/>
-      <c r="B23" s="162"/>
-      <c r="C23" s="162"/>
-      <c r="D23" s="162"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="162"/>
+      <c r="B23" s="155"/>
+      <c r="C23" s="155"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
       <c r="H23" s="102"/>
       <c r="I23" s="102"/>
       <c r="J23" s="102"/>
@@ -6903,28 +6903,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="146" t="s">
+      <c r="A25" s="169" t="s">
         <v>213</v>
       </c>
-      <c r="B25" s="147"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="148"/>
+      <c r="B25" s="170"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="171"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="167" t="s">
+      <c r="B26" s="147" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="167"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="167"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
       <c r="H26" s="95"/>
       <c r="I26" s="95"/>
       <c r="J26" s="95"/>
@@ -6938,14 +6938,14 @@
       <c r="A27" s="106">
         <v>1</v>
       </c>
-      <c r="B27" s="168" t="s">
+      <c r="B27" s="148" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="168"/>
-      <c r="D27" s="168"/>
-      <c r="E27" s="168"/>
-      <c r="F27" s="168"/>
-      <c r="G27" s="168"/>
+      <c r="C27" s="148"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="102"/>
@@ -6957,12 +6957,12 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="107"/>
-      <c r="B28" s="169"/>
-      <c r="C28" s="169"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="169"/>
+      <c r="B28" s="149"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="J28" s="102"/>
@@ -6974,12 +6974,12 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="108"/>
-      <c r="B29" s="170"/>
-      <c r="C29" s="170"/>
-      <c r="D29" s="170"/>
-      <c r="E29" s="170"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="170"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
       <c r="J29" s="102"/>
@@ -7006,28 +7006,28 @@
       <c r="N30"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="146" t="s">
+      <c r="A31" s="169" t="s">
         <v>214</v>
       </c>
-      <c r="B31" s="147"/>
-      <c r="C31" s="147"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="148"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="170"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="171"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="167" t="s">
+      <c r="B32" s="147" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="167"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="167"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
       <c r="H32" s="95"/>
       <c r="I32" s="95"/>
       <c r="J32" s="95"/>
@@ -7039,12 +7039,12 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="106"/>
-      <c r="B33" s="160"/>
-      <c r="C33" s="160"/>
-      <c r="D33" s="160"/>
-      <c r="E33" s="160"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="171"/>
+      <c r="B33" s="151"/>
+      <c r="C33" s="151"/>
+      <c r="D33" s="151"/>
+      <c r="E33" s="151"/>
+      <c r="F33" s="151"/>
+      <c r="G33" s="152"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="102"/>
@@ -7056,12 +7056,12 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="107"/>
-      <c r="B34" s="161"/>
-      <c r="C34" s="161"/>
-      <c r="D34" s="161"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="172"/>
+      <c r="B34" s="153"/>
+      <c r="C34" s="153"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="154"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="J34" s="102"/>
@@ -7073,12 +7073,12 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="108"/>
-      <c r="B35" s="162"/>
-      <c r="C35" s="162"/>
-      <c r="D35" s="162"/>
-      <c r="E35" s="162"/>
-      <c r="F35" s="162"/>
-      <c r="G35" s="173"/>
+      <c r="B35" s="155"/>
+      <c r="C35" s="155"/>
+      <c r="D35" s="155"/>
+      <c r="E35" s="155"/>
+      <c r="F35" s="155"/>
+      <c r="G35" s="156"/>
       <c r="H35" s="102"/>
       <c r="I35" s="102"/>
       <c r="J35" s="102"/>
@@ -7127,60 +7127,60 @@
       <c r="O38" s="49"/>
     </row>
     <row r="39" spans="1:16" ht="15">
-      <c r="A39" s="184" t="s">
+      <c r="A39" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="184" t="s">
+      <c r="B39" s="185" t="s">
         <v>119</v>
       </c>
       <c r="C39" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="D39" s="184" t="s">
+      <c r="D39" s="185" t="s">
         <v>101</v>
       </c>
-      <c r="E39" s="184" t="s">
+      <c r="E39" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="184" t="s">
+      <c r="F39" s="185" t="s">
         <v>197</v>
       </c>
-      <c r="G39" s="184" t="s">
+      <c r="G39" s="185" t="s">
         <v>140</v>
       </c>
-      <c r="H39" s="184" t="s">
+      <c r="H39" s="185" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="184" t="s">
+      <c r="I39" s="185" t="s">
         <v>258</v>
       </c>
-      <c r="J39" s="188" t="s">
+      <c r="J39" s="187" t="s">
         <v>122</v>
       </c>
-      <c r="K39" s="189"/>
-      <c r="L39" s="190" t="s">
+      <c r="K39" s="188"/>
+      <c r="L39" s="189" t="s">
         <v>123</v>
       </c>
-      <c r="M39" s="189"/>
+      <c r="M39" s="188"/>
       <c r="N39" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="O39" s="184" t="s">
+      <c r="O39" s="185" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15">
-      <c r="A40" s="187"/>
-      <c r="B40" s="187"/>
+      <c r="A40" s="190"/>
+      <c r="B40" s="190"/>
       <c r="C40" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="D40" s="187"/>
-      <c r="E40" s="185"/>
-      <c r="F40" s="185"/>
-      <c r="G40" s="187"/>
-      <c r="H40" s="187"/>
-      <c r="I40" s="187"/>
+      <c r="D40" s="190"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="186"/>
+      <c r="G40" s="190"/>
+      <c r="H40" s="190"/>
+      <c r="I40" s="190"/>
       <c r="J40" s="53" t="s">
         <v>126</v>
       </c>
@@ -7196,7 +7196,7 @@
       <c r="N40" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="O40" s="187"/>
+      <c r="O40" s="190"/>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="55">
@@ -7624,18 +7624,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
     <mergeCell ref="O39:O40"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="B32:G32"/>
@@ -7652,6 +7640,18 @@
     <mergeCell ref="I39:I40"/>
     <mergeCell ref="J39:K39"/>
     <mergeCell ref="L39:M39"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -7696,7 +7696,7 @@
   </sheetPr>
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
@@ -7856,10 +7856,10 @@
         <v>194</v>
       </c>
       <c r="B16" s="112"/>
-      <c r="C16" s="154" t="s">
+      <c r="C16" s="136" t="s">
         <v>195</v>
       </c>
-      <c r="D16" s="154"/>
+      <c r="D16" s="136"/>
       <c r="E16" s="1" t="s">
         <v>196</v>
       </c>
@@ -7869,20 +7869,20 @@
         <v>197</v>
       </c>
       <c r="B17" s="112"/>
-      <c r="C17" s="154" t="s">
+      <c r="C17" s="136" t="s">
         <v>198</v>
       </c>
-      <c r="D17" s="154"/>
+      <c r="D17" s="136"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="112" t="s">
         <v>235</v>
       </c>
       <c r="B18" s="112"/>
-      <c r="C18" s="153" t="s">
+      <c r="C18" s="135" t="s">
         <v>237</v>
       </c>
-      <c r="D18" s="154"/>
+      <c r="D18" s="136"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="113" t="s">
@@ -7932,28 +7932,28 @@
       <c r="A21" s="6"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="149" t="s">
+      <c r="A22" s="172" t="s">
         <v>212</v>
       </c>
-      <c r="B22" s="149"/>
-      <c r="C22" s="149"/>
-      <c r="D22" s="149"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="149"/>
-      <c r="G22" s="149"/>
+      <c r="B22" s="172"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="172"/>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="143" t="s">
+      <c r="B23" s="166" t="s">
         <v>203</v>
       </c>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="145"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="168"/>
       <c r="H23" s="95"/>
       <c r="I23" s="95"/>
       <c r="J23" s="95"/>
@@ -7967,12 +7967,12 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="106"/>
-      <c r="B24" s="160"/>
-      <c r="C24" s="160"/>
-      <c r="D24" s="160"/>
-      <c r="E24" s="160"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="160"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
       <c r="H24" s="102"/>
       <c r="I24" s="102"/>
       <c r="J24" s="102"/>
@@ -7986,12 +7986,12 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="107"/>
-      <c r="B25" s="161"/>
-      <c r="C25" s="161"/>
-      <c r="D25" s="161"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="161"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="153"/>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
       <c r="J25" s="102"/>
@@ -8005,12 +8005,12 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="108"/>
-      <c r="B26" s="162"/>
-      <c r="C26" s="162"/>
-      <c r="D26" s="162"/>
-      <c r="E26" s="162"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="162"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="J26" s="102"/>
@@ -8026,28 +8026,28 @@
       <c r="C27"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="146" t="s">
+      <c r="A28" s="169" t="s">
         <v>213</v>
       </c>
-      <c r="B28" s="147"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="148"/>
+      <c r="B28" s="170"/>
+      <c r="C28" s="170"/>
+      <c r="D28" s="170"/>
+      <c r="E28" s="170"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="171"/>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="167" t="s">
+      <c r="B29" s="147" t="s">
         <v>204</v>
       </c>
-      <c r="C29" s="167"/>
-      <c r="D29" s="167"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="167"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
       <c r="H29" s="95"/>
       <c r="I29" s="95"/>
       <c r="J29" s="95"/>
@@ -8063,14 +8063,14 @@
       <c r="A30" s="106">
         <v>1</v>
       </c>
-      <c r="B30" s="168" t="s">
+      <c r="B30" s="148" t="s">
         <v>205</v>
       </c>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="168"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
       <c r="H30" s="102"/>
       <c r="I30" s="102"/>
       <c r="J30" s="102"/>
@@ -8084,12 +8084,12 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="107"/>
-      <c r="B31" s="169"/>
-      <c r="C31" s="169"/>
-      <c r="D31" s="169"/>
-      <c r="E31" s="169"/>
-      <c r="F31" s="169"/>
-      <c r="G31" s="169"/>
+      <c r="B31" s="149"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
       <c r="J31" s="102"/>
@@ -8103,12 +8103,12 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="108"/>
-      <c r="B32" s="170"/>
-      <c r="C32" s="170"/>
-      <c r="D32" s="170"/>
-      <c r="E32" s="170"/>
-      <c r="F32" s="170"/>
-      <c r="G32" s="170"/>
+      <c r="B32" s="150"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="J32" s="102"/>
@@ -8139,28 +8139,28 @@
       <c r="P33"/>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="146" t="s">
+      <c r="A34" s="169" t="s">
         <v>214</v>
       </c>
-      <c r="B34" s="147"/>
-      <c r="C34" s="147"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="148"/>
+      <c r="B34" s="170"/>
+      <c r="C34" s="170"/>
+      <c r="D34" s="170"/>
+      <c r="E34" s="170"/>
+      <c r="F34" s="170"/>
+      <c r="G34" s="171"/>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="167" t="s">
+      <c r="B35" s="147" t="s">
         <v>206</v>
       </c>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
-      <c r="E35" s="167"/>
-      <c r="F35" s="167"/>
-      <c r="G35" s="167"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="147"/>
       <c r="H35" s="95"/>
       <c r="I35" s="95"/>
       <c r="J35" s="95"/>
@@ -8174,12 +8174,12 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="106"/>
-      <c r="B36" s="160"/>
-      <c r="C36" s="160"/>
-      <c r="D36" s="160"/>
-      <c r="E36" s="160"/>
-      <c r="F36" s="160"/>
-      <c r="G36" s="171"/>
+      <c r="B36" s="151"/>
+      <c r="C36" s="151"/>
+      <c r="D36" s="151"/>
+      <c r="E36" s="151"/>
+      <c r="F36" s="151"/>
+      <c r="G36" s="152"/>
       <c r="H36" s="102"/>
       <c r="I36" s="102"/>
       <c r="J36" s="102"/>
@@ -8193,12 +8193,12 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="107"/>
-      <c r="B37" s="161"/>
-      <c r="C37" s="161"/>
-      <c r="D37" s="161"/>
-      <c r="E37" s="161"/>
-      <c r="F37" s="161"/>
-      <c r="G37" s="172"/>
+      <c r="B37" s="153"/>
+      <c r="C37" s="153"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="153"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="154"/>
       <c r="H37" s="102"/>
       <c r="I37" s="102"/>
       <c r="J37" s="102"/>
@@ -8212,12 +8212,12 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="108"/>
-      <c r="B38" s="162"/>
-      <c r="C38" s="162"/>
-      <c r="D38" s="162"/>
-      <c r="E38" s="162"/>
-      <c r="F38" s="162"/>
-      <c r="G38" s="173"/>
+      <c r="B38" s="155"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="155"/>
+      <c r="E38" s="155"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="156"/>
       <c r="H38" s="102"/>
       <c r="I38" s="102"/>
       <c r="J38" s="102"/>
@@ -8281,16 +8281,16 @@
       <c r="B42" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="181" t="s">
+      <c r="C42" s="182" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="184" t="s">
+      <c r="E42" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="F42" s="184" t="s">
+      <c r="F42" s="185" t="s">
         <v>197</v>
       </c>
       <c r="G42" s="179" t="s">
@@ -8308,14 +8308,14 @@
       <c r="K42" s="193" t="s">
         <v>216</v>
       </c>
-      <c r="L42" s="182" t="s">
+      <c r="L42" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="M42" s="183"/>
-      <c r="N42" s="182" t="s">
+      <c r="M42" s="184"/>
+      <c r="N42" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="O42" s="183"/>
+      <c r="O42" s="184"/>
       <c r="P42" s="32" t="s">
         <v>70</v>
       </c>
@@ -8324,17 +8324,17 @@
       </c>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="180"/>
-      <c r="B43" s="180"/>
-      <c r="C43" s="180"/>
-      <c r="D43" s="180"/>
-      <c r="E43" s="185"/>
-      <c r="F43" s="191"/>
-      <c r="G43" s="180"/>
-      <c r="H43" s="180"/>
-      <c r="I43" s="180"/>
-      <c r="J43" s="180"/>
-      <c r="K43" s="186"/>
+      <c r="A43" s="181"/>
+      <c r="B43" s="181"/>
+      <c r="C43" s="181"/>
+      <c r="D43" s="181"/>
+      <c r="E43" s="186"/>
+      <c r="F43" s="192"/>
+      <c r="G43" s="181"/>
+      <c r="H43" s="181"/>
+      <c r="I43" s="181"/>
+      <c r="J43" s="181"/>
+      <c r="K43" s="180"/>
       <c r="L43" s="27" t="s">
         <v>75</v>
       </c>
@@ -8350,7 +8350,7 @@
       <c r="P43" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="Q43" s="180"/>
+      <c r="Q43" s="181"/>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="7">
@@ -8898,24 +8898,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
     <mergeCell ref="Q42:Q43"/>
@@ -8930,6 +8912,24 @@
     <mergeCell ref="K42:K43"/>
     <mergeCell ref="I42:I43"/>
     <mergeCell ref="J42:J43"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="B35:G35"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="4">
@@ -9125,10 +9125,10 @@
         <v>194</v>
       </c>
       <c r="B13" s="112"/>
-      <c r="C13" s="154" t="s">
+      <c r="C13" s="136" t="s">
         <v>195</v>
       </c>
-      <c r="D13" s="154"/>
+      <c r="D13" s="136"/>
       <c r="E13" s="1" t="s">
         <v>196</v>
       </c>
@@ -9138,10 +9138,10 @@
         <v>197</v>
       </c>
       <c r="B14" s="112"/>
-      <c r="C14" s="154" t="s">
+      <c r="C14" s="136" t="s">
         <v>198</v>
       </c>
-      <c r="D14" s="154"/>
+      <c r="D14" s="136"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="113" t="s">
@@ -9167,28 +9167,28 @@
       <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="149" t="s">
+      <c r="A17" s="172" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="149"/>
-      <c r="C17" s="149"/>
-      <c r="D17" s="149"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
+      <c r="B17" s="172"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="172"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="143" t="s">
+      <c r="B18" s="166" t="s">
         <v>203</v>
       </c>
-      <c r="C18" s="144"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="145"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="168"/>
       <c r="H18" s="95"/>
       <c r="I18" s="95"/>
       <c r="K18" s="95"/>
@@ -9200,12 +9200,12 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="106"/>
-      <c r="B19" s="160"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
+      <c r="B19" s="151"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="151"/>
       <c r="H19" s="102"/>
       <c r="I19" s="102"/>
       <c r="K19" s="102"/>
@@ -9217,12 +9217,12 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="107"/>
-      <c r="B20" s="161"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
+      <c r="B20" s="153"/>
+      <c r="C20" s="153"/>
+      <c r="D20" s="153"/>
+      <c r="E20" s="153"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="153"/>
       <c r="H20" s="102"/>
       <c r="I20" s="102"/>
       <c r="K20" s="102"/>
@@ -9234,12 +9234,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="108"/>
-      <c r="B21" s="162"/>
-      <c r="C21" s="162"/>
-      <c r="D21" s="162"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="162"/>
-      <c r="G21" s="162"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="J21" s="95"/>
@@ -9255,29 +9255,29 @@
       <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="146" t="s">
+      <c r="A23" s="169" t="s">
         <v>213</v>
       </c>
-      <c r="B23" s="147"/>
-      <c r="C23" s="147"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="148"/>
+      <c r="B23" s="170"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="171"/>
       <c r="J23" s="102"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="167" t="s">
+      <c r="B24" s="147" t="s">
         <v>204</v>
       </c>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
       <c r="H24" s="95"/>
       <c r="I24" s="95"/>
       <c r="J24" s="102"/>
@@ -9292,14 +9292,14 @@
       <c r="A25" s="106">
         <v>1</v>
       </c>
-      <c r="B25" s="168" t="s">
+      <c r="B25" s="148" t="s">
         <v>205</v>
       </c>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="168"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="168"/>
+      <c r="C25" s="148"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
       <c r="K25" s="102"/>
@@ -9311,12 +9311,12 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="107"/>
-      <c r="B26" s="169"/>
-      <c r="C26" s="169"/>
-      <c r="D26" s="169"/>
-      <c r="E26" s="169"/>
-      <c r="F26" s="169"/>
-      <c r="G26" s="169"/>
+      <c r="B26" s="149"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="K26" s="102"/>
@@ -9328,12 +9328,12 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="108"/>
-      <c r="B27" s="170"/>
-      <c r="C27" s="170"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="170"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="170"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="95"/>
@@ -9362,29 +9362,29 @@
       <c r="O28"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="146" t="s">
+      <c r="A29" s="169" t="s">
         <v>214</v>
       </c>
-      <c r="B29" s="147"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="148"/>
+      <c r="B29" s="170"/>
+      <c r="C29" s="170"/>
+      <c r="D29" s="170"/>
+      <c r="E29" s="170"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="171"/>
       <c r="J29" s="102"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="167" t="s">
+      <c r="B30" s="147" t="s">
         <v>206</v>
       </c>
-      <c r="C30" s="167"/>
-      <c r="D30" s="167"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="167"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="147"/>
       <c r="H30" s="95"/>
       <c r="I30" s="95"/>
       <c r="J30" s="102"/>
@@ -9397,12 +9397,12 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="106"/>
-      <c r="B31" s="160"/>
-      <c r="C31" s="160"/>
-      <c r="D31" s="160"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="171"/>
+      <c r="B31" s="151"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="151"/>
+      <c r="G31" s="152"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
       <c r="J31"/>
@@ -9415,12 +9415,12 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="107"/>
-      <c r="B32" s="161"/>
-      <c r="C32" s="161"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="172"/>
+      <c r="B32" s="153"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="154"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="K32" s="102"/>
@@ -9432,12 +9432,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="108"/>
-      <c r="B33" s="162"/>
-      <c r="C33" s="162"/>
-      <c r="D33" s="162"/>
-      <c r="E33" s="162"/>
-      <c r="F33" s="162"/>
-      <c r="G33" s="173"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="156"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="95"/>
@@ -9490,64 +9490,64 @@
       <c r="P36" s="49"/>
     </row>
     <row r="37" spans="1:17" ht="15">
-      <c r="A37" s="184" t="s">
+      <c r="A37" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="B37" s="184" t="s">
+      <c r="B37" s="185" t="s">
         <v>119</v>
       </c>
       <c r="C37" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="184" t="s">
+      <c r="D37" s="185" t="s">
         <v>101</v>
       </c>
-      <c r="E37" s="184" t="s">
+      <c r="E37" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="F37" s="184" t="s">
+      <c r="F37" s="185" t="s">
         <v>197</v>
       </c>
-      <c r="G37" s="184" t="s">
+      <c r="G37" s="185" t="s">
         <v>140</v>
       </c>
-      <c r="H37" s="184" t="s">
+      <c r="H37" s="185" t="s">
         <v>139</v>
       </c>
-      <c r="I37" s="184" t="s">
+      <c r="I37" s="185" t="s">
         <v>264</v>
       </c>
       <c r="J37" s="179" t="s">
         <v>216</v>
       </c>
-      <c r="K37" s="188" t="s">
+      <c r="K37" s="187" t="s">
         <v>122</v>
       </c>
-      <c r="L37" s="189"/>
-      <c r="M37" s="190" t="s">
+      <c r="L37" s="188"/>
+      <c r="M37" s="189" t="s">
         <v>123</v>
       </c>
-      <c r="N37" s="189"/>
+      <c r="N37" s="188"/>
       <c r="O37" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="P37" s="184" t="s">
+      <c r="P37" s="185" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15">
-      <c r="A38" s="187"/>
-      <c r="B38" s="187"/>
+      <c r="A38" s="190"/>
+      <c r="B38" s="190"/>
       <c r="C38" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="187"/>
-      <c r="E38" s="185"/>
-      <c r="F38" s="191"/>
-      <c r="G38" s="187"/>
-      <c r="H38" s="187"/>
-      <c r="I38" s="187"/>
-      <c r="J38" s="186"/>
+      <c r="D38" s="190"/>
+      <c r="E38" s="186"/>
+      <c r="F38" s="192"/>
+      <c r="G38" s="190"/>
+      <c r="H38" s="190"/>
+      <c r="I38" s="190"/>
+      <c r="J38" s="180"/>
       <c r="K38" s="53" t="s">
         <v>126</v>
       </c>
@@ -9563,7 +9563,7 @@
       <c r="O38" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="P38" s="187"/>
+      <c r="P38" s="190"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="55"/>
@@ -9999,24 +9999,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
     <mergeCell ref="M37:N37"/>
     <mergeCell ref="P37:P38"/>
     <mergeCell ref="A37:A38"/>
@@ -10028,6 +10010,24 @@
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="J37:J38"/>
     <mergeCell ref="I37:I38"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="B30:G30"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -10237,10 +10237,10 @@
         <v>194</v>
       </c>
       <c r="B15" s="112"/>
-      <c r="C15" s="154" t="s">
+      <c r="C15" s="136" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="154"/>
+      <c r="D15" s="136"/>
       <c r="E15" s="1" t="s">
         <v>196</v>
       </c>
@@ -10250,10 +10250,10 @@
         <v>197</v>
       </c>
       <c r="B16" s="112"/>
-      <c r="C16" s="154" t="s">
+      <c r="C16" s="136" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="154"/>
+      <c r="D16" s="136"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="113" t="s">
@@ -10279,28 +10279,28 @@
       <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="149" t="s">
+      <c r="A19" s="172" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="149"/>
-      <c r="C19" s="149"/>
-      <c r="D19" s="149"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="149"/>
-      <c r="G19" s="149"/>
+      <c r="B19" s="172"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="172"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="143" t="s">
+      <c r="B20" s="166" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="145"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="168"/>
       <c r="H20" s="95"/>
       <c r="I20" s="95"/>
       <c r="K20" s="95"/>
@@ -10312,12 +10312,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="106"/>
-      <c r="B21" s="160"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
+      <c r="B21" s="151"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="K21" s="102"/>
@@ -10329,12 +10329,12 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="107"/>
-      <c r="B22" s="161"/>
-      <c r="C22" s="161"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
       <c r="H22" s="102"/>
       <c r="I22" s="102"/>
       <c r="K22" s="102"/>
@@ -10346,12 +10346,12 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="108"/>
-      <c r="B23" s="162"/>
-      <c r="C23" s="162"/>
-      <c r="D23" s="162"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="162"/>
+      <c r="B23" s="155"/>
+      <c r="C23" s="155"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
       <c r="H23" s="102"/>
       <c r="I23" s="102"/>
       <c r="J23" s="95"/>
@@ -10367,29 +10367,29 @@
       <c r="J24" s="102"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="146" t="s">
+      <c r="A25" s="169" t="s">
         <v>213</v>
       </c>
-      <c r="B25" s="147"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="148"/>
+      <c r="B25" s="170"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="171"/>
       <c r="J25" s="102"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="167" t="s">
+      <c r="B26" s="147" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="167"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="167"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
       <c r="H26" s="95"/>
       <c r="I26" s="95"/>
       <c r="J26" s="102"/>
@@ -10404,14 +10404,14 @@
       <c r="A27" s="106">
         <v>1</v>
       </c>
-      <c r="B27" s="168" t="s">
+      <c r="B27" s="148" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="168"/>
-      <c r="D27" s="168"/>
-      <c r="E27" s="168"/>
-      <c r="F27" s="168"/>
-      <c r="G27" s="168"/>
+      <c r="C27" s="148"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="K27" s="102"/>
@@ -10423,12 +10423,12 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="107"/>
-      <c r="B28" s="169"/>
-      <c r="C28" s="169"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="169"/>
+      <c r="B28" s="149"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="K28" s="102"/>
@@ -10440,12 +10440,12 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="108"/>
-      <c r="B29" s="170"/>
-      <c r="C29" s="170"/>
-      <c r="D29" s="170"/>
-      <c r="E29" s="170"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="170"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
       <c r="J29" s="95"/>
@@ -10474,29 +10474,29 @@
       <c r="O30"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="146" t="s">
+      <c r="A31" s="169" t="s">
         <v>214</v>
       </c>
-      <c r="B31" s="147"/>
-      <c r="C31" s="147"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="148"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="170"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="171"/>
       <c r="J31" s="102"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="167" t="s">
+      <c r="B32" s="147" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="167"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="167"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
       <c r="H32" s="95"/>
       <c r="I32" s="95"/>
       <c r="J32" s="102"/>
@@ -10509,12 +10509,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="106"/>
-      <c r="B33" s="160"/>
-      <c r="C33" s="160"/>
-      <c r="D33" s="160"/>
-      <c r="E33" s="160"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="171"/>
+      <c r="B33" s="151"/>
+      <c r="C33" s="151"/>
+      <c r="D33" s="151"/>
+      <c r="E33" s="151"/>
+      <c r="F33" s="151"/>
+      <c r="G33" s="152"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33"/>
@@ -10527,12 +10527,12 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="107"/>
-      <c r="B34" s="161"/>
-      <c r="C34" s="161"/>
-      <c r="D34" s="161"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="172"/>
+      <c r="B34" s="153"/>
+      <c r="C34" s="153"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="154"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="K34" s="102"/>
@@ -10544,12 +10544,12 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="108"/>
-      <c r="B35" s="162"/>
-      <c r="C35" s="162"/>
-      <c r="D35" s="162"/>
-      <c r="E35" s="162"/>
-      <c r="F35" s="162"/>
-      <c r="G35" s="173"/>
+      <c r="B35" s="155"/>
+      <c r="C35" s="155"/>
+      <c r="D35" s="155"/>
+      <c r="E35" s="155"/>
+      <c r="F35" s="155"/>
+      <c r="G35" s="156"/>
       <c r="H35" s="102"/>
       <c r="I35" s="102"/>
       <c r="J35" s="95"/>
@@ -10602,64 +10602,64 @@
       <c r="P38" s="49"/>
     </row>
     <row r="39" spans="1:17" ht="15">
-      <c r="A39" s="184" t="s">
+      <c r="A39" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="184" t="s">
+      <c r="B39" s="185" t="s">
         <v>119</v>
       </c>
       <c r="C39" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="D39" s="184" t="s">
+      <c r="D39" s="185" t="s">
         <v>101</v>
       </c>
-      <c r="E39" s="184" t="s">
+      <c r="E39" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="184" t="s">
+      <c r="F39" s="185" t="s">
         <v>197</v>
       </c>
-      <c r="G39" s="184" t="s">
+      <c r="G39" s="185" t="s">
         <v>140</v>
       </c>
-      <c r="H39" s="184" t="s">
+      <c r="H39" s="185" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="192" t="s">
+      <c r="I39" s="191" t="s">
         <v>258</v>
       </c>
       <c r="J39" s="179" t="s">
         <v>216</v>
       </c>
-      <c r="K39" s="188" t="s">
+      <c r="K39" s="187" t="s">
         <v>122</v>
       </c>
-      <c r="L39" s="189"/>
-      <c r="M39" s="190" t="s">
+      <c r="L39" s="188"/>
+      <c r="M39" s="189" t="s">
         <v>123</v>
       </c>
-      <c r="N39" s="189"/>
+      <c r="N39" s="188"/>
       <c r="O39" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="P39" s="184" t="s">
+      <c r="P39" s="185" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="15">
-      <c r="A40" s="187"/>
-      <c r="B40" s="187"/>
+      <c r="A40" s="190"/>
+      <c r="B40" s="190"/>
       <c r="C40" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="D40" s="187"/>
-      <c r="E40" s="185"/>
-      <c r="F40" s="185"/>
-      <c r="G40" s="187"/>
-      <c r="H40" s="187"/>
-      <c r="I40" s="187"/>
-      <c r="J40" s="186"/>
+      <c r="D40" s="190"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="186"/>
+      <c r="G40" s="190"/>
+      <c r="H40" s="190"/>
+      <c r="I40" s="190"/>
+      <c r="J40" s="180"/>
       <c r="K40" s="53" t="s">
         <v>126</v>
       </c>
@@ -10675,7 +10675,7 @@
       <c r="O40" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="P40" s="187"/>
+      <c r="P40" s="190"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="55">
@@ -11131,19 +11131,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
     <mergeCell ref="P39:P40"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="B32:G32"/>
@@ -11160,6 +11147,19 @@
     <mergeCell ref="J39:J40"/>
     <mergeCell ref="K39:L39"/>
     <mergeCell ref="M39:N39"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -11692,7 +11692,7 @@
   <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -11852,10 +11852,10 @@
         <v>194</v>
       </c>
       <c r="B16" s="112"/>
-      <c r="C16" s="154" t="s">
+      <c r="C16" s="136" t="s">
         <v>195</v>
       </c>
-      <c r="D16" s="154"/>
+      <c r="D16" s="136"/>
       <c r="E16" s="1" t="s">
         <v>196</v>
       </c>
@@ -11865,20 +11865,20 @@
         <v>197</v>
       </c>
       <c r="B17" s="112"/>
-      <c r="C17" s="154" t="s">
+      <c r="C17" s="136" t="s">
         <v>198</v>
       </c>
-      <c r="D17" s="154"/>
+      <c r="D17" s="136"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="112" t="s">
         <v>235</v>
       </c>
       <c r="B18" s="112"/>
-      <c r="C18" s="153" t="s">
+      <c r="C18" s="135" t="s">
         <v>237</v>
       </c>
-      <c r="D18" s="154"/>
+      <c r="D18" s="136"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="113" t="s">
@@ -11928,28 +11928,28 @@
       <c r="A21" s="6"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="149" t="s">
+      <c r="A22" s="172" t="s">
         <v>212</v>
       </c>
-      <c r="B22" s="149"/>
-      <c r="C22" s="149"/>
-      <c r="D22" s="149"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="149"/>
-      <c r="G22" s="149"/>
+      <c r="B22" s="172"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="172"/>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="143" t="s">
+      <c r="B23" s="166" t="s">
         <v>203</v>
       </c>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="145"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="168"/>
       <c r="H23" s="95"/>
       <c r="I23" s="95"/>
       <c r="J23" s="95"/>
@@ -11963,12 +11963,12 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="106"/>
-      <c r="B24" s="160"/>
-      <c r="C24" s="160"/>
-      <c r="D24" s="160"/>
-      <c r="E24" s="160"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="160"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
       <c r="H24" s="102"/>
       <c r="I24" s="102"/>
       <c r="J24" s="102"/>
@@ -11982,12 +11982,12 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="107"/>
-      <c r="B25" s="161"/>
-      <c r="C25" s="161"/>
-      <c r="D25" s="161"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="161"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="153"/>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
       <c r="J25" s="102"/>
@@ -12001,12 +12001,12 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="108"/>
-      <c r="B26" s="162"/>
-      <c r="C26" s="162"/>
-      <c r="D26" s="162"/>
-      <c r="E26" s="162"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="162"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="J26" s="102"/>
@@ -12022,28 +12022,28 @@
       <c r="C27"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="146" t="s">
+      <c r="A28" s="169" t="s">
         <v>213</v>
       </c>
-      <c r="B28" s="147"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="148"/>
+      <c r="B28" s="170"/>
+      <c r="C28" s="170"/>
+      <c r="D28" s="170"/>
+      <c r="E28" s="170"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="171"/>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="167" t="s">
+      <c r="B29" s="147" t="s">
         <v>204</v>
       </c>
-      <c r="C29" s="167"/>
-      <c r="D29" s="167"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="167"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
       <c r="H29" s="95"/>
       <c r="I29" s="95"/>
       <c r="J29" s="95"/>
@@ -12059,14 +12059,14 @@
       <c r="A30" s="106">
         <v>1</v>
       </c>
-      <c r="B30" s="168" t="s">
+      <c r="B30" s="148" t="s">
         <v>205</v>
       </c>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="168"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
       <c r="H30" s="102"/>
       <c r="I30" s="102"/>
       <c r="J30" s="102"/>
@@ -12080,12 +12080,12 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="107"/>
-      <c r="B31" s="169"/>
-      <c r="C31" s="169"/>
-      <c r="D31" s="169"/>
-      <c r="E31" s="169"/>
-      <c r="F31" s="169"/>
-      <c r="G31" s="169"/>
+      <c r="B31" s="149"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
       <c r="J31" s="102"/>
@@ -12099,12 +12099,12 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="108"/>
-      <c r="B32" s="170"/>
-      <c r="C32" s="170"/>
-      <c r="D32" s="170"/>
-      <c r="E32" s="170"/>
-      <c r="F32" s="170"/>
-      <c r="G32" s="170"/>
+      <c r="B32" s="150"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="J32" s="102"/>
@@ -12135,28 +12135,28 @@
       <c r="P33"/>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="146" t="s">
+      <c r="A34" s="169" t="s">
         <v>214</v>
       </c>
-      <c r="B34" s="147"/>
-      <c r="C34" s="147"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="148"/>
+      <c r="B34" s="170"/>
+      <c r="C34" s="170"/>
+      <c r="D34" s="170"/>
+      <c r="E34" s="170"/>
+      <c r="F34" s="170"/>
+      <c r="G34" s="171"/>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="167" t="s">
+      <c r="B35" s="147" t="s">
         <v>206</v>
       </c>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
-      <c r="E35" s="167"/>
-      <c r="F35" s="167"/>
-      <c r="G35" s="167"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="147"/>
       <c r="H35" s="95"/>
       <c r="I35" s="95"/>
       <c r="J35" s="95"/>
@@ -12170,12 +12170,12 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="106"/>
-      <c r="B36" s="160"/>
-      <c r="C36" s="160"/>
-      <c r="D36" s="160"/>
-      <c r="E36" s="160"/>
-      <c r="F36" s="160"/>
-      <c r="G36" s="171"/>
+      <c r="B36" s="151"/>
+      <c r="C36" s="151"/>
+      <c r="D36" s="151"/>
+      <c r="E36" s="151"/>
+      <c r="F36" s="151"/>
+      <c r="G36" s="152"/>
       <c r="H36" s="102"/>
       <c r="I36" s="102"/>
       <c r="J36" s="102"/>
@@ -12189,12 +12189,12 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="107"/>
-      <c r="B37" s="161"/>
-      <c r="C37" s="161"/>
-      <c r="D37" s="161"/>
-      <c r="E37" s="161"/>
-      <c r="F37" s="161"/>
-      <c r="G37" s="172"/>
+      <c r="B37" s="153"/>
+      <c r="C37" s="153"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="153"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="154"/>
       <c r="H37" s="102"/>
       <c r="I37" s="102"/>
       <c r="J37" s="102"/>
@@ -12208,12 +12208,12 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="108"/>
-      <c r="B38" s="162"/>
-      <c r="C38" s="162"/>
-      <c r="D38" s="162"/>
-      <c r="E38" s="162"/>
-      <c r="F38" s="162"/>
-      <c r="G38" s="173"/>
+      <c r="B38" s="155"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="155"/>
+      <c r="E38" s="155"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="156"/>
       <c r="H38" s="102"/>
       <c r="I38" s="102"/>
       <c r="J38" s="102"/>
@@ -12277,16 +12277,16 @@
       <c r="B42" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="181" t="s">
+      <c r="C42" s="182" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="184" t="s">
+      <c r="E42" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="F42" s="184" t="s">
+      <c r="F42" s="185" t="s">
         <v>197</v>
       </c>
       <c r="G42" s="179" t="s">
@@ -12304,14 +12304,14 @@
       <c r="K42" s="179" t="s">
         <v>216</v>
       </c>
-      <c r="L42" s="182" t="s">
+      <c r="L42" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="M42" s="183"/>
-      <c r="N42" s="182" t="s">
+      <c r="M42" s="184"/>
+      <c r="N42" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="O42" s="183"/>
+      <c r="O42" s="184"/>
       <c r="P42" s="32" t="s">
         <v>70</v>
       </c>
@@ -12320,17 +12320,17 @@
       </c>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="180"/>
-      <c r="B43" s="180"/>
-      <c r="C43" s="180"/>
-      <c r="D43" s="180"/>
-      <c r="E43" s="185"/>
-      <c r="F43" s="185"/>
-      <c r="G43" s="180"/>
-      <c r="H43" s="180"/>
-      <c r="I43" s="180"/>
-      <c r="J43" s="180"/>
-      <c r="K43" s="186"/>
+      <c r="A43" s="181"/>
+      <c r="B43" s="181"/>
+      <c r="C43" s="181"/>
+      <c r="D43" s="181"/>
+      <c r="E43" s="186"/>
+      <c r="F43" s="186"/>
+      <c r="G43" s="181"/>
+      <c r="H43" s="181"/>
+      <c r="I43" s="181"/>
+      <c r="J43" s="181"/>
+      <c r="K43" s="180"/>
       <c r="L43" s="27" t="s">
         <v>75</v>
       </c>
@@ -12346,7 +12346,7 @@
       <c r="P43" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="Q43" s="180"/>
+      <c r="Q43" s="181"/>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="7">
@@ -12463,17 +12463,19 @@
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E47" s="73"/>
+        <v>111</v>
+      </c>
+      <c r="E47" s="73" t="s">
+        <v>103</v>
+      </c>
       <c r="F47" s="73"/>
       <c r="G47" s="78"/>
       <c r="H47" s="73"/>
       <c r="I47" s="73"/>
-      <c r="J47" s="123"/>
-      <c r="K47" s="24" t="s">
-        <v>141</v>
-      </c>
+      <c r="J47" s="123" t="s">
+        <v>228</v>
+      </c>
+      <c r="K47" s="24"/>
       <c r="L47" s="20"/>
       <c r="M47" s="29"/>
       <c r="N47" s="20"/>
@@ -12894,22 +12896,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="H42:H43"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="A22:G22"/>
@@ -12926,6 +12912,22 @@
     <mergeCell ref="F42:F43"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B24:G24"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B35:G35"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="4">
@@ -13118,10 +13120,10 @@
         <v>194</v>
       </c>
       <c r="B13" s="112"/>
-      <c r="C13" s="154" t="s">
+      <c r="C13" s="136" t="s">
         <v>195</v>
       </c>
-      <c r="D13" s="154"/>
+      <c r="D13" s="136"/>
       <c r="E13" s="1" t="s">
         <v>196</v>
       </c>
@@ -13131,10 +13133,10 @@
         <v>197</v>
       </c>
       <c r="B14" s="112"/>
-      <c r="C14" s="154" t="s">
+      <c r="C14" s="136" t="s">
         <v>198</v>
       </c>
-      <c r="D14" s="154"/>
+      <c r="D14" s="136"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="113" t="s">
@@ -13160,28 +13162,28 @@
       <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="149" t="s">
+      <c r="A17" s="172" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="149"/>
-      <c r="C17" s="149"/>
-      <c r="D17" s="149"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
+      <c r="B17" s="172"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="172"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="143" t="s">
+      <c r="B18" s="166" t="s">
         <v>203</v>
       </c>
-      <c r="C18" s="144"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="145"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="168"/>
       <c r="H18" s="95"/>
       <c r="I18" s="95"/>
       <c r="K18" s="95"/>
@@ -13193,12 +13195,12 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="106"/>
-      <c r="B19" s="160"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
+      <c r="B19" s="151"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="151"/>
       <c r="H19" s="102"/>
       <c r="I19" s="102"/>
       <c r="K19" s="102"/>
@@ -13210,12 +13212,12 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="107"/>
-      <c r="B20" s="161"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
+      <c r="B20" s="153"/>
+      <c r="C20" s="153"/>
+      <c r="D20" s="153"/>
+      <c r="E20" s="153"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="153"/>
       <c r="H20" s="102"/>
       <c r="I20" s="102"/>
       <c r="K20" s="102"/>
@@ -13227,12 +13229,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="108"/>
-      <c r="B21" s="162"/>
-      <c r="C21" s="162"/>
-      <c r="D21" s="162"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="162"/>
-      <c r="G21" s="162"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="J21" s="95"/>
@@ -13248,29 +13250,29 @@
       <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="146" t="s">
+      <c r="A23" s="169" t="s">
         <v>213</v>
       </c>
-      <c r="B23" s="147"/>
-      <c r="C23" s="147"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="148"/>
+      <c r="B23" s="170"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="171"/>
       <c r="J23" s="102"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="167" t="s">
+      <c r="B24" s="147" t="s">
         <v>204</v>
       </c>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
       <c r="H24" s="95"/>
       <c r="I24" s="95"/>
       <c r="J24" s="102"/>
@@ -13285,14 +13287,14 @@
       <c r="A25" s="106">
         <v>1</v>
       </c>
-      <c r="B25" s="168" t="s">
+      <c r="B25" s="148" t="s">
         <v>205</v>
       </c>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="168"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="168"/>
+      <c r="C25" s="148"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
       <c r="K25" s="102"/>
@@ -13304,12 +13306,12 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="107"/>
-      <c r="B26" s="169"/>
-      <c r="C26" s="169"/>
-      <c r="D26" s="169"/>
-      <c r="E26" s="169"/>
-      <c r="F26" s="169"/>
-      <c r="G26" s="169"/>
+      <c r="B26" s="149"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="K26" s="102"/>
@@ -13321,12 +13323,12 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="108"/>
-      <c r="B27" s="170"/>
-      <c r="C27" s="170"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="170"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="170"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="95"/>
@@ -13355,29 +13357,29 @@
       <c r="O28"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="146" t="s">
+      <c r="A29" s="169" t="s">
         <v>214</v>
       </c>
-      <c r="B29" s="147"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="148"/>
+      <c r="B29" s="170"/>
+      <c r="C29" s="170"/>
+      <c r="D29" s="170"/>
+      <c r="E29" s="170"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="171"/>
       <c r="J29" s="102"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="167" t="s">
+      <c r="B30" s="147" t="s">
         <v>206</v>
       </c>
-      <c r="C30" s="167"/>
-      <c r="D30" s="167"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="167"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="147"/>
       <c r="H30" s="95"/>
       <c r="I30" s="95"/>
       <c r="J30" s="102"/>
@@ -13390,12 +13392,12 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="106"/>
-      <c r="B31" s="160"/>
-      <c r="C31" s="160"/>
-      <c r="D31" s="160"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="171"/>
+      <c r="B31" s="151"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="151"/>
+      <c r="G31" s="152"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
       <c r="J31"/>
@@ -13408,12 +13410,12 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="107"/>
-      <c r="B32" s="161"/>
-      <c r="C32" s="161"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="172"/>
+      <c r="B32" s="153"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="154"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="K32" s="102"/>
@@ -13425,12 +13427,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="108"/>
-      <c r="B33" s="162"/>
-      <c r="C33" s="162"/>
-      <c r="D33" s="162"/>
-      <c r="E33" s="162"/>
-      <c r="F33" s="162"/>
-      <c r="G33" s="173"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="156"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="95"/>
@@ -13483,64 +13485,64 @@
       <c r="P36" s="49"/>
     </row>
     <row r="37" spans="1:17" ht="15">
-      <c r="A37" s="184" t="s">
+      <c r="A37" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="B37" s="184" t="s">
+      <c r="B37" s="185" t="s">
         <v>119</v>
       </c>
       <c r="C37" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="184" t="s">
+      <c r="D37" s="185" t="s">
         <v>101</v>
       </c>
-      <c r="E37" s="184" t="s">
+      <c r="E37" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="F37" s="184" t="s">
+      <c r="F37" s="185" t="s">
         <v>197</v>
       </c>
-      <c r="G37" s="184" t="s">
+      <c r="G37" s="185" t="s">
         <v>140</v>
       </c>
-      <c r="H37" s="184" t="s">
+      <c r="H37" s="185" t="s">
         <v>116</v>
       </c>
-      <c r="I37" s="184" t="s">
+      <c r="I37" s="185" t="s">
         <v>264</v>
       </c>
       <c r="J37" s="179" t="s">
         <v>216</v>
       </c>
-      <c r="K37" s="188" t="s">
+      <c r="K37" s="187" t="s">
         <v>122</v>
       </c>
-      <c r="L37" s="189"/>
-      <c r="M37" s="190" t="s">
+      <c r="L37" s="188"/>
+      <c r="M37" s="189" t="s">
         <v>123</v>
       </c>
-      <c r="N37" s="189"/>
+      <c r="N37" s="188"/>
       <c r="O37" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="P37" s="184" t="s">
+      <c r="P37" s="185" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15">
-      <c r="A38" s="187"/>
-      <c r="B38" s="187"/>
+      <c r="A38" s="190"/>
+      <c r="B38" s="190"/>
       <c r="C38" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="187"/>
-      <c r="E38" s="185"/>
-      <c r="F38" s="185"/>
-      <c r="G38" s="187"/>
-      <c r="H38" s="187"/>
-      <c r="I38" s="187"/>
-      <c r="J38" s="186"/>
+      <c r="D38" s="190"/>
+      <c r="E38" s="186"/>
+      <c r="F38" s="186"/>
+      <c r="G38" s="190"/>
+      <c r="H38" s="190"/>
+      <c r="I38" s="190"/>
+      <c r="J38" s="180"/>
       <c r="K38" s="53" t="s">
         <v>126</v>
       </c>
@@ -13556,7 +13558,7 @@
       <c r="O38" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="P38" s="187"/>
+      <c r="P38" s="190"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="55">
@@ -14054,6 +14056,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="J37:J38"/>
@@ -14070,19 +14085,6 @@
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -14292,10 +14294,10 @@
         <v>194</v>
       </c>
       <c r="B15" s="112"/>
-      <c r="C15" s="154" t="s">
+      <c r="C15" s="136" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="154"/>
+      <c r="D15" s="136"/>
       <c r="E15" s="1" t="s">
         <v>196</v>
       </c>
@@ -14305,10 +14307,10 @@
         <v>197</v>
       </c>
       <c r="B16" s="112"/>
-      <c r="C16" s="154" t="s">
+      <c r="C16" s="136" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="154"/>
+      <c r="D16" s="136"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="113" t="s">
@@ -14334,28 +14336,28 @@
       <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="149" t="s">
+      <c r="A19" s="172" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="149"/>
-      <c r="C19" s="149"/>
-      <c r="D19" s="149"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="149"/>
-      <c r="G19" s="149"/>
+      <c r="B19" s="172"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="172"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="143" t="s">
+      <c r="B20" s="166" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="145"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="168"/>
       <c r="H20" s="95"/>
       <c r="I20" s="95"/>
       <c r="K20" s="95"/>
@@ -14367,12 +14369,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="106"/>
-      <c r="B21" s="160"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
+      <c r="B21" s="151"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="K21" s="102"/>
@@ -14384,12 +14386,12 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="107"/>
-      <c r="B22" s="161"/>
-      <c r="C22" s="161"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
       <c r="H22" s="102"/>
       <c r="I22" s="102"/>
       <c r="K22" s="102"/>
@@ -14401,12 +14403,12 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="108"/>
-      <c r="B23" s="162"/>
-      <c r="C23" s="162"/>
-      <c r="D23" s="162"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="162"/>
+      <c r="B23" s="155"/>
+      <c r="C23" s="155"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
       <c r="H23" s="102"/>
       <c r="I23" s="102"/>
       <c r="J23" s="95"/>
@@ -14422,29 +14424,29 @@
       <c r="J24" s="102"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="146" t="s">
+      <c r="A25" s="169" t="s">
         <v>213</v>
       </c>
-      <c r="B25" s="147"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="148"/>
+      <c r="B25" s="170"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="171"/>
       <c r="J25" s="102"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="167" t="s">
+      <c r="B26" s="147" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="167"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="167"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
       <c r="H26" s="95"/>
       <c r="I26" s="95"/>
       <c r="J26" s="102"/>
@@ -14459,14 +14461,14 @@
       <c r="A27" s="106">
         <v>1</v>
       </c>
-      <c r="B27" s="168" t="s">
+      <c r="B27" s="148" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="168"/>
-      <c r="D27" s="168"/>
-      <c r="E27" s="168"/>
-      <c r="F27" s="168"/>
-      <c r="G27" s="168"/>
+      <c r="C27" s="148"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="K27" s="102"/>
@@ -14478,12 +14480,12 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="107"/>
-      <c r="B28" s="169"/>
-      <c r="C28" s="169"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="169"/>
+      <c r="B28" s="149"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="K28" s="102"/>
@@ -14495,12 +14497,12 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="108"/>
-      <c r="B29" s="170"/>
-      <c r="C29" s="170"/>
-      <c r="D29" s="170"/>
-      <c r="E29" s="170"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="170"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
       <c r="J29" s="95"/>
@@ -14529,29 +14531,29 @@
       <c r="O30"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="146" t="s">
+      <c r="A31" s="169" t="s">
         <v>214</v>
       </c>
-      <c r="B31" s="147"/>
-      <c r="C31" s="147"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="148"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="170"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="171"/>
       <c r="J31" s="102"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="167" t="s">
+      <c r="B32" s="147" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="167"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="167"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
       <c r="H32" s="95"/>
       <c r="I32" s="95"/>
       <c r="J32" s="102"/>
@@ -14564,12 +14566,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="106"/>
-      <c r="B33" s="160"/>
-      <c r="C33" s="160"/>
-      <c r="D33" s="160"/>
-      <c r="E33" s="160"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="171"/>
+      <c r="B33" s="151"/>
+      <c r="C33" s="151"/>
+      <c r="D33" s="151"/>
+      <c r="E33" s="151"/>
+      <c r="F33" s="151"/>
+      <c r="G33" s="152"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33"/>
@@ -14582,12 +14584,12 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="107"/>
-      <c r="B34" s="161"/>
-      <c r="C34" s="161"/>
-      <c r="D34" s="161"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="172"/>
+      <c r="B34" s="153"/>
+      <c r="C34" s="153"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="154"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="K34" s="102"/>
@@ -14599,12 +14601,12 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="108"/>
-      <c r="B35" s="162"/>
-      <c r="C35" s="162"/>
-      <c r="D35" s="162"/>
-      <c r="E35" s="162"/>
-      <c r="F35" s="162"/>
-      <c r="G35" s="173"/>
+      <c r="B35" s="155"/>
+      <c r="C35" s="155"/>
+      <c r="D35" s="155"/>
+      <c r="E35" s="155"/>
+      <c r="F35" s="155"/>
+      <c r="G35" s="156"/>
       <c r="H35" s="102"/>
       <c r="I35" s="102"/>
       <c r="J35" s="95"/>
@@ -14657,64 +14659,64 @@
       <c r="P38" s="49"/>
     </row>
     <row r="39" spans="1:17" ht="15">
-      <c r="A39" s="184" t="s">
+      <c r="A39" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="184" t="s">
+      <c r="B39" s="185" t="s">
         <v>119</v>
       </c>
       <c r="C39" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="D39" s="184" t="s">
+      <c r="D39" s="185" t="s">
         <v>101</v>
       </c>
-      <c r="E39" s="184" t="s">
+      <c r="E39" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="184" t="s">
+      <c r="F39" s="185" t="s">
         <v>197</v>
       </c>
-      <c r="G39" s="184" t="s">
+      <c r="G39" s="185" t="s">
         <v>140</v>
       </c>
-      <c r="H39" s="192" t="s">
+      <c r="H39" s="191" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="192" t="s">
+      <c r="I39" s="191" t="s">
         <v>258</v>
       </c>
       <c r="J39" s="179" t="s">
         <v>216</v>
       </c>
-      <c r="K39" s="188" t="s">
+      <c r="K39" s="187" t="s">
         <v>122</v>
       </c>
-      <c r="L39" s="189"/>
-      <c r="M39" s="190" t="s">
+      <c r="L39" s="188"/>
+      <c r="M39" s="189" t="s">
         <v>123</v>
       </c>
-      <c r="N39" s="189"/>
+      <c r="N39" s="188"/>
       <c r="O39" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="P39" s="184" t="s">
+      <c r="P39" s="185" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="15">
-      <c r="A40" s="187"/>
-      <c r="B40" s="187"/>
+      <c r="A40" s="190"/>
+      <c r="B40" s="190"/>
       <c r="C40" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="D40" s="187"/>
-      <c r="E40" s="185"/>
-      <c r="F40" s="185"/>
-      <c r="G40" s="187"/>
-      <c r="H40" s="187"/>
-      <c r="I40" s="187"/>
-      <c r="J40" s="186"/>
+      <c r="D40" s="190"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="186"/>
+      <c r="G40" s="190"/>
+      <c r="H40" s="190"/>
+      <c r="I40" s="190"/>
+      <c r="J40" s="180"/>
       <c r="K40" s="53" t="s">
         <v>126</v>
       </c>
@@ -14730,7 +14732,7 @@
       <c r="O40" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="P40" s="187"/>
+      <c r="P40" s="190"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="55">
@@ -15186,19 +15188,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
     <mergeCell ref="P39:P40"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="B32:G32"/>
@@ -15215,6 +15204,19 @@
     <mergeCell ref="J39:J40"/>
     <mergeCell ref="K39:L39"/>
     <mergeCell ref="M39:N39"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -15262,8 +15264,8 @@
   </sheetPr>
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -15422,10 +15424,10 @@
         <v>194</v>
       </c>
       <c r="B16" s="112"/>
-      <c r="C16" s="154" t="s">
+      <c r="C16" s="136" t="s">
         <v>195</v>
       </c>
-      <c r="D16" s="154"/>
+      <c r="D16" s="136"/>
       <c r="E16" s="1" t="s">
         <v>196</v>
       </c>
@@ -15435,10 +15437,10 @@
         <v>197</v>
       </c>
       <c r="B17" s="112"/>
-      <c r="C17" s="154" t="s">
+      <c r="C17" s="136" t="s">
         <v>198</v>
       </c>
-      <c r="D17" s="154"/>
+      <c r="D17" s="136"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="113" t="s">
@@ -15510,28 +15512,28 @@
       <c r="J21"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="149" t="s">
+      <c r="A22" s="172" t="s">
         <v>212</v>
       </c>
-      <c r="B22" s="149"/>
-      <c r="C22" s="149"/>
-      <c r="D22" s="149"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="149"/>
-      <c r="G22" s="149"/>
+      <c r="B22" s="172"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="172"/>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="143" t="s">
+      <c r="B23" s="166" t="s">
         <v>203</v>
       </c>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="145"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="168"/>
       <c r="H23" s="95"/>
       <c r="I23" s="95"/>
       <c r="K23" s="95"/>
@@ -15544,12 +15546,12 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="106"/>
-      <c r="B24" s="160"/>
-      <c r="C24" s="160"/>
-      <c r="D24" s="160"/>
-      <c r="E24" s="160"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="160"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
       <c r="H24" s="102"/>
       <c r="I24" s="102"/>
       <c r="J24" s="95"/>
@@ -15563,12 +15565,12 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="107"/>
-      <c r="B25" s="161"/>
-      <c r="C25" s="161"/>
-      <c r="D25" s="161"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="161"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="153"/>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
       <c r="J25" s="102"/>
@@ -15582,12 +15584,12 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="108"/>
-      <c r="B26" s="162"/>
-      <c r="C26" s="162"/>
-      <c r="D26" s="162"/>
-      <c r="E26" s="162"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="162"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="J26" s="102"/>
@@ -15604,28 +15606,28 @@
       <c r="J27" s="102"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="146" t="s">
+      <c r="A28" s="169" t="s">
         <v>213</v>
       </c>
-      <c r="B28" s="147"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="148"/>
+      <c r="B28" s="170"/>
+      <c r="C28" s="170"/>
+      <c r="D28" s="170"/>
+      <c r="E28" s="170"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="171"/>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="167" t="s">
+      <c r="B29" s="147" t="s">
         <v>204</v>
       </c>
-      <c r="C29" s="167"/>
-      <c r="D29" s="167"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="167"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
       <c r="H29" s="95"/>
       <c r="I29" s="95"/>
       <c r="K29" s="95"/>
@@ -15640,14 +15642,14 @@
       <c r="A30" s="106">
         <v>1</v>
       </c>
-      <c r="B30" s="168" t="s">
+      <c r="B30" s="148" t="s">
         <v>205</v>
       </c>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="168"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
       <c r="H30" s="102"/>
       <c r="I30" s="102"/>
       <c r="J30" s="95"/>
@@ -15661,12 +15663,12 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="107"/>
-      <c r="B31" s="169"/>
-      <c r="C31" s="169"/>
-      <c r="D31" s="169"/>
-      <c r="E31" s="169"/>
-      <c r="F31" s="169"/>
-      <c r="G31" s="169"/>
+      <c r="B31" s="149"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
       <c r="J31" s="102"/>
@@ -15680,12 +15682,12 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="108"/>
-      <c r="B32" s="170"/>
-      <c r="C32" s="170"/>
-      <c r="D32" s="170"/>
-      <c r="E32" s="170"/>
-      <c r="F32" s="170"/>
-      <c r="G32" s="170"/>
+      <c r="B32" s="150"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="J32" s="102"/>
@@ -15716,29 +15718,29 @@
       <c r="P33"/>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="146" t="s">
+      <c r="A34" s="169" t="s">
         <v>214</v>
       </c>
-      <c r="B34" s="147"/>
-      <c r="C34" s="147"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="148"/>
+      <c r="B34" s="170"/>
+      <c r="C34" s="170"/>
+      <c r="D34" s="170"/>
+      <c r="E34" s="170"/>
+      <c r="F34" s="170"/>
+      <c r="G34" s="171"/>
       <c r="J34"/>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="167" t="s">
+      <c r="B35" s="147" t="s">
         <v>206</v>
       </c>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
-      <c r="E35" s="167"/>
-      <c r="F35" s="167"/>
-      <c r="G35" s="167"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="147"/>
       <c r="H35" s="95"/>
       <c r="I35" s="95"/>
       <c r="K35" s="95"/>
@@ -15751,12 +15753,12 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="106"/>
-      <c r="B36" s="160"/>
-      <c r="C36" s="160"/>
-      <c r="D36" s="160"/>
-      <c r="E36" s="160"/>
-      <c r="F36" s="160"/>
-      <c r="G36" s="171"/>
+      <c r="B36" s="151"/>
+      <c r="C36" s="151"/>
+      <c r="D36" s="151"/>
+      <c r="E36" s="151"/>
+      <c r="F36" s="151"/>
+      <c r="G36" s="152"/>
       <c r="H36" s="102"/>
       <c r="I36" s="102"/>
       <c r="J36" s="95"/>
@@ -15770,12 +15772,12 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="107"/>
-      <c r="B37" s="161"/>
-      <c r="C37" s="161"/>
-      <c r="D37" s="161"/>
-      <c r="E37" s="161"/>
-      <c r="F37" s="161"/>
-      <c r="G37" s="172"/>
+      <c r="B37" s="153"/>
+      <c r="C37" s="153"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="153"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="154"/>
       <c r="H37" s="102"/>
       <c r="I37" s="102"/>
       <c r="J37" s="102"/>
@@ -15789,12 +15791,12 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="108"/>
-      <c r="B38" s="162"/>
-      <c r="C38" s="162"/>
-      <c r="D38" s="162"/>
-      <c r="E38" s="162"/>
-      <c r="F38" s="162"/>
-      <c r="G38" s="173"/>
+      <c r="B38" s="155"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="155"/>
+      <c r="E38" s="155"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="156"/>
       <c r="H38" s="102"/>
       <c r="I38" s="102"/>
       <c r="J38" s="102"/>
@@ -15858,16 +15860,16 @@
       <c r="B42" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="181" t="s">
+      <c r="C42" s="182" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="184" t="s">
+      <c r="E42" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="F42" s="184" t="s">
+      <c r="F42" s="185" t="s">
         <v>197</v>
       </c>
       <c r="G42" s="179" t="s">
@@ -15885,14 +15887,14 @@
       <c r="K42" s="179" t="s">
         <v>216</v>
       </c>
-      <c r="L42" s="182" t="s">
+      <c r="L42" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="M42" s="183"/>
-      <c r="N42" s="182" t="s">
+      <c r="M42" s="184"/>
+      <c r="N42" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="O42" s="183"/>
+      <c r="O42" s="184"/>
       <c r="P42" s="32" t="s">
         <v>70</v>
       </c>
@@ -15901,17 +15903,17 @@
       </c>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="180"/>
-      <c r="B43" s="180"/>
-      <c r="C43" s="180"/>
-      <c r="D43" s="180"/>
-      <c r="E43" s="185"/>
-      <c r="F43" s="191"/>
-      <c r="G43" s="180"/>
-      <c r="H43" s="180"/>
-      <c r="I43" s="180"/>
-      <c r="J43" s="186"/>
-      <c r="K43" s="186"/>
+      <c r="A43" s="181"/>
+      <c r="B43" s="181"/>
+      <c r="C43" s="181"/>
+      <c r="D43" s="181"/>
+      <c r="E43" s="186"/>
+      <c r="F43" s="192"/>
+      <c r="G43" s="181"/>
+      <c r="H43" s="181"/>
+      <c r="I43" s="181"/>
+      <c r="J43" s="180"/>
+      <c r="K43" s="180"/>
       <c r="L43" s="27" t="s">
         <v>75</v>
       </c>
@@ -15927,7 +15929,7 @@
       <c r="P43" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="Q43" s="180"/>
+      <c r="Q43" s="181"/>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="7">
@@ -16012,16 +16014,18 @@
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="E46" s="25"/>
+        <v>111</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>103</v>
+      </c>
       <c r="F46" s="25"/>
       <c r="G46" s="77"/>
-      <c r="H46" s="25" t="b">
-        <v>1</v>
-      </c>
+      <c r="H46" s="25"/>
       <c r="I46" s="25"/>
-      <c r="J46" s="123"/>
+      <c r="J46" s="123" t="s">
+        <v>228</v>
+      </c>
       <c r="K46" s="24" t="s">
         <v>141</v>
       </c>
@@ -16473,23 +16477,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
     <mergeCell ref="Q42:Q43"/>
@@ -16504,6 +16491,23 @@
     <mergeCell ref="K42:K43"/>
     <mergeCell ref="H42:H43"/>
     <mergeCell ref="J42:J43"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="B35:G35"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="5">
@@ -16702,10 +16706,10 @@
         <v>194</v>
       </c>
       <c r="B13" s="112"/>
-      <c r="C13" s="154" t="s">
+      <c r="C13" s="136" t="s">
         <v>195</v>
       </c>
-      <c r="D13" s="154"/>
+      <c r="D13" s="136"/>
       <c r="E13" s="1" t="s">
         <v>196</v>
       </c>
@@ -16715,10 +16719,10 @@
         <v>197</v>
       </c>
       <c r="B14" s="112"/>
-      <c r="C14" s="154" t="s">
+      <c r="C14" s="136" t="s">
         <v>198</v>
       </c>
-      <c r="D14" s="154"/>
+      <c r="D14" s="136"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="113" t="s">
@@ -16744,28 +16748,28 @@
       <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="149" t="s">
+      <c r="A17" s="172" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="149"/>
-      <c r="C17" s="149"/>
-      <c r="D17" s="149"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
+      <c r="B17" s="172"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="172"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="143" t="s">
+      <c r="B18" s="166" t="s">
         <v>203</v>
       </c>
-      <c r="C18" s="144"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="145"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="168"/>
       <c r="H18" s="95"/>
       <c r="I18" s="95"/>
       <c r="K18" s="95"/>
@@ -16777,12 +16781,12 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="106"/>
-      <c r="B19" s="160"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
+      <c r="B19" s="151"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="151"/>
       <c r="H19" s="102"/>
       <c r="I19" s="102"/>
       <c r="K19" s="102"/>
@@ -16794,12 +16798,12 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="107"/>
-      <c r="B20" s="161"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
+      <c r="B20" s="153"/>
+      <c r="C20" s="153"/>
+      <c r="D20" s="153"/>
+      <c r="E20" s="153"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="153"/>
       <c r="H20" s="102"/>
       <c r="I20" s="102"/>
       <c r="K20" s="102"/>
@@ -16811,12 +16815,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="108"/>
-      <c r="B21" s="162"/>
-      <c r="C21" s="162"/>
-      <c r="D21" s="162"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="162"/>
-      <c r="G21" s="162"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="J21" s="95"/>
@@ -16832,29 +16836,29 @@
       <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="146" t="s">
+      <c r="A23" s="169" t="s">
         <v>213</v>
       </c>
-      <c r="B23" s="147"/>
-      <c r="C23" s="147"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="148"/>
+      <c r="B23" s="170"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="171"/>
       <c r="J23" s="102"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="167" t="s">
+      <c r="B24" s="147" t="s">
         <v>204</v>
       </c>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
       <c r="H24" s="95"/>
       <c r="I24" s="95"/>
       <c r="J24" s="102"/>
@@ -16869,14 +16873,14 @@
       <c r="A25" s="106">
         <v>1</v>
       </c>
-      <c r="B25" s="168" t="s">
+      <c r="B25" s="148" t="s">
         <v>205</v>
       </c>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="168"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="168"/>
+      <c r="C25" s="148"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
       <c r="K25" s="102"/>
@@ -16888,12 +16892,12 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="107"/>
-      <c r="B26" s="169"/>
-      <c r="C26" s="169"/>
-      <c r="D26" s="169"/>
-      <c r="E26" s="169"/>
-      <c r="F26" s="169"/>
-      <c r="G26" s="169"/>
+      <c r="B26" s="149"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="K26" s="102"/>
@@ -16905,12 +16909,12 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="108"/>
-      <c r="B27" s="170"/>
-      <c r="C27" s="170"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="170"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="170"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="95"/>
@@ -16939,29 +16943,29 @@
       <c r="O28"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="146" t="s">
+      <c r="A29" s="169" t="s">
         <v>214</v>
       </c>
-      <c r="B29" s="147"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="148"/>
+      <c r="B29" s="170"/>
+      <c r="C29" s="170"/>
+      <c r="D29" s="170"/>
+      <c r="E29" s="170"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="171"/>
       <c r="J29" s="102"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="167" t="s">
+      <c r="B30" s="147" t="s">
         <v>206</v>
       </c>
-      <c r="C30" s="167"/>
-      <c r="D30" s="167"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="167"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="147"/>
       <c r="H30" s="95"/>
       <c r="I30" s="95"/>
       <c r="J30" s="102"/>
@@ -16974,12 +16978,12 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="106"/>
-      <c r="B31" s="160"/>
-      <c r="C31" s="160"/>
-      <c r="D31" s="160"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="171"/>
+      <c r="B31" s="151"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="151"/>
+      <c r="G31" s="152"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
       <c r="J31"/>
@@ -16992,12 +16996,12 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="107"/>
-      <c r="B32" s="161"/>
-      <c r="C32" s="161"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="172"/>
+      <c r="B32" s="153"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="154"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="K32" s="102"/>
@@ -17009,12 +17013,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="108"/>
-      <c r="B33" s="162"/>
-      <c r="C33" s="162"/>
-      <c r="D33" s="162"/>
-      <c r="E33" s="162"/>
-      <c r="F33" s="162"/>
-      <c r="G33" s="173"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="156"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="95"/>
@@ -17067,64 +17071,64 @@
       <c r="P36" s="49"/>
     </row>
     <row r="37" spans="1:17" ht="15">
-      <c r="A37" s="184" t="s">
+      <c r="A37" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="B37" s="184" t="s">
+      <c r="B37" s="185" t="s">
         <v>119</v>
       </c>
       <c r="C37" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="184" t="s">
+      <c r="D37" s="185" t="s">
         <v>101</v>
       </c>
-      <c r="E37" s="184" t="s">
+      <c r="E37" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="F37" s="184" t="s">
+      <c r="F37" s="185" t="s">
         <v>197</v>
       </c>
-      <c r="G37" s="184" t="s">
+      <c r="G37" s="185" t="s">
         <v>140</v>
       </c>
-      <c r="H37" s="184" t="s">
+      <c r="H37" s="185" t="s">
         <v>116</v>
       </c>
-      <c r="I37" s="184" t="s">
+      <c r="I37" s="185" t="s">
         <v>258</v>
       </c>
       <c r="J37" s="179" t="s">
         <v>216</v>
       </c>
-      <c r="K37" s="188" t="s">
+      <c r="K37" s="187" t="s">
         <v>122</v>
       </c>
-      <c r="L37" s="189"/>
-      <c r="M37" s="190" t="s">
+      <c r="L37" s="188"/>
+      <c r="M37" s="189" t="s">
         <v>123</v>
       </c>
-      <c r="N37" s="189"/>
+      <c r="N37" s="188"/>
       <c r="O37" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="P37" s="184" t="s">
+      <c r="P37" s="185" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15">
-      <c r="A38" s="187"/>
-      <c r="B38" s="187"/>
+      <c r="A38" s="190"/>
+      <c r="B38" s="190"/>
       <c r="C38" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="187"/>
-      <c r="E38" s="191"/>
-      <c r="F38" s="191"/>
-      <c r="G38" s="187"/>
-      <c r="H38" s="187"/>
-      <c r="I38" s="187"/>
-      <c r="J38" s="186"/>
+      <c r="D38" s="190"/>
+      <c r="E38" s="192"/>
+      <c r="F38" s="192"/>
+      <c r="G38" s="190"/>
+      <c r="H38" s="190"/>
+      <c r="I38" s="190"/>
+      <c r="J38" s="180"/>
       <c r="K38" s="53" t="s">
         <v>126</v>
       </c>
@@ -17140,7 +17144,7 @@
       <c r="O38" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="P38" s="187"/>
+      <c r="P38" s="190"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="55">
@@ -17640,23 +17644,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
     <mergeCell ref="M37:N37"/>
     <mergeCell ref="P37:P38"/>
     <mergeCell ref="A37:A38"/>
@@ -17669,6 +17656,23 @@
     <mergeCell ref="F37:F38"/>
     <mergeCell ref="J37:J38"/>
     <mergeCell ref="H37:H38"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="B30:G30"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -17876,10 +17880,10 @@
         <v>194</v>
       </c>
       <c r="B15" s="112"/>
-      <c r="C15" s="154" t="s">
+      <c r="C15" s="136" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="154"/>
+      <c r="D15" s="136"/>
       <c r="E15" s="1" t="s">
         <v>196</v>
       </c>
@@ -17889,10 +17893,10 @@
         <v>197</v>
       </c>
       <c r="B16" s="112"/>
-      <c r="C16" s="154" t="s">
+      <c r="C16" s="136" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="154"/>
+      <c r="D16" s="136"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="113" t="s">
@@ -17918,28 +17922,28 @@
       <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="149" t="s">
+      <c r="A19" s="172" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="149"/>
-      <c r="C19" s="149"/>
-      <c r="D19" s="149"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="149"/>
-      <c r="G19" s="149"/>
+      <c r="B19" s="172"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="172"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="143" t="s">
+      <c r="B20" s="166" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="145"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="168"/>
       <c r="H20" s="95"/>
       <c r="I20" s="95"/>
       <c r="K20" s="95"/>
@@ -17951,12 +17955,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="106"/>
-      <c r="B21" s="160"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
+      <c r="B21" s="151"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="K21" s="102"/>
@@ -17968,12 +17972,12 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="107"/>
-      <c r="B22" s="161"/>
-      <c r="C22" s="161"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
       <c r="H22" s="102"/>
       <c r="I22" s="102"/>
       <c r="K22" s="102"/>
@@ -17985,12 +17989,12 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="108"/>
-      <c r="B23" s="162"/>
-      <c r="C23" s="162"/>
-      <c r="D23" s="162"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="162"/>
+      <c r="B23" s="155"/>
+      <c r="C23" s="155"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
       <c r="H23" s="102"/>
       <c r="I23" s="102"/>
       <c r="J23" s="95"/>
@@ -18006,29 +18010,29 @@
       <c r="J24" s="102"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="146" t="s">
+      <c r="A25" s="169" t="s">
         <v>213</v>
       </c>
-      <c r="B25" s="147"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="148"/>
+      <c r="B25" s="170"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="171"/>
       <c r="J25" s="102"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="167" t="s">
+      <c r="B26" s="147" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="167"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="167"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
       <c r="H26" s="95"/>
       <c r="I26" s="95"/>
       <c r="J26" s="102"/>
@@ -18043,14 +18047,14 @@
       <c r="A27" s="106">
         <v>1</v>
       </c>
-      <c r="B27" s="168" t="s">
+      <c r="B27" s="148" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="168"/>
-      <c r="D27" s="168"/>
-      <c r="E27" s="168"/>
-      <c r="F27" s="168"/>
-      <c r="G27" s="168"/>
+      <c r="C27" s="148"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="K27" s="102"/>
@@ -18062,12 +18066,12 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="107"/>
-      <c r="B28" s="169"/>
-      <c r="C28" s="169"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="169"/>
+      <c r="B28" s="149"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="K28" s="102"/>
@@ -18079,12 +18083,12 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="108"/>
-      <c r="B29" s="170"/>
-      <c r="C29" s="170"/>
-      <c r="D29" s="170"/>
-      <c r="E29" s="170"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="170"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
       <c r="J29" s="95"/>
@@ -18113,29 +18117,29 @@
       <c r="O30"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="146" t="s">
+      <c r="A31" s="169" t="s">
         <v>214</v>
       </c>
-      <c r="B31" s="147"/>
-      <c r="C31" s="147"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="148"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="170"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="171"/>
       <c r="J31" s="102"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="167" t="s">
+      <c r="B32" s="147" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="167"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="167"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
       <c r="H32" s="95"/>
       <c r="I32" s="95"/>
       <c r="J32" s="102"/>
@@ -18148,12 +18152,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="106"/>
-      <c r="B33" s="160"/>
-      <c r="C33" s="160"/>
-      <c r="D33" s="160"/>
-      <c r="E33" s="160"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="171"/>
+      <c r="B33" s="151"/>
+      <c r="C33" s="151"/>
+      <c r="D33" s="151"/>
+      <c r="E33" s="151"/>
+      <c r="F33" s="151"/>
+      <c r="G33" s="152"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33"/>
@@ -18166,12 +18170,12 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="107"/>
-      <c r="B34" s="161"/>
-      <c r="C34" s="161"/>
-      <c r="D34" s="161"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="172"/>
+      <c r="B34" s="153"/>
+      <c r="C34" s="153"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="154"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="K34" s="102"/>
@@ -18183,12 +18187,12 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="108"/>
-      <c r="B35" s="162"/>
-      <c r="C35" s="162"/>
-      <c r="D35" s="162"/>
-      <c r="E35" s="162"/>
-      <c r="F35" s="162"/>
-      <c r="G35" s="173"/>
+      <c r="B35" s="155"/>
+      <c r="C35" s="155"/>
+      <c r="D35" s="155"/>
+      <c r="E35" s="155"/>
+      <c r="F35" s="155"/>
+      <c r="G35" s="156"/>
       <c r="H35" s="102"/>
       <c r="I35" s="102"/>
       <c r="J35" s="95"/>
@@ -18241,64 +18245,64 @@
       <c r="P38" s="49"/>
     </row>
     <row r="39" spans="1:17" ht="15">
-      <c r="A39" s="184" t="s">
+      <c r="A39" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="184" t="s">
+      <c r="B39" s="185" t="s">
         <v>119</v>
       </c>
       <c r="C39" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="D39" s="184" t="s">
+      <c r="D39" s="185" t="s">
         <v>101</v>
       </c>
-      <c r="E39" s="184" t="s">
+      <c r="E39" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="184" t="s">
+      <c r="F39" s="185" t="s">
         <v>197</v>
       </c>
-      <c r="G39" s="184" t="s">
+      <c r="G39" s="185" t="s">
         <v>140</v>
       </c>
-      <c r="H39" s="184" t="s">
+      <c r="H39" s="185" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="184" t="s">
+      <c r="I39" s="185" t="s">
         <v>258</v>
       </c>
       <c r="J39" s="179" t="s">
         <v>216</v>
       </c>
-      <c r="K39" s="188" t="s">
+      <c r="K39" s="187" t="s">
         <v>122</v>
       </c>
-      <c r="L39" s="189"/>
-      <c r="M39" s="190" t="s">
+      <c r="L39" s="188"/>
+      <c r="M39" s="189" t="s">
         <v>123</v>
       </c>
-      <c r="N39" s="189"/>
+      <c r="N39" s="188"/>
       <c r="O39" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="P39" s="184" t="s">
+      <c r="P39" s="185" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="15">
-      <c r="A40" s="187"/>
-      <c r="B40" s="187"/>
+      <c r="A40" s="190"/>
+      <c r="B40" s="190"/>
       <c r="C40" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="D40" s="187"/>
-      <c r="E40" s="185"/>
-      <c r="F40" s="185"/>
-      <c r="G40" s="187"/>
-      <c r="H40" s="187"/>
-      <c r="I40" s="187"/>
-      <c r="J40" s="186"/>
+      <c r="D40" s="190"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="186"/>
+      <c r="G40" s="190"/>
+      <c r="H40" s="190"/>
+      <c r="I40" s="190"/>
+      <c r="J40" s="180"/>
       <c r="K40" s="53" t="s">
         <v>126</v>
       </c>
@@ -18314,7 +18318,7 @@
       <c r="O40" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="P40" s="187"/>
+      <c r="P40" s="190"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="55">
@@ -18770,19 +18774,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
     <mergeCell ref="P39:P40"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="B32:G32"/>
@@ -18799,6 +18790,19 @@
     <mergeCell ref="J39:J40"/>
     <mergeCell ref="K39:L39"/>
     <mergeCell ref="M39:N39"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -19006,10 +19010,10 @@
         <v>194</v>
       </c>
       <c r="B16" s="112"/>
-      <c r="C16" s="154" t="s">
+      <c r="C16" s="136" t="s">
         <v>195</v>
       </c>
-      <c r="D16" s="154"/>
+      <c r="D16" s="136"/>
       <c r="E16" s="1" t="s">
         <v>196</v>
       </c>
@@ -19019,10 +19023,10 @@
         <v>197</v>
       </c>
       <c r="B17" s="112"/>
-      <c r="C17" s="154" t="s">
+      <c r="C17" s="136" t="s">
         <v>198</v>
       </c>
-      <c r="D17" s="154"/>
+      <c r="D17" s="136"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="113" t="s">
@@ -19094,28 +19098,28 @@
       <c r="J21"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="149" t="s">
+      <c r="A22" s="172" t="s">
         <v>212</v>
       </c>
-      <c r="B22" s="149"/>
-      <c r="C22" s="149"/>
-      <c r="D22" s="149"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="149"/>
-      <c r="G22" s="149"/>
+      <c r="B22" s="172"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="172"/>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="143" t="s">
+      <c r="B23" s="166" t="s">
         <v>203</v>
       </c>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="145"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="168"/>
       <c r="H23" s="95"/>
       <c r="I23" s="95"/>
       <c r="K23" s="95"/>
@@ -19128,12 +19132,12 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="106"/>
-      <c r="B24" s="160"/>
-      <c r="C24" s="160"/>
-      <c r="D24" s="160"/>
-      <c r="E24" s="160"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="160"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
       <c r="H24" s="102"/>
       <c r="I24" s="102"/>
       <c r="J24" s="95"/>
@@ -19147,12 +19151,12 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="107"/>
-      <c r="B25" s="161"/>
-      <c r="C25" s="161"/>
-      <c r="D25" s="161"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="161"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="153"/>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
       <c r="J25" s="102"/>
@@ -19166,12 +19170,12 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="108"/>
-      <c r="B26" s="162"/>
-      <c r="C26" s="162"/>
-      <c r="D26" s="162"/>
-      <c r="E26" s="162"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="162"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="J26" s="102"/>
@@ -19188,28 +19192,28 @@
       <c r="J27" s="102"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="146" t="s">
+      <c r="A28" s="169" t="s">
         <v>213</v>
       </c>
-      <c r="B28" s="147"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="148"/>
+      <c r="B28" s="170"/>
+      <c r="C28" s="170"/>
+      <c r="D28" s="170"/>
+      <c r="E28" s="170"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="171"/>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="167" t="s">
+      <c r="B29" s="147" t="s">
         <v>204</v>
       </c>
-      <c r="C29" s="167"/>
-      <c r="D29" s="167"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="167"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
       <c r="H29" s="95"/>
       <c r="I29" s="95"/>
       <c r="K29" s="95"/>
@@ -19224,14 +19228,14 @@
       <c r="A30" s="106">
         <v>1</v>
       </c>
-      <c r="B30" s="168" t="s">
+      <c r="B30" s="148" t="s">
         <v>205</v>
       </c>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="168"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
       <c r="H30" s="102"/>
       <c r="I30" s="102"/>
       <c r="J30" s="95"/>
@@ -19245,12 +19249,12 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="107"/>
-      <c r="B31" s="169"/>
-      <c r="C31" s="169"/>
-      <c r="D31" s="169"/>
-      <c r="E31" s="169"/>
-      <c r="F31" s="169"/>
-      <c r="G31" s="169"/>
+      <c r="B31" s="149"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
       <c r="J31" s="102"/>
@@ -19264,12 +19268,12 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="108"/>
-      <c r="B32" s="170"/>
-      <c r="C32" s="170"/>
-      <c r="D32" s="170"/>
-      <c r="E32" s="170"/>
-      <c r="F32" s="170"/>
-      <c r="G32" s="170"/>
+      <c r="B32" s="150"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="J32" s="102"/>
@@ -19300,29 +19304,29 @@
       <c r="P33"/>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="146" t="s">
+      <c r="A34" s="169" t="s">
         <v>214</v>
       </c>
-      <c r="B34" s="147"/>
-      <c r="C34" s="147"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="148"/>
+      <c r="B34" s="170"/>
+      <c r="C34" s="170"/>
+      <c r="D34" s="170"/>
+      <c r="E34" s="170"/>
+      <c r="F34" s="170"/>
+      <c r="G34" s="171"/>
       <c r="J34"/>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="167" t="s">
+      <c r="B35" s="147" t="s">
         <v>206</v>
       </c>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
-      <c r="E35" s="167"/>
-      <c r="F35" s="167"/>
-      <c r="G35" s="167"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="147"/>
       <c r="H35" s="95"/>
       <c r="I35" s="95"/>
       <c r="K35" s="95"/>
@@ -19335,12 +19339,12 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="106"/>
-      <c r="B36" s="160"/>
-      <c r="C36" s="160"/>
-      <c r="D36" s="160"/>
-      <c r="E36" s="160"/>
-      <c r="F36" s="160"/>
-      <c r="G36" s="171"/>
+      <c r="B36" s="151"/>
+      <c r="C36" s="151"/>
+      <c r="D36" s="151"/>
+      <c r="E36" s="151"/>
+      <c r="F36" s="151"/>
+      <c r="G36" s="152"/>
       <c r="H36" s="102"/>
       <c r="I36" s="102"/>
       <c r="J36" s="95"/>
@@ -19354,12 +19358,12 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="107"/>
-      <c r="B37" s="161"/>
-      <c r="C37" s="161"/>
-      <c r="D37" s="161"/>
-      <c r="E37" s="161"/>
-      <c r="F37" s="161"/>
-      <c r="G37" s="172"/>
+      <c r="B37" s="153"/>
+      <c r="C37" s="153"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="153"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="154"/>
       <c r="H37" s="102"/>
       <c r="I37" s="102"/>
       <c r="J37" s="102"/>
@@ -19373,12 +19377,12 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="108"/>
-      <c r="B38" s="162"/>
-      <c r="C38" s="162"/>
-      <c r="D38" s="162"/>
-      <c r="E38" s="162"/>
-      <c r="F38" s="162"/>
-      <c r="G38" s="173"/>
+      <c r="B38" s="155"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="155"/>
+      <c r="E38" s="155"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="156"/>
       <c r="H38" s="102"/>
       <c r="I38" s="102"/>
       <c r="J38" s="102"/>
@@ -19442,16 +19446,16 @@
       <c r="B42" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="181" t="s">
+      <c r="C42" s="182" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="184" t="s">
+      <c r="E42" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="F42" s="184" t="s">
+      <c r="F42" s="185" t="s">
         <v>197</v>
       </c>
       <c r="G42" s="179" t="s">
@@ -19469,14 +19473,14 @@
       <c r="K42" s="179" t="s">
         <v>216</v>
       </c>
-      <c r="L42" s="182" t="s">
+      <c r="L42" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="M42" s="183"/>
-      <c r="N42" s="182" t="s">
+      <c r="M42" s="184"/>
+      <c r="N42" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="O42" s="183"/>
+      <c r="O42" s="184"/>
       <c r="P42" s="32" t="s">
         <v>70</v>
       </c>
@@ -19485,17 +19489,17 @@
       </c>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="180"/>
-      <c r="B43" s="180"/>
-      <c r="C43" s="180"/>
-      <c r="D43" s="180"/>
-      <c r="E43" s="185"/>
-      <c r="F43" s="191"/>
-      <c r="G43" s="180"/>
-      <c r="H43" s="180"/>
-      <c r="I43" s="180"/>
-      <c r="J43" s="186"/>
-      <c r="K43" s="186"/>
+      <c r="A43" s="181"/>
+      <c r="B43" s="181"/>
+      <c r="C43" s="181"/>
+      <c r="D43" s="181"/>
+      <c r="E43" s="186"/>
+      <c r="F43" s="192"/>
+      <c r="G43" s="181"/>
+      <c r="H43" s="181"/>
+      <c r="I43" s="181"/>
+      <c r="J43" s="180"/>
+      <c r="K43" s="180"/>
       <c r="L43" s="27" t="s">
         <v>75</v>
       </c>
@@ -19511,7 +19515,7 @@
       <c r="P43" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="Q43" s="180"/>
+      <c r="Q43" s="181"/>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="7">
@@ -20057,23 +20061,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
     <mergeCell ref="Q42:Q43"/>
@@ -20088,6 +20075,23 @@
     <mergeCell ref="K42:K43"/>
     <mergeCell ref="I42:I43"/>
     <mergeCell ref="J42:J43"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="B35:G35"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="5">
@@ -20285,10 +20289,10 @@
         <v>194</v>
       </c>
       <c r="B13" s="112"/>
-      <c r="C13" s="154" t="s">
+      <c r="C13" s="136" t="s">
         <v>195</v>
       </c>
-      <c r="D13" s="154"/>
+      <c r="D13" s="136"/>
       <c r="E13" s="1" t="s">
         <v>196</v>
       </c>
@@ -20298,10 +20302,10 @@
         <v>197</v>
       </c>
       <c r="B14" s="112"/>
-      <c r="C14" s="154" t="s">
+      <c r="C14" s="136" t="s">
         <v>198</v>
       </c>
-      <c r="D14" s="154"/>
+      <c r="D14" s="136"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="113" t="s">
@@ -20327,28 +20331,28 @@
       <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="149" t="s">
+      <c r="A17" s="172" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="149"/>
-      <c r="C17" s="149"/>
-      <c r="D17" s="149"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
+      <c r="B17" s="172"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="172"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="143" t="s">
+      <c r="B18" s="166" t="s">
         <v>203</v>
       </c>
-      <c r="C18" s="144"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="145"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="168"/>
       <c r="H18" s="95"/>
       <c r="I18" s="95"/>
       <c r="J18" s="95"/>
@@ -20360,12 +20364,12 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="106"/>
-      <c r="B19" s="160"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
+      <c r="B19" s="151"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="151"/>
       <c r="H19" s="102"/>
       <c r="I19" s="102"/>
       <c r="J19" s="102"/>
@@ -20377,12 +20381,12 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="107"/>
-      <c r="B20" s="161"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
+      <c r="B20" s="153"/>
+      <c r="C20" s="153"/>
+      <c r="D20" s="153"/>
+      <c r="E20" s="153"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="153"/>
       <c r="H20" s="102"/>
       <c r="I20" s="102"/>
       <c r="J20" s="102"/>
@@ -20394,12 +20398,12 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="108"/>
-      <c r="B21" s="162"/>
-      <c r="C21" s="162"/>
-      <c r="D21" s="162"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="162"/>
-      <c r="G21" s="162"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="J21" s="102"/>
@@ -20413,28 +20417,28 @@
       <c r="C22"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="146" t="s">
+      <c r="A23" s="169" t="s">
         <v>213</v>
       </c>
-      <c r="B23" s="147"/>
-      <c r="C23" s="147"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="148"/>
+      <c r="B23" s="170"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="171"/>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="167" t="s">
+      <c r="B24" s="147" t="s">
         <v>204</v>
       </c>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
       <c r="H24" s="95"/>
       <c r="I24" s="95"/>
       <c r="J24" s="95"/>
@@ -20448,14 +20452,14 @@
       <c r="A25" s="106">
         <v>1</v>
       </c>
-      <c r="B25" s="168" t="s">
+      <c r="B25" s="148" t="s">
         <v>205</v>
       </c>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="168"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="168"/>
+      <c r="C25" s="148"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
       <c r="J25" s="102"/>
@@ -20467,12 +20471,12 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="107"/>
-      <c r="B26" s="169"/>
-      <c r="C26" s="169"/>
-      <c r="D26" s="169"/>
-      <c r="E26" s="169"/>
-      <c r="F26" s="169"/>
-      <c r="G26" s="169"/>
+      <c r="B26" s="149"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="J26" s="102"/>
@@ -20484,12 +20488,12 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="108"/>
-      <c r="B27" s="170"/>
-      <c r="C27" s="170"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="170"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="170"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="102"/>
@@ -20516,28 +20520,28 @@
       <c r="N28"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="146" t="s">
+      <c r="A29" s="169" t="s">
         <v>214</v>
       </c>
-      <c r="B29" s="147"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="148"/>
+      <c r="B29" s="170"/>
+      <c r="C29" s="170"/>
+      <c r="D29" s="170"/>
+      <c r="E29" s="170"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="171"/>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="167" t="s">
+      <c r="B30" s="147" t="s">
         <v>206</v>
       </c>
-      <c r="C30" s="167"/>
-      <c r="D30" s="167"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="167"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="147"/>
       <c r="H30" s="95"/>
       <c r="I30" s="95"/>
       <c r="J30" s="95"/>
@@ -20549,12 +20553,12 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="106"/>
-      <c r="B31" s="160"/>
-      <c r="C31" s="160"/>
-      <c r="D31" s="160"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="171"/>
+      <c r="B31" s="151"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="151"/>
+      <c r="G31" s="152"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
       <c r="J31" s="102"/>
@@ -20566,12 +20570,12 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="107"/>
-      <c r="B32" s="161"/>
-      <c r="C32" s="161"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="172"/>
+      <c r="B32" s="153"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="154"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="J32" s="102"/>
@@ -20583,12 +20587,12 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="108"/>
-      <c r="B33" s="162"/>
-      <c r="C33" s="162"/>
-      <c r="D33" s="162"/>
-      <c r="E33" s="162"/>
-      <c r="F33" s="162"/>
-      <c r="G33" s="173"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="156"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="102"/>
@@ -20637,60 +20641,60 @@
       <c r="O36" s="49"/>
     </row>
     <row r="37" spans="1:16" ht="15">
-      <c r="A37" s="184" t="s">
+      <c r="A37" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="B37" s="184" t="s">
+      <c r="B37" s="185" t="s">
         <v>119</v>
       </c>
       <c r="C37" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="184" t="s">
+      <c r="D37" s="185" t="s">
         <v>101</v>
       </c>
-      <c r="E37" s="184" t="s">
+      <c r="E37" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="F37" s="184" t="s">
+      <c r="F37" s="185" t="s">
         <v>197</v>
       </c>
-      <c r="G37" s="184" t="s">
+      <c r="G37" s="185" t="s">
         <v>140</v>
       </c>
-      <c r="H37" s="184" t="s">
+      <c r="H37" s="185" t="s">
         <v>139</v>
       </c>
-      <c r="I37" s="184" t="s">
+      <c r="I37" s="185" t="s">
         <v>258</v>
       </c>
-      <c r="J37" s="188" t="s">
+      <c r="J37" s="187" t="s">
         <v>122</v>
       </c>
-      <c r="K37" s="189"/>
-      <c r="L37" s="190" t="s">
+      <c r="K37" s="188"/>
+      <c r="L37" s="189" t="s">
         <v>123</v>
       </c>
-      <c r="M37" s="189"/>
+      <c r="M37" s="188"/>
       <c r="N37" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="O37" s="184" t="s">
+      <c r="O37" s="185" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15">
-      <c r="A38" s="187"/>
-      <c r="B38" s="187"/>
+      <c r="A38" s="190"/>
+      <c r="B38" s="190"/>
       <c r="C38" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="187"/>
-      <c r="E38" s="185"/>
-      <c r="F38" s="191"/>
-      <c r="G38" s="187"/>
-      <c r="H38" s="187"/>
-      <c r="I38" s="187"/>
+      <c r="D38" s="190"/>
+      <c r="E38" s="186"/>
+      <c r="F38" s="192"/>
+      <c r="G38" s="190"/>
+      <c r="H38" s="190"/>
+      <c r="I38" s="190"/>
       <c r="J38" s="53" t="s">
         <v>126</v>
       </c>
@@ -20706,7 +20710,7 @@
       <c r="N38" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="O38" s="187"/>
+      <c r="O38" s="190"/>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="55">
@@ -21168,23 +21172,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="O37:O38"/>
     <mergeCell ref="A37:A38"/>
@@ -21196,6 +21183,23 @@
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="F37:F38"/>
     <mergeCell ref="I37:I38"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="B30:G30"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">

--- a/meta/api/BlancoApiSample.xlsx
+++ b/meta/api/BlancoApiSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BFD307-1BEB-ED41-97EF-3699222E88B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B77192-9906-7746-8DFE-0C94A29A625E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="500" windowWidth="29440" windowHeight="20500" tabRatio="860" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12760" yWindow="4400" windowWidth="29440" windowHeight="20500" tabRatio="860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="270">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -11691,8 +11691,8 @@
   </sheetPr>
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -12503,9 +12503,7 @@
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
       <c r="J48" s="123"/>
-      <c r="K48" s="24" t="s">
-        <v>141</v>
-      </c>
+      <c r="K48" s="24"/>
       <c r="L48" s="24"/>
       <c r="M48" s="30"/>
       <c r="N48" s="24"/>
@@ -12533,9 +12531,7 @@
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
       <c r="J49" s="123"/>
-      <c r="K49" s="24" t="s">
-        <v>141</v>
-      </c>
+      <c r="K49" s="24"/>
       <c r="L49" s="20"/>
       <c r="M49" s="29"/>
       <c r="N49" s="20"/>
@@ -12561,9 +12557,7 @@
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="123"/>
-      <c r="K50" s="24" t="s">
-        <v>141</v>
-      </c>
+      <c r="K50" s="24"/>
       <c r="L50" s="20"/>
       <c r="M50" s="29"/>
       <c r="N50" s="20"/>
@@ -15264,8 +15258,8 @@
   </sheetPr>
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
